--- a/SIGA.xlsx
+++ b/SIGA.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6E4968D-606A-4ADE-B871-BC7751D69FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425A33FB-C171-43C2-9FE7-DEB6774F744B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9315" yWindow="1380" windowWidth="18810" windowHeight="13215" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8160" yWindow="3885" windowWidth="20730" windowHeight="11475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="Model" sheetId="3" r:id="rId2"/>
-    <sheet name="Potential award" sheetId="4" r:id="rId3"/>
-    <sheet name="TPOXX" sheetId="2" r:id="rId4"/>
-    <sheet name="Legal" sheetId="6" r:id="rId5"/>
-    <sheet name="Pipeline" sheetId="7" r:id="rId6"/>
+    <sheet name="Monkeypox" sheetId="8" r:id="rId2"/>
+    <sheet name="Model" sheetId="3" r:id="rId3"/>
+    <sheet name="Potential award" sheetId="4" r:id="rId4"/>
+    <sheet name="TPOXX" sheetId="2" r:id="rId5"/>
+    <sheet name="Legal" sheetId="6" r:id="rId6"/>
+    <sheet name="Pipeline" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Main!$B$2:$M$21</definedName>
@@ -122,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="705">
   <si>
     <t>Name</t>
   </si>
@@ -1988,6 +1989,255 @@
   </si>
   <si>
     <t>$705m "over the last decade" (Q122 PR). First courses delivered to BARDA 3/12/13 (investigational drug not yet approved).</t>
+  </si>
+  <si>
+    <t>Venezuela</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>Turkey</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Spain</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>South Africa</t>
+  </si>
+  <si>
+    <t>Slovenia</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Singapore</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Romania</t>
+  </si>
+  <si>
+    <t>Republic of the Congo</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Poland</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Democratic Republic of the Congo</t>
+  </si>
+  <si>
+    <t>Czechia</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Cases</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Epi-date</t>
+  </si>
+  <si>
+    <t>Cumulative</t>
+  </si>
+  <si>
+    <t>7 day MA</t>
   </si>
 </sst>
 </file>
@@ -2214,7 +2464,7 @@
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2408,11 +2658,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4311,7 +4564,7 @@
   </sheetPr>
   <dimension ref="B2:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
@@ -4587,7 +4840,7 @@
       <c r="C11" s="97"/>
       <c r="D11" s="97"/>
       <c r="E11" s="97"/>
-      <c r="F11" s="100" t="s">
+      <c r="F11" s="99" t="s">
         <v>51</v>
       </c>
       <c r="I11" s="97"/>
@@ -4596,7 +4849,7 @@
       <c r="C12" s="97"/>
       <c r="D12" s="97"/>
       <c r="E12" s="97"/>
-      <c r="F12" s="100" t="s">
+      <c r="F12" s="99" t="s">
         <v>68</v>
       </c>
       <c r="I12" s="97"/>
@@ -4605,7 +4858,7 @@
       <c r="C13" s="97"/>
       <c r="D13" s="97"/>
       <c r="E13" s="97"/>
-      <c r="F13" s="100" t="s">
+      <c r="F13" s="99" t="s">
         <v>69</v>
       </c>
       <c r="I13" s="97"/>
@@ -4614,7 +4867,7 @@
       <c r="C14" s="97"/>
       <c r="D14" s="97"/>
       <c r="E14" s="97"/>
-      <c r="F14" s="100" t="s">
+      <c r="F14" s="99" t="s">
         <v>70</v>
       </c>
       <c r="I14" s="97"/>
@@ -4623,7 +4876,7 @@
       <c r="C15" s="97"/>
       <c r="D15" s="97"/>
       <c r="E15" s="97"/>
-      <c r="F15" s="100" t="s">
+      <c r="F15" s="99" t="s">
         <v>71</v>
       </c>
       <c r="I15" s="97"/>
@@ -4632,7 +4885,7 @@
       <c r="C16" s="97"/>
       <c r="D16" s="97"/>
       <c r="E16" s="97"/>
-      <c r="F16" s="100" t="s">
+      <c r="F16" s="99" t="s">
         <v>72</v>
       </c>
       <c r="I16" s="97"/>
@@ -4641,7 +4894,7 @@
       <c r="C17" s="97"/>
       <c r="D17" s="97"/>
       <c r="E17" s="97"/>
-      <c r="F17" s="100" t="s">
+      <c r="F17" s="99" t="s">
         <v>73</v>
       </c>
       <c r="I17" s="97"/>
@@ -4650,7 +4903,7 @@
       <c r="C18" s="97"/>
       <c r="D18" s="97"/>
       <c r="E18" s="97"/>
-      <c r="F18" s="100" t="s">
+      <c r="F18" s="99" t="s">
         <v>74</v>
       </c>
       <c r="I18" s="97"/>
@@ -4659,7 +4912,7 @@
       <c r="C19" s="97"/>
       <c r="D19" s="97"/>
       <c r="E19" s="97"/>
-      <c r="F19" s="100" t="s">
+      <c r="F19" s="99" t="s">
         <v>75</v>
       </c>
       <c r="I19" s="97"/>
@@ -4668,7 +4921,7 @@
       <c r="C20" s="97"/>
       <c r="D20" s="97"/>
       <c r="E20" s="97"/>
-      <c r="F20" s="100" t="s">
+      <c r="F20" s="99" t="s">
         <v>77</v>
       </c>
       <c r="I20" s="97"/>
@@ -4677,7 +4930,7 @@
       <c r="C21" s="97"/>
       <c r="D21" s="97"/>
       <c r="E21" s="97"/>
-      <c r="F21" s="101" t="s">
+      <c r="F21" s="100" t="s">
         <v>76</v>
       </c>
       <c r="I21" s="97"/>
@@ -4716,6 +4969,1560 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30E3C55D-9118-482B-8720-4989D85F03BD}">
+  <dimension ref="A1:H81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="103" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="C2" s="102">
+        <v>44770</v>
+      </c>
+      <c r="E2" t="s">
+        <v>702</v>
+      </c>
+      <c r="F2" t="s">
+        <v>700</v>
+      </c>
+      <c r="G2" t="s">
+        <v>703</v>
+      </c>
+      <c r="H2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="B3" t="s">
+        <v>701</v>
+      </c>
+      <c r="C3" t="s">
+        <v>700</v>
+      </c>
+      <c r="E3" s="102">
+        <v>44698</v>
+      </c>
+      <c r="F3" s="104">
+        <v>1</v>
+      </c>
+      <c r="G3" s="104">
+        <f>+F3</f>
+        <v>1</v>
+      </c>
+      <c r="H3" s="104"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="B4" t="s">
+        <v>699</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="102">
+        <v>44701</v>
+      </c>
+      <c r="F4" s="104">
+        <v>1</v>
+      </c>
+      <c r="G4" s="104">
+        <f>+F4+G3</f>
+        <v>2</v>
+      </c>
+      <c r="H4" s="104"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5" t="s">
+        <v>698</v>
+      </c>
+      <c r="C5">
+        <v>20</v>
+      </c>
+      <c r="E5" s="102">
+        <v>44702</v>
+      </c>
+      <c r="F5" s="104">
+        <v>2</v>
+      </c>
+      <c r="G5" s="104">
+        <f t="shared" ref="G5:G66" si="0">+F5+G4</f>
+        <v>4</v>
+      </c>
+      <c r="H5" s="104"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" t="s">
+        <v>697</v>
+      </c>
+      <c r="C6">
+        <v>44</v>
+      </c>
+      <c r="E6" s="102">
+        <v>44704</v>
+      </c>
+      <c r="F6" s="104">
+        <v>2</v>
+      </c>
+      <c r="G6" s="104">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H6" s="104"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" t="s">
+        <v>696</v>
+      </c>
+      <c r="C7">
+        <v>118</v>
+      </c>
+      <c r="E7" s="102">
+        <v>44705</v>
+      </c>
+      <c r="F7" s="104">
+        <v>2</v>
+      </c>
+      <c r="G7" s="104">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="H7" s="104"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" t="s">
+        <v>695</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="102">
+        <v>44706</v>
+      </c>
+      <c r="F8" s="104">
+        <v>2</v>
+      </c>
+      <c r="G8" s="104">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="H8" s="104"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" t="s">
+        <v>694</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="102">
+        <v>44707</v>
+      </c>
+      <c r="F9" s="104">
+        <v>2</v>
+      </c>
+      <c r="G9" s="104">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="H9" s="104">
+        <f>SUM(F3:F9)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10" t="s">
+        <v>693</v>
+      </c>
+      <c r="C10">
+        <v>393</v>
+      </c>
+      <c r="E10" s="102">
+        <v>44708</v>
+      </c>
+      <c r="F10" s="104">
+        <v>1</v>
+      </c>
+      <c r="G10" s="104">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="H10" s="104">
+        <f t="shared" ref="H10:H66" si="1">SUM(F4:F10)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" t="s">
+        <v>692</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="E11" s="102">
+        <v>44710</v>
+      </c>
+      <c r="F11" s="104">
+        <v>2</v>
+      </c>
+      <c r="G11" s="104">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="H11" s="104">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" t="s">
+        <v>691</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="102">
+        <v>44712</v>
+      </c>
+      <c r="F12" s="104">
+        <v>3</v>
+      </c>
+      <c r="G12" s="104">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="H12" s="104">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="B13" t="s">
+        <v>690</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="102">
+        <v>44713</v>
+      </c>
+      <c r="F13" s="104">
+        <v>1</v>
+      </c>
+      <c r="G13" s="104">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="H13" s="104">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" t="s">
+        <v>689</v>
+      </c>
+      <c r="C14">
+        <v>696</v>
+      </c>
+      <c r="E14" s="102">
+        <v>44714</v>
+      </c>
+      <c r="F14" s="104">
+        <v>3</v>
+      </c>
+      <c r="G14" s="104">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="H14" s="104">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15" t="s">
+        <v>688</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="E15" s="102">
+        <v>44715</v>
+      </c>
+      <c r="F15" s="104">
+        <v>4</v>
+      </c>
+      <c r="G15" s="104">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="H15" s="104">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" t="s">
+        <v>687</v>
+      </c>
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="E16" s="102">
+        <v>44716</v>
+      </c>
+      <c r="F16" s="104">
+        <v>1</v>
+      </c>
+      <c r="G16" s="104">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="H16" s="104">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" t="s">
+        <v>686</v>
+      </c>
+      <c r="C17">
+        <v>745</v>
+      </c>
+      <c r="E17" s="102">
+        <v>44718</v>
+      </c>
+      <c r="F17" s="104">
+        <v>6</v>
+      </c>
+      <c r="G17" s="104">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="H17" s="104">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" t="s">
+        <v>685</v>
+      </c>
+      <c r="C18">
+        <v>8</v>
+      </c>
+      <c r="E18" s="102">
+        <v>44719</v>
+      </c>
+      <c r="F18" s="104">
+        <v>2</v>
+      </c>
+      <c r="G18" s="104">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="H18" s="104">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" t="s">
+        <v>684</v>
+      </c>
+      <c r="C19">
+        <v>45</v>
+      </c>
+      <c r="E19" s="102">
+        <v>44720</v>
+      </c>
+      <c r="F19" s="104">
+        <v>5</v>
+      </c>
+      <c r="G19" s="104">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="H19" s="104">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" t="s">
+        <v>683</v>
+      </c>
+      <c r="C20">
+        <v>12</v>
+      </c>
+      <c r="E20" s="102">
+        <v>44721</v>
+      </c>
+      <c r="F20" s="104">
+        <v>2</v>
+      </c>
+      <c r="G20" s="104">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="H20" s="104">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" t="s">
+        <v>682</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="E21" s="102">
+        <v>44722</v>
+      </c>
+      <c r="F21" s="104">
+        <v>4</v>
+      </c>
+      <c r="G21" s="104">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="H21" s="104">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" t="s">
+        <v>681</v>
+      </c>
+      <c r="C22">
+        <v>11</v>
+      </c>
+      <c r="E22" s="102">
+        <v>44723</v>
+      </c>
+      <c r="F22" s="104">
+        <v>4</v>
+      </c>
+      <c r="G22" s="104">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="H22" s="104">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" t="s">
+        <v>680</v>
+      </c>
+      <c r="C23">
+        <v>19</v>
+      </c>
+      <c r="E23" s="102">
+        <v>44724</v>
+      </c>
+      <c r="F23" s="104">
+        <v>2</v>
+      </c>
+      <c r="G23" s="104">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="H23" s="104">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" t="s">
+        <v>679</v>
+      </c>
+      <c r="C24">
+        <v>163</v>
+      </c>
+      <c r="E24" s="102">
+        <v>44725</v>
+      </c>
+      <c r="F24" s="104">
+        <v>2</v>
+      </c>
+      <c r="G24" s="104">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="H24" s="104">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" t="s">
+        <v>678</v>
+      </c>
+      <c r="C25">
+        <v>76</v>
+      </c>
+      <c r="E25" s="102">
+        <v>44726</v>
+      </c>
+      <c r="F25" s="104">
+        <v>11</v>
+      </c>
+      <c r="G25" s="104">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="H25" s="104">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" t="s">
+        <v>677</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="E26" s="102">
+        <v>44727</v>
+      </c>
+      <c r="F26" s="104">
+        <v>7</v>
+      </c>
+      <c r="G26" s="104">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="H26" s="104">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" t="s">
+        <v>676</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="E27" s="102">
+        <v>44728</v>
+      </c>
+      <c r="F27" s="104">
+        <v>13</v>
+      </c>
+      <c r="G27" s="104">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="H27" s="104">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" t="s">
+        <v>675</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="E28" s="102">
+        <v>44729</v>
+      </c>
+      <c r="F28" s="104">
+        <v>4</v>
+      </c>
+      <c r="G28" s="104">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="H28" s="104">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" t="s">
+        <v>674</v>
+      </c>
+      <c r="C29">
+        <v>17</v>
+      </c>
+      <c r="E29" s="102">
+        <v>44730</v>
+      </c>
+      <c r="F29" s="104">
+        <v>11</v>
+      </c>
+      <c r="G29" s="104">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="H29" s="104">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" t="s">
+        <v>673</v>
+      </c>
+      <c r="C30">
+        <v>1837</v>
+      </c>
+      <c r="E30" s="102">
+        <v>44731</v>
+      </c>
+      <c r="F30" s="104">
+        <v>5</v>
+      </c>
+      <c r="G30" s="104">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="H30" s="104">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" t="s">
+        <v>672</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="E31" s="102">
+        <v>44732</v>
+      </c>
+      <c r="F31" s="104">
+        <v>7</v>
+      </c>
+      <c r="G31" s="104">
+        <f t="shared" si="0"/>
+        <v>112</v>
+      </c>
+      <c r="H31" s="104">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" t="s">
+        <v>671</v>
+      </c>
+      <c r="C32">
+        <v>2540</v>
+      </c>
+      <c r="E32" s="102">
+        <v>44733</v>
+      </c>
+      <c r="F32" s="104">
+        <v>15</v>
+      </c>
+      <c r="G32" s="104">
+        <f t="shared" si="0"/>
+        <v>127</v>
+      </c>
+      <c r="H32" s="104">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" t="s">
+        <v>670</v>
+      </c>
+      <c r="C33">
+        <v>30</v>
+      </c>
+      <c r="E33" s="102">
+        <v>44734</v>
+      </c>
+      <c r="F33" s="104">
+        <v>19</v>
+      </c>
+      <c r="G33" s="104">
+        <f t="shared" si="0"/>
+        <v>146</v>
+      </c>
+      <c r="H33" s="104">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" t="s">
+        <v>669</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="E34" s="102">
+        <v>44735</v>
+      </c>
+      <c r="F34" s="104">
+        <v>19</v>
+      </c>
+      <c r="G34" s="104">
+        <f t="shared" si="0"/>
+        <v>165</v>
+      </c>
+      <c r="H34" s="104">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" t="s">
+        <v>668</v>
+      </c>
+      <c r="C35">
+        <v>32</v>
+      </c>
+      <c r="E35" s="102">
+        <v>44736</v>
+      </c>
+      <c r="F35" s="104">
+        <v>35</v>
+      </c>
+      <c r="G35" s="104">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="H35" s="104">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" t="s">
+        <v>667</v>
+      </c>
+      <c r="C36">
+        <v>37</v>
+      </c>
+      <c r="E36" s="102">
+        <v>44737</v>
+      </c>
+      <c r="F36" s="104">
+        <v>12</v>
+      </c>
+      <c r="G36" s="104">
+        <f t="shared" si="0"/>
+        <v>212</v>
+      </c>
+      <c r="H36" s="104">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" t="s">
+        <v>666</v>
+      </c>
+      <c r="C37">
+        <v>9</v>
+      </c>
+      <c r="E37" s="102">
+        <v>44738</v>
+      </c>
+      <c r="F37" s="104">
+        <v>12</v>
+      </c>
+      <c r="G37" s="104">
+        <f t="shared" si="0"/>
+        <v>224</v>
+      </c>
+      <c r="H37" s="104">
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" t="s">
+        <v>665</v>
+      </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
+      <c r="E38" s="102">
+        <v>44739</v>
+      </c>
+      <c r="F38" s="104">
+        <v>53</v>
+      </c>
+      <c r="G38" s="104">
+        <f t="shared" si="0"/>
+        <v>277</v>
+      </c>
+      <c r="H38" s="104">
+        <f t="shared" si="1"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" t="s">
+        <v>664</v>
+      </c>
+      <c r="C39">
+        <v>85</v>
+      </c>
+      <c r="E39" s="102">
+        <v>44740</v>
+      </c>
+      <c r="F39" s="104">
+        <v>30</v>
+      </c>
+      <c r="G39" s="104">
+        <f t="shared" si="0"/>
+        <v>307</v>
+      </c>
+      <c r="H39" s="104">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" t="s">
+        <v>663</v>
+      </c>
+      <c r="C40">
+        <v>133</v>
+      </c>
+      <c r="E40" s="102">
+        <v>44741</v>
+      </c>
+      <c r="F40" s="104">
+        <v>42</v>
+      </c>
+      <c r="G40" s="104">
+        <f t="shared" si="0"/>
+        <v>349</v>
+      </c>
+      <c r="H40" s="104">
+        <f t="shared" si="1"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" t="s">
+        <v>662</v>
+      </c>
+      <c r="C41">
+        <v>426</v>
+      </c>
+      <c r="E41" s="102">
+        <v>44742</v>
+      </c>
+      <c r="F41" s="104">
+        <v>57</v>
+      </c>
+      <c r="G41" s="104">
+        <f t="shared" si="0"/>
+        <v>406</v>
+      </c>
+      <c r="H41" s="104">
+        <f t="shared" si="1"/>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" t="s">
+        <v>661</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="E42" s="102">
+        <v>44743</v>
+      </c>
+      <c r="F42" s="104">
+        <v>52</v>
+      </c>
+      <c r="G42" s="104">
+        <f t="shared" si="0"/>
+        <v>458</v>
+      </c>
+      <c r="H42" s="104">
+        <f t="shared" si="1"/>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" t="s">
+        <v>660</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="E43" s="102">
+        <v>44744</v>
+      </c>
+      <c r="F43" s="104">
+        <v>16</v>
+      </c>
+      <c r="G43" s="104">
+        <f t="shared" si="0"/>
+        <v>474</v>
+      </c>
+      <c r="H43" s="104">
+        <f t="shared" si="1"/>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" t="s">
+        <v>659</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="E44" s="102">
+        <v>44745</v>
+      </c>
+      <c r="F44" s="104">
+        <v>11</v>
+      </c>
+      <c r="G44" s="104">
+        <f t="shared" si="0"/>
+        <v>485</v>
+      </c>
+      <c r="H44" s="104">
+        <f t="shared" si="1"/>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" t="s">
+        <v>658</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="E45" s="102">
+        <v>44746</v>
+      </c>
+      <c r="F45" s="104">
+        <v>7</v>
+      </c>
+      <c r="G45" s="104">
+        <f t="shared" si="0"/>
+        <v>492</v>
+      </c>
+      <c r="H45" s="104">
+        <f t="shared" si="1"/>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" t="s">
+        <v>657</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="E46" s="102">
+        <v>44747</v>
+      </c>
+      <c r="F46" s="104">
+        <v>37</v>
+      </c>
+      <c r="G46" s="104">
+        <f t="shared" si="0"/>
+        <v>529</v>
+      </c>
+      <c r="H46" s="104">
+        <f t="shared" si="1"/>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" t="s">
+        <v>656</v>
+      </c>
+      <c r="C47">
+        <v>23</v>
+      </c>
+      <c r="E47" s="102">
+        <v>44748</v>
+      </c>
+      <c r="F47" s="104">
+        <v>45</v>
+      </c>
+      <c r="G47" s="104">
+        <f t="shared" si="0"/>
+        <v>574</v>
+      </c>
+      <c r="H47" s="104">
+        <f t="shared" si="1"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" t="s">
+        <v>655</v>
+      </c>
+      <c r="C48">
+        <v>17</v>
+      </c>
+      <c r="E48" s="102">
+        <v>44749</v>
+      </c>
+      <c r="F48" s="104">
+        <v>52</v>
+      </c>
+      <c r="G48" s="104">
+        <f t="shared" si="0"/>
+        <v>626</v>
+      </c>
+      <c r="H48" s="104">
+        <f t="shared" si="1"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" t="s">
+        <v>654</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="E49" s="102">
+        <v>44750</v>
+      </c>
+      <c r="F49" s="104">
+        <v>37</v>
+      </c>
+      <c r="G49" s="104">
+        <f t="shared" si="0"/>
+        <v>663</v>
+      </c>
+      <c r="H49" s="104">
+        <f t="shared" si="1"/>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" t="s">
+        <v>653</v>
+      </c>
+      <c r="C50">
+        <v>59</v>
+      </c>
+      <c r="E50" s="102">
+        <v>44751</v>
+      </c>
+      <c r="F50" s="104">
+        <v>37</v>
+      </c>
+      <c r="G50" s="104">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="H50" s="104">
+        <f t="shared" si="1"/>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" t="s">
+        <v>652</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="E51" s="102">
+        <v>44752</v>
+      </c>
+      <c r="F51" s="104">
+        <v>7</v>
+      </c>
+      <c r="G51" s="104">
+        <f t="shared" si="0"/>
+        <v>707</v>
+      </c>
+      <c r="H51" s="104">
+        <f t="shared" si="1"/>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52" t="s">
+        <v>651</v>
+      </c>
+      <c r="C52">
+        <v>878</v>
+      </c>
+      <c r="E52" s="102">
+        <v>44753</v>
+      </c>
+      <c r="F52" s="104">
+        <v>100</v>
+      </c>
+      <c r="G52" s="104">
+        <f t="shared" si="0"/>
+        <v>807</v>
+      </c>
+      <c r="H52" s="104">
+        <f t="shared" si="1"/>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="B53" t="s">
+        <v>650</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="E53" s="102">
+        <v>44754</v>
+      </c>
+      <c r="F53" s="104">
+        <v>212</v>
+      </c>
+      <c r="G53" s="104">
+        <f t="shared" si="0"/>
+        <v>1019</v>
+      </c>
+      <c r="H53" s="104">
+        <f t="shared" si="1"/>
+        <v>490</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="B54" t="s">
+        <v>649</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="E54" s="102">
+        <v>44755</v>
+      </c>
+      <c r="F54" s="104">
+        <v>140</v>
+      </c>
+      <c r="G54" s="104">
+        <f t="shared" si="0"/>
+        <v>1159</v>
+      </c>
+      <c r="H54" s="104">
+        <f t="shared" si="1"/>
+        <v>585</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8">
+      <c r="B55" t="s">
+        <v>648</v>
+      </c>
+      <c r="C55">
+        <v>133</v>
+      </c>
+      <c r="E55" s="102">
+        <v>44756</v>
+      </c>
+      <c r="F55" s="104">
+        <v>216</v>
+      </c>
+      <c r="G55" s="104">
+        <f t="shared" si="0"/>
+        <v>1375</v>
+      </c>
+      <c r="H55" s="104">
+        <f t="shared" si="1"/>
+        <v>749</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8">
+      <c r="B56" t="s">
+        <v>647</v>
+      </c>
+      <c r="C56">
+        <v>51</v>
+      </c>
+      <c r="E56" s="102">
+        <v>44757</v>
+      </c>
+      <c r="F56" s="104">
+        <v>159</v>
+      </c>
+      <c r="G56" s="104">
+        <f t="shared" si="0"/>
+        <v>1534</v>
+      </c>
+      <c r="H56" s="104">
+        <f t="shared" si="1"/>
+        <v>871</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8">
+      <c r="B57" t="s">
+        <v>646</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="E57" s="102">
+        <v>44758</v>
+      </c>
+      <c r="F57" s="104">
+        <v>7</v>
+      </c>
+      <c r="G57" s="104">
+        <f t="shared" si="0"/>
+        <v>1541</v>
+      </c>
+      <c r="H57" s="104">
+        <f t="shared" si="1"/>
+        <v>841</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8">
+      <c r="B58" t="s">
+        <v>645</v>
+      </c>
+      <c r="C58">
+        <v>251</v>
+      </c>
+      <c r="E58" s="102">
+        <v>44759</v>
+      </c>
+      <c r="F58" s="104">
+        <v>1</v>
+      </c>
+      <c r="G58" s="104">
+        <f t="shared" si="0"/>
+        <v>1542</v>
+      </c>
+      <c r="H58" s="104">
+        <f t="shared" si="1"/>
+        <v>835</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8">
+      <c r="B59" t="s">
+        <v>644</v>
+      </c>
+      <c r="C59">
+        <v>53</v>
+      </c>
+      <c r="E59" s="102">
+        <v>44760</v>
+      </c>
+      <c r="F59" s="104">
+        <v>195</v>
+      </c>
+      <c r="G59" s="104">
+        <f t="shared" si="0"/>
+        <v>1737</v>
+      </c>
+      <c r="H59" s="104">
+        <f t="shared" si="1"/>
+        <v>930</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8">
+      <c r="B60" t="s">
+        <v>643</v>
+      </c>
+      <c r="C60">
+        <v>588</v>
+      </c>
+      <c r="E60" s="102">
+        <v>44761</v>
+      </c>
+      <c r="F60" s="104">
+        <v>301</v>
+      </c>
+      <c r="G60" s="104">
+        <f t="shared" si="0"/>
+        <v>2038</v>
+      </c>
+      <c r="H60" s="104">
+        <f t="shared" si="1"/>
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8">
+      <c r="B61" t="s">
+        <v>642</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="E61" s="102">
+        <v>44762</v>
+      </c>
+      <c r="F61" s="104">
+        <v>256</v>
+      </c>
+      <c r="G61" s="104">
+        <f t="shared" si="0"/>
+        <v>2294</v>
+      </c>
+      <c r="H61" s="104">
+        <f t="shared" si="1"/>
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8">
+      <c r="B62" t="s">
+        <v>641</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+      <c r="E62" s="102">
+        <v>44763</v>
+      </c>
+      <c r="F62" s="104">
+        <v>184</v>
+      </c>
+      <c r="G62" s="104">
+        <f t="shared" si="0"/>
+        <v>2478</v>
+      </c>
+      <c r="H62" s="104">
+        <f t="shared" si="1"/>
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8">
+      <c r="B63" t="s">
+        <v>640</v>
+      </c>
+      <c r="C63">
+        <v>20</v>
+      </c>
+      <c r="E63" s="102">
+        <v>44764</v>
+      </c>
+      <c r="F63" s="104">
+        <v>308</v>
+      </c>
+      <c r="G63" s="104">
+        <f t="shared" si="0"/>
+        <v>2786</v>
+      </c>
+      <c r="H63" s="104">
+        <f t="shared" si="1"/>
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8">
+      <c r="B64" t="s">
+        <v>639</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="E64" s="102">
+        <v>44765</v>
+      </c>
+      <c r="F64" s="104">
+        <v>9</v>
+      </c>
+      <c r="G64" s="104">
+        <f t="shared" si="0"/>
+        <v>2795</v>
+      </c>
+      <c r="H64" s="104">
+        <f t="shared" si="1"/>
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8">
+      <c r="B65" t="s">
+        <v>638</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="E65" s="102">
+        <v>44766</v>
+      </c>
+      <c r="F65" s="104">
+        <v>2</v>
+      </c>
+      <c r="G65" s="104">
+        <f t="shared" si="0"/>
+        <v>2797</v>
+      </c>
+      <c r="H65" s="104">
+        <f t="shared" si="1"/>
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8">
+      <c r="B66" t="s">
+        <v>637</v>
+      </c>
+      <c r="C66">
+        <v>10</v>
+      </c>
+      <c r="E66" s="102">
+        <v>44767</v>
+      </c>
+      <c r="F66" s="104">
+        <v>439</v>
+      </c>
+      <c r="G66" s="104">
+        <f t="shared" si="0"/>
+        <v>3236</v>
+      </c>
+      <c r="H66" s="104">
+        <f t="shared" si="1"/>
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8">
+      <c r="B67" t="s">
+        <v>636</v>
+      </c>
+      <c r="C67">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8">
+      <c r="B68" t="s">
+        <v>635</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8">
+      <c r="B69" t="s">
+        <v>634</v>
+      </c>
+      <c r="C69">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8">
+      <c r="B70" t="s">
+        <v>633</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8">
+      <c r="B71" t="s">
+        <v>632</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8">
+      <c r="B72" t="s">
+        <v>631</v>
+      </c>
+      <c r="C72">
+        <v>3738</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8">
+      <c r="B73" t="s">
+        <v>630</v>
+      </c>
+      <c r="C73">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8">
+      <c r="B74" t="s">
+        <v>629</v>
+      </c>
+      <c r="C74">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8">
+      <c r="B75" t="s">
+        <v>628</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8">
+      <c r="B76" t="s">
+        <v>627</v>
+      </c>
+      <c r="C76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8">
+      <c r="B77" t="s">
+        <v>626</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8">
+      <c r="B78" t="s">
+        <v>625</v>
+      </c>
+      <c r="C78">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8">
+      <c r="B79" t="s">
+        <v>624</v>
+      </c>
+      <c r="C79">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8">
+      <c r="B80" t="s">
+        <v>623</v>
+      </c>
+      <c r="C80">
+        <v>4906</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3">
+      <c r="B81" t="s">
+        <v>622</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{4884B59D-B83D-46A3-A1A6-F4AB66462268}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BL84"/>
   <sheetViews>
@@ -11908,7 +13715,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P35"/>
   <sheetViews>
@@ -12414,7 +14221,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C56"/>
   <sheetViews>
@@ -12680,7 +14487,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C95"/>
   <sheetViews>
@@ -13315,7 +15122,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:W636"/>
   <sheetViews>
@@ -13522,13 +15329,13 @@
     </row>
     <row r="25" spans="2:23">
       <c r="C25" s="32"/>
-      <c r="J25" s="99" t="s">
+      <c r="J25" s="101" t="s">
         <v>298</v>
       </c>
-      <c r="K25" s="99"/>
-      <c r="L25" s="99"/>
-      <c r="M25" s="99"/>
-      <c r="N25" s="99"/>
+      <c r="K25" s="101"/>
+      <c r="L25" s="101"/>
+      <c r="M25" s="101"/>
+      <c r="N25" s="101"/>
     </row>
     <row r="26" spans="2:23">
       <c r="C26" s="68" t="s">
@@ -15010,20 +16817,20 @@
     </row>
     <row r="330" spans="2:17">
       <c r="C330" s="32"/>
-      <c r="F330" s="99" t="s">
+      <c r="F330" s="101" t="s">
         <v>459</v>
       </c>
-      <c r="G330" s="99"/>
-      <c r="H330" s="99"/>
-      <c r="I330" s="99"/>
-      <c r="J330" s="99"/>
-      <c r="K330" s="99"/>
-      <c r="L330" s="99"/>
-      <c r="M330" s="99"/>
-      <c r="N330" s="99"/>
-      <c r="O330" s="99"/>
-      <c r="P330" s="99"/>
-      <c r="Q330" s="99"/>
+      <c r="G330" s="101"/>
+      <c r="H330" s="101"/>
+      <c r="I330" s="101"/>
+      <c r="J330" s="101"/>
+      <c r="K330" s="101"/>
+      <c r="L330" s="101"/>
+      <c r="M330" s="101"/>
+      <c r="N330" s="101"/>
+      <c r="O330" s="101"/>
+      <c r="P330" s="101"/>
+      <c r="Q330" s="101"/>
     </row>
     <row r="331" spans="2:17">
       <c r="C331" s="32" t="s">
@@ -15873,6 +17680,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100764A4B226BE2F34C80DFAA3D37A3CB30" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70544b0716d1f2dd0e24adda29a3d132">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -15986,12 +17799,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B8FCBE5-DC3A-4133-9A7B-7CABB6178323}">
   <ds:schemaRefs>
@@ -16001,6 +17808,21 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFF1E9B8-B163-4EA4-B096-E0C9303C24CF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{677EA480-9029-43DF-B2CD-874C0C4FCFF8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16014,19 +17836,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFF1E9B8-B163-4EA4-B096-E0C9303C24CF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SIGA.xlsx
+++ b/SIGA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{425A33FB-C171-43C2-9FE7-DEB6774F744B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E604C94-E82E-4558-8CCE-70E96CBA222F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8160" yWindow="3885" windowWidth="20730" windowHeight="11475" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="705" windowWidth="15405" windowHeight="15495" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -123,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="706">
   <si>
     <t>Name</t>
   </si>
@@ -2228,9 +2228,6 @@
     <t>Cases</t>
   </si>
   <si>
-    <t>Country</t>
-  </si>
-  <si>
     <t>Epi-date</t>
   </si>
   <si>
@@ -2238,6 +2235,12 @@
   </si>
   <si>
     <t>7 day MA</t>
+  </si>
+  <si>
+    <t>SUM</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
   </si>
 </sst>
 </file>
@@ -2464,7 +2467,7 @@
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2660,12 +2663,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4970,10 +4977,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30E3C55D-9118-482B-8720-4989D85F03BD}">
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4981,1535 +4988,2133 @@
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="103" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="102" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="C2" s="102">
+    <row r="2" spans="1:10">
+      <c r="C2" s="101">
         <v>44770</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" s="101">
+        <v>44775</v>
+      </c>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" t="s">
+        <v>701</v>
+      </c>
+      <c r="H2" t="s">
+        <v>700</v>
+      </c>
+      <c r="I2" t="s">
         <v>702</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" s="105" t="s">
+        <v>704</v>
+      </c>
+      <c r="C4" s="106">
+        <f>SUM(C5:C83)</f>
+        <v>21148</v>
+      </c>
+      <c r="D4" s="106">
+        <f>SUM(D5:D82)</f>
+        <v>23618</v>
+      </c>
+      <c r="E4" s="107">
+        <f>+D4/C4-1</f>
+        <v>0.11679591450728211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" t="s">
+        <v>699</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <f>+D5-C5</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="101">
+        <v>44698</v>
+      </c>
+      <c r="H5" s="103">
+        <v>1</v>
+      </c>
+      <c r="I5" s="103">
+        <f>+H5</f>
+        <v>1</v>
+      </c>
+      <c r="J5" s="103"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" t="s">
+        <v>698</v>
+      </c>
+      <c r="C6">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:E70" si="0">+D6-C6</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="101">
+        <v>44701</v>
+      </c>
+      <c r="H6" s="103">
+        <v>1</v>
+      </c>
+      <c r="I6" s="103">
+        <f>+H6+I5</f>
+        <v>2</v>
+      </c>
+      <c r="J6" s="103"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" t="s">
+        <v>697</v>
+      </c>
+      <c r="C7">
+        <v>44</v>
+      </c>
+      <c r="D7">
+        <v>45</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G7" s="101">
+        <v>44702</v>
+      </c>
+      <c r="H7" s="103">
+        <v>2</v>
+      </c>
+      <c r="I7" s="103">
+        <f t="shared" ref="I7:I69" si="1">+H7+I6</f>
+        <v>4</v>
+      </c>
+      <c r="J7" s="103"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" t="s">
+        <v>696</v>
+      </c>
+      <c r="C8">
+        <v>118</v>
+      </c>
+      <c r="D8">
+        <v>132</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="G8" s="101">
+        <v>44704</v>
+      </c>
+      <c r="H8" s="103">
+        <v>2</v>
+      </c>
+      <c r="I8" s="103">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="J8" s="103"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" t="s">
+        <v>695</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="101">
+        <v>44705</v>
+      </c>
+      <c r="H9" s="103">
+        <v>2</v>
+      </c>
+      <c r="I9" s="103">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="J9" s="103"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" t="s">
+        <v>694</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="101">
+        <v>44706</v>
+      </c>
+      <c r="H10" s="103">
+        <v>2</v>
+      </c>
+      <c r="I10" s="103">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="J10" s="103"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" t="s">
+        <v>693</v>
+      </c>
+      <c r="C11">
+        <v>393</v>
+      </c>
+      <c r="D11">
+        <v>393</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="101">
+        <v>44707</v>
+      </c>
+      <c r="H11" s="103">
+        <v>2</v>
+      </c>
+      <c r="I11" s="103">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="J11" s="103">
+        <f>SUM(H5:H11)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" t="s">
+        <v>692</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="101">
+        <v>44708</v>
+      </c>
+      <c r="H12" s="103">
+        <v>1</v>
+      </c>
+      <c r="I12" s="103">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="J12" s="103">
+        <f t="shared" ref="J12:J69" si="2">SUM(H6:H12)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" t="s">
+        <v>691</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="101">
+        <v>44710</v>
+      </c>
+      <c r="H13" s="103">
+        <v>2</v>
+      </c>
+      <c r="I13" s="103">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="J13" s="103">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" t="s">
+        <v>690</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="101">
+        <v>44712</v>
+      </c>
+      <c r="H14" s="103">
+        <v>3</v>
+      </c>
+      <c r="I14" s="103">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="J14" s="103">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" t="s">
+        <v>689</v>
+      </c>
+      <c r="C15">
+        <v>696</v>
+      </c>
+      <c r="D15">
+        <v>978</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>282</v>
+      </c>
+      <c r="G15" s="101">
+        <v>44713</v>
+      </c>
+      <c r="H15" s="103">
+        <v>1</v>
+      </c>
+      <c r="I15" s="103">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="J15" s="103">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" t="s">
+        <v>688</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="101">
+        <v>44714</v>
+      </c>
+      <c r="H16" s="103">
+        <v>3</v>
+      </c>
+      <c r="I16" s="103">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="J16" s="103">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10">
+      <c r="B17" t="s">
+        <v>687</v>
+      </c>
+      <c r="C17">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="101">
+        <v>44715</v>
+      </c>
+      <c r="H17" s="103">
+        <v>4</v>
+      </c>
+      <c r="I17" s="103">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="J17" s="103">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" t="s">
+        <v>686</v>
+      </c>
+      <c r="C18">
+        <v>745</v>
+      </c>
+      <c r="D18">
+        <v>803</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="G18" s="101">
+        <v>44716</v>
+      </c>
+      <c r="H18" s="103">
+        <v>1</v>
+      </c>
+      <c r="I18" s="103">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="J18" s="103">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" t="s">
+        <v>685</v>
+      </c>
+      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="101">
+        <v>44718</v>
+      </c>
+      <c r="H19" s="103">
+        <v>6</v>
+      </c>
+      <c r="I19" s="103">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="J19" s="103">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" t="s">
+        <v>684</v>
+      </c>
+      <c r="C20">
+        <v>45</v>
+      </c>
+      <c r="D20">
+        <v>55</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G20" s="101">
+        <v>44719</v>
+      </c>
+      <c r="H20" s="103">
+        <v>2</v>
+      </c>
+      <c r="I20" s="103">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="J20" s="103">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" t="s">
+        <v>683</v>
+      </c>
+      <c r="C21">
+        <v>12</v>
+      </c>
+      <c r="D21">
+        <v>12</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="101">
+        <v>44720</v>
+      </c>
+      <c r="H21" s="103">
+        <v>5</v>
+      </c>
+      <c r="I21" s="103">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="J21" s="103">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" t="s">
+        <v>682</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="101">
+        <v>44721</v>
+      </c>
+      <c r="H22" s="103">
+        <v>2</v>
+      </c>
+      <c r="I22" s="103">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="J22" s="103">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" t="s">
+        <v>681</v>
+      </c>
+      <c r="C23">
+        <v>11</v>
+      </c>
+      <c r="D23">
+        <v>12</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G23" s="101">
+        <v>44722</v>
+      </c>
+      <c r="H23" s="103">
+        <v>4</v>
+      </c>
+      <c r="I23" s="103">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="J23" s="103">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" t="s">
+        <v>680</v>
+      </c>
+      <c r="C24">
+        <v>19</v>
+      </c>
+      <c r="D24">
+        <v>20</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G24" s="101">
+        <v>44723</v>
+      </c>
+      <c r="H24" s="103">
+        <v>4</v>
+      </c>
+      <c r="I24" s="103">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J24" s="103">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" t="s">
+        <v>679</v>
+      </c>
+      <c r="C25">
+        <v>163</v>
+      </c>
+      <c r="D25">
+        <v>163</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="101">
+        <v>44724</v>
+      </c>
+      <c r="H25" s="103">
+        <v>2</v>
+      </c>
+      <c r="I25" s="103">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="J25" s="103">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" t="s">
+        <v>678</v>
+      </c>
+      <c r="C26">
+        <v>76</v>
+      </c>
+      <c r="D26">
+        <v>99</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="G26" s="101">
+        <v>44725</v>
+      </c>
+      <c r="H26" s="103">
+        <v>2</v>
+      </c>
+      <c r="I26" s="103">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="J26" s="103">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" t="s">
+        <v>677</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="101">
+        <v>44726</v>
+      </c>
+      <c r="H27" s="103">
+        <v>11</v>
+      </c>
+      <c r="I27" s="103">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="J27" s="103">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" t="s">
+        <v>676</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="101">
+        <v>44727</v>
+      </c>
+      <c r="H28" s="103">
+        <v>7</v>
+      </c>
+      <c r="I28" s="103">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="J28" s="103">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" t="s">
+        <v>675</v>
+      </c>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>6</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G29" s="101">
+        <v>44728</v>
+      </c>
+      <c r="H29" s="103">
+        <v>13</v>
+      </c>
+      <c r="I29" s="103">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="J29" s="103">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" t="s">
+        <v>674</v>
+      </c>
+      <c r="C30">
+        <v>17</v>
+      </c>
+      <c r="D30">
+        <v>17</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="101">
+        <v>44729</v>
+      </c>
+      <c r="H30" s="103">
+        <v>4</v>
+      </c>
+      <c r="I30" s="103">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="J30" s="103">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" t="s">
+        <v>673</v>
+      </c>
+      <c r="C31">
+        <v>1837</v>
+      </c>
+      <c r="D31">
+        <v>1955</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>118</v>
+      </c>
+      <c r="G31" s="101">
+        <v>44730</v>
+      </c>
+      <c r="H31" s="103">
+        <v>11</v>
+      </c>
+      <c r="I31" s="103">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J31" s="103">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" t="s">
+        <v>672</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="101">
+        <v>44731</v>
+      </c>
+      <c r="H32" s="103">
+        <v>5</v>
+      </c>
+      <c r="I32" s="103">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="J32" s="103">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10">
+      <c r="B33" t="s">
+        <v>671</v>
+      </c>
+      <c r="C33">
+        <v>2540</v>
+      </c>
+      <c r="D33">
+        <v>2677</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>137</v>
+      </c>
+      <c r="G33" s="101">
+        <v>44732</v>
+      </c>
+      <c r="H33" s="103">
+        <v>7</v>
+      </c>
+      <c r="I33" s="103">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="J33" s="103">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" t="s">
+        <v>670</v>
+      </c>
+      <c r="C34">
+        <v>30</v>
+      </c>
+      <c r="D34">
+        <v>30</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="101">
+        <v>44733</v>
+      </c>
+      <c r="H34" s="103">
+        <v>15</v>
+      </c>
+      <c r="I34" s="103">
+        <f t="shared" si="1"/>
+        <v>127</v>
+      </c>
+      <c r="J34" s="103">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" t="s">
+        <v>669</v>
+      </c>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="101">
+        <v>44734</v>
+      </c>
+      <c r="H35" s="103">
+        <v>19</v>
+      </c>
+      <c r="I35" s="103">
+        <f t="shared" si="1"/>
+        <v>146</v>
+      </c>
+      <c r="J35" s="103">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" t="s">
+        <v>668</v>
+      </c>
+      <c r="C36">
+        <v>32</v>
+      </c>
+      <c r="D36">
+        <v>32</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="101">
+        <v>44735</v>
+      </c>
+      <c r="H36" s="103">
+        <v>19</v>
+      </c>
+      <c r="I36" s="103">
+        <f t="shared" si="1"/>
+        <v>165</v>
+      </c>
+      <c r="J36" s="103">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" t="s">
+        <v>667</v>
+      </c>
+      <c r="C37">
+        <v>37</v>
+      </c>
+      <c r="D37">
+        <v>39</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G37" s="101">
+        <v>44736</v>
+      </c>
+      <c r="H37" s="103">
+        <v>35</v>
+      </c>
+      <c r="I37" s="103">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="J37" s="103">
+        <f t="shared" si="2"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" t="s">
+        <v>666</v>
+      </c>
+      <c r="C38">
+        <v>9</v>
+      </c>
+      <c r="D38">
+        <v>9</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="101">
+        <v>44737</v>
+      </c>
+      <c r="H38" s="103">
+        <v>12</v>
+      </c>
+      <c r="I38" s="103">
+        <f t="shared" si="1"/>
+        <v>212</v>
+      </c>
+      <c r="J38" s="103">
+        <f t="shared" si="2"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" t="s">
+        <v>665</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="101">
+        <v>44738</v>
+      </c>
+      <c r="H39" s="103">
+        <v>12</v>
+      </c>
+      <c r="I39" s="103">
+        <f t="shared" si="1"/>
+        <v>224</v>
+      </c>
+      <c r="J39" s="103">
+        <f t="shared" si="2"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" t="s">
+        <v>664</v>
+      </c>
+      <c r="C40">
+        <v>85</v>
+      </c>
+      <c r="D40">
+        <v>85</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="101">
+        <v>44739</v>
+      </c>
+      <c r="H40" s="103">
+        <v>53</v>
+      </c>
+      <c r="I40" s="103">
+        <f t="shared" si="1"/>
+        <v>277</v>
+      </c>
+      <c r="J40" s="103">
+        <f t="shared" si="2"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" t="s">
+        <v>663</v>
+      </c>
+      <c r="C41">
+        <v>133</v>
+      </c>
+      <c r="D41">
+        <v>146</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="G41" s="101">
+        <v>44740</v>
+      </c>
+      <c r="H41" s="103">
+        <v>30</v>
+      </c>
+      <c r="I41" s="103">
+        <f t="shared" si="1"/>
+        <v>307</v>
+      </c>
+      <c r="J41" s="103">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" t="s">
+        <v>662</v>
+      </c>
+      <c r="C42">
+        <v>426</v>
+      </c>
+      <c r="D42">
+        <v>479</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="G42" s="101">
+        <v>44741</v>
+      </c>
+      <c r="H42" s="103">
+        <v>42</v>
+      </c>
+      <c r="I42" s="103">
+        <f t="shared" si="1"/>
+        <v>349</v>
+      </c>
+      <c r="J42" s="103">
+        <f t="shared" si="2"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43" t="s">
+        <v>661</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="101">
+        <v>44742</v>
+      </c>
+      <c r="H43" s="103">
+        <v>57</v>
+      </c>
+      <c r="I43" s="103">
+        <f t="shared" si="1"/>
+        <v>406</v>
+      </c>
+      <c r="J43" s="103">
+        <f t="shared" si="2"/>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44" t="s">
+        <v>660</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="101">
+        <v>44743</v>
+      </c>
+      <c r="H44" s="103">
+        <v>52</v>
+      </c>
+      <c r="I44" s="103">
+        <f t="shared" si="1"/>
+        <v>458</v>
+      </c>
+      <c r="J44" s="103">
+        <f t="shared" si="2"/>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45" t="s">
+        <v>659</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="101">
+        <v>44744</v>
+      </c>
+      <c r="H45" s="103">
+        <v>16</v>
+      </c>
+      <c r="I45" s="103">
+        <f t="shared" si="1"/>
+        <v>474</v>
+      </c>
+      <c r="J45" s="103">
+        <f t="shared" si="2"/>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="B46" t="s">
+        <v>658</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46">
+        <v>4</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G46" s="101">
+        <v>44745</v>
+      </c>
+      <c r="H46" s="103">
+        <v>11</v>
+      </c>
+      <c r="I46" s="103">
+        <f t="shared" si="1"/>
+        <v>485</v>
+      </c>
+      <c r="J46" s="103">
+        <f t="shared" si="2"/>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="B47" t="s">
+        <v>657</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="101">
+        <v>44746</v>
+      </c>
+      <c r="H47" s="103">
+        <v>7</v>
+      </c>
+      <c r="I47" s="103">
+        <f t="shared" si="1"/>
+        <v>492</v>
+      </c>
+      <c r="J47" s="103">
+        <f t="shared" si="2"/>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10">
+      <c r="B48" t="s">
+        <v>656</v>
+      </c>
+      <c r="C48">
+        <v>23</v>
+      </c>
+      <c r="D48">
+        <v>30</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G48" s="101">
+        <v>44747</v>
+      </c>
+      <c r="H48" s="103">
+        <v>37</v>
+      </c>
+      <c r="I48" s="103">
+        <f t="shared" si="1"/>
+        <v>529</v>
+      </c>
+      <c r="J48" s="103">
+        <f t="shared" si="2"/>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10">
+      <c r="B49" t="s">
+        <v>655</v>
+      </c>
+      <c r="C49">
+        <v>17</v>
+      </c>
+      <c r="D49">
+        <v>17</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="101">
+        <v>44748</v>
+      </c>
+      <c r="H49" s="103">
+        <v>45</v>
+      </c>
+      <c r="I49" s="103">
+        <f t="shared" si="1"/>
+        <v>574</v>
+      </c>
+      <c r="J49" s="103">
+        <f t="shared" si="2"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10">
+      <c r="B50" t="s">
+        <v>654</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G50" s="101">
+        <v>44749</v>
+      </c>
+      <c r="H50" s="103">
+        <v>52</v>
+      </c>
+      <c r="I50" s="103">
+        <f t="shared" si="1"/>
+        <v>626</v>
+      </c>
+      <c r="J50" s="103">
+        <f t="shared" si="2"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10">
+      <c r="B51" t="s">
+        <v>653</v>
+      </c>
+      <c r="C51">
+        <v>59</v>
+      </c>
+      <c r="D51">
+        <v>59</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G51" s="101">
+        <v>44750</v>
+      </c>
+      <c r="H51" s="103">
+        <v>37</v>
+      </c>
+      <c r="I51" s="103">
+        <f t="shared" si="1"/>
+        <v>663</v>
+      </c>
+      <c r="J51" s="103">
+        <f t="shared" si="2"/>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10">
+      <c r="B52" t="s">
+        <v>652</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G52" s="101">
+        <v>44751</v>
+      </c>
+      <c r="H52" s="103">
+        <v>37</v>
+      </c>
+      <c r="I52" s="103">
+        <f t="shared" si="1"/>
         <v>700</v>
       </c>
-      <c r="G2" t="s">
-        <v>703</v>
-      </c>
-      <c r="H2" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="B3" t="s">
-        <v>701</v>
-      </c>
-      <c r="C3" t="s">
-        <v>700</v>
-      </c>
-      <c r="E3" s="102">
-        <v>44698</v>
-      </c>
-      <c r="F3" s="104">
+      <c r="J52" s="103">
+        <f t="shared" si="2"/>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10">
+      <c r="B53" t="s">
+        <v>651</v>
+      </c>
+      <c r="C53">
+        <v>878</v>
+      </c>
+      <c r="D53">
+        <v>925</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="G53" s="101">
+        <v>44752</v>
+      </c>
+      <c r="H53" s="103">
+        <v>7</v>
+      </c>
+      <c r="I53" s="103">
+        <f t="shared" si="1"/>
+        <v>707</v>
+      </c>
+      <c r="J53" s="103">
+        <f t="shared" si="2"/>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10">
+      <c r="B54" t="s">
+        <v>650</v>
+      </c>
+      <c r="C54">
         <v>1</v>
       </c>
-      <c r="G3" s="104">
-        <f>+F3</f>
+      <c r="D54">
         <v>1</v>
       </c>
-      <c r="H3" s="104"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="B4" t="s">
-        <v>699</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="E4" s="102">
-        <v>44701</v>
-      </c>
-      <c r="F4" s="104">
+      <c r="E54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G54" s="101">
+        <v>44753</v>
+      </c>
+      <c r="H54" s="103">
+        <v>100</v>
+      </c>
+      <c r="I54" s="103">
+        <f t="shared" si="1"/>
+        <v>807</v>
+      </c>
+      <c r="J54" s="103">
+        <f t="shared" si="2"/>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10">
+      <c r="B55" t="s">
+        <v>649</v>
+      </c>
+      <c r="C55">
+        <v>2</v>
+      </c>
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G55" s="101">
+        <v>44754</v>
+      </c>
+      <c r="H55" s="103">
+        <v>212</v>
+      </c>
+      <c r="I55" s="103">
+        <f t="shared" si="1"/>
+        <v>1019</v>
+      </c>
+      <c r="J55" s="103">
+        <f t="shared" si="2"/>
+        <v>490</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10">
+      <c r="B56" t="s">
+        <v>648</v>
+      </c>
+      <c r="C56">
+        <v>133</v>
+      </c>
+      <c r="D56">
+        <v>133</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G56" s="101">
+        <v>44755</v>
+      </c>
+      <c r="H56" s="103">
+        <v>140</v>
+      </c>
+      <c r="I56" s="103">
+        <f t="shared" si="1"/>
+        <v>1159</v>
+      </c>
+      <c r="J56" s="103">
+        <f t="shared" si="2"/>
+        <v>585</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10">
+      <c r="B57" t="s">
+        <v>647</v>
+      </c>
+      <c r="C57">
+        <v>51</v>
+      </c>
+      <c r="D57">
+        <v>55</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G57" s="101">
+        <v>44756</v>
+      </c>
+      <c r="H57" s="103">
+        <v>216</v>
+      </c>
+      <c r="I57" s="103">
+        <f t="shared" si="1"/>
+        <v>1375</v>
+      </c>
+      <c r="J57" s="103">
+        <f t="shared" si="2"/>
+        <v>749</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10">
+      <c r="B58" t="s">
+        <v>646</v>
+      </c>
+      <c r="C58">
         <v>1</v>
       </c>
-      <c r="G4" s="104">
-        <f>+F4+G3</f>
-        <v>2</v>
-      </c>
-      <c r="H4" s="104"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="B5" t="s">
-        <v>698</v>
-      </c>
-      <c r="C5">
-        <v>20</v>
-      </c>
-      <c r="E5" s="102">
-        <v>44702</v>
-      </c>
-      <c r="F5" s="104">
-        <v>2</v>
-      </c>
-      <c r="G5" s="104">
-        <f t="shared" ref="G5:G66" si="0">+F5+G4</f>
-        <v>4</v>
-      </c>
-      <c r="H5" s="104"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="B6" t="s">
-        <v>697</v>
-      </c>
-      <c r="C6">
-        <v>44</v>
-      </c>
-      <c r="E6" s="102">
-        <v>44704</v>
-      </c>
-      <c r="F6" s="104">
-        <v>2</v>
-      </c>
-      <c r="G6" s="104">
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G58" s="101">
+        <v>44757</v>
+      </c>
+      <c r="H58" s="103">
+        <v>159</v>
+      </c>
+      <c r="I58" s="103">
+        <f t="shared" si="1"/>
+        <v>1534</v>
+      </c>
+      <c r="J58" s="103">
+        <f t="shared" si="2"/>
+        <v>871</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10">
+      <c r="B59" t="s">
+        <v>645</v>
+      </c>
+      <c r="C59">
+        <v>251</v>
+      </c>
+      <c r="D59">
+        <v>305</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="G59" s="101">
+        <v>44758</v>
+      </c>
+      <c r="H59" s="103">
+        <v>7</v>
+      </c>
+      <c r="I59" s="103">
+        <f t="shared" si="1"/>
+        <v>1541</v>
+      </c>
+      <c r="J59" s="103">
+        <f t="shared" si="2"/>
+        <v>841</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10">
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G60" s="101"/>
+      <c r="H60" s="103"/>
+      <c r="I60" s="103"/>
+      <c r="J60" s="103"/>
+    </row>
+    <row r="61" spans="2:10">
+      <c r="B61" t="s">
+        <v>644</v>
+      </c>
+      <c r="C61">
+        <v>53</v>
+      </c>
+      <c r="D61">
+        <v>59</v>
+      </c>
+      <c r="E61">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="H6" s="104"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="B7" t="s">
-        <v>696</v>
-      </c>
-      <c r="C7">
-        <v>118</v>
-      </c>
-      <c r="E7" s="102">
-        <v>44705</v>
-      </c>
-      <c r="F7" s="104">
+      <c r="G61" s="101">
+        <v>44759</v>
+      </c>
+      <c r="H61" s="103">
+        <v>1</v>
+      </c>
+      <c r="I61" s="103">
+        <f>+H61+I59</f>
+        <v>1542</v>
+      </c>
+      <c r="J61" s="103">
+        <f>SUM(H54:H61)</f>
+        <v>835</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10">
+      <c r="B62" t="s">
+        <v>643</v>
+      </c>
+      <c r="C62">
+        <v>588</v>
+      </c>
+      <c r="D62">
+        <v>633</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="G62" s="101">
+        <v>44760</v>
+      </c>
+      <c r="H62" s="103">
+        <v>195</v>
+      </c>
+      <c r="I62" s="103">
+        <f t="shared" si="1"/>
+        <v>1737</v>
+      </c>
+      <c r="J62" s="103">
+        <f>SUM(H55:H62)</f>
+        <v>930</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10">
+      <c r="B63" t="s">
+        <v>642</v>
+      </c>
+      <c r="C63">
         <v>2</v>
       </c>
-      <c r="G7" s="104">
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="H7" s="104"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="B8" t="s">
-        <v>695</v>
-      </c>
-      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="G63" s="101">
+        <v>44761</v>
+      </c>
+      <c r="H63" s="103">
+        <v>301</v>
+      </c>
+      <c r="I63" s="103">
+        <f t="shared" si="1"/>
+        <v>2038</v>
+      </c>
+      <c r="J63" s="103">
+        <f>SUM(H56:H63)</f>
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10">
+      <c r="B64" t="s">
+        <v>641</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G64" s="101">
+        <v>44762</v>
+      </c>
+      <c r="H64" s="103">
+        <v>256</v>
+      </c>
+      <c r="I64" s="103">
+        <f t="shared" si="1"/>
+        <v>2294</v>
+      </c>
+      <c r="J64" s="103">
+        <f>SUM(H57:H64)</f>
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10">
+      <c r="B65" t="s">
+        <v>640</v>
+      </c>
+      <c r="C65">
+        <v>20</v>
+      </c>
+      <c r="D65">
+        <v>21</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E8" s="102">
-        <v>44706</v>
-      </c>
-      <c r="F8" s="104">
+      <c r="G65" s="101">
+        <v>44763</v>
+      </c>
+      <c r="H65" s="103">
+        <v>184</v>
+      </c>
+      <c r="I65" s="103">
+        <f t="shared" si="1"/>
+        <v>2478</v>
+      </c>
+      <c r="J65" s="103">
+        <f>SUM(H58:H65)</f>
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10">
+      <c r="B66" t="s">
+        <v>639</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G66" s="101">
+        <v>44764</v>
+      </c>
+      <c r="H66" s="103">
+        <v>308</v>
+      </c>
+      <c r="I66" s="103">
+        <f t="shared" si="1"/>
+        <v>2786</v>
+      </c>
+      <c r="J66" s="103">
+        <f>SUM(H59:H66)</f>
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10">
+      <c r="B67" t="s">
+        <v>638</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G67" s="101">
+        <v>44765</v>
+      </c>
+      <c r="H67" s="103">
+        <v>9</v>
+      </c>
+      <c r="I67" s="103">
+        <f t="shared" si="1"/>
+        <v>2795</v>
+      </c>
+      <c r="J67" s="103">
+        <f t="shared" si="2"/>
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10">
+      <c r="B68" t="s">
+        <v>637</v>
+      </c>
+      <c r="C68">
+        <v>10</v>
+      </c>
+      <c r="D68">
+        <v>10</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G68" s="101">
+        <v>44766</v>
+      </c>
+      <c r="H68" s="103">
         <v>2</v>
       </c>
-      <c r="G8" s="104">
+      <c r="I68" s="103">
+        <f t="shared" si="1"/>
+        <v>2797</v>
+      </c>
+      <c r="J68" s="103">
+        <f t="shared" si="2"/>
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10">
+      <c r="B69" t="s">
+        <v>636</v>
+      </c>
+      <c r="C69">
+        <v>11</v>
+      </c>
+      <c r="D69">
+        <v>11</v>
+      </c>
+      <c r="E69">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="H8" s="104"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="B9" t="s">
-        <v>694</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="102">
-        <v>44707</v>
-      </c>
-      <c r="F9" s="104">
-        <v>2</v>
-      </c>
-      <c r="G9" s="104">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="H9" s="104">
-        <f>SUM(F3:F9)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="B10" t="s">
-        <v>693</v>
-      </c>
-      <c r="C10">
-        <v>393</v>
-      </c>
-      <c r="E10" s="102">
-        <v>44708</v>
-      </c>
-      <c r="F10" s="104">
-        <v>1</v>
-      </c>
-      <c r="G10" s="104">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="H10" s="104">
-        <f t="shared" ref="H10:H66" si="1">SUM(F4:F10)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="B11" t="s">
-        <v>692</v>
-      </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="E11" s="102">
-        <v>44710</v>
-      </c>
-      <c r="F11" s="104">
-        <v>2</v>
-      </c>
-      <c r="G11" s="104">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="H11" s="104">
+        <v>0</v>
+      </c>
+      <c r="G69" s="101">
+        <v>44767</v>
+      </c>
+      <c r="H69" s="103">
+        <v>439</v>
+      </c>
+      <c r="I69" s="103">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="B12" t="s">
-        <v>691</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="102">
-        <v>44712</v>
-      </c>
-      <c r="F12" s="104">
-        <v>3</v>
-      </c>
-      <c r="G12" s="104">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="H12" s="104">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="B13" t="s">
-        <v>690</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="E13" s="102">
-        <v>44713</v>
-      </c>
-      <c r="F13" s="104">
-        <v>1</v>
-      </c>
-      <c r="G13" s="104">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="H13" s="104">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="B14" t="s">
-        <v>689</v>
-      </c>
-      <c r="C14">
-        <v>696</v>
-      </c>
-      <c r="E14" s="102">
-        <v>44714</v>
-      </c>
-      <c r="F14" s="104">
-        <v>3</v>
-      </c>
-      <c r="G14" s="104">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="H14" s="104">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="B15" t="s">
-        <v>688</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
-      </c>
-      <c r="E15" s="102">
-        <v>44715</v>
-      </c>
-      <c r="F15" s="104">
-        <v>4</v>
-      </c>
-      <c r="G15" s="104">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="H15" s="104">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="B16" t="s">
-        <v>687</v>
-      </c>
-      <c r="C16">
-        <v>7</v>
-      </c>
-      <c r="E16" s="102">
-        <v>44716</v>
-      </c>
-      <c r="F16" s="104">
-        <v>1</v>
-      </c>
-      <c r="G16" s="104">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="H16" s="104">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8">
-      <c r="B17" t="s">
-        <v>686</v>
-      </c>
-      <c r="C17">
-        <v>745</v>
-      </c>
-      <c r="E17" s="102">
-        <v>44718</v>
-      </c>
-      <c r="F17" s="104">
-        <v>6</v>
-      </c>
-      <c r="G17" s="104">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="H17" s="104">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8">
-      <c r="B18" t="s">
-        <v>685</v>
-      </c>
-      <c r="C18">
-        <v>8</v>
-      </c>
-      <c r="E18" s="102">
-        <v>44719</v>
-      </c>
-      <c r="F18" s="104">
-        <v>2</v>
-      </c>
-      <c r="G18" s="104">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="H18" s="104">
-        <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8">
-      <c r="B19" t="s">
-        <v>684</v>
-      </c>
-      <c r="C19">
-        <v>45</v>
-      </c>
-      <c r="E19" s="102">
-        <v>44720</v>
-      </c>
-      <c r="F19" s="104">
-        <v>5</v>
-      </c>
-      <c r="G19" s="104">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="H19" s="104">
-        <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8">
-      <c r="B20" t="s">
-        <v>683</v>
-      </c>
-      <c r="C20">
-        <v>12</v>
-      </c>
-      <c r="E20" s="102">
-        <v>44721</v>
-      </c>
-      <c r="F20" s="104">
-        <v>2</v>
-      </c>
-      <c r="G20" s="104">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-      <c r="H20" s="104">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8">
-      <c r="B21" t="s">
-        <v>682</v>
-      </c>
-      <c r="C21">
-        <v>3</v>
-      </c>
-      <c r="E21" s="102">
-        <v>44722</v>
-      </c>
-      <c r="F21" s="104">
-        <v>4</v>
-      </c>
-      <c r="G21" s="104">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="H21" s="104">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8">
-      <c r="B22" t="s">
-        <v>681</v>
-      </c>
-      <c r="C22">
-        <v>11</v>
-      </c>
-      <c r="E22" s="102">
-        <v>44723</v>
-      </c>
-      <c r="F22" s="104">
-        <v>4</v>
-      </c>
-      <c r="G22" s="104">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="H22" s="104">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8">
-      <c r="B23" t="s">
-        <v>680</v>
-      </c>
-      <c r="C23">
-        <v>19</v>
-      </c>
-      <c r="E23" s="102">
-        <v>44724</v>
-      </c>
-      <c r="F23" s="104">
-        <v>2</v>
-      </c>
-      <c r="G23" s="104">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="H23" s="104">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8">
-      <c r="B24" t="s">
-        <v>679</v>
-      </c>
-      <c r="C24">
-        <v>163</v>
-      </c>
-      <c r="E24" s="102">
-        <v>44725</v>
-      </c>
-      <c r="F24" s="104">
-        <v>2</v>
-      </c>
-      <c r="G24" s="104">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="H24" s="104">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8">
-      <c r="B25" t="s">
-        <v>678</v>
-      </c>
-      <c r="C25">
-        <v>76</v>
-      </c>
-      <c r="E25" s="102">
-        <v>44726</v>
-      </c>
-      <c r="F25" s="104">
-        <v>11</v>
-      </c>
-      <c r="G25" s="104">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="H25" s="104">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8">
-      <c r="B26" t="s">
-        <v>677</v>
-      </c>
-      <c r="C26">
-        <v>3</v>
-      </c>
-      <c r="E26" s="102">
-        <v>44727</v>
-      </c>
-      <c r="F26" s="104">
-        <v>7</v>
-      </c>
-      <c r="G26" s="104">
-        <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="H26" s="104">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8">
-      <c r="B27" t="s">
-        <v>676</v>
-      </c>
-      <c r="C27">
-        <v>3</v>
-      </c>
-      <c r="E27" s="102">
-        <v>44728</v>
-      </c>
-      <c r="F27" s="104">
-        <v>13</v>
-      </c>
-      <c r="G27" s="104">
-        <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-      <c r="H27" s="104">
-        <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8">
-      <c r="B28" t="s">
-        <v>675</v>
-      </c>
-      <c r="C28">
-        <v>5</v>
-      </c>
-      <c r="E28" s="102">
-        <v>44729</v>
-      </c>
-      <c r="F28" s="104">
-        <v>4</v>
-      </c>
-      <c r="G28" s="104">
-        <f t="shared" si="0"/>
-        <v>89</v>
-      </c>
-      <c r="H28" s="104">
-        <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8">
-      <c r="B29" t="s">
-        <v>674</v>
-      </c>
-      <c r="C29">
-        <v>17</v>
-      </c>
-      <c r="E29" s="102">
-        <v>44730</v>
-      </c>
-      <c r="F29" s="104">
-        <v>11</v>
-      </c>
-      <c r="G29" s="104">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="H29" s="104">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="B30" t="s">
-        <v>673</v>
-      </c>
-      <c r="C30">
-        <v>1837</v>
-      </c>
-      <c r="E30" s="102">
-        <v>44731</v>
-      </c>
-      <c r="F30" s="104">
-        <v>5</v>
-      </c>
-      <c r="G30" s="104">
-        <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-      <c r="H30" s="104">
-        <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8">
-      <c r="B31" t="s">
-        <v>672</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="E31" s="102">
-        <v>44732</v>
-      </c>
-      <c r="F31" s="104">
-        <v>7</v>
-      </c>
-      <c r="G31" s="104">
-        <f t="shared" si="0"/>
-        <v>112</v>
-      </c>
-      <c r="H31" s="104">
-        <f t="shared" si="1"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8">
-      <c r="B32" t="s">
-        <v>671</v>
-      </c>
-      <c r="C32">
-        <v>2540</v>
-      </c>
-      <c r="E32" s="102">
-        <v>44733</v>
-      </c>
-      <c r="F32" s="104">
-        <v>15</v>
-      </c>
-      <c r="G32" s="104">
-        <f t="shared" si="0"/>
-        <v>127</v>
-      </c>
-      <c r="H32" s="104">
-        <f t="shared" si="1"/>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8">
-      <c r="B33" t="s">
-        <v>670</v>
-      </c>
-      <c r="C33">
-        <v>30</v>
-      </c>
-      <c r="E33" s="102">
-        <v>44734</v>
-      </c>
-      <c r="F33" s="104">
-        <v>19</v>
-      </c>
-      <c r="G33" s="104">
-        <f t="shared" si="0"/>
-        <v>146</v>
-      </c>
-      <c r="H33" s="104">
-        <f t="shared" si="1"/>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8">
-      <c r="B34" t="s">
-        <v>669</v>
-      </c>
-      <c r="C34">
-        <v>5</v>
-      </c>
-      <c r="E34" s="102">
-        <v>44735</v>
-      </c>
-      <c r="F34" s="104">
-        <v>19</v>
-      </c>
-      <c r="G34" s="104">
-        <f t="shared" si="0"/>
-        <v>165</v>
-      </c>
-      <c r="H34" s="104">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8">
-      <c r="B35" t="s">
-        <v>668</v>
-      </c>
-      <c r="C35">
-        <v>32</v>
-      </c>
-      <c r="E35" s="102">
-        <v>44736</v>
-      </c>
-      <c r="F35" s="104">
-        <v>35</v>
-      </c>
-      <c r="G35" s="104">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="H35" s="104">
-        <f t="shared" si="1"/>
-        <v>111</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8">
-      <c r="B36" t="s">
-        <v>667</v>
-      </c>
-      <c r="C36">
-        <v>37</v>
-      </c>
-      <c r="E36" s="102">
-        <v>44737</v>
-      </c>
-      <c r="F36" s="104">
-        <v>12</v>
-      </c>
-      <c r="G36" s="104">
-        <f t="shared" si="0"/>
-        <v>212</v>
-      </c>
-      <c r="H36" s="104">
-        <f t="shared" si="1"/>
-        <v>112</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8">
-      <c r="B37" t="s">
-        <v>666</v>
-      </c>
-      <c r="C37">
-        <v>9</v>
-      </c>
-      <c r="E37" s="102">
-        <v>44738</v>
-      </c>
-      <c r="F37" s="104">
-        <v>12</v>
-      </c>
-      <c r="G37" s="104">
-        <f t="shared" si="0"/>
-        <v>224</v>
-      </c>
-      <c r="H37" s="104">
-        <f t="shared" si="1"/>
-        <v>119</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8">
-      <c r="B38" t="s">
-        <v>665</v>
-      </c>
-      <c r="C38">
-        <v>4</v>
-      </c>
-      <c r="E38" s="102">
-        <v>44739</v>
-      </c>
-      <c r="F38" s="104">
-        <v>53</v>
-      </c>
-      <c r="G38" s="104">
-        <f t="shared" si="0"/>
-        <v>277</v>
-      </c>
-      <c r="H38" s="104">
-        <f t="shared" si="1"/>
-        <v>165</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8">
-      <c r="B39" t="s">
-        <v>664</v>
-      </c>
-      <c r="C39">
-        <v>85</v>
-      </c>
-      <c r="E39" s="102">
-        <v>44740</v>
-      </c>
-      <c r="F39" s="104">
-        <v>30</v>
-      </c>
-      <c r="G39" s="104">
-        <f t="shared" si="0"/>
-        <v>307</v>
-      </c>
-      <c r="H39" s="104">
-        <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8">
-      <c r="B40" t="s">
-        <v>663</v>
-      </c>
-      <c r="C40">
-        <v>133</v>
-      </c>
-      <c r="E40" s="102">
-        <v>44741</v>
-      </c>
-      <c r="F40" s="104">
-        <v>42</v>
-      </c>
-      <c r="G40" s="104">
-        <f t="shared" si="0"/>
-        <v>349</v>
-      </c>
-      <c r="H40" s="104">
-        <f t="shared" si="1"/>
-        <v>203</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8">
-      <c r="B41" t="s">
-        <v>662</v>
-      </c>
-      <c r="C41">
-        <v>426</v>
-      </c>
-      <c r="E41" s="102">
-        <v>44742</v>
-      </c>
-      <c r="F41" s="104">
-        <v>57</v>
-      </c>
-      <c r="G41" s="104">
-        <f t="shared" si="0"/>
-        <v>406</v>
-      </c>
-      <c r="H41" s="104">
-        <f t="shared" si="1"/>
-        <v>241</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8">
-      <c r="B42" t="s">
-        <v>661</v>
-      </c>
-      <c r="C42">
-        <v>2</v>
-      </c>
-      <c r="E42" s="102">
-        <v>44743</v>
-      </c>
-      <c r="F42" s="104">
-        <v>52</v>
-      </c>
-      <c r="G42" s="104">
-        <f t="shared" si="0"/>
-        <v>458</v>
-      </c>
-      <c r="H42" s="104">
-        <f t="shared" si="1"/>
-        <v>258</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8">
-      <c r="B43" t="s">
-        <v>660</v>
-      </c>
-      <c r="C43">
-        <v>2</v>
-      </c>
-      <c r="E43" s="102">
-        <v>44744</v>
-      </c>
-      <c r="F43" s="104">
-        <v>16</v>
-      </c>
-      <c r="G43" s="104">
-        <f t="shared" si="0"/>
-        <v>474</v>
-      </c>
-      <c r="H43" s="104">
-        <f t="shared" si="1"/>
-        <v>262</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8">
-      <c r="B44" t="s">
-        <v>659</v>
-      </c>
-      <c r="C44">
-        <v>3</v>
-      </c>
-      <c r="E44" s="102">
-        <v>44745</v>
-      </c>
-      <c r="F44" s="104">
-        <v>11</v>
-      </c>
-      <c r="G44" s="104">
-        <f t="shared" si="0"/>
-        <v>485</v>
-      </c>
-      <c r="H44" s="104">
-        <f t="shared" si="1"/>
-        <v>261</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8">
-      <c r="B45" t="s">
-        <v>658</v>
-      </c>
-      <c r="C45">
-        <v>4</v>
-      </c>
-      <c r="E45" s="102">
-        <v>44746</v>
-      </c>
-      <c r="F45" s="104">
-        <v>7</v>
-      </c>
-      <c r="G45" s="104">
-        <f t="shared" si="0"/>
-        <v>492</v>
-      </c>
-      <c r="H45" s="104">
-        <f t="shared" si="1"/>
-        <v>215</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8">
-      <c r="B46" t="s">
-        <v>657</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="E46" s="102">
-        <v>44747</v>
-      </c>
-      <c r="F46" s="104">
-        <v>37</v>
-      </c>
-      <c r="G46" s="104">
-        <f t="shared" si="0"/>
-        <v>529</v>
-      </c>
-      <c r="H46" s="104">
-        <f t="shared" si="1"/>
-        <v>222</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8">
-      <c r="B47" t="s">
-        <v>656</v>
-      </c>
-      <c r="C47">
-        <v>23</v>
-      </c>
-      <c r="E47" s="102">
-        <v>44748</v>
-      </c>
-      <c r="F47" s="104">
-        <v>45</v>
-      </c>
-      <c r="G47" s="104">
-        <f t="shared" si="0"/>
-        <v>574</v>
-      </c>
-      <c r="H47" s="104">
-        <f t="shared" si="1"/>
-        <v>225</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8">
-      <c r="B48" t="s">
-        <v>655</v>
-      </c>
-      <c r="C48">
-        <v>17</v>
-      </c>
-      <c r="E48" s="102">
-        <v>44749</v>
-      </c>
-      <c r="F48" s="104">
-        <v>52</v>
-      </c>
-      <c r="G48" s="104">
-        <f t="shared" si="0"/>
-        <v>626</v>
-      </c>
-      <c r="H48" s="104">
-        <f t="shared" si="1"/>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8">
-      <c r="B49" t="s">
-        <v>654</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="E49" s="102">
-        <v>44750</v>
-      </c>
-      <c r="F49" s="104">
-        <v>37</v>
-      </c>
-      <c r="G49" s="104">
-        <f t="shared" si="0"/>
-        <v>663</v>
-      </c>
-      <c r="H49" s="104">
-        <f t="shared" si="1"/>
-        <v>205</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8">
-      <c r="B50" t="s">
-        <v>653</v>
-      </c>
-      <c r="C50">
-        <v>59</v>
-      </c>
-      <c r="E50" s="102">
-        <v>44751</v>
-      </c>
-      <c r="F50" s="104">
-        <v>37</v>
-      </c>
-      <c r="G50" s="104">
-        <f t="shared" si="0"/>
-        <v>700</v>
-      </c>
-      <c r="H50" s="104">
-        <f t="shared" si="1"/>
-        <v>226</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8">
-      <c r="B51" t="s">
-        <v>652</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="E51" s="102">
-        <v>44752</v>
-      </c>
-      <c r="F51" s="104">
-        <v>7</v>
-      </c>
-      <c r="G51" s="104">
-        <f t="shared" si="0"/>
-        <v>707</v>
-      </c>
-      <c r="H51" s="104">
-        <f t="shared" si="1"/>
-        <v>222</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8">
-      <c r="B52" t="s">
-        <v>651</v>
-      </c>
-      <c r="C52">
-        <v>878</v>
-      </c>
-      <c r="E52" s="102">
-        <v>44753</v>
-      </c>
-      <c r="F52" s="104">
-        <v>100</v>
-      </c>
-      <c r="G52" s="104">
-        <f t="shared" si="0"/>
-        <v>807</v>
-      </c>
-      <c r="H52" s="104">
-        <f t="shared" si="1"/>
-        <v>315</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8">
-      <c r="B53" t="s">
-        <v>650</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="E53" s="102">
-        <v>44754</v>
-      </c>
-      <c r="F53" s="104">
-        <v>212</v>
-      </c>
-      <c r="G53" s="104">
-        <f t="shared" si="0"/>
-        <v>1019</v>
-      </c>
-      <c r="H53" s="104">
-        <f t="shared" si="1"/>
-        <v>490</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8">
-      <c r="B54" t="s">
-        <v>649</v>
-      </c>
-      <c r="C54">
-        <v>2</v>
-      </c>
-      <c r="E54" s="102">
-        <v>44755</v>
-      </c>
-      <c r="F54" s="104">
-        <v>140</v>
-      </c>
-      <c r="G54" s="104">
-        <f t="shared" si="0"/>
-        <v>1159</v>
-      </c>
-      <c r="H54" s="104">
-        <f t="shared" si="1"/>
-        <v>585</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8">
-      <c r="B55" t="s">
-        <v>648</v>
-      </c>
-      <c r="C55">
-        <v>133</v>
-      </c>
-      <c r="E55" s="102">
-        <v>44756</v>
-      </c>
-      <c r="F55" s="104">
-        <v>216</v>
-      </c>
-      <c r="G55" s="104">
-        <f t="shared" si="0"/>
-        <v>1375</v>
-      </c>
-      <c r="H55" s="104">
-        <f t="shared" si="1"/>
-        <v>749</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8">
-      <c r="B56" t="s">
-        <v>647</v>
-      </c>
-      <c r="C56">
-        <v>51</v>
-      </c>
-      <c r="E56" s="102">
-        <v>44757</v>
-      </c>
-      <c r="F56" s="104">
-        <v>159</v>
-      </c>
-      <c r="G56" s="104">
-        <f t="shared" si="0"/>
-        <v>1534</v>
-      </c>
-      <c r="H56" s="104">
-        <f t="shared" si="1"/>
-        <v>871</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8">
-      <c r="B57" t="s">
-        <v>646</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="E57" s="102">
-        <v>44758</v>
-      </c>
-      <c r="F57" s="104">
-        <v>7</v>
-      </c>
-      <c r="G57" s="104">
-        <f t="shared" si="0"/>
-        <v>1541</v>
-      </c>
-      <c r="H57" s="104">
-        <f t="shared" si="1"/>
-        <v>841</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8">
-      <c r="B58" t="s">
-        <v>645</v>
-      </c>
-      <c r="C58">
-        <v>251</v>
-      </c>
-      <c r="E58" s="102">
-        <v>44759</v>
-      </c>
-      <c r="F58" s="104">
-        <v>1</v>
-      </c>
-      <c r="G58" s="104">
-        <f t="shared" si="0"/>
-        <v>1542</v>
-      </c>
-      <c r="H58" s="104">
-        <f t="shared" si="1"/>
-        <v>835</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8">
-      <c r="B59" t="s">
-        <v>644</v>
-      </c>
-      <c r="C59">
-        <v>53</v>
-      </c>
-      <c r="E59" s="102">
-        <v>44760</v>
-      </c>
-      <c r="F59" s="104">
-        <v>195</v>
-      </c>
-      <c r="G59" s="104">
-        <f t="shared" si="0"/>
-        <v>1737</v>
-      </c>
-      <c r="H59" s="104">
-        <f t="shared" si="1"/>
-        <v>930</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8">
-      <c r="B60" t="s">
-        <v>643</v>
-      </c>
-      <c r="C60">
-        <v>588</v>
-      </c>
-      <c r="E60" s="102">
-        <v>44761</v>
-      </c>
-      <c r="F60" s="104">
-        <v>301</v>
-      </c>
-      <c r="G60" s="104">
-        <f t="shared" si="0"/>
-        <v>2038</v>
-      </c>
-      <c r="H60" s="104">
-        <f t="shared" si="1"/>
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8">
-      <c r="B61" t="s">
-        <v>642</v>
-      </c>
-      <c r="C61">
-        <v>2</v>
-      </c>
-      <c r="E61" s="102">
-        <v>44762</v>
-      </c>
-      <c r="F61" s="104">
-        <v>256</v>
-      </c>
-      <c r="G61" s="104">
-        <f t="shared" si="0"/>
-        <v>2294</v>
-      </c>
-      <c r="H61" s="104">
-        <f t="shared" si="1"/>
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8">
-      <c r="B62" t="s">
-        <v>641</v>
-      </c>
-      <c r="C62">
-        <v>2</v>
-      </c>
-      <c r="E62" s="102">
-        <v>44763</v>
-      </c>
-      <c r="F62" s="104">
-        <v>184</v>
-      </c>
-      <c r="G62" s="104">
-        <f t="shared" si="0"/>
-        <v>2478</v>
-      </c>
-      <c r="H62" s="104">
-        <f t="shared" si="1"/>
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8">
-      <c r="B63" t="s">
-        <v>640</v>
-      </c>
-      <c r="C63">
-        <v>20</v>
-      </c>
-      <c r="E63" s="102">
-        <v>44764</v>
-      </c>
-      <c r="F63" s="104">
-        <v>308</v>
-      </c>
-      <c r="G63" s="104">
-        <f t="shared" si="0"/>
-        <v>2786</v>
-      </c>
-      <c r="H63" s="104">
-        <f t="shared" si="1"/>
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8">
-      <c r="B64" t="s">
-        <v>639</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-      <c r="E64" s="102">
-        <v>44765</v>
-      </c>
-      <c r="F64" s="104">
-        <v>9</v>
-      </c>
-      <c r="G64" s="104">
-        <f t="shared" si="0"/>
-        <v>2795</v>
-      </c>
-      <c r="H64" s="104">
-        <f t="shared" si="1"/>
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8">
-      <c r="B65" t="s">
-        <v>638</v>
-      </c>
-      <c r="C65">
-        <v>3</v>
-      </c>
-      <c r="E65" s="102">
-        <v>44766</v>
-      </c>
-      <c r="F65" s="104">
-        <v>2</v>
-      </c>
-      <c r="G65" s="104">
-        <f t="shared" si="0"/>
-        <v>2797</v>
-      </c>
-      <c r="H65" s="104">
-        <f t="shared" si="1"/>
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8">
-      <c r="B66" t="s">
-        <v>637</v>
-      </c>
-      <c r="C66">
-        <v>10</v>
-      </c>
-      <c r="E66" s="102">
-        <v>44767</v>
-      </c>
-      <c r="F66" s="104">
-        <v>439</v>
-      </c>
-      <c r="G66" s="104">
-        <f t="shared" si="0"/>
         <v>3236</v>
       </c>
-      <c r="H66" s="104">
-        <f t="shared" si="1"/>
+      <c r="J69" s="103">
+        <f t="shared" si="2"/>
         <v>1499</v>
       </c>
     </row>
-    <row r="67" spans="2:8">
-      <c r="B67" t="s">
-        <v>636</v>
-      </c>
-      <c r="C67">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8">
-      <c r="B68" t="s">
+    <row r="70" spans="2:10">
+      <c r="B70" t="s">
         <v>635</v>
-      </c>
-      <c r="C68">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8">
-      <c r="B69" t="s">
-        <v>634</v>
-      </c>
-      <c r="C69">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8">
-      <c r="B70" t="s">
-        <v>633</v>
       </c>
       <c r="C70">
         <v>3</v>
       </c>
-    </row>
-    <row r="71" spans="2:8">
+      <c r="D70">
+        <v>6</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10">
       <c r="B71" t="s">
+        <v>634</v>
+      </c>
+      <c r="C71">
+        <v>33</v>
+      </c>
+      <c r="D71">
+        <v>33</v>
+      </c>
+      <c r="E71">
+        <f t="shared" ref="E71:E84" si="3">+D71-C71</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10">
+      <c r="B72" t="s">
+        <v>633</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10">
+      <c r="B73" t="s">
         <v>632</v>
       </c>
-      <c r="C71">
+      <c r="C73">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="2:8">
-      <c r="B72" t="s">
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10">
+      <c r="B74" t="s">
         <v>631</v>
       </c>
-      <c r="C72">
+      <c r="C74">
         <v>3738</v>
       </c>
-    </row>
-    <row r="73" spans="2:8">
-      <c r="B73" t="s">
+      <c r="D74">
+        <v>4298</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="3"/>
+        <v>560</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10">
+      <c r="B75" t="s">
         <v>630</v>
       </c>
-      <c r="C73">
+      <c r="C75">
         <v>85</v>
       </c>
-    </row>
-    <row r="74" spans="2:8">
-      <c r="B74" t="s">
+      <c r="D75">
+        <v>88</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10">
+      <c r="B76" t="s">
         <v>629</v>
       </c>
-      <c r="C74">
+      <c r="C76">
         <v>264</v>
       </c>
-    </row>
-    <row r="75" spans="2:8">
-      <c r="B75" t="s">
+      <c r="D76">
+        <v>272</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10">
+      <c r="B77" t="s">
         <v>628</v>
       </c>
-      <c r="C75">
+      <c r="C77">
         <v>2</v>
       </c>
-    </row>
-    <row r="76" spans="2:8">
-      <c r="B76" t="s">
+      <c r="D77">
+        <v>2</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10">
+      <c r="B78" t="s">
         <v>627</v>
       </c>
-      <c r="C76">
+      <c r="C78">
         <v>2</v>
       </c>
-    </row>
-    <row r="77" spans="2:8">
-      <c r="B77" t="s">
+      <c r="D78">
+        <v>2</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10">
+      <c r="B79" t="s">
         <v>626</v>
       </c>
-      <c r="C77">
+      <c r="C79">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="2:8">
-      <c r="B78" t="s">
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10">
+      <c r="B80" t="s">
         <v>625</v>
       </c>
-      <c r="C78">
+      <c r="C80">
         <v>16</v>
       </c>
-    </row>
-    <row r="79" spans="2:8">
-      <c r="B79" t="s">
+      <c r="D80">
+        <v>16</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:6">
+      <c r="B81" t="s">
         <v>624</v>
       </c>
-      <c r="C79">
+      <c r="C81">
         <v>2432</v>
       </c>
-    </row>
-    <row r="80" spans="2:8">
-      <c r="B80" t="s">
+      <c r="D81">
+        <v>2546</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="3"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="82" spans="2:6">
+      <c r="B82" t="s">
         <v>623</v>
       </c>
-      <c r="C80">
+      <c r="C82">
         <v>4906</v>
       </c>
-    </row>
-    <row r="81" spans="2:3">
-      <c r="B81" t="s">
+      <c r="D82">
+        <v>5810</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="3"/>
+        <v>904</v>
+      </c>
+      <c r="F82" s="108">
+        <f>+D82/C82-1</f>
+        <v>0.18426416632694664</v>
+      </c>
+    </row>
+    <row r="83" spans="2:6">
+      <c r="B83" s="105" t="s">
+        <v>705</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:6">
+      <c r="B84" t="s">
         <v>622</v>
       </c>
-      <c r="C81">
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -15329,13 +15934,13 @@
     </row>
     <row r="25" spans="2:23">
       <c r="C25" s="32"/>
-      <c r="J25" s="101" t="s">
+      <c r="J25" s="104" t="s">
         <v>298</v>
       </c>
-      <c r="K25" s="101"/>
-      <c r="L25" s="101"/>
-      <c r="M25" s="101"/>
-      <c r="N25" s="101"/>
+      <c r="K25" s="104"/>
+      <c r="L25" s="104"/>
+      <c r="M25" s="104"/>
+      <c r="N25" s="104"/>
     </row>
     <row r="26" spans="2:23">
       <c r="C26" s="68" t="s">
@@ -16817,20 +17422,20 @@
     </row>
     <row r="330" spans="2:17">
       <c r="C330" s="32"/>
-      <c r="F330" s="101" t="s">
+      <c r="F330" s="104" t="s">
         <v>459</v>
       </c>
-      <c r="G330" s="101"/>
-      <c r="H330" s="101"/>
-      <c r="I330" s="101"/>
-      <c r="J330" s="101"/>
-      <c r="K330" s="101"/>
-      <c r="L330" s="101"/>
-      <c r="M330" s="101"/>
-      <c r="N330" s="101"/>
-      <c r="O330" s="101"/>
-      <c r="P330" s="101"/>
-      <c r="Q330" s="101"/>
+      <c r="G330" s="104"/>
+      <c r="H330" s="104"/>
+      <c r="I330" s="104"/>
+      <c r="J330" s="104"/>
+      <c r="K330" s="104"/>
+      <c r="L330" s="104"/>
+      <c r="M330" s="104"/>
+      <c r="N330" s="104"/>
+      <c r="O330" s="104"/>
+      <c r="P330" s="104"/>
+      <c r="Q330" s="104"/>
     </row>
     <row r="331" spans="2:17">
       <c r="C331" s="32" t="s">
@@ -17680,12 +18285,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100764A4B226BE2F34C80DFAA3D37A3CB30" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="70544b0716d1f2dd0e24adda29a3d132">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -17799,6 +18398,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B8FCBE5-DC3A-4133-9A7B-7CABB6178323}">
   <ds:schemaRefs>
@@ -17808,21 +18413,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFF1E9B8-B163-4EA4-B096-E0C9303C24CF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{677EA480-9029-43DF-B2CD-874C0C4FCFF8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17836,4 +18426,19 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFF1E9B8-B163-4EA4-B096-E0C9303C24CF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/SIGA.xlsx
+++ b/SIGA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E604C94-E82E-4558-8CCE-70E96CBA222F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E95436F-D591-42FD-8C44-6BA76EEAD504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="705" windowWidth="15405" windowHeight="15495" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1110" windowWidth="14565" windowHeight="12690" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -123,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="706">
   <si>
     <t>Name</t>
   </si>
@@ -2467,7 +2467,7 @@
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2666,13 +2666,14 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4977,10 +4978,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30E3C55D-9118-482B-8720-4989D85F03BD}">
-  <dimension ref="A1:J84"/>
+  <dimension ref="A1:N84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="C57" workbookViewId="0">
+      <selection activeCell="K83" sqref="K83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4988,12 +4989,12 @@
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:13">
       <c r="A1" s="102" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:13">
       <c r="C2" s="101">
         <v>44770</v>
       </c>
@@ -5014,31 +5015,40 @@
       <c r="J2" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="K2" t="s">
+        <v>701</v>
+      </c>
+      <c r="L2" t="s">
+        <v>700</v>
+      </c>
+      <c r="M2" s="104" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="C3" s="101"/>
       <c r="D3" s="101"/>
       <c r="E3" s="101"/>
       <c r="F3" s="101"/>
     </row>
-    <row r="4" spans="1:10">
-      <c r="B4" s="105" t="s">
+    <row r="4" spans="1:13">
+      <c r="B4" s="104" t="s">
         <v>704</v>
       </c>
-      <c r="C4" s="106">
+      <c r="C4" s="105">
         <f>SUM(C5:C83)</f>
         <v>21148</v>
       </c>
-      <c r="D4" s="106">
+      <c r="D4" s="105">
         <f>SUM(D5:D82)</f>
         <v>23618</v>
       </c>
-      <c r="E4" s="107">
+      <c r="E4" s="106">
         <f>+D4/C4-1</f>
         <v>0.11679591450728211</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:13">
       <c r="B5" t="s">
         <v>699</v>
       </c>
@@ -5063,8 +5073,18 @@
         <v>1</v>
       </c>
       <c r="J5" s="103"/>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="K5" s="101">
+        <v>44698</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <f>+L5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="B6" t="s">
         <v>698</v>
       </c>
@@ -5079,18 +5099,28 @@
         <v>0</v>
       </c>
       <c r="G6" s="101">
-        <v>44701</v>
-      </c>
-      <c r="H6" s="103">
+        <f>+G5+1</f>
+        <v>44699</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="103">
+        <f>+I5+H6</f>
         <v>1</v>
       </c>
-      <c r="I6" s="103">
-        <f>+H6+I5</f>
-        <v>2</v>
-      </c>
-      <c r="J6" s="103"/>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="K6" s="101">
+        <v>44699</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f>+L6+M5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="B7" t="s">
         <v>697</v>
       </c>
@@ -5105,18 +5135,28 @@
         <v>1</v>
       </c>
       <c r="G7" s="101">
-        <v>44702</v>
-      </c>
-      <c r="H7" s="103">
-        <v>2</v>
+        <f>+G6+1</f>
+        <v>44700</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
       </c>
       <c r="I7" s="103">
-        <f t="shared" ref="I7:I69" si="1">+H7+I6</f>
-        <v>4</v>
-      </c>
-      <c r="J7" s="103"/>
-    </row>
-    <row r="8" spans="1:10">
+        <f>+I6+H7</f>
+        <v>1</v>
+      </c>
+      <c r="K7" s="101">
+        <v>44700</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f t="shared" ref="M7:M70" si="1">+L7+M6</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="B8" t="s">
         <v>696</v>
       </c>
@@ -5131,18 +5171,28 @@
         <v>14</v>
       </c>
       <c r="G8" s="101">
-        <v>44704</v>
+        <v>44701</v>
       </c>
       <c r="H8" s="103">
+        <v>1</v>
+      </c>
+      <c r="I8" s="103">
+        <f>+I7+H8</f>
         <v>2</v>
       </c>
-      <c r="I8" s="103">
+      <c r="J8" s="103"/>
+      <c r="K8" s="101">
+        <v>44701</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="J8" s="103"/>
-    </row>
-    <row r="9" spans="1:10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="B9" t="s">
         <v>695</v>
       </c>
@@ -5157,18 +5207,28 @@
         <v>0</v>
       </c>
       <c r="G9" s="101">
-        <v>44705</v>
+        <v>44702</v>
       </c>
       <c r="H9" s="103">
         <v>2</v>
       </c>
       <c r="I9" s="103">
+        <f>+H9+I8</f>
+        <v>4</v>
+      </c>
+      <c r="J9" s="103"/>
+      <c r="K9" s="101">
+        <v>44702</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="J9" s="103"/>
-    </row>
-    <row r="10" spans="1:10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="B10" t="s">
         <v>694</v>
       </c>
@@ -5183,105 +5243,139 @@
         <v>0</v>
       </c>
       <c r="G10" s="101">
-        <v>44706</v>
+        <v>44704</v>
       </c>
       <c r="H10" s="103">
         <v>2</v>
       </c>
       <c r="I10" s="103">
+        <f>+H10+I9</f>
+        <v>6</v>
+      </c>
+      <c r="J10" s="103"/>
+      <c r="K10" s="101">
+        <v>44703</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="B11" t="s">
+        <v>693</v>
+      </c>
+      <c r="C11">
+        <v>393</v>
+      </c>
+      <c r="D11">
+        <v>393</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="101">
+        <v>44705</v>
+      </c>
+      <c r="H11" s="103">
+        <v>2</v>
+      </c>
+      <c r="I11" s="103">
+        <f>+H11+I10</f>
+        <v>8</v>
+      </c>
+      <c r="J11" s="103"/>
+      <c r="K11" s="101">
+        <v>44704</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="B12" t="s">
+        <v>692</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="101">
+        <v>44706</v>
+      </c>
+      <c r="H12" s="103">
+        <v>2</v>
+      </c>
+      <c r="I12" s="103">
+        <f>+H12+I11</f>
+        <v>10</v>
+      </c>
+      <c r="J12" s="103"/>
+      <c r="K12" s="101">
+        <v>44705</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="J10" s="103"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="B11" t="s">
-        <v>693</v>
-      </c>
-      <c r="C11">
-        <v>393</v>
-      </c>
-      <c r="D11">
-        <v>393</v>
-      </c>
-      <c r="E11">
+    </row>
+    <row r="13" spans="1:13">
+      <c r="B13" t="s">
+        <v>691</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="101">
+      <c r="G13" s="101">
         <v>44707</v>
       </c>
-      <c r="H11" s="103">
+      <c r="H13" s="103">
         <v>2</v>
       </c>
-      <c r="I11" s="103">
+      <c r="I13" s="103">
+        <f>+H13+I12</f>
+        <v>12</v>
+      </c>
+      <c r="J13" s="103">
+        <f>SUM(H5:H13)</f>
+        <v>12</v>
+      </c>
+      <c r="K13" s="101">
+        <v>44706</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="J11" s="103">
-        <f>SUM(H5:H11)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="B12" t="s">
-        <v>692</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="101">
-        <v>44708</v>
-      </c>
-      <c r="H12" s="103">
-        <v>1</v>
-      </c>
-      <c r="I12" s="103">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="J12" s="103">
-        <f t="shared" ref="J12:J69" si="2">SUM(H6:H12)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="B13" t="s">
-        <v>691</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="101">
-        <v>44710</v>
-      </c>
-      <c r="H13" s="103">
-        <v>2</v>
-      </c>
-      <c r="I13" s="103">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="J13" s="103">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+    </row>
+    <row r="14" spans="1:13">
       <c r="B14" t="s">
         <v>690</v>
       </c>
@@ -5296,21 +5390,31 @@
         <v>0</v>
       </c>
       <c r="G14" s="101">
-        <v>44712</v>
+        <v>44708</v>
       </c>
       <c r="H14" s="103">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I14" s="103">
+        <f>+H14+I13</f>
+        <v>13</v>
+      </c>
+      <c r="J14" s="103">
+        <f>SUM(H8:H14)</f>
+        <v>12</v>
+      </c>
+      <c r="K14" s="101">
+        <v>44707</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="J14" s="103">
-        <f t="shared" si="2"/>
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:13">
       <c r="B15" t="s">
         <v>689</v>
       </c>
@@ -5325,21 +5429,31 @@
         <v>282</v>
       </c>
       <c r="G15" s="101">
-        <v>44713</v>
+        <v>44710</v>
       </c>
       <c r="H15" s="103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" s="103">
+        <f>+H15+I14</f>
+        <v>15</v>
+      </c>
+      <c r="J15" s="103">
+        <f>SUM(H9:H15)</f>
+        <v>13</v>
+      </c>
+      <c r="K15" s="101">
+        <v>44708</v>
+      </c>
+      <c r="L15">
+        <v>3</v>
+      </c>
+      <c r="M15">
         <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="J15" s="103">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="B16" t="s">
         <v>688</v>
       </c>
@@ -5354,21 +5468,31 @@
         <v>0</v>
       </c>
       <c r="G16" s="101">
-        <v>44714</v>
+        <v>44712</v>
       </c>
       <c r="H16" s="103">
         <v>3</v>
       </c>
       <c r="I16" s="103">
+        <f>+H16+I15</f>
+        <v>18</v>
+      </c>
+      <c r="J16" s="103">
+        <f>SUM(H10:H16)</f>
+        <v>14</v>
+      </c>
+      <c r="K16" s="101">
+        <v>44709</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
         <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="J16" s="103">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13">
       <c r="B17" t="s">
         <v>687</v>
       </c>
@@ -5383,21 +5507,31 @@
         <v>0</v>
       </c>
       <c r="G17" s="101">
-        <v>44715</v>
+        <v>44713</v>
       </c>
       <c r="H17" s="103">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I17" s="103">
+        <f>+H17+I16</f>
+        <v>19</v>
+      </c>
+      <c r="J17" s="103">
+        <f>SUM(H11:H17)</f>
+        <v>13</v>
+      </c>
+      <c r="K17" s="101">
+        <v>44710</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
         <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
-      <c r="J17" s="103">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13">
       <c r="B18" t="s">
         <v>686</v>
       </c>
@@ -5412,21 +5546,31 @@
         <v>58</v>
       </c>
       <c r="G18" s="101">
-        <v>44716</v>
+        <v>44714</v>
       </c>
       <c r="H18" s="103">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I18" s="103">
+        <f>+H18+I17</f>
+        <v>22</v>
+      </c>
+      <c r="J18" s="103">
+        <f>SUM(H12:H18)</f>
+        <v>14</v>
+      </c>
+      <c r="K18" s="101">
+        <v>44711</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
         <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="J18" s="103">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13">
       <c r="B19" t="s">
         <v>685</v>
       </c>
@@ -5441,21 +5585,31 @@
         <v>0</v>
       </c>
       <c r="G19" s="101">
-        <v>44718</v>
+        <v>44715</v>
       </c>
       <c r="H19" s="103">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I19" s="103">
+        <f>+H19+I18</f>
+        <v>26</v>
+      </c>
+      <c r="J19" s="103">
+        <f>SUM(H13:H19)</f>
+        <v>16</v>
+      </c>
+      <c r="K19" s="101">
+        <v>44712</v>
+      </c>
+      <c r="L19">
+        <v>3</v>
+      </c>
+      <c r="M19">
         <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="J19" s="103">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13">
       <c r="B20" t="s">
         <v>684</v>
       </c>
@@ -5470,21 +5624,31 @@
         <v>10</v>
       </c>
       <c r="G20" s="101">
-        <v>44719</v>
+        <v>44716</v>
       </c>
       <c r="H20" s="103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" s="103">
+        <f>+H20+I19</f>
+        <v>27</v>
+      </c>
+      <c r="J20" s="103">
+        <f>SUM(H14:H20)</f>
+        <v>15</v>
+      </c>
+      <c r="K20" s="101">
+        <v>44713</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
         <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="J20" s="103">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13">
       <c r="B21" t="s">
         <v>683</v>
       </c>
@@ -5499,21 +5663,31 @@
         <v>0</v>
       </c>
       <c r="G21" s="101">
-        <v>44720</v>
+        <v>44718</v>
       </c>
       <c r="H21" s="103">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I21" s="103">
+        <f>+H21+I20</f>
+        <v>33</v>
+      </c>
+      <c r="J21" s="103">
+        <f>SUM(H15:H21)</f>
+        <v>20</v>
+      </c>
+      <c r="K21" s="101">
+        <v>44714</v>
+      </c>
+      <c r="L21">
+        <v>3</v>
+      </c>
+      <c r="M21">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="J21" s="103">
-        <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13">
       <c r="B22" t="s">
         <v>682</v>
       </c>
@@ -5528,21 +5702,31 @@
         <v>0</v>
       </c>
       <c r="G22" s="101">
-        <v>44721</v>
+        <v>44719</v>
       </c>
       <c r="H22" s="103">
         <v>2</v>
       </c>
       <c r="I22" s="103">
+        <f>+H22+I21</f>
+        <v>35</v>
+      </c>
+      <c r="J22" s="103">
+        <f>SUM(H16:H22)</f>
+        <v>20</v>
+      </c>
+      <c r="K22" s="101">
+        <v>44715</v>
+      </c>
+      <c r="L22">
+        <v>6</v>
+      </c>
+      <c r="M22">
         <f t="shared" si="1"/>
-        <v>42</v>
-      </c>
-      <c r="J22" s="103">
-        <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13">
       <c r="B23" t="s">
         <v>681</v>
       </c>
@@ -5557,21 +5741,31 @@
         <v>1</v>
       </c>
       <c r="G23" s="101">
-        <v>44722</v>
+        <v>44720</v>
       </c>
       <c r="H23" s="103">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I23" s="103">
+        <f>+H23+I22</f>
+        <v>40</v>
+      </c>
+      <c r="J23" s="103">
+        <f>SUM(H17:H23)</f>
+        <v>22</v>
+      </c>
+      <c r="K23" s="101">
+        <v>44716</v>
+      </c>
+      <c r="L23">
+        <v>2</v>
+      </c>
+      <c r="M23">
         <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="J23" s="103">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13">
       <c r="B24" t="s">
         <v>680</v>
       </c>
@@ -5586,21 +5780,31 @@
         <v>1</v>
       </c>
       <c r="G24" s="101">
-        <v>44723</v>
+        <v>44721</v>
       </c>
       <c r="H24" s="103">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I24" s="103">
+        <f>+H24+I23</f>
+        <v>42</v>
+      </c>
+      <c r="J24" s="103">
+        <f>SUM(H18:H24)</f>
+        <v>23</v>
+      </c>
+      <c r="K24" s="101">
+        <v>44717</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
         <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="J24" s="103">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13">
       <c r="B25" t="s">
         <v>679</v>
       </c>
@@ -5615,21 +5819,31 @@
         <v>0</v>
       </c>
       <c r="G25" s="101">
-        <v>44724</v>
+        <v>44722</v>
       </c>
       <c r="H25" s="103">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I25" s="103">
+        <f>+H25+I24</f>
+        <v>46</v>
+      </c>
+      <c r="J25" s="103">
+        <f>SUM(H19:H25)</f>
+        <v>24</v>
+      </c>
+      <c r="K25" s="101">
+        <v>44718</v>
+      </c>
+      <c r="L25">
+        <v>5</v>
+      </c>
+      <c r="M25">
         <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="J25" s="103">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13">
       <c r="B26" t="s">
         <v>678</v>
       </c>
@@ -5644,21 +5858,31 @@
         <v>23</v>
       </c>
       <c r="G26" s="101">
-        <v>44725</v>
+        <v>44723</v>
       </c>
       <c r="H26" s="103">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I26" s="103">
+        <f>+H26+I25</f>
+        <v>50</v>
+      </c>
+      <c r="J26" s="103">
+        <f>SUM(H20:H26)</f>
+        <v>24</v>
+      </c>
+      <c r="K26" s="101">
+        <v>44719</v>
+      </c>
+      <c r="L26">
+        <v>4</v>
+      </c>
+      <c r="M26">
         <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="J26" s="103">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13">
       <c r="B27" t="s">
         <v>677</v>
       </c>
@@ -5673,21 +5897,31 @@
         <v>0</v>
       </c>
       <c r="G27" s="101">
-        <v>44726</v>
+        <v>44724</v>
       </c>
       <c r="H27" s="103">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I27" s="103">
+        <f>+H27+I26</f>
+        <v>52</v>
+      </c>
+      <c r="J27" s="103">
+        <f>SUM(H21:H27)</f>
+        <v>25</v>
+      </c>
+      <c r="K27" s="101">
+        <v>44720</v>
+      </c>
+      <c r="L27">
+        <v>6</v>
+      </c>
+      <c r="M27">
         <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="J27" s="103">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13">
       <c r="B28" t="s">
         <v>676</v>
       </c>
@@ -5702,21 +5936,31 @@
         <v>0</v>
       </c>
       <c r="G28" s="101">
-        <v>44727</v>
+        <v>44725</v>
       </c>
       <c r="H28" s="103">
+        <v>2</v>
+      </c>
+      <c r="I28" s="103">
+        <f>+H28+I27</f>
+        <v>54</v>
+      </c>
+      <c r="J28" s="103">
+        <f>SUM(H22:H28)</f>
+        <v>21</v>
+      </c>
+      <c r="K28" s="101">
+        <v>44721</v>
+      </c>
+      <c r="L28">
         <v>7</v>
       </c>
-      <c r="I28" s="103">
+      <c r="M28">
         <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-      <c r="J28" s="103">
-        <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13">
       <c r="B29" t="s">
         <v>675</v>
       </c>
@@ -5731,21 +5975,31 @@
         <v>1</v>
       </c>
       <c r="G29" s="101">
-        <v>44728</v>
+        <v>44726</v>
       </c>
       <c r="H29" s="103">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I29" s="103">
+        <f>+H29+I28</f>
+        <v>65</v>
+      </c>
+      <c r="J29" s="103">
+        <f>SUM(H23:H29)</f>
+        <v>30</v>
+      </c>
+      <c r="K29" s="101">
+        <v>44722</v>
+      </c>
+      <c r="L29">
+        <v>4</v>
+      </c>
+      <c r="M29">
         <f t="shared" si="1"/>
-        <v>85</v>
-      </c>
-      <c r="J29" s="103">
-        <f t="shared" si="2"/>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13">
       <c r="B30" t="s">
         <v>674</v>
       </c>
@@ -5760,21 +6014,31 @@
         <v>0</v>
       </c>
       <c r="G30" s="101">
-        <v>44729</v>
+        <v>44727</v>
       </c>
       <c r="H30" s="103">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I30" s="103">
+        <f>+H30+I29</f>
+        <v>72</v>
+      </c>
+      <c r="J30" s="103">
+        <f>SUM(H24:H30)</f>
+        <v>32</v>
+      </c>
+      <c r="K30" s="101">
+        <v>44723</v>
+      </c>
+      <c r="L30">
+        <v>2</v>
+      </c>
+      <c r="M30">
         <f t="shared" si="1"/>
-        <v>89</v>
-      </c>
-      <c r="J30" s="103">
-        <f t="shared" si="2"/>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13">
       <c r="B31" t="s">
         <v>673</v>
       </c>
@@ -5789,21 +6053,31 @@
         <v>118</v>
       </c>
       <c r="G31" s="101">
-        <v>44730</v>
+        <v>44728</v>
       </c>
       <c r="H31" s="103">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I31" s="103">
+        <f>+H31+I30</f>
+        <v>85</v>
+      </c>
+      <c r="J31" s="103">
+        <f>SUM(H25:H31)</f>
+        <v>43</v>
+      </c>
+      <c r="K31" s="101">
+        <v>44724</v>
+      </c>
+      <c r="L31">
+        <v>5</v>
+      </c>
+      <c r="M31">
         <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="J31" s="103">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13">
       <c r="B32" t="s">
         <v>672</v>
       </c>
@@ -5818,21 +6092,31 @@
         <v>0</v>
       </c>
       <c r="G32" s="101">
-        <v>44731</v>
+        <v>44729</v>
       </c>
       <c r="H32" s="103">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I32" s="103">
+        <f>+H32+I31</f>
+        <v>89</v>
+      </c>
+      <c r="J32" s="103">
+        <f>SUM(H26:H32)</f>
+        <v>43</v>
+      </c>
+      <c r="K32" s="101">
+        <v>44725</v>
+      </c>
+      <c r="L32">
+        <v>3</v>
+      </c>
+      <c r="M32">
         <f t="shared" si="1"/>
-        <v>105</v>
-      </c>
-      <c r="J32" s="103">
-        <f t="shared" si="2"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14">
       <c r="B33" t="s">
         <v>671</v>
       </c>
@@ -5847,21 +6131,31 @@
         <v>137</v>
       </c>
       <c r="G33" s="101">
-        <v>44732</v>
+        <v>44730</v>
       </c>
       <c r="H33" s="103">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I33" s="103">
+        <f>+H33+I32</f>
+        <v>100</v>
+      </c>
+      <c r="J33" s="103">
+        <f>SUM(H27:H33)</f>
+        <v>50</v>
+      </c>
+      <c r="K33" s="101">
+        <v>44726</v>
+      </c>
+      <c r="L33">
+        <v>15</v>
+      </c>
+      <c r="M33">
         <f t="shared" si="1"/>
-        <v>112</v>
-      </c>
-      <c r="J33" s="103">
-        <f t="shared" si="2"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14">
       <c r="B34" t="s">
         <v>670</v>
       </c>
@@ -5876,21 +6170,31 @@
         <v>0</v>
       </c>
       <c r="G34" s="101">
-        <v>44733</v>
+        <v>44731</v>
       </c>
       <c r="H34" s="103">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I34" s="103">
+        <f>+H34+I33</f>
+        <v>105</v>
+      </c>
+      <c r="J34" s="103">
+        <f>SUM(H28:H34)</f>
+        <v>53</v>
+      </c>
+      <c r="K34" s="101">
+        <v>44727</v>
+      </c>
+      <c r="L34">
+        <v>10</v>
+      </c>
+      <c r="M34">
         <f t="shared" si="1"/>
-        <v>127</v>
-      </c>
-      <c r="J34" s="103">
-        <f t="shared" si="2"/>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14">
       <c r="B35" t="s">
         <v>669</v>
       </c>
@@ -5905,21 +6209,31 @@
         <v>0</v>
       </c>
       <c r="G35" s="101">
-        <v>44734</v>
+        <v>44732</v>
       </c>
       <c r="H35" s="103">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="I35" s="103">
+        <f>+H35+I34</f>
+        <v>112</v>
+      </c>
+      <c r="J35" s="103">
+        <f>SUM(H29:H35)</f>
+        <v>58</v>
+      </c>
+      <c r="K35" s="101">
+        <v>44728</v>
+      </c>
+      <c r="L35">
+        <v>17</v>
+      </c>
+      <c r="M35">
         <f t="shared" si="1"/>
-        <v>146</v>
-      </c>
-      <c r="J35" s="103">
-        <f t="shared" si="2"/>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14">
       <c r="B36" t="s">
         <v>668</v>
       </c>
@@ -5934,21 +6248,31 @@
         <v>0</v>
       </c>
       <c r="G36" s="101">
-        <v>44735</v>
+        <v>44733</v>
       </c>
       <c r="H36" s="103">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I36" s="103">
+        <f>+H36+I35</f>
+        <v>127</v>
+      </c>
+      <c r="J36" s="103">
+        <f>SUM(H30:H36)</f>
+        <v>62</v>
+      </c>
+      <c r="K36" s="101">
+        <v>44729</v>
+      </c>
+      <c r="L36">
+        <v>8</v>
+      </c>
+      <c r="M36">
         <f t="shared" si="1"/>
-        <v>165</v>
-      </c>
-      <c r="J36" s="103">
-        <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14">
       <c r="B37" t="s">
         <v>667</v>
       </c>
@@ -5963,21 +6287,31 @@
         <v>2</v>
       </c>
       <c r="G37" s="101">
-        <v>44736</v>
+        <v>44734</v>
       </c>
       <c r="H37" s="103">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="I37" s="103">
+        <f>+H37+I36</f>
+        <v>146</v>
+      </c>
+      <c r="J37" s="103">
+        <f>SUM(H31:H37)</f>
+        <v>74</v>
+      </c>
+      <c r="K37" s="101">
+        <v>44730</v>
+      </c>
+      <c r="L37">
+        <v>9</v>
+      </c>
+      <c r="M37">
         <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="J37" s="103">
-        <f t="shared" si="2"/>
-        <v>111</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14">
       <c r="B38" t="s">
         <v>666</v>
       </c>
@@ -5992,21 +6326,35 @@
         <v>0</v>
       </c>
       <c r="G38" s="101">
-        <v>44737</v>
+        <v>44735</v>
       </c>
       <c r="H38" s="103">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="I38" s="103">
+        <f>+H38+I37</f>
+        <v>165</v>
+      </c>
+      <c r="J38" s="103">
+        <f>SUM(H32:H38)</f>
+        <v>80</v>
+      </c>
+      <c r="K38" s="101">
+        <v>44731</v>
+      </c>
+      <c r="L38">
+        <v>4</v>
+      </c>
+      <c r="M38">
         <f t="shared" si="1"/>
-        <v>212</v>
-      </c>
-      <c r="J38" s="103">
-        <f t="shared" si="2"/>
-        <v>112</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10">
+        <v>132</v>
+      </c>
+      <c r="N38" s="103">
+        <f t="shared" ref="N38:N55" si="2">AVERAGE(L32:L38)</f>
+        <v>9.4285714285714288</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14">
       <c r="B39" t="s">
         <v>665</v>
       </c>
@@ -6021,21 +6369,35 @@
         <v>0</v>
       </c>
       <c r="G39" s="101">
-        <v>44738</v>
+        <v>44736</v>
       </c>
       <c r="H39" s="103">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I39" s="103">
+        <f>+H39+I38</f>
+        <v>200</v>
+      </c>
+      <c r="J39" s="103">
+        <f>SUM(H33:H39)</f>
+        <v>111</v>
+      </c>
+      <c r="K39" s="101">
+        <v>44732</v>
+      </c>
+      <c r="L39">
+        <v>11</v>
+      </c>
+      <c r="M39">
         <f t="shared" si="1"/>
-        <v>224</v>
-      </c>
-      <c r="J39" s="103">
+        <v>143</v>
+      </c>
+      <c r="N39" s="103">
         <f t="shared" si="2"/>
-        <v>119</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10">
+        <v>10.571428571428571</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14">
       <c r="B40" t="s">
         <v>664</v>
       </c>
@@ -6050,21 +6412,35 @@
         <v>0</v>
       </c>
       <c r="G40" s="101">
-        <v>44739</v>
+        <v>44737</v>
       </c>
       <c r="H40" s="103">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="I40" s="103">
+        <f>+H40+I39</f>
+        <v>212</v>
+      </c>
+      <c r="J40" s="103">
+        <f>SUM(H34:H40)</f>
+        <v>112</v>
+      </c>
+      <c r="K40" s="101">
+        <v>44733</v>
+      </c>
+      <c r="L40">
+        <v>14</v>
+      </c>
+      <c r="M40">
         <f t="shared" si="1"/>
-        <v>277</v>
-      </c>
-      <c r="J40" s="103">
+        <v>157</v>
+      </c>
+      <c r="N40" s="103">
         <f t="shared" si="2"/>
-        <v>165</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10">
+        <v>10.428571428571429</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14">
       <c r="B41" t="s">
         <v>663</v>
       </c>
@@ -6079,21 +6455,35 @@
         <v>13</v>
       </c>
       <c r="G41" s="101">
-        <v>44740</v>
+        <v>44738</v>
       </c>
       <c r="H41" s="103">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="I41" s="103">
+        <f>+H41+I40</f>
+        <v>224</v>
+      </c>
+      <c r="J41" s="103">
+        <f>SUM(H35:H41)</f>
+        <v>119</v>
+      </c>
+      <c r="K41" s="101">
+        <v>44734</v>
+      </c>
+      <c r="L41">
+        <v>20</v>
+      </c>
+      <c r="M41">
         <f t="shared" si="1"/>
-        <v>307</v>
-      </c>
-      <c r="J41" s="103">
+        <v>177</v>
+      </c>
+      <c r="N41" s="103">
         <f t="shared" si="2"/>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10">
+        <v>11.857142857142858</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14">
       <c r="B42" t="s">
         <v>662</v>
       </c>
@@ -6108,21 +6498,35 @@
         <v>53</v>
       </c>
       <c r="G42" s="101">
-        <v>44741</v>
+        <v>44739</v>
       </c>
       <c r="H42" s="103">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="I42" s="103">
+        <f>+H42+I41</f>
+        <v>277</v>
+      </c>
+      <c r="J42" s="103">
+        <f>SUM(H36:H42)</f>
+        <v>165</v>
+      </c>
+      <c r="K42" s="101">
+        <v>44735</v>
+      </c>
+      <c r="L42">
+        <v>20</v>
+      </c>
+      <c r="M42">
         <f t="shared" si="1"/>
-        <v>349</v>
-      </c>
-      <c r="J42" s="103">
+        <v>197</v>
+      </c>
+      <c r="N42" s="103">
         <f t="shared" si="2"/>
-        <v>203</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10">
+        <v>12.285714285714286</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14">
       <c r="B43" t="s">
         <v>661</v>
       </c>
@@ -6137,21 +6541,35 @@
         <v>0</v>
       </c>
       <c r="G43" s="101">
-        <v>44742</v>
+        <v>44740</v>
       </c>
       <c r="H43" s="103">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="I43" s="103">
+        <f>+H43+I42</f>
+        <v>307</v>
+      </c>
+      <c r="J43" s="103">
+        <f>SUM(H37:H43)</f>
+        <v>180</v>
+      </c>
+      <c r="K43" s="101">
+        <v>44736</v>
+      </c>
+      <c r="L43">
+        <v>48</v>
+      </c>
+      <c r="M43">
         <f t="shared" si="1"/>
-        <v>406</v>
-      </c>
-      <c r="J43" s="103">
+        <v>245</v>
+      </c>
+      <c r="N43" s="103">
         <f t="shared" si="2"/>
-        <v>241</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14">
       <c r="B44" t="s">
         <v>660</v>
       </c>
@@ -6166,21 +6584,35 @@
         <v>0</v>
       </c>
       <c r="G44" s="101">
-        <v>44743</v>
+        <v>44741</v>
       </c>
       <c r="H44" s="103">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I44" s="103">
+        <f>+H44+I43</f>
+        <v>349</v>
+      </c>
+      <c r="J44" s="103">
+        <f>SUM(H38:H44)</f>
+        <v>203</v>
+      </c>
+      <c r="K44" s="101">
+        <v>44737</v>
+      </c>
+      <c r="L44">
+        <v>12</v>
+      </c>
+      <c r="M44">
         <f t="shared" si="1"/>
-        <v>458</v>
-      </c>
-      <c r="J44" s="103">
+        <v>257</v>
+      </c>
+      <c r="N44" s="103">
         <f t="shared" si="2"/>
-        <v>258</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10">
+        <v>18.428571428571427</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14">
       <c r="B45" t="s">
         <v>659</v>
       </c>
@@ -6195,21 +6627,35 @@
         <v>0</v>
       </c>
       <c r="G45" s="101">
-        <v>44744</v>
+        <v>44742</v>
       </c>
       <c r="H45" s="103">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="I45" s="103">
+        <f>+H45+I44</f>
+        <v>406</v>
+      </c>
+      <c r="J45" s="103">
+        <f>SUM(H39:H45)</f>
+        <v>241</v>
+      </c>
+      <c r="K45" s="101">
+        <v>44738</v>
+      </c>
+      <c r="L45">
+        <v>9</v>
+      </c>
+      <c r="M45">
         <f t="shared" si="1"/>
-        <v>474</v>
-      </c>
-      <c r="J45" s="103">
+        <v>266</v>
+      </c>
+      <c r="N45" s="103">
         <f t="shared" si="2"/>
-        <v>262</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10">
+        <v>19.142857142857142</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14">
       <c r="B46" t="s">
         <v>658</v>
       </c>
@@ -6224,21 +6670,35 @@
         <v>0</v>
       </c>
       <c r="G46" s="101">
-        <v>44745</v>
+        <v>44743</v>
       </c>
       <c r="H46" s="103">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="I46" s="103">
+        <f>+H46+I45</f>
+        <v>458</v>
+      </c>
+      <c r="J46" s="103">
+        <f>SUM(H40:H46)</f>
+        <v>258</v>
+      </c>
+      <c r="K46" s="101">
+        <v>44739</v>
+      </c>
+      <c r="L46">
+        <v>60</v>
+      </c>
+      <c r="M46">
         <f t="shared" si="1"/>
-        <v>485</v>
-      </c>
-      <c r="J46" s="103">
+        <v>326</v>
+      </c>
+      <c r="N46" s="103">
         <f t="shared" si="2"/>
-        <v>261</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10">
+        <v>26.142857142857142</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14">
       <c r="B47" t="s">
         <v>657</v>
       </c>
@@ -6253,21 +6713,35 @@
         <v>0</v>
       </c>
       <c r="G47" s="101">
-        <v>44746</v>
+        <v>44744</v>
       </c>
       <c r="H47" s="103">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="I47" s="103">
+        <f>+H47+I46</f>
+        <v>474</v>
+      </c>
+      <c r="J47" s="103">
+        <f>SUM(H41:H47)</f>
+        <v>262</v>
+      </c>
+      <c r="K47" s="101">
+        <v>44740</v>
+      </c>
+      <c r="L47">
+        <v>40</v>
+      </c>
+      <c r="M47">
         <f t="shared" si="1"/>
-        <v>492</v>
-      </c>
-      <c r="J47" s="103">
+        <v>366</v>
+      </c>
+      <c r="N47" s="103">
         <f t="shared" si="2"/>
-        <v>215</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10">
+        <v>29.857142857142858</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14">
       <c r="B48" t="s">
         <v>656</v>
       </c>
@@ -6282,21 +6756,35 @@
         <v>7</v>
       </c>
       <c r="G48" s="101">
-        <v>44747</v>
+        <v>44745</v>
       </c>
       <c r="H48" s="103">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="I48" s="103">
+        <f>+H48+I47</f>
+        <v>485</v>
+      </c>
+      <c r="J48" s="103">
+        <f>SUM(H42:H48)</f>
+        <v>261</v>
+      </c>
+      <c r="K48" s="101">
+        <v>44741</v>
+      </c>
+      <c r="L48">
+        <v>42</v>
+      </c>
+      <c r="M48">
         <f t="shared" si="1"/>
-        <v>529</v>
-      </c>
-      <c r="J48" s="103">
+        <v>408</v>
+      </c>
+      <c r="N48" s="103">
         <f t="shared" si="2"/>
-        <v>222</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14">
       <c r="B49" t="s">
         <v>655</v>
       </c>
@@ -6311,21 +6799,35 @@
         <v>0</v>
       </c>
       <c r="G49" s="101">
-        <v>44748</v>
+        <v>44746</v>
       </c>
       <c r="H49" s="103">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="I49" s="103">
+        <f>+H49+I48</f>
+        <v>492</v>
+      </c>
+      <c r="J49" s="103">
+        <f>SUM(H43:H49)</f>
+        <v>215</v>
+      </c>
+      <c r="K49" s="101">
+        <v>44742</v>
+      </c>
+      <c r="L49">
+        <v>57</v>
+      </c>
+      <c r="M49">
         <f t="shared" si="1"/>
-        <v>574</v>
-      </c>
-      <c r="J49" s="103">
+        <v>465</v>
+      </c>
+      <c r="N49" s="103">
         <f t="shared" si="2"/>
-        <v>225</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10">
+        <v>38.285714285714285</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14">
       <c r="B50" t="s">
         <v>654</v>
       </c>
@@ -6340,21 +6842,35 @@
         <v>0</v>
       </c>
       <c r="G50" s="101">
-        <v>44749</v>
+        <v>44747</v>
       </c>
       <c r="H50" s="103">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="I50" s="103">
+        <f>+H50+I49</f>
+        <v>529</v>
+      </c>
+      <c r="J50" s="103">
+        <f>SUM(H44:H50)</f>
+        <v>222</v>
+      </c>
+      <c r="K50" s="101">
+        <v>44743</v>
+      </c>
+      <c r="L50">
+        <v>54</v>
+      </c>
+      <c r="M50">
         <f t="shared" si="1"/>
-        <v>626</v>
-      </c>
-      <c r="J50" s="103">
+        <v>519</v>
+      </c>
+      <c r="N50" s="103">
         <f t="shared" si="2"/>
-        <v>220</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10">
+        <v>39.142857142857146</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14">
       <c r="B51" t="s">
         <v>653</v>
       </c>
@@ -6369,21 +6885,35 @@
         <v>0</v>
       </c>
       <c r="G51" s="101">
-        <v>44750</v>
+        <v>44748</v>
       </c>
       <c r="H51" s="103">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I51" s="103">
+        <f>+H51+I50</f>
+        <v>574</v>
+      </c>
+      <c r="J51" s="103">
+        <f>SUM(H45:H51)</f>
+        <v>225</v>
+      </c>
+      <c r="K51" s="101">
+        <v>44744</v>
+      </c>
+      <c r="L51">
+        <v>15</v>
+      </c>
+      <c r="M51">
         <f t="shared" si="1"/>
-        <v>663</v>
-      </c>
-      <c r="J51" s="103">
+        <v>534</v>
+      </c>
+      <c r="N51" s="103">
         <f t="shared" si="2"/>
-        <v>205</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10">
+        <v>39.571428571428569</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14">
       <c r="B52" t="s">
         <v>652</v>
       </c>
@@ -6398,21 +6928,35 @@
         <v>0</v>
       </c>
       <c r="G52" s="101">
-        <v>44751</v>
+        <v>44749</v>
       </c>
       <c r="H52" s="103">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="I52" s="103">
+        <f>+H52+I51</f>
+        <v>626</v>
+      </c>
+      <c r="J52" s="103">
+        <f>SUM(H46:H52)</f>
+        <v>220</v>
+      </c>
+      <c r="K52" s="101">
+        <v>44745</v>
+      </c>
+      <c r="L52">
+        <v>8</v>
+      </c>
+      <c r="M52">
         <f t="shared" si="1"/>
-        <v>700</v>
-      </c>
-      <c r="J52" s="103">
+        <v>542</v>
+      </c>
+      <c r="N52" s="103">
         <f t="shared" si="2"/>
-        <v>226</v>
-      </c>
-    </row>
-    <row r="53" spans="2:10">
+        <v>39.428571428571431</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14">
       <c r="B53" t="s">
         <v>651</v>
       </c>
@@ -6427,21 +6971,35 @@
         <v>47</v>
       </c>
       <c r="G53" s="101">
-        <v>44752</v>
+        <v>44750</v>
       </c>
       <c r="H53" s="103">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="I53" s="103">
+        <f>+H53+I52</f>
+        <v>663</v>
+      </c>
+      <c r="J53" s="103">
+        <f>SUM(H47:H53)</f>
+        <v>205</v>
+      </c>
+      <c r="K53" s="101">
+        <v>44746</v>
+      </c>
+      <c r="L53">
+        <v>24</v>
+      </c>
+      <c r="M53">
         <f t="shared" si="1"/>
-        <v>707</v>
-      </c>
-      <c r="J53" s="103">
+        <v>566</v>
+      </c>
+      <c r="N53" s="103">
         <f t="shared" si="2"/>
-        <v>222</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10">
+        <v>34.285714285714285</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14">
       <c r="B54" t="s">
         <v>650</v>
       </c>
@@ -6456,21 +7014,35 @@
         <v>0</v>
       </c>
       <c r="G54" s="101">
-        <v>44753</v>
+        <v>44751</v>
       </c>
       <c r="H54" s="103">
-        <v>100</v>
+        <v>37</v>
       </c>
       <c r="I54" s="103">
+        <f>+H54+I53</f>
+        <v>700</v>
+      </c>
+      <c r="J54" s="103">
+        <f>SUM(H48:H54)</f>
+        <v>226</v>
+      </c>
+      <c r="K54" s="101">
+        <v>44747</v>
+      </c>
+      <c r="L54">
+        <v>36</v>
+      </c>
+      <c r="M54">
         <f t="shared" si="1"/>
-        <v>807</v>
-      </c>
-      <c r="J54" s="103">
+        <v>602</v>
+      </c>
+      <c r="N54" s="103">
         <f t="shared" si="2"/>
-        <v>315</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10">
+        <v>33.714285714285715</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14">
       <c r="B55" t="s">
         <v>649</v>
       </c>
@@ -6485,21 +7057,35 @@
         <v>0</v>
       </c>
       <c r="G55" s="101">
-        <v>44754</v>
+        <v>44752</v>
       </c>
       <c r="H55" s="103">
-        <v>212</v>
+        <v>7</v>
       </c>
       <c r="I55" s="103">
+        <f>+H55+I54</f>
+        <v>707</v>
+      </c>
+      <c r="J55" s="103">
+        <f>SUM(H49:H55)</f>
+        <v>222</v>
+      </c>
+      <c r="K55" s="101">
+        <v>44748</v>
+      </c>
+      <c r="L55">
+        <v>46</v>
+      </c>
+      <c r="M55">
         <f t="shared" si="1"/>
-        <v>1019</v>
-      </c>
-      <c r="J55" s="103">
+        <v>648</v>
+      </c>
+      <c r="N55" s="103">
         <f t="shared" si="2"/>
-        <v>490</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10">
+        <v>34.285714285714285</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14">
       <c r="B56" t="s">
         <v>648</v>
       </c>
@@ -6514,21 +7100,35 @@
         <v>0</v>
       </c>
       <c r="G56" s="101">
-        <v>44755</v>
+        <v>44753</v>
       </c>
       <c r="H56" s="103">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="I56" s="103">
+        <f>+H56+I55</f>
+        <v>807</v>
+      </c>
+      <c r="J56" s="103">
+        <f>SUM(H50:H56)</f>
+        <v>315</v>
+      </c>
+      <c r="K56" s="101">
+        <v>44749</v>
+      </c>
+      <c r="L56">
+        <v>53</v>
+      </c>
+      <c r="M56">
         <f t="shared" si="1"/>
-        <v>1159</v>
-      </c>
-      <c r="J56" s="103">
-        <f t="shared" si="2"/>
-        <v>585</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10">
+        <v>701</v>
+      </c>
+      <c r="N56" s="103">
+        <f t="shared" ref="N56:N82" si="3">AVERAGE(L50:L56)</f>
+        <v>33.714285714285715</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14">
       <c r="B57" t="s">
         <v>647</v>
       </c>
@@ -6543,21 +7143,35 @@
         <v>4</v>
       </c>
       <c r="G57" s="101">
-        <v>44756</v>
+        <v>44754</v>
       </c>
       <c r="H57" s="103">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="I57" s="103">
+        <f>+H57+I56</f>
+        <v>1019</v>
+      </c>
+      <c r="J57" s="103">
+        <f>SUM(H51:H57)</f>
+        <v>490</v>
+      </c>
+      <c r="K57" s="101">
+        <v>44750</v>
+      </c>
+      <c r="L57">
+        <v>36</v>
+      </c>
+      <c r="M57">
         <f t="shared" si="1"/>
-        <v>1375</v>
-      </c>
-      <c r="J57" s="103">
-        <f t="shared" si="2"/>
-        <v>749</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10">
+        <v>737</v>
+      </c>
+      <c r="N57" s="103">
+        <f t="shared" si="3"/>
+        <v>31.142857142857142</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14">
       <c r="B58" t="s">
         <v>646</v>
       </c>
@@ -6572,21 +7186,35 @@
         <v>0</v>
       </c>
       <c r="G58" s="101">
-        <v>44757</v>
+        <v>44755</v>
       </c>
       <c r="H58" s="103">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="I58" s="103">
+        <f>+H58+I57</f>
+        <v>1159</v>
+      </c>
+      <c r="J58" s="103">
+        <f>SUM(H52:H58)</f>
+        <v>585</v>
+      </c>
+      <c r="K58" s="101">
+        <v>44751</v>
+      </c>
+      <c r="L58">
+        <v>41</v>
+      </c>
+      <c r="M58">
         <f t="shared" si="1"/>
-        <v>1534</v>
-      </c>
-      <c r="J58" s="103">
-        <f t="shared" si="2"/>
-        <v>871</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10">
+        <v>778</v>
+      </c>
+      <c r="N58" s="103">
+        <f t="shared" si="3"/>
+        <v>34.857142857142854</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14">
       <c r="B59" t="s">
         <v>645</v>
       </c>
@@ -6601,21 +7229,35 @@
         <v>54</v>
       </c>
       <c r="G59" s="101">
-        <v>44758</v>
+        <v>44756</v>
       </c>
       <c r="H59" s="103">
+        <v>216</v>
+      </c>
+      <c r="I59" s="103">
+        <f>+H59+I58</f>
+        <v>1375</v>
+      </c>
+      <c r="J59" s="103">
+        <f>SUM(H53:H59)</f>
+        <v>749</v>
+      </c>
+      <c r="K59" s="101">
+        <v>44752</v>
+      </c>
+      <c r="L59">
         <v>7</v>
       </c>
-      <c r="I59" s="103">
+      <c r="M59">
         <f t="shared" si="1"/>
-        <v>1541</v>
-      </c>
-      <c r="J59" s="103">
-        <f t="shared" si="2"/>
-        <v>841</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10">
+        <v>785</v>
+      </c>
+      <c r="N59" s="103">
+        <f t="shared" si="3"/>
+        <v>34.714285714285715</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14">
       <c r="D60">
         <v>1</v>
       </c>
@@ -6623,12 +7265,36 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G60" s="101"/>
-      <c r="H60" s="103"/>
-      <c r="I60" s="103"/>
-      <c r="J60" s="103"/>
-    </row>
-    <row r="61" spans="2:10">
+      <c r="G60" s="101">
+        <v>44757</v>
+      </c>
+      <c r="H60" s="103">
+        <v>159</v>
+      </c>
+      <c r="I60" s="103">
+        <f>+H60+I59</f>
+        <v>1534</v>
+      </c>
+      <c r="J60" s="103">
+        <f>SUM(H54:H60)</f>
+        <v>871</v>
+      </c>
+      <c r="K60" s="101">
+        <v>44753</v>
+      </c>
+      <c r="L60">
+        <v>95</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="1"/>
+        <v>880</v>
+      </c>
+      <c r="N60" s="103">
+        <f t="shared" si="3"/>
+        <v>44.857142857142854</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14">
       <c r="B61" t="s">
         <v>644</v>
       </c>
@@ -6643,21 +7309,35 @@
         <v>6</v>
       </c>
       <c r="G61" s="101">
-        <v>44759</v>
+        <v>44758</v>
       </c>
       <c r="H61" s="103">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I61" s="103">
-        <f>+H61+I59</f>
-        <v>1542</v>
+        <f>+H61+I60</f>
+        <v>1541</v>
       </c>
       <c r="J61" s="103">
-        <f>SUM(H54:H61)</f>
-        <v>835</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10">
+        <f>SUM(H55:H61)</f>
+        <v>841</v>
+      </c>
+      <c r="K61" s="101">
+        <v>44754</v>
+      </c>
+      <c r="L61">
+        <v>157</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="1"/>
+        <v>1037</v>
+      </c>
+      <c r="N61" s="103">
+        <f t="shared" si="3"/>
+        <v>62.142857142857146</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14">
       <c r="B62" t="s">
         <v>643</v>
       </c>
@@ -6672,21 +7352,35 @@
         <v>45</v>
       </c>
       <c r="G62" s="101">
-        <v>44760</v>
+        <v>44759</v>
       </c>
       <c r="H62" s="103">
-        <v>195</v>
+        <v>1</v>
       </c>
       <c r="I62" s="103">
+        <f>+H62+I61</f>
+        <v>1542</v>
+      </c>
+      <c r="J62" s="103">
+        <f>SUM(H56:H62)</f>
+        <v>835</v>
+      </c>
+      <c r="K62" s="101">
+        <v>44755</v>
+      </c>
+      <c r="L62">
+        <v>141</v>
+      </c>
+      <c r="M62">
         <f t="shared" si="1"/>
-        <v>1737</v>
-      </c>
-      <c r="J62" s="103">
-        <f>SUM(H55:H62)</f>
-        <v>930</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10">
+        <v>1178</v>
+      </c>
+      <c r="N62" s="103">
+        <f t="shared" si="3"/>
+        <v>75.714285714285708</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14">
       <c r="B63" t="s">
         <v>642</v>
       </c>
@@ -6701,21 +7395,35 @@
         <v>0</v>
       </c>
       <c r="G63" s="101">
-        <v>44761</v>
+        <v>44760</v>
       </c>
       <c r="H63" s="103">
-        <v>301</v>
+        <v>195</v>
       </c>
       <c r="I63" s="103">
+        <f>+H63+I62</f>
+        <v>1737</v>
+      </c>
+      <c r="J63" s="103">
+        <f>SUM(H57:H63)</f>
+        <v>930</v>
+      </c>
+      <c r="K63" s="101">
+        <v>44756</v>
+      </c>
+      <c r="L63">
+        <v>209</v>
+      </c>
+      <c r="M63">
         <f t="shared" si="1"/>
-        <v>2038</v>
-      </c>
-      <c r="J63" s="103">
-        <f>SUM(H56:H63)</f>
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10">
+        <v>1387</v>
+      </c>
+      <c r="N63" s="103">
+        <f t="shared" si="3"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14">
       <c r="B64" t="s">
         <v>641</v>
       </c>
@@ -6730,21 +7438,35 @@
         <v>0</v>
       </c>
       <c r="G64" s="101">
-        <v>44762</v>
+        <v>44761</v>
       </c>
       <c r="H64" s="103">
-        <v>256</v>
+        <v>301</v>
       </c>
       <c r="I64" s="103">
+        <f>+H64+I63</f>
+        <v>2038</v>
+      </c>
+      <c r="J64" s="103">
+        <f>SUM(H58:H64)</f>
+        <v>1019</v>
+      </c>
+      <c r="K64" s="101">
+        <v>44757</v>
+      </c>
+      <c r="L64">
+        <v>152</v>
+      </c>
+      <c r="M64">
         <f t="shared" si="1"/>
-        <v>2294</v>
-      </c>
-      <c r="J64" s="103">
-        <f>SUM(H57:H64)</f>
-        <v>1135</v>
-      </c>
-    </row>
-    <row r="65" spans="2:10">
+        <v>1539</v>
+      </c>
+      <c r="N64" s="103">
+        <f t="shared" si="3"/>
+        <v>114.57142857142857</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14">
       <c r="B65" t="s">
         <v>640</v>
       </c>
@@ -6759,21 +7481,35 @@
         <v>1</v>
       </c>
       <c r="G65" s="101">
-        <v>44763</v>
+        <v>44762</v>
       </c>
       <c r="H65" s="103">
-        <v>184</v>
+        <v>256</v>
       </c>
       <c r="I65" s="103">
+        <f>+H65+I64</f>
+        <v>2294</v>
+      </c>
+      <c r="J65" s="103">
+        <f>SUM(H59:H65)</f>
+        <v>1135</v>
+      </c>
+      <c r="K65" s="101">
+        <v>44758</v>
+      </c>
+      <c r="L65">
+        <v>7</v>
+      </c>
+      <c r="M65">
         <f t="shared" si="1"/>
-        <v>2478</v>
-      </c>
-      <c r="J65" s="103">
-        <f>SUM(H58:H65)</f>
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="66" spans="2:10">
+        <v>1546</v>
+      </c>
+      <c r="N65" s="103">
+        <f t="shared" si="3"/>
+        <v>109.71428571428571</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14">
       <c r="B66" t="s">
         <v>639</v>
       </c>
@@ -6788,21 +7524,35 @@
         <v>0</v>
       </c>
       <c r="G66" s="101">
-        <v>44764</v>
+        <v>44763</v>
       </c>
       <c r="H66" s="103">
-        <v>308</v>
+        <v>184</v>
       </c>
       <c r="I66" s="103">
+        <f>+H66+I65</f>
+        <v>2478</v>
+      </c>
+      <c r="J66" s="103">
+        <f>SUM(H60:H66)</f>
+        <v>1103</v>
+      </c>
+      <c r="K66" s="101">
+        <v>44759</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
         <f t="shared" si="1"/>
-        <v>2786</v>
-      </c>
-      <c r="J66" s="103">
-        <f>SUM(H59:H66)</f>
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="67" spans="2:10">
+        <v>1547</v>
+      </c>
+      <c r="N66" s="103">
+        <f t="shared" si="3"/>
+        <v>108.85714285714286</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14">
       <c r="B67" t="s">
         <v>638</v>
       </c>
@@ -6817,21 +7567,35 @@
         <v>0</v>
       </c>
       <c r="G67" s="101">
-        <v>44765</v>
+        <v>44764</v>
       </c>
       <c r="H67" s="103">
-        <v>9</v>
+        <v>308</v>
       </c>
       <c r="I67" s="103">
+        <f>+H67+I66</f>
+        <v>2786</v>
+      </c>
+      <c r="J67" s="103">
+        <f>SUM(H61:H67)</f>
+        <v>1252</v>
+      </c>
+      <c r="K67" s="101">
+        <v>44760</v>
+      </c>
+      <c r="L67">
+        <v>168</v>
+      </c>
+      <c r="M67">
         <f t="shared" si="1"/>
-        <v>2795</v>
-      </c>
-      <c r="J67" s="103">
-        <f t="shared" si="2"/>
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="68" spans="2:10">
+        <v>1715</v>
+      </c>
+      <c r="N67" s="103">
+        <f t="shared" si="3"/>
+        <v>119.28571428571429</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14">
       <c r="B68" t="s">
         <v>637</v>
       </c>
@@ -6846,21 +7610,35 @@
         <v>0</v>
       </c>
       <c r="G68" s="101">
-        <v>44766</v>
+        <v>44765</v>
       </c>
       <c r="H68" s="103">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I68" s="103">
+        <f>+H68+I67</f>
+        <v>2795</v>
+      </c>
+      <c r="J68" s="103">
+        <f>SUM(H62:H68)</f>
+        <v>1254</v>
+      </c>
+      <c r="K68" s="101">
+        <v>44761</v>
+      </c>
+      <c r="L68">
+        <v>292</v>
+      </c>
+      <c r="M68">
         <f t="shared" si="1"/>
-        <v>2797</v>
-      </c>
-      <c r="J68" s="103">
-        <f t="shared" si="2"/>
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="69" spans="2:10">
+        <v>2007</v>
+      </c>
+      <c r="N68" s="103">
+        <f t="shared" si="3"/>
+        <v>138.57142857142858</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14">
       <c r="B69" t="s">
         <v>636</v>
       </c>
@@ -6875,21 +7653,35 @@
         <v>0</v>
       </c>
       <c r="G69" s="101">
-        <v>44767</v>
+        <v>44766</v>
       </c>
       <c r="H69" s="103">
-        <v>439</v>
+        <v>2</v>
       </c>
       <c r="I69" s="103">
+        <f>+H69+I68</f>
+        <v>2797</v>
+      </c>
+      <c r="J69" s="103">
+        <f>SUM(H63:H69)</f>
+        <v>1255</v>
+      </c>
+      <c r="K69" s="101">
+        <v>44762</v>
+      </c>
+      <c r="L69">
+        <v>255</v>
+      </c>
+      <c r="M69">
         <f t="shared" si="1"/>
-        <v>3236</v>
-      </c>
-      <c r="J69" s="103">
-        <f t="shared" si="2"/>
-        <v>1499</v>
-      </c>
-    </row>
-    <row r="70" spans="2:10">
+        <v>2262</v>
+      </c>
+      <c r="N69" s="103">
+        <f t="shared" si="3"/>
+        <v>154.85714285714286</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14">
       <c r="B70" t="s">
         <v>635</v>
       </c>
@@ -6903,8 +7695,36 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="71" spans="2:10">
+      <c r="G70" s="101">
+        <v>44767</v>
+      </c>
+      <c r="H70" s="103">
+        <v>439</v>
+      </c>
+      <c r="I70" s="103">
+        <f>+H70+I69</f>
+        <v>3236</v>
+      </c>
+      <c r="J70" s="103">
+        <f>SUM(H64:H70)</f>
+        <v>1499</v>
+      </c>
+      <c r="K70" s="101">
+        <v>44763</v>
+      </c>
+      <c r="L70">
+        <v>183</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="1"/>
+        <v>2445</v>
+      </c>
+      <c r="N70" s="103">
+        <f t="shared" si="3"/>
+        <v>151.14285714285714</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14">
       <c r="B71" t="s">
         <v>634</v>
       </c>
@@ -6915,11 +7735,25 @@
         <v>33</v>
       </c>
       <c r="E71">
-        <f t="shared" ref="E71:E84" si="3">+D71-C71</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="2:10">
+        <f t="shared" ref="E71:E84" si="4">+D71-C71</f>
+        <v>0</v>
+      </c>
+      <c r="K71" s="101">
+        <v>44764</v>
+      </c>
+      <c r="L71">
+        <v>322</v>
+      </c>
+      <c r="M71">
+        <f t="shared" ref="M71:M83" si="5">+L71+M70</f>
+        <v>2767</v>
+      </c>
+      <c r="N71" s="103">
+        <f t="shared" si="3"/>
+        <v>175.42857142857142</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14">
       <c r="B72" t="s">
         <v>633</v>
       </c>
@@ -6930,11 +7764,25 @@
         <v>3</v>
       </c>
       <c r="E72">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K72" s="101">
+        <v>44765</v>
+      </c>
+      <c r="L72">
+        <v>13</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="5"/>
+        <v>2780</v>
+      </c>
+      <c r="N72" s="103">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:10">
+        <v>176.28571428571428</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14">
       <c r="B73" t="s">
         <v>632</v>
       </c>
@@ -6945,11 +7793,25 @@
         <v>1</v>
       </c>
       <c r="E73">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K73" s="101">
+        <v>44766</v>
+      </c>
+      <c r="L73">
+        <v>6</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="5"/>
+        <v>2786</v>
+      </c>
+      <c r="N73" s="103">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="2:10">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14">
       <c r="B74" t="s">
         <v>631</v>
       </c>
@@ -6960,11 +7822,25 @@
         <v>4298</v>
       </c>
       <c r="E74">
+        <f t="shared" si="4"/>
+        <v>560</v>
+      </c>
+      <c r="K74" s="101">
+        <v>44767</v>
+      </c>
+      <c r="L74">
+        <v>812</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="5"/>
+        <v>3598</v>
+      </c>
+      <c r="N74" s="103">
         <f t="shared" si="3"/>
-        <v>560</v>
-      </c>
-    </row>
-    <row r="75" spans="2:10">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14">
       <c r="B75" t="s">
         <v>630</v>
       </c>
@@ -6975,11 +7851,25 @@
         <v>88</v>
       </c>
       <c r="E75">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="K75" s="101">
+        <v>44768</v>
+      </c>
+      <c r="L75">
+        <v>586</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="5"/>
+        <v>4184</v>
+      </c>
+      <c r="N75" s="103">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="2:10">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14">
       <c r="B76" t="s">
         <v>629</v>
       </c>
@@ -6990,11 +7880,25 @@
         <v>272</v>
       </c>
       <c r="E76">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="K76" s="101">
+        <v>44769</v>
+      </c>
+      <c r="L76">
+        <v>476</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="5"/>
+        <v>4660</v>
+      </c>
+      <c r="N76" s="103">
         <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="2:10">
+        <v>342.57142857142856</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14">
       <c r="B77" t="s">
         <v>628</v>
       </c>
@@ -7005,11 +7909,25 @@
         <v>2</v>
       </c>
       <c r="E77">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K77" s="101">
+        <v>44770</v>
+      </c>
+      <c r="L77">
+        <v>184</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="5"/>
+        <v>4844</v>
+      </c>
+      <c r="N77" s="103">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="2:10">
+        <v>342.71428571428572</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14">
       <c r="B78" t="s">
         <v>627</v>
       </c>
@@ -7020,11 +7938,25 @@
         <v>2</v>
       </c>
       <c r="E78">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K78" s="101">
+        <v>44771</v>
+      </c>
+      <c r="L78">
+        <v>435</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="5"/>
+        <v>5279</v>
+      </c>
+      <c r="N78" s="109">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="2:10">
+        <v>358.85714285714283</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14">
       <c r="B79" t="s">
         <v>626</v>
       </c>
@@ -7035,11 +7967,25 @@
         <v>1</v>
       </c>
       <c r="E79">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K79" s="101">
+        <v>44772</v>
+      </c>
+      <c r="L79">
+        <v>16</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="5"/>
+        <v>5295</v>
+      </c>
+      <c r="N79" s="109">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="2:10">
+        <v>359.28571428571428</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14">
       <c r="B80" t="s">
         <v>625</v>
       </c>
@@ -7050,11 +7996,25 @@
         <v>16</v>
       </c>
       <c r="E80">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K80" s="101">
+        <v>44773</v>
+      </c>
+      <c r="L80">
+        <v>14</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="5"/>
+        <v>5309</v>
+      </c>
+      <c r="N80" s="109">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6">
+        <v>360.42857142857144</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14">
       <c r="B81" t="s">
         <v>624</v>
       </c>
@@ -7065,11 +8025,25 @@
         <v>2546</v>
       </c>
       <c r="E81">
+        <f t="shared" si="4"/>
+        <v>114</v>
+      </c>
+      <c r="K81" s="101">
+        <v>44774</v>
+      </c>
+      <c r="L81">
+        <v>562</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="5"/>
+        <v>5871</v>
+      </c>
+      <c r="N81" s="103">
         <f t="shared" si="3"/>
-        <v>114</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6">
+        <v>324.71428571428572</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14">
       <c r="B82" t="s">
         <v>623</v>
       </c>
@@ -7080,16 +8054,30 @@
         <v>5810</v>
       </c>
       <c r="E82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>904</v>
       </c>
-      <c r="F82" s="108">
+      <c r="F82" s="107">
         <f>+D82/C82-1</f>
         <v>0.18426416632694664</v>
       </c>
-    </row>
-    <row r="83" spans="2:6">
-      <c r="B83" s="105" t="s">
+      <c r="K82" s="101">
+        <v>44775</v>
+      </c>
+      <c r="L82">
+        <v>516</v>
+      </c>
+      <c r="M82">
+        <f t="shared" si="5"/>
+        <v>6387</v>
+      </c>
+      <c r="N82" s="103">
+        <f t="shared" si="3"/>
+        <v>314.71428571428572</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14">
+      <c r="B83" s="104" t="s">
         <v>705</v>
       </c>
       <c r="C83">
@@ -7099,11 +8087,25 @@
         <v>1</v>
       </c>
       <c r="E83">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="2:6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K83" s="101">
+        <v>44776</v>
+      </c>
+      <c r="L83">
+        <v>229</v>
+      </c>
+      <c r="M83">
+        <f t="shared" si="5"/>
+        <v>6616</v>
+      </c>
+      <c r="N83" s="103">
+        <f>AVERAGE(L77:L83)</f>
+        <v>279.42857142857144</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14">
       <c r="B84" t="s">
         <v>622</v>
       </c>
@@ -7114,7 +8116,7 @@
         <v>1</v>
       </c>
       <c r="E84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -15934,13 +16936,13 @@
     </row>
     <row r="25" spans="2:23">
       <c r="C25" s="32"/>
-      <c r="J25" s="104" t="s">
+      <c r="J25" s="108" t="s">
         <v>298</v>
       </c>
-      <c r="K25" s="104"/>
-      <c r="L25" s="104"/>
-      <c r="M25" s="104"/>
-      <c r="N25" s="104"/>
+      <c r="K25" s="108"/>
+      <c r="L25" s="108"/>
+      <c r="M25" s="108"/>
+      <c r="N25" s="108"/>
     </row>
     <row r="26" spans="2:23">
       <c r="C26" s="68" t="s">
@@ -17422,20 +18424,20 @@
     </row>
     <row r="330" spans="2:17">
       <c r="C330" s="32"/>
-      <c r="F330" s="104" t="s">
+      <c r="F330" s="108" t="s">
         <v>459</v>
       </c>
-      <c r="G330" s="104"/>
-      <c r="H330" s="104"/>
-      <c r="I330" s="104"/>
-      <c r="J330" s="104"/>
-      <c r="K330" s="104"/>
-      <c r="L330" s="104"/>
-      <c r="M330" s="104"/>
-      <c r="N330" s="104"/>
-      <c r="O330" s="104"/>
-      <c r="P330" s="104"/>
-      <c r="Q330" s="104"/>
+      <c r="G330" s="108"/>
+      <c r="H330" s="108"/>
+      <c r="I330" s="108"/>
+      <c r="J330" s="108"/>
+      <c r="K330" s="108"/>
+      <c r="L330" s="108"/>
+      <c r="M330" s="108"/>
+      <c r="N330" s="108"/>
+      <c r="O330" s="108"/>
+      <c r="P330" s="108"/>
+      <c r="Q330" s="108"/>
     </row>
     <row r="331" spans="2:17">
       <c r="C331" s="32" t="s">
@@ -18276,12 +19278,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18399,15 +19398,25 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B8FCBE5-DC3A-4133-9A7B-7CABB6178323}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFF1E9B8-B163-4EA4-B096-E0C9303C24CF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -18429,16 +19438,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFF1E9B8-B163-4EA4-B096-E0C9303C24CF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B8FCBE5-DC3A-4133-9A7B-7CABB6178323}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SIGA.xlsx
+++ b/SIGA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E95436F-D591-42FD-8C44-6BA76EEAD504}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A101A64-9FD2-4364-9939-5BA887035E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1110" windowWidth="14565" windowHeight="12690" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7650" yWindow="4470" windowWidth="19260" windowHeight="10590" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -2670,10 +2670,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4978,10 +4978,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30E3C55D-9118-482B-8720-4989D85F03BD}">
-  <dimension ref="A1:N84"/>
+  <dimension ref="A1:O92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C57" workbookViewId="0">
-      <selection activeCell="K83" sqref="K83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4989,66 +4989,74 @@
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="102" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="C2" s="101">
         <v>44770</v>
       </c>
       <c r="D2" s="101">
         <v>44775</v>
       </c>
-      <c r="E2" s="101"/>
+      <c r="E2" s="101">
+        <v>44778</v>
+      </c>
       <c r="F2" s="101"/>
-      <c r="G2" t="s">
+      <c r="G2" s="101"/>
+      <c r="H2" t="s">
         <v>701</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>700</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>702</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>703</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>701</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>700</v>
       </c>
-      <c r="M2" s="104" t="s">
+      <c r="N2" s="104" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="C3" s="101"/>
       <c r="D3" s="101"/>
       <c r="E3" s="101"/>
       <c r="F3" s="101"/>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="G3" s="101"/>
+    </row>
+    <row r="4" spans="1:14">
       <c r="B4" s="104" t="s">
         <v>704</v>
       </c>
       <c r="C4" s="105">
-        <f>SUM(C5:C83)</f>
+        <f>SUM(C5:C91)</f>
         <v>21148</v>
       </c>
       <c r="D4" s="105">
-        <f>SUM(D5:D82)</f>
+        <f>SUM(D5:D90)</f>
         <v>23618</v>
       </c>
-      <c r="E4" s="106">
-        <f>+D4/C4-1</f>
-        <v>0.11679591450728211</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="E4" s="105">
+        <f>SUM(E5:E97)</f>
+        <v>28220</v>
+      </c>
+      <c r="F4" s="106">
+        <f>+E4/C4-1</f>
+        <v>0.33440514469453375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="B5" t="s">
         <v>699</v>
       </c>
@@ -5059,32 +5067,31 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <f>+D5-C5</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="101">
+        <v>4</v>
+      </c>
+      <c r="H5" s="101">
         <v>44698</v>
       </c>
-      <c r="H5" s="103">
+      <c r="I5" s="103">
         <v>1</v>
       </c>
-      <c r="I5" s="103">
-        <f>+H5</f>
+      <c r="J5" s="103">
+        <f>+I5</f>
         <v>1</v>
       </c>
-      <c r="J5" s="103"/>
-      <c r="K5" s="101">
+      <c r="K5" s="103"/>
+      <c r="L5" s="101">
         <v>44698</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>1</v>
       </c>
-      <c r="M5">
-        <f>+L5</f>
+      <c r="N5">
+        <f>+M5</f>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="B6" t="s">
         <v>698</v>
       </c>
@@ -5095,32 +5102,31 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E70" si="0">+D6-C6</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="101">
-        <f>+G5+1</f>
+        <v>31</v>
+      </c>
+      <c r="H6" s="101">
+        <f>+H5+1</f>
         <v>44699</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="103">
-        <f>+I5+H6</f>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="103">
+        <f>+J5+I6</f>
         <v>1</v>
       </c>
-      <c r="K6" s="101">
+      <c r="L6" s="101">
         <v>44699</v>
       </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
       <c r="M6">
-        <f>+L6+M5</f>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <f>+M6+N5</f>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="B7" t="s">
         <v>697</v>
       </c>
@@ -5131,32 +5137,31 @@
         <v>45</v>
       </c>
       <c r="E7">
-        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="H7" s="101">
+        <f>+H6+1</f>
+        <v>44700</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="103">
+        <f>+J6+I7</f>
         <v>1</v>
       </c>
-      <c r="G7" s="101">
-        <f>+G6+1</f>
+      <c r="L7" s="101">
         <v>44700</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="103">
-        <f>+I6+H7</f>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <f t="shared" ref="N7:N70" si="0">+M7+N6</f>
         <v>1</v>
       </c>
-      <c r="K7" s="101">
-        <v>44700</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <f t="shared" ref="M7:M70" si="1">+L7+M6</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+    </row>
+    <row r="8" spans="1:14">
       <c r="B8" t="s">
         <v>696</v>
       </c>
@@ -5167,2956 +5172,2919 @@
         <v>132</v>
       </c>
       <c r="E8">
+        <v>160</v>
+      </c>
+      <c r="H8" s="101">
+        <v>44701</v>
+      </c>
+      <c r="I8" s="103">
+        <v>1</v>
+      </c>
+      <c r="J8" s="103">
+        <f>+J7+I8</f>
+        <v>2</v>
+      </c>
+      <c r="K8" s="103"/>
+      <c r="L8" s="101">
+        <v>44701</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="B9" t="s">
+        <v>695</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="101">
+        <v>44702</v>
+      </c>
+      <c r="I9" s="103">
+        <v>2</v>
+      </c>
+      <c r="J9" s="103">
+        <f t="shared" ref="J9:J40" si="1">+I9+J8</f>
+        <v>4</v>
+      </c>
+      <c r="K9" s="103"/>
+      <c r="L9" s="101">
+        <v>44702</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="B10" t="s">
+        <v>694</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="101">
+        <v>44704</v>
+      </c>
+      <c r="I10" s="103">
+        <v>2</v>
+      </c>
+      <c r="J10" s="103">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="K10" s="103"/>
+      <c r="L10" s="101">
+        <v>44703</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="B11" t="s">
+        <v>693</v>
+      </c>
+      <c r="C11">
+        <v>393</v>
+      </c>
+      <c r="D11">
+        <v>393</v>
+      </c>
+      <c r="E11">
+        <v>482</v>
+      </c>
+      <c r="H11" s="101">
+        <v>44705</v>
+      </c>
+      <c r="I11" s="103">
+        <v>2</v>
+      </c>
+      <c r="J11" s="103">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="K11" s="103"/>
+      <c r="L11" s="101">
+        <v>44704</v>
+      </c>
+      <c r="M11">
+        <v>4</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="B12" t="s">
+        <v>692</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="H12" s="101">
+        <v>44706</v>
+      </c>
+      <c r="I12" s="103">
+        <v>2</v>
+      </c>
+      <c r="J12" s="103">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="K12" s="103"/>
+      <c r="L12" s="101">
+        <v>44705</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="B13" t="s">
+        <v>691</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="H13" s="101">
+        <v>44707</v>
+      </c>
+      <c r="I13" s="103">
+        <v>2</v>
+      </c>
+      <c r="J13" s="103">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="K13" s="103">
+        <f>SUM(I5:I13)</f>
+        <v>12</v>
+      </c>
+      <c r="L13" s="101">
+        <v>44706</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="B14" t="s">
+        <v>690</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="H14" s="101">
+        <v>44708</v>
+      </c>
+      <c r="I14" s="103">
+        <v>1</v>
+      </c>
+      <c r="J14" s="103">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="K14" s="103">
+        <f t="shared" ref="K14:K45" si="2">SUM(I8:I14)</f>
+        <v>12</v>
+      </c>
+      <c r="L14" s="101">
+        <v>44707</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
+      </c>
+      <c r="N14">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="G8" s="101">
-        <v>44701</v>
-      </c>
-      <c r="H8" s="103">
+    </row>
+    <row r="15" spans="1:14">
+      <c r="E15">
         <v>1</v>
       </c>
-      <c r="I8" s="103">
-        <f>+I7+H8</f>
+      <c r="H15" s="101">
+        <v>44710</v>
+      </c>
+      <c r="I15" s="103">
         <v>2</v>
       </c>
-      <c r="J8" s="103"/>
-      <c r="K8" s="101">
-        <v>44701</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
+      <c r="J15" s="103">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="B9" t="s">
-        <v>695</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
+        <v>15</v>
+      </c>
+      <c r="K15" s="103">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="L15" s="101">
+        <v>44708</v>
+      </c>
+      <c r="M15">
+        <v>3</v>
+      </c>
+      <c r="N15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="101">
-        <v>44702</v>
-      </c>
-      <c r="H9" s="103">
-        <v>2</v>
-      </c>
-      <c r="I9" s="103">
-        <f>+H9+I8</f>
-        <v>4</v>
-      </c>
-      <c r="J9" s="103"/>
-      <c r="K9" s="101">
-        <v>44702</v>
-      </c>
-      <c r="L9">
-        <v>2</v>
-      </c>
-      <c r="M9">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="B10" t="s">
-        <v>694</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="101">
-        <v>44704</v>
-      </c>
-      <c r="H10" s="103">
-        <v>2</v>
-      </c>
-      <c r="I10" s="103">
-        <f>+H10+I9</f>
-        <v>6</v>
-      </c>
-      <c r="J10" s="103"/>
-      <c r="K10" s="101">
-        <v>44703</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="B11" t="s">
-        <v>693</v>
-      </c>
-      <c r="C11">
-        <v>393</v>
-      </c>
-      <c r="D11">
-        <v>393</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="101">
-        <v>44705</v>
-      </c>
-      <c r="H11" s="103">
-        <v>2</v>
-      </c>
-      <c r="I11" s="103">
-        <f>+H11+I10</f>
-        <v>8</v>
-      </c>
-      <c r="J11" s="103"/>
-      <c r="K11" s="101">
-        <v>44704</v>
-      </c>
-      <c r="L11">
-        <v>4</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="B12" t="s">
-        <v>692</v>
-      </c>
-      <c r="C12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="B16" t="s">
+        <v>689</v>
+      </c>
+      <c r="C16">
+        <v>696</v>
+      </c>
+      <c r="D16">
+        <v>978</v>
+      </c>
+      <c r="E16">
+        <v>1474</v>
+      </c>
+      <c r="H16" s="101">
+        <v>44712</v>
+      </c>
+      <c r="I16" s="103">
         <v>3</v>
       </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="101">
-        <v>44706</v>
-      </c>
-      <c r="H12" s="103">
-        <v>2</v>
-      </c>
-      <c r="I12" s="103">
-        <f>+H12+I11</f>
-        <v>10</v>
-      </c>
-      <c r="J12" s="103"/>
-      <c r="K12" s="101">
-        <v>44705</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="B13" t="s">
-        <v>691</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="101">
-        <v>44707</v>
-      </c>
-      <c r="H13" s="103">
-        <v>2</v>
-      </c>
-      <c r="I13" s="103">
-        <f>+H13+I12</f>
-        <v>12</v>
-      </c>
-      <c r="J13" s="103">
-        <f>SUM(H5:H13)</f>
-        <v>12</v>
-      </c>
-      <c r="K13" s="101">
-        <v>44706</v>
-      </c>
-      <c r="L13">
-        <v>2</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="B14" t="s">
-        <v>690</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="101">
-        <v>44708</v>
-      </c>
-      <c r="H14" s="103">
-        <v>1</v>
-      </c>
-      <c r="I14" s="103">
-        <f>+H14+I13</f>
-        <v>13</v>
-      </c>
-      <c r="J14" s="103">
-        <f>SUM(H8:H14)</f>
-        <v>12</v>
-      </c>
-      <c r="K14" s="101">
-        <v>44707</v>
-      </c>
-      <c r="L14">
-        <v>2</v>
-      </c>
-      <c r="M14">
-        <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="B15" t="s">
-        <v>689</v>
-      </c>
-      <c r="C15">
-        <v>696</v>
-      </c>
-      <c r="D15">
-        <v>978</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>282</v>
-      </c>
-      <c r="G15" s="101">
-        <v>44710</v>
-      </c>
-      <c r="H15" s="103">
-        <v>2</v>
-      </c>
-      <c r="I15" s="103">
-        <f>+H15+I14</f>
-        <v>15</v>
-      </c>
-      <c r="J15" s="103">
-        <f>SUM(H9:H15)</f>
-        <v>13</v>
-      </c>
-      <c r="K15" s="101">
-        <v>44708</v>
-      </c>
-      <c r="L15">
-        <v>3</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="B16" t="s">
-        <v>688</v>
-      </c>
-      <c r="C16">
-        <v>4</v>
-      </c>
-      <c r="D16">
-        <v>4</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="101">
-        <v>44712</v>
-      </c>
-      <c r="H16" s="103">
-        <v>3</v>
-      </c>
-      <c r="I16" s="103">
-        <f>+H16+I15</f>
-        <v>18</v>
-      </c>
       <c r="J16" s="103">
-        <f>SUM(H10:H16)</f>
-        <v>14</v>
-      </c>
-      <c r="K16" s="101">
-        <v>44709</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13">
-      <c r="B17" t="s">
-        <v>687</v>
-      </c>
-      <c r="C17">
-        <v>7</v>
-      </c>
-      <c r="D17">
-        <v>7</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="101">
-        <v>44713</v>
-      </c>
-      <c r="H17" s="103">
-        <v>1</v>
-      </c>
-      <c r="I17" s="103">
-        <f>+H17+I16</f>
-        <v>19</v>
-      </c>
-      <c r="J17" s="103">
-        <f>SUM(H11:H17)</f>
-        <v>13</v>
-      </c>
-      <c r="K17" s="101">
-        <v>44710</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="2:13">
+      <c r="K16" s="103">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="L16" s="101">
+        <v>44709</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14">
+      <c r="B17" t="s">
+        <v>688</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="H17" s="101">
+        <v>44713</v>
+      </c>
+      <c r="I17" s="103">
+        <v>1</v>
+      </c>
+      <c r="J17" s="103">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="K17" s="103">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="L17" s="101">
+        <v>44710</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14">
       <c r="B18" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C18">
-        <v>745</v>
+        <v>7</v>
       </c>
       <c r="D18">
-        <v>803</v>
+        <v>7</v>
       </c>
       <c r="E18">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="G18" s="101">
+        <v>7</v>
+      </c>
+      <c r="H18" s="101">
         <v>44714</v>
       </c>
-      <c r="H18" s="103">
+      <c r="I18" s="103">
         <v>3</v>
       </c>
-      <c r="I18" s="103">
-        <f>+H18+I17</f>
-        <v>22</v>
-      </c>
       <c r="J18" s="103">
-        <f>SUM(H12:H18)</f>
-        <v>14</v>
-      </c>
-      <c r="K18" s="101">
-        <v>44711</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13">
-      <c r="B19" t="s">
-        <v>685</v>
-      </c>
-      <c r="C19">
-        <v>8</v>
-      </c>
-      <c r="D19">
-        <v>8</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="101">
-        <v>44715</v>
-      </c>
-      <c r="H19" s="103">
-        <v>4</v>
-      </c>
-      <c r="I19" s="103">
-        <f>+H19+I18</f>
-        <v>26</v>
-      </c>
-      <c r="J19" s="103">
-        <f>SUM(H13:H19)</f>
-        <v>16</v>
-      </c>
-      <c r="K19" s="101">
-        <v>44712</v>
-      </c>
-      <c r="L19">
-        <v>3</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="1"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13">
-      <c r="B20" t="s">
-        <v>684</v>
-      </c>
-      <c r="C20">
-        <v>45</v>
-      </c>
-      <c r="D20">
-        <v>55</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G20" s="101">
-        <v>44716</v>
-      </c>
-      <c r="H20" s="103">
-        <v>1</v>
-      </c>
-      <c r="I20" s="103">
-        <f>+H20+I19</f>
-        <v>27</v>
-      </c>
-      <c r="J20" s="103">
-        <f>SUM(H14:H20)</f>
-        <v>15</v>
-      </c>
-      <c r="K20" s="101">
-        <v>44713</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="2:13">
+      <c r="K18" s="103">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="L18" s="101">
+        <v>44711</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14">
+      <c r="B19" t="s">
+        <v>686</v>
+      </c>
+      <c r="C19">
+        <v>745</v>
+      </c>
+      <c r="D19">
+        <v>803</v>
+      </c>
+      <c r="E19">
+        <v>957</v>
+      </c>
+      <c r="H19" s="101">
+        <v>44715</v>
+      </c>
+      <c r="I19" s="103">
+        <v>4</v>
+      </c>
+      <c r="J19" s="103">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="K19" s="103">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="L19" s="101">
+        <v>44712</v>
+      </c>
+      <c r="M19">
+        <v>3</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14">
+      <c r="B20" t="s">
+        <v>685</v>
+      </c>
+      <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>8</v>
+      </c>
+      <c r="E20">
+        <v>8</v>
+      </c>
+      <c r="H20" s="101">
+        <v>44716</v>
+      </c>
+      <c r="I20" s="103">
+        <v>1</v>
+      </c>
+      <c r="J20" s="103">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="K20" s="103">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="L20" s="101">
+        <v>44713</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14">
       <c r="B21" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C21">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="D21">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="E21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="101">
+        <v>69</v>
+      </c>
+      <c r="H21" s="101">
         <v>44718</v>
       </c>
-      <c r="H21" s="103">
+      <c r="I21" s="103">
         <v>6</v>
       </c>
-      <c r="I21" s="103">
-        <f>+H21+I20</f>
-        <v>33</v>
-      </c>
       <c r="J21" s="103">
-        <f>SUM(H15:H21)</f>
-        <v>20</v>
-      </c>
-      <c r="K21" s="101">
-        <v>44714</v>
-      </c>
-      <c r="L21">
-        <v>3</v>
-      </c>
-      <c r="M21">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13">
-      <c r="B22" t="s">
-        <v>682</v>
-      </c>
-      <c r="C22">
-        <v>3</v>
-      </c>
-      <c r="D22">
-        <v>3</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="101">
-        <v>44719</v>
-      </c>
-      <c r="H22" s="103">
-        <v>2</v>
-      </c>
-      <c r="I22" s="103">
-        <f>+H22+I21</f>
-        <v>35</v>
-      </c>
-      <c r="J22" s="103">
-        <f>SUM(H16:H22)</f>
-        <v>20</v>
-      </c>
-      <c r="K22" s="101">
-        <v>44715</v>
-      </c>
-      <c r="L22">
-        <v>6</v>
-      </c>
-      <c r="M22">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13">
-      <c r="B23" t="s">
-        <v>681</v>
-      </c>
-      <c r="C23">
-        <v>11</v>
-      </c>
-      <c r="D23">
-        <v>12</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G23" s="101">
-        <v>44720</v>
-      </c>
-      <c r="H23" s="103">
-        <v>5</v>
-      </c>
-      <c r="I23" s="103">
-        <f>+H23+I22</f>
-        <v>40</v>
-      </c>
-      <c r="J23" s="103">
-        <f>SUM(H17:H23)</f>
-        <v>22</v>
-      </c>
-      <c r="K23" s="101">
-        <v>44716</v>
-      </c>
-      <c r="L23">
-        <v>2</v>
-      </c>
-      <c r="M23">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-    </row>
-    <row r="24" spans="2:13">
+      <c r="K21" s="103">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="L21" s="101">
+        <v>44714</v>
+      </c>
+      <c r="M21">
+        <v>3</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14">
+      <c r="B22" t="s">
+        <v>683</v>
+      </c>
+      <c r="C22">
+        <v>12</v>
+      </c>
+      <c r="D22">
+        <v>12</v>
+      </c>
+      <c r="E22">
+        <v>20</v>
+      </c>
+      <c r="H22" s="101">
+        <v>44719</v>
+      </c>
+      <c r="I22" s="103">
+        <v>2</v>
+      </c>
+      <c r="J22" s="103">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="K22" s="103">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="L22" s="101">
+        <v>44715</v>
+      </c>
+      <c r="M22">
+        <v>6</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14">
+      <c r="B23" t="s">
+        <v>682</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="H23" s="101">
+        <v>44720</v>
+      </c>
+      <c r="I23" s="103">
+        <v>5</v>
+      </c>
+      <c r="J23" s="103">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="K23" s="103">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="L23" s="101">
+        <v>44716</v>
+      </c>
+      <c r="M23">
+        <v>2</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14">
       <c r="B24" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C24">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D24">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G24" s="101">
+        <v>12</v>
+      </c>
+      <c r="H24" s="101">
         <v>44721</v>
       </c>
-      <c r="H24" s="103">
+      <c r="I24" s="103">
         <v>2</v>
       </c>
-      <c r="I24" s="103">
-        <f>+H24+I23</f>
-        <v>42</v>
-      </c>
       <c r="J24" s="103">
-        <f>SUM(H18:H24)</f>
-        <v>23</v>
-      </c>
-      <c r="K24" s="101">
-        <v>44717</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13">
-      <c r="B25" t="s">
-        <v>679</v>
-      </c>
-      <c r="C25">
-        <v>163</v>
-      </c>
-      <c r="D25">
-        <v>163</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="101">
-        <v>44722</v>
-      </c>
-      <c r="H25" s="103">
-        <v>4</v>
-      </c>
-      <c r="I25" s="103">
-        <f>+H25+I24</f>
-        <v>46</v>
-      </c>
-      <c r="J25" s="103">
-        <f>SUM(H19:H25)</f>
-        <v>24</v>
-      </c>
-      <c r="K25" s="101">
-        <v>44718</v>
-      </c>
-      <c r="L25">
-        <v>5</v>
-      </c>
-      <c r="M25">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13">
-      <c r="B26" t="s">
-        <v>678</v>
-      </c>
-      <c r="C26">
-        <v>76</v>
-      </c>
-      <c r="D26">
-        <v>99</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="G26" s="101">
-        <v>44723</v>
-      </c>
-      <c r="H26" s="103">
-        <v>4</v>
-      </c>
-      <c r="I26" s="103">
-        <f>+H26+I25</f>
-        <v>50</v>
-      </c>
-      <c r="J26" s="103">
-        <f>SUM(H20:H26)</f>
-        <v>24</v>
-      </c>
-      <c r="K26" s="101">
-        <v>44719</v>
-      </c>
-      <c r="L26">
-        <v>4</v>
-      </c>
-      <c r="M26">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="27" spans="2:13">
+      <c r="K24" s="103">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="L24" s="101">
+        <v>44717</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14">
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="H25" s="101">
+        <v>44722</v>
+      </c>
+      <c r="I25" s="103">
+        <v>4</v>
+      </c>
+      <c r="J25" s="103">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="K25" s="103">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="L25" s="101">
+        <v>44718</v>
+      </c>
+      <c r="M25">
+        <v>5</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14">
+      <c r="B26" t="s">
+        <v>680</v>
+      </c>
+      <c r="C26">
+        <v>19</v>
+      </c>
+      <c r="D26">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>28</v>
+      </c>
+      <c r="H26" s="101">
+        <v>44723</v>
+      </c>
+      <c r="I26" s="103">
+        <v>4</v>
+      </c>
+      <c r="J26" s="103">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="K26" s="103">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="L26" s="101">
+        <v>44719</v>
+      </c>
+      <c r="M26">
+        <v>4</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14">
       <c r="B27" t="s">
+        <v>679</v>
+      </c>
+      <c r="C27">
+        <v>163</v>
+      </c>
+      <c r="D27">
+        <v>163</v>
+      </c>
+      <c r="E27">
+        <v>163</v>
+      </c>
+      <c r="H27" s="101">
+        <v>44724</v>
+      </c>
+      <c r="I27" s="103">
+        <v>2</v>
+      </c>
+      <c r="J27" s="103">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="K27" s="103">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="L27" s="101">
+        <v>44720</v>
+      </c>
+      <c r="M27">
+        <v>6</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14">
+      <c r="B28" t="s">
+        <v>678</v>
+      </c>
+      <c r="C28">
+        <v>76</v>
+      </c>
+      <c r="D28">
+        <v>99</v>
+      </c>
+      <c r="E28">
+        <v>114</v>
+      </c>
+      <c r="H28" s="101">
+        <v>44725</v>
+      </c>
+      <c r="I28" s="103">
+        <v>2</v>
+      </c>
+      <c r="J28" s="103">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="K28" s="103">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="L28" s="101">
+        <v>44721</v>
+      </c>
+      <c r="M28">
+        <v>7</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14">
+      <c r="B29" t="s">
         <v>677</v>
       </c>
-      <c r="C27">
+      <c r="C29">
         <v>3</v>
       </c>
-      <c r="D27">
+      <c r="D29">
         <v>3</v>
       </c>
-      <c r="E27">
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="H29" s="101">
+        <v>44726</v>
+      </c>
+      <c r="I29" s="103">
+        <v>11</v>
+      </c>
+      <c r="J29" s="103">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="K29" s="103">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="L29" s="101">
+        <v>44722</v>
+      </c>
+      <c r="M29">
+        <v>4</v>
+      </c>
+      <c r="N29">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="101">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14">
+      <c r="B30" t="s">
+        <v>676</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>6</v>
+      </c>
+      <c r="H30" s="101">
+        <v>44727</v>
+      </c>
+      <c r="I30" s="103">
+        <v>7</v>
+      </c>
+      <c r="J30" s="103">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="K30" s="103">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="L30" s="101">
+        <v>44723</v>
+      </c>
+      <c r="M30">
+        <v>2</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14">
+      <c r="B31" t="s">
+        <v>675</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>9</v>
+      </c>
+      <c r="H31" s="101">
+        <v>44728</v>
+      </c>
+      <c r="I31" s="103">
+        <v>13</v>
+      </c>
+      <c r="J31" s="103">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="K31" s="103">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="L31" s="101">
         <v>44724</v>
       </c>
-      <c r="H27" s="103">
+      <c r="M31">
+        <v>5</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14">
+      <c r="B32" t="s">
+        <v>674</v>
+      </c>
+      <c r="C32">
+        <v>17</v>
+      </c>
+      <c r="D32">
+        <v>17</v>
+      </c>
+      <c r="E32">
+        <v>22</v>
+      </c>
+      <c r="H32" s="101">
+        <v>44729</v>
+      </c>
+      <c r="I32" s="103">
+        <v>4</v>
+      </c>
+      <c r="J32" s="103">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="K32" s="103">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="L32" s="101">
+        <v>44725</v>
+      </c>
+      <c r="M32">
+        <v>3</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15">
+      <c r="B33" t="s">
+        <v>673</v>
+      </c>
+      <c r="C33">
+        <v>1837</v>
+      </c>
+      <c r="D33">
+        <v>1955</v>
+      </c>
+      <c r="E33">
+        <v>2423</v>
+      </c>
+      <c r="H33" s="101">
+        <v>44730</v>
+      </c>
+      <c r="I33" s="103">
+        <v>11</v>
+      </c>
+      <c r="J33" s="103">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="K33" s="103">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="L33" s="101">
+        <v>44726</v>
+      </c>
+      <c r="M33">
+        <v>15</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15">
+      <c r="B34" t="s">
+        <v>672</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="H34" s="101">
+        <v>44731</v>
+      </c>
+      <c r="I34" s="103">
+        <v>5</v>
+      </c>
+      <c r="J34" s="103">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="K34" s="103">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="L34" s="101">
+        <v>44727</v>
+      </c>
+      <c r="M34">
+        <v>10</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15">
+      <c r="B35" t="s">
+        <v>671</v>
+      </c>
+      <c r="C35">
+        <v>2540</v>
+      </c>
+      <c r="D35">
+        <v>2677</v>
+      </c>
+      <c r="E35">
+        <v>2887</v>
+      </c>
+      <c r="H35" s="101">
+        <v>44732</v>
+      </c>
+      <c r="I35" s="103">
+        <v>7</v>
+      </c>
+      <c r="J35" s="103">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="K35" s="103">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="L35" s="101">
+        <v>44728</v>
+      </c>
+      <c r="M35">
+        <v>17</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="0"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15">
+      <c r="B36" t="s">
+        <v>670</v>
+      </c>
+      <c r="C36">
+        <v>30</v>
+      </c>
+      <c r="D36">
+        <v>30</v>
+      </c>
+      <c r="E36">
+        <v>30</v>
+      </c>
+      <c r="H36" s="101">
+        <v>44733</v>
+      </c>
+      <c r="I36" s="103">
+        <v>15</v>
+      </c>
+      <c r="J36" s="103">
+        <f t="shared" si="1"/>
+        <v>127</v>
+      </c>
+      <c r="K36" s="103">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="L36" s="101">
+        <v>44729</v>
+      </c>
+      <c r="M36">
+        <v>8</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="0"/>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15">
+      <c r="B37" t="s">
+        <v>669</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <v>5</v>
+      </c>
+      <c r="H37" s="101">
+        <v>44734</v>
+      </c>
+      <c r="I37" s="103">
+        <v>19</v>
+      </c>
+      <c r="J37" s="103">
+        <f t="shared" si="1"/>
+        <v>146</v>
+      </c>
+      <c r="K37" s="103">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="L37" s="101">
+        <v>44730</v>
+      </c>
+      <c r="M37">
+        <v>9</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15">
+      <c r="B38" t="s">
+        <v>668</v>
+      </c>
+      <c r="C38">
+        <v>32</v>
+      </c>
+      <c r="D38">
+        <v>32</v>
+      </c>
+      <c r="E38">
+        <v>39</v>
+      </c>
+      <c r="H38" s="101">
+        <v>44735</v>
+      </c>
+      <c r="I38" s="103">
+        <v>19</v>
+      </c>
+      <c r="J38" s="103">
+        <f t="shared" si="1"/>
+        <v>165</v>
+      </c>
+      <c r="K38" s="103">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="L38" s="101">
+        <v>44731</v>
+      </c>
+      <c r="M38">
+        <v>4</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="O38" s="103">
+        <f t="shared" ref="O38:O55" si="3">AVERAGE(M32:M38)</f>
+        <v>9.4285714285714288</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15">
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="H39" s="101">
+        <v>44736</v>
+      </c>
+      <c r="I39" s="103">
+        <v>35</v>
+      </c>
+      <c r="J39" s="103">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="K39" s="103">
+        <f t="shared" si="2"/>
+        <v>111</v>
+      </c>
+      <c r="L39" s="101">
+        <v>44732</v>
+      </c>
+      <c r="M39">
+        <v>11</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="0"/>
+        <v>143</v>
+      </c>
+      <c r="O39" s="103">
+        <f t="shared" si="3"/>
+        <v>10.571428571428571</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15">
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="H40" s="101">
+        <v>44737</v>
+      </c>
+      <c r="I40" s="103">
+        <v>12</v>
+      </c>
+      <c r="J40" s="103">
+        <f t="shared" si="1"/>
+        <v>212</v>
+      </c>
+      <c r="K40" s="103">
+        <f t="shared" si="2"/>
+        <v>112</v>
+      </c>
+      <c r="L40" s="101">
+        <v>44733</v>
+      </c>
+      <c r="M40">
+        <v>14</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="0"/>
+        <v>157</v>
+      </c>
+      <c r="O40" s="103">
+        <f t="shared" si="3"/>
+        <v>10.428571428571429</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15">
+      <c r="B41" t="s">
+        <v>667</v>
+      </c>
+      <c r="C41">
+        <v>37</v>
+      </c>
+      <c r="D41">
+        <v>39</v>
+      </c>
+      <c r="E41">
+        <v>48</v>
+      </c>
+      <c r="H41" s="101">
+        <v>44738</v>
+      </c>
+      <c r="I41" s="103">
+        <v>12</v>
+      </c>
+      <c r="J41" s="103">
+        <f t="shared" ref="J41:J72" si="4">+I41+J40</f>
+        <v>224</v>
+      </c>
+      <c r="K41" s="103">
+        <f t="shared" si="2"/>
+        <v>119</v>
+      </c>
+      <c r="L41" s="101">
+        <v>44734</v>
+      </c>
+      <c r="M41">
+        <v>20</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="0"/>
+        <v>177</v>
+      </c>
+      <c r="O41" s="103">
+        <f t="shared" si="3"/>
+        <v>11.857142857142858</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15">
+      <c r="B42" t="s">
+        <v>666</v>
+      </c>
+      <c r="C42">
+        <v>9</v>
+      </c>
+      <c r="D42">
+        <v>9</v>
+      </c>
+      <c r="E42">
+        <v>11</v>
+      </c>
+      <c r="H42" s="101">
+        <v>44739</v>
+      </c>
+      <c r="I42" s="103">
+        <v>53</v>
+      </c>
+      <c r="J42" s="103">
+        <f t="shared" si="4"/>
+        <v>277</v>
+      </c>
+      <c r="K42" s="103">
+        <f t="shared" si="2"/>
+        <v>165</v>
+      </c>
+      <c r="L42" s="101">
+        <v>44735</v>
+      </c>
+      <c r="M42">
+        <v>20</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="0"/>
+        <v>197</v>
+      </c>
+      <c r="O42" s="103">
+        <f t="shared" si="3"/>
+        <v>12.285714285714286</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15">
+      <c r="B43" t="s">
+        <v>665</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <v>4</v>
+      </c>
+      <c r="E43">
+        <v>6</v>
+      </c>
+      <c r="H43" s="101">
+        <v>44740</v>
+      </c>
+      <c r="I43" s="103">
+        <v>30</v>
+      </c>
+      <c r="J43" s="103">
+        <f t="shared" si="4"/>
+        <v>307</v>
+      </c>
+      <c r="K43" s="103">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+      <c r="L43" s="101">
+        <v>44736</v>
+      </c>
+      <c r="M43">
+        <v>48</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="0"/>
+        <v>245</v>
+      </c>
+      <c r="O43" s="103">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15">
+      <c r="B44" t="s">
+        <v>664</v>
+      </c>
+      <c r="C44">
+        <v>85</v>
+      </c>
+      <c r="D44">
+        <v>85</v>
+      </c>
+      <c r="E44">
+        <v>97</v>
+      </c>
+      <c r="H44" s="101">
+        <v>44741</v>
+      </c>
+      <c r="I44" s="103">
+        <v>42</v>
+      </c>
+      <c r="J44" s="103">
+        <f t="shared" si="4"/>
+        <v>349</v>
+      </c>
+      <c r="K44" s="103">
+        <f t="shared" si="2"/>
+        <v>203</v>
+      </c>
+      <c r="L44" s="101">
+        <v>44737</v>
+      </c>
+      <c r="M44">
+        <v>12</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="0"/>
+        <v>257</v>
+      </c>
+      <c r="O44" s="103">
+        <f t="shared" si="3"/>
+        <v>18.428571428571427</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15">
+      <c r="B45" t="s">
+        <v>663</v>
+      </c>
+      <c r="C45">
+        <v>133</v>
+      </c>
+      <c r="D45">
+        <v>146</v>
+      </c>
+      <c r="E45">
+        <v>160</v>
+      </c>
+      <c r="H45" s="101">
+        <v>44742</v>
+      </c>
+      <c r="I45" s="103">
+        <v>57</v>
+      </c>
+      <c r="J45" s="103">
+        <f t="shared" si="4"/>
+        <v>406</v>
+      </c>
+      <c r="K45" s="103">
+        <f t="shared" si="2"/>
+        <v>241</v>
+      </c>
+      <c r="L45" s="101">
+        <v>44738</v>
+      </c>
+      <c r="M45">
+        <v>9</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="0"/>
+        <v>266</v>
+      </c>
+      <c r="O45" s="103">
+        <f t="shared" si="3"/>
+        <v>19.142857142857142</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15">
+      <c r="B46" t="s">
+        <v>662</v>
+      </c>
+      <c r="C46">
+        <v>426</v>
+      </c>
+      <c r="D46">
+        <v>479</v>
+      </c>
+      <c r="E46">
+        <v>545</v>
+      </c>
+      <c r="H46" s="101">
+        <v>44743</v>
+      </c>
+      <c r="I46" s="103">
+        <v>52</v>
+      </c>
+      <c r="J46" s="103">
+        <f t="shared" si="4"/>
+        <v>458</v>
+      </c>
+      <c r="K46" s="103">
+        <f t="shared" ref="K46:K77" si="5">SUM(I40:I46)</f>
+        <v>258</v>
+      </c>
+      <c r="L46" s="101">
+        <v>44739</v>
+      </c>
+      <c r="M46">
+        <v>60</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="0"/>
+        <v>326</v>
+      </c>
+      <c r="O46" s="103">
+        <f t="shared" si="3"/>
+        <v>26.142857142857142</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15">
+      <c r="B47" t="s">
+        <v>661</v>
+      </c>
+      <c r="C47">
         <v>2</v>
       </c>
-      <c r="I27" s="103">
-        <f>+H27+I26</f>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="H47" s="101">
+        <v>44744</v>
+      </c>
+      <c r="I47" s="103">
+        <v>16</v>
+      </c>
+      <c r="J47" s="103">
+        <f t="shared" si="4"/>
+        <v>474</v>
+      </c>
+      <c r="K47" s="103">
+        <f t="shared" si="5"/>
+        <v>262</v>
+      </c>
+      <c r="L47" s="101">
+        <v>44740</v>
+      </c>
+      <c r="M47">
+        <v>40</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="0"/>
+        <v>366</v>
+      </c>
+      <c r="O47" s="103">
+        <f t="shared" si="3"/>
+        <v>29.857142857142858</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15">
+      <c r="B48" t="s">
+        <v>660</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="H48" s="101">
+        <v>44745</v>
+      </c>
+      <c r="I48" s="103">
+        <v>11</v>
+      </c>
+      <c r="J48" s="103">
+        <f t="shared" si="4"/>
+        <v>485</v>
+      </c>
+      <c r="K48" s="103">
+        <f t="shared" si="5"/>
+        <v>261</v>
+      </c>
+      <c r="L48" s="101">
+        <v>44741</v>
+      </c>
+      <c r="M48">
+        <v>42</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="0"/>
+        <v>408</v>
+      </c>
+      <c r="O48" s="103">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="2:15">
+      <c r="B49" t="s">
+        <v>659</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+      <c r="H49" s="101">
+        <v>44746</v>
+      </c>
+      <c r="I49" s="103">
+        <v>7</v>
+      </c>
+      <c r="J49" s="103">
+        <f t="shared" si="4"/>
+        <v>492</v>
+      </c>
+      <c r="K49" s="103">
+        <f t="shared" si="5"/>
+        <v>215</v>
+      </c>
+      <c r="L49" s="101">
+        <v>44742</v>
+      </c>
+      <c r="M49">
+        <v>57</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="0"/>
+        <v>465</v>
+      </c>
+      <c r="O49" s="103">
+        <f t="shared" si="3"/>
+        <v>38.285714285714285</v>
+      </c>
+    </row>
+    <row r="50" spans="2:15">
+      <c r="B50" t="s">
+        <v>658</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50">
+        <v>4</v>
+      </c>
+      <c r="E50">
+        <v>6</v>
+      </c>
+      <c r="H50" s="101">
+        <v>44747</v>
+      </c>
+      <c r="I50" s="103">
+        <v>37</v>
+      </c>
+      <c r="J50" s="103">
+        <f t="shared" si="4"/>
+        <v>529</v>
+      </c>
+      <c r="K50" s="103">
+        <f t="shared" si="5"/>
+        <v>222</v>
+      </c>
+      <c r="L50" s="101">
+        <v>44743</v>
+      </c>
+      <c r="M50">
+        <v>54</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="0"/>
+        <v>519</v>
+      </c>
+      <c r="O50" s="103">
+        <f t="shared" si="3"/>
+        <v>39.142857142857146</v>
+      </c>
+    </row>
+    <row r="51" spans="2:15">
+      <c r="B51" t="s">
+        <v>657</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="H51" s="101">
+        <v>44748</v>
+      </c>
+      <c r="I51" s="103">
+        <v>45</v>
+      </c>
+      <c r="J51" s="103">
+        <f t="shared" si="4"/>
+        <v>574</v>
+      </c>
+      <c r="K51" s="103">
+        <f t="shared" si="5"/>
+        <v>225</v>
+      </c>
+      <c r="L51" s="101">
+        <v>44744</v>
+      </c>
+      <c r="M51">
+        <v>15</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="0"/>
+        <v>534</v>
+      </c>
+      <c r="O51" s="103">
+        <f t="shared" si="3"/>
+        <v>39.571428571428569</v>
+      </c>
+    </row>
+    <row r="52" spans="2:15">
+      <c r="E52">
+        <v>3</v>
+      </c>
+      <c r="H52" s="101">
+        <v>44749</v>
+      </c>
+      <c r="I52" s="103">
         <v>52</v>
       </c>
-      <c r="J27" s="103">
-        <f>SUM(H21:H27)</f>
-        <v>25</v>
-      </c>
-      <c r="K27" s="101">
-        <v>44720</v>
-      </c>
-      <c r="L27">
-        <v>6</v>
-      </c>
-      <c r="M27">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13">
-      <c r="B28" t="s">
-        <v>676</v>
-      </c>
-      <c r="C28">
-        <v>3</v>
-      </c>
-      <c r="D28">
-        <v>3</v>
-      </c>
-      <c r="E28">
+      <c r="J52" s="103">
+        <f t="shared" si="4"/>
+        <v>626</v>
+      </c>
+      <c r="K52" s="103">
+        <f t="shared" si="5"/>
+        <v>220</v>
+      </c>
+      <c r="L52" s="101">
+        <v>44745</v>
+      </c>
+      <c r="M52">
+        <v>8</v>
+      </c>
+      <c r="N52">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="101">
-        <v>44725</v>
-      </c>
-      <c r="H28" s="103">
-        <v>2</v>
-      </c>
-      <c r="I28" s="103">
-        <f>+H28+I27</f>
-        <v>54</v>
-      </c>
-      <c r="J28" s="103">
-        <f>SUM(H22:H28)</f>
-        <v>21</v>
-      </c>
-      <c r="K28" s="101">
-        <v>44721</v>
-      </c>
-      <c r="L28">
+        <v>542</v>
+      </c>
+      <c r="O52" s="103">
+        <f t="shared" si="3"/>
+        <v>39.428571428571431</v>
+      </c>
+    </row>
+    <row r="53" spans="2:15">
+      <c r="B53" t="s">
+        <v>656</v>
+      </c>
+      <c r="C53">
+        <v>23</v>
+      </c>
+      <c r="D53">
+        <v>30</v>
+      </c>
+      <c r="E53">
+        <v>32</v>
+      </c>
+      <c r="H53" s="101">
+        <v>44750</v>
+      </c>
+      <c r="I53" s="103">
+        <v>37</v>
+      </c>
+      <c r="J53" s="103">
+        <f t="shared" si="4"/>
+        <v>663</v>
+      </c>
+      <c r="K53" s="103">
+        <f t="shared" si="5"/>
+        <v>205</v>
+      </c>
+      <c r="L53" s="101">
+        <v>44746</v>
+      </c>
+      <c r="M53">
+        <v>24</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="0"/>
+        <v>566</v>
+      </c>
+      <c r="O53" s="103">
+        <f t="shared" si="3"/>
+        <v>34.285714285714285</v>
+      </c>
+    </row>
+    <row r="54" spans="2:15">
+      <c r="B54" t="s">
+        <v>655</v>
+      </c>
+      <c r="C54">
+        <v>17</v>
+      </c>
+      <c r="D54">
+        <v>17</v>
+      </c>
+      <c r="E54">
+        <v>17</v>
+      </c>
+      <c r="H54" s="101">
+        <v>44751</v>
+      </c>
+      <c r="I54" s="103">
+        <v>37</v>
+      </c>
+      <c r="J54" s="103">
+        <f t="shared" si="4"/>
+        <v>700</v>
+      </c>
+      <c r="K54" s="103">
+        <f t="shared" si="5"/>
+        <v>226</v>
+      </c>
+      <c r="L54" s="101">
+        <v>44747</v>
+      </c>
+      <c r="M54">
+        <v>36</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="0"/>
+        <v>602</v>
+      </c>
+      <c r="O54" s="103">
+        <f t="shared" si="3"/>
+        <v>33.714285714285715</v>
+      </c>
+    </row>
+    <row r="55" spans="2:15">
+      <c r="B55" t="s">
+        <v>654</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="H55" s="101">
+        <v>44752</v>
+      </c>
+      <c r="I55" s="103">
         <v>7</v>
       </c>
-      <c r="M28">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13">
-      <c r="B29" t="s">
-        <v>675</v>
-      </c>
-      <c r="C29">
-        <v>5</v>
-      </c>
-      <c r="D29">
-        <v>6</v>
-      </c>
-      <c r="E29">
+      <c r="J55" s="103">
+        <f t="shared" si="4"/>
+        <v>707</v>
+      </c>
+      <c r="K55" s="103">
+        <f t="shared" si="5"/>
+        <v>222</v>
+      </c>
+      <c r="L55" s="101">
+        <v>44748</v>
+      </c>
+      <c r="M55">
+        <v>46</v>
+      </c>
+      <c r="N55">
         <f t="shared" si="0"/>
+        <v>648</v>
+      </c>
+      <c r="O55" s="103">
+        <f t="shared" si="3"/>
+        <v>34.285714285714285</v>
+      </c>
+    </row>
+    <row r="56" spans="2:15">
+      <c r="B56" t="s">
+        <v>653</v>
+      </c>
+      <c r="C56">
+        <v>59</v>
+      </c>
+      <c r="D56">
+        <v>59</v>
+      </c>
+      <c r="E56">
+        <v>91</v>
+      </c>
+      <c r="H56" s="101">
+        <v>44753</v>
+      </c>
+      <c r="I56" s="103">
+        <v>100</v>
+      </c>
+      <c r="J56" s="103">
+        <f t="shared" si="4"/>
+        <v>807</v>
+      </c>
+      <c r="K56" s="103">
+        <f t="shared" si="5"/>
+        <v>315</v>
+      </c>
+      <c r="L56" s="101">
+        <v>44749</v>
+      </c>
+      <c r="M56">
+        <v>53</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="0"/>
+        <v>701</v>
+      </c>
+      <c r="O56" s="103">
+        <f t="shared" ref="O56:O82" si="6">AVERAGE(M50:M56)</f>
+        <v>33.714285714285715</v>
+      </c>
+    </row>
+    <row r="57" spans="2:15">
+      <c r="B57" t="s">
+        <v>652</v>
+      </c>
+      <c r="C57">
         <v>1</v>
       </c>
-      <c r="G29" s="101">
-        <v>44726</v>
-      </c>
-      <c r="H29" s="103">
-        <v>11</v>
-      </c>
-      <c r="I29" s="103">
-        <f>+H29+I28</f>
-        <v>65</v>
-      </c>
-      <c r="J29" s="103">
-        <f>SUM(H23:H29)</f>
-        <v>30</v>
-      </c>
-      <c r="K29" s="101">
-        <v>44722</v>
-      </c>
-      <c r="L29">
-        <v>4</v>
-      </c>
-      <c r="M29">
-        <f t="shared" si="1"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13">
-      <c r="B30" t="s">
-        <v>674</v>
-      </c>
-      <c r="C30">
-        <v>17</v>
-      </c>
-      <c r="D30">
-        <v>17</v>
-      </c>
-      <c r="E30">
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="H57" s="101">
+        <v>44754</v>
+      </c>
+      <c r="I57" s="103">
+        <v>212</v>
+      </c>
+      <c r="J57" s="103">
+        <f t="shared" si="4"/>
+        <v>1019</v>
+      </c>
+      <c r="K57" s="103">
+        <f t="shared" si="5"/>
+        <v>490</v>
+      </c>
+      <c r="L57" s="101">
+        <v>44750</v>
+      </c>
+      <c r="M57">
+        <v>36</v>
+      </c>
+      <c r="N57">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G30" s="101">
-        <v>44727</v>
-      </c>
-      <c r="H30" s="103">
+        <v>737</v>
+      </c>
+      <c r="O57" s="103">
+        <f t="shared" si="6"/>
+        <v>31.142857142857142</v>
+      </c>
+    </row>
+    <row r="58" spans="2:15">
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="H58" s="101">
+        <v>44755</v>
+      </c>
+      <c r="I58" s="103">
+        <v>140</v>
+      </c>
+      <c r="J58" s="103">
+        <f t="shared" si="4"/>
+        <v>1159</v>
+      </c>
+      <c r="K58" s="103">
+        <f t="shared" si="5"/>
+        <v>585</v>
+      </c>
+      <c r="L58" s="101">
+        <v>44751</v>
+      </c>
+      <c r="M58">
+        <v>41</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="0"/>
+        <v>778</v>
+      </c>
+      <c r="O58" s="103">
+        <f t="shared" si="6"/>
+        <v>34.857142857142854</v>
+      </c>
+    </row>
+    <row r="59" spans="2:15">
+      <c r="B59" t="s">
+        <v>651</v>
+      </c>
+      <c r="C59">
+        <v>878</v>
+      </c>
+      <c r="D59">
+        <v>925</v>
+      </c>
+      <c r="E59">
+        <v>959</v>
+      </c>
+      <c r="H59" s="101">
+        <v>44756</v>
+      </c>
+      <c r="I59" s="103">
+        <v>216</v>
+      </c>
+      <c r="J59" s="103">
+        <f t="shared" si="4"/>
+        <v>1375</v>
+      </c>
+      <c r="K59" s="103">
+        <f t="shared" si="5"/>
+        <v>749</v>
+      </c>
+      <c r="L59" s="101">
+        <v>44752</v>
+      </c>
+      <c r="M59">
         <v>7</v>
       </c>
-      <c r="I30" s="103">
-        <f>+H30+I29</f>
-        <v>72</v>
-      </c>
-      <c r="J30" s="103">
-        <f>SUM(H24:H30)</f>
-        <v>32</v>
-      </c>
-      <c r="K30" s="101">
-        <v>44723</v>
-      </c>
-      <c r="L30">
-        <v>2</v>
-      </c>
-      <c r="M30">
-        <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13">
-      <c r="B31" t="s">
-        <v>673</v>
-      </c>
-      <c r="C31">
-        <v>1837</v>
-      </c>
-      <c r="D31">
-        <v>1955</v>
-      </c>
-      <c r="E31">
+      <c r="N59">
         <f t="shared" si="0"/>
-        <v>118</v>
-      </c>
-      <c r="G31" s="101">
-        <v>44728</v>
-      </c>
-      <c r="H31" s="103">
-        <v>13</v>
-      </c>
-      <c r="I31" s="103">
-        <f>+H31+I30</f>
-        <v>85</v>
-      </c>
-      <c r="J31" s="103">
-        <f>SUM(H25:H31)</f>
-        <v>43</v>
-      </c>
-      <c r="K31" s="101">
-        <v>44724</v>
-      </c>
-      <c r="L31">
-        <v>5</v>
-      </c>
-      <c r="M31">
-        <f t="shared" si="1"/>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13">
-      <c r="B32" t="s">
-        <v>672</v>
-      </c>
-      <c r="C32">
+        <v>785</v>
+      </c>
+      <c r="O59" s="103">
+        <f t="shared" si="6"/>
+        <v>34.714285714285715</v>
+      </c>
+    </row>
+    <row r="60" spans="2:15">
+      <c r="B60" t="s">
+        <v>650</v>
+      </c>
+      <c r="C60">
         <v>1</v>
       </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="101">
-        <v>44729</v>
-      </c>
-      <c r="H32" s="103">
-        <v>4</v>
-      </c>
-      <c r="I32" s="103">
-        <f>+H32+I31</f>
-        <v>89</v>
-      </c>
-      <c r="J32" s="103">
-        <f>SUM(H26:H32)</f>
-        <v>43</v>
-      </c>
-      <c r="K32" s="101">
-        <v>44725</v>
-      </c>
-      <c r="L32">
-        <v>3</v>
-      </c>
-      <c r="M32">
-        <f t="shared" si="1"/>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14">
-      <c r="B33" t="s">
-        <v>671</v>
-      </c>
-      <c r="C33">
-        <v>2540</v>
-      </c>
-      <c r="D33">
-        <v>2677</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="0"/>
-        <v>137</v>
-      </c>
-      <c r="G33" s="101">
-        <v>44730</v>
-      </c>
-      <c r="H33" s="103">
-        <v>11</v>
-      </c>
-      <c r="I33" s="103">
-        <f>+H33+I32</f>
-        <v>100</v>
-      </c>
-      <c r="J33" s="103">
-        <f>SUM(H27:H33)</f>
-        <v>50</v>
-      </c>
-      <c r="K33" s="101">
-        <v>44726</v>
-      </c>
-      <c r="L33">
-        <v>15</v>
-      </c>
-      <c r="M33">
-        <f t="shared" si="1"/>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14">
-      <c r="B34" t="s">
-        <v>670</v>
-      </c>
-      <c r="C34">
-        <v>30</v>
-      </c>
-      <c r="D34">
-        <v>30</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="101">
-        <v>44731</v>
-      </c>
-      <c r="H34" s="103">
-        <v>5</v>
-      </c>
-      <c r="I34" s="103">
-        <f>+H34+I33</f>
-        <v>105</v>
-      </c>
-      <c r="J34" s="103">
-        <f>SUM(H28:H34)</f>
-        <v>53</v>
-      </c>
-      <c r="K34" s="101">
-        <v>44727</v>
-      </c>
-      <c r="L34">
-        <v>10</v>
-      </c>
-      <c r="M34">
-        <f t="shared" si="1"/>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14">
-      <c r="B35" t="s">
-        <v>669</v>
-      </c>
-      <c r="C35">
-        <v>5</v>
-      </c>
-      <c r="D35">
-        <v>5</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="101">
-        <v>44732</v>
-      </c>
-      <c r="H35" s="103">
-        <v>7</v>
-      </c>
-      <c r="I35" s="103">
-        <f>+H35+I34</f>
-        <v>112</v>
-      </c>
-      <c r="J35" s="103">
-        <f>SUM(H29:H35)</f>
-        <v>58</v>
-      </c>
-      <c r="K35" s="101">
-        <v>44728</v>
-      </c>
-      <c r="L35">
-        <v>17</v>
-      </c>
-      <c r="M35">
-        <f t="shared" si="1"/>
-        <v>111</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14">
-      <c r="B36" t="s">
-        <v>668</v>
-      </c>
-      <c r="C36">
-        <v>32</v>
-      </c>
-      <c r="D36">
-        <v>32</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="101">
-        <v>44733</v>
-      </c>
-      <c r="H36" s="103">
-        <v>15</v>
-      </c>
-      <c r="I36" s="103">
-        <f>+H36+I35</f>
-        <v>127</v>
-      </c>
-      <c r="J36" s="103">
-        <f>SUM(H30:H36)</f>
-        <v>62</v>
-      </c>
-      <c r="K36" s="101">
-        <v>44729</v>
-      </c>
-      <c r="L36">
-        <v>8</v>
-      </c>
-      <c r="M36">
-        <f t="shared" si="1"/>
-        <v>119</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14">
-      <c r="B37" t="s">
-        <v>667</v>
-      </c>
-      <c r="C37">
-        <v>37</v>
-      </c>
-      <c r="D37">
-        <v>39</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G37" s="101">
-        <v>44734</v>
-      </c>
-      <c r="H37" s="103">
-        <v>19</v>
-      </c>
-      <c r="I37" s="103">
-        <f>+H37+I36</f>
-        <v>146</v>
-      </c>
-      <c r="J37" s="103">
-        <f>SUM(H31:H37)</f>
-        <v>74</v>
-      </c>
-      <c r="K37" s="101">
-        <v>44730</v>
-      </c>
-      <c r="L37">
-        <v>9</v>
-      </c>
-      <c r="M37">
-        <f t="shared" si="1"/>
-        <v>128</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14">
-      <c r="B38" t="s">
-        <v>666</v>
-      </c>
-      <c r="C38">
-        <v>9</v>
-      </c>
-      <c r="D38">
-        <v>9</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G38" s="101">
-        <v>44735</v>
-      </c>
-      <c r="H38" s="103">
-        <v>19</v>
-      </c>
-      <c r="I38" s="103">
-        <f>+H38+I37</f>
-        <v>165</v>
-      </c>
-      <c r="J38" s="103">
-        <f>SUM(H32:H38)</f>
-        <v>80</v>
-      </c>
-      <c r="K38" s="101">
-        <v>44731</v>
-      </c>
-      <c r="L38">
-        <v>4</v>
-      </c>
-      <c r="M38">
-        <f t="shared" si="1"/>
-        <v>132</v>
-      </c>
-      <c r="N38" s="103">
-        <f t="shared" ref="N38:N55" si="2">AVERAGE(L32:L38)</f>
-        <v>9.4285714285714288</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14">
-      <c r="B39" t="s">
-        <v>665</v>
-      </c>
-      <c r="C39">
-        <v>4</v>
-      </c>
-      <c r="D39">
-        <v>4</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G39" s="101">
-        <v>44736</v>
-      </c>
-      <c r="H39" s="103">
-        <v>35</v>
-      </c>
-      <c r="I39" s="103">
-        <f>+H39+I38</f>
-        <v>200</v>
-      </c>
-      <c r="J39" s="103">
-        <f>SUM(H33:H39)</f>
-        <v>111</v>
-      </c>
-      <c r="K39" s="101">
-        <v>44732</v>
-      </c>
-      <c r="L39">
-        <v>11</v>
-      </c>
-      <c r="M39">
-        <f t="shared" si="1"/>
-        <v>143</v>
-      </c>
-      <c r="N39" s="103">
-        <f t="shared" si="2"/>
-        <v>10.571428571428571</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14">
-      <c r="B40" t="s">
-        <v>664</v>
-      </c>
-      <c r="C40">
-        <v>85</v>
-      </c>
-      <c r="D40">
-        <v>85</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G40" s="101">
-        <v>44737</v>
-      </c>
-      <c r="H40" s="103">
-        <v>12</v>
-      </c>
-      <c r="I40" s="103">
-        <f>+H40+I39</f>
-        <v>212</v>
-      </c>
-      <c r="J40" s="103">
-        <f>SUM(H34:H40)</f>
-        <v>112</v>
-      </c>
-      <c r="K40" s="101">
-        <v>44733</v>
-      </c>
-      <c r="L40">
-        <v>14</v>
-      </c>
-      <c r="M40">
-        <f t="shared" si="1"/>
-        <v>157</v>
-      </c>
-      <c r="N40" s="103">
-        <f t="shared" si="2"/>
-        <v>10.428571428571429</v>
-      </c>
-    </row>
-    <row r="41" spans="2:14">
-      <c r="B41" t="s">
-        <v>663</v>
-      </c>
-      <c r="C41">
-        <v>133</v>
-      </c>
-      <c r="D41">
-        <v>146</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="G41" s="101">
-        <v>44738</v>
-      </c>
-      <c r="H41" s="103">
-        <v>12</v>
-      </c>
-      <c r="I41" s="103">
-        <f>+H41+I40</f>
-        <v>224</v>
-      </c>
-      <c r="J41" s="103">
-        <f>SUM(H35:H41)</f>
-        <v>119</v>
-      </c>
-      <c r="K41" s="101">
-        <v>44734</v>
-      </c>
-      <c r="L41">
-        <v>20</v>
-      </c>
-      <c r="M41">
-        <f t="shared" si="1"/>
-        <v>177</v>
-      </c>
-      <c r="N41" s="103">
-        <f t="shared" si="2"/>
-        <v>11.857142857142858</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14">
-      <c r="B42" t="s">
-        <v>662</v>
-      </c>
-      <c r="C42">
-        <v>426</v>
-      </c>
-      <c r="D42">
-        <v>479</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="G42" s="101">
-        <v>44739</v>
-      </c>
-      <c r="H42" s="103">
-        <v>53</v>
-      </c>
-      <c r="I42" s="103">
-        <f>+H42+I41</f>
-        <v>277</v>
-      </c>
-      <c r="J42" s="103">
-        <f>SUM(H36:H42)</f>
-        <v>165</v>
-      </c>
-      <c r="K42" s="101">
-        <v>44735</v>
-      </c>
-      <c r="L42">
-        <v>20</v>
-      </c>
-      <c r="M42">
-        <f t="shared" si="1"/>
-        <v>197</v>
-      </c>
-      <c r="N42" s="103">
-        <f t="shared" si="2"/>
-        <v>12.285714285714286</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14">
-      <c r="B43" t="s">
-        <v>661</v>
-      </c>
-      <c r="C43">
-        <v>2</v>
-      </c>
-      <c r="D43">
-        <v>2</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G43" s="101">
-        <v>44740</v>
-      </c>
-      <c r="H43" s="103">
-        <v>30</v>
-      </c>
-      <c r="I43" s="103">
-        <f>+H43+I42</f>
-        <v>307</v>
-      </c>
-      <c r="J43" s="103">
-        <f>SUM(H37:H43)</f>
-        <v>180</v>
-      </c>
-      <c r="K43" s="101">
-        <v>44736</v>
-      </c>
-      <c r="L43">
-        <v>48</v>
-      </c>
-      <c r="M43">
-        <f t="shared" si="1"/>
-        <v>245</v>
-      </c>
-      <c r="N43" s="103">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14">
-      <c r="B44" t="s">
-        <v>660</v>
-      </c>
-      <c r="C44">
-        <v>2</v>
-      </c>
-      <c r="D44">
-        <v>2</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G44" s="101">
-        <v>44741</v>
-      </c>
-      <c r="H44" s="103">
-        <v>42</v>
-      </c>
-      <c r="I44" s="103">
-        <f>+H44+I43</f>
-        <v>349</v>
-      </c>
-      <c r="J44" s="103">
-        <f>SUM(H38:H44)</f>
-        <v>203</v>
-      </c>
-      <c r="K44" s="101">
-        <v>44737</v>
-      </c>
-      <c r="L44">
-        <v>12</v>
-      </c>
-      <c r="M44">
-        <f t="shared" si="1"/>
-        <v>257</v>
-      </c>
-      <c r="N44" s="103">
-        <f t="shared" si="2"/>
-        <v>18.428571428571427</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14">
-      <c r="B45" t="s">
-        <v>659</v>
-      </c>
-      <c r="C45">
-        <v>3</v>
-      </c>
-      <c r="D45">
-        <v>3</v>
-      </c>
-      <c r="E45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G45" s="101">
-        <v>44742</v>
-      </c>
-      <c r="H45" s="103">
-        <v>57</v>
-      </c>
-      <c r="I45" s="103">
-        <f>+H45+I44</f>
-        <v>406</v>
-      </c>
-      <c r="J45" s="103">
-        <f>SUM(H39:H45)</f>
-        <v>241</v>
-      </c>
-      <c r="K45" s="101">
-        <v>44738</v>
-      </c>
-      <c r="L45">
-        <v>9</v>
-      </c>
-      <c r="M45">
-        <f t="shared" si="1"/>
-        <v>266</v>
-      </c>
-      <c r="N45" s="103">
-        <f t="shared" si="2"/>
-        <v>19.142857142857142</v>
-      </c>
-    </row>
-    <row r="46" spans="2:14">
-      <c r="B46" t="s">
-        <v>658</v>
-      </c>
-      <c r="C46">
-        <v>4</v>
-      </c>
-      <c r="D46">
-        <v>4</v>
-      </c>
-      <c r="E46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G46" s="101">
-        <v>44743</v>
-      </c>
-      <c r="H46" s="103">
-        <v>52</v>
-      </c>
-      <c r="I46" s="103">
-        <f>+H46+I45</f>
-        <v>458</v>
-      </c>
-      <c r="J46" s="103">
-        <f>SUM(H40:H46)</f>
-        <v>258</v>
-      </c>
-      <c r="K46" s="101">
-        <v>44739</v>
-      </c>
-      <c r="L46">
-        <v>60</v>
-      </c>
-      <c r="M46">
-        <f t="shared" si="1"/>
-        <v>326</v>
-      </c>
-      <c r="N46" s="103">
-        <f t="shared" si="2"/>
-        <v>26.142857142857142</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14">
-      <c r="B47" t="s">
-        <v>657</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G47" s="101">
-        <v>44744</v>
-      </c>
-      <c r="H47" s="103">
-        <v>16</v>
-      </c>
-      <c r="I47" s="103">
-        <f>+H47+I46</f>
-        <v>474</v>
-      </c>
-      <c r="J47" s="103">
-        <f>SUM(H41:H47)</f>
-        <v>262</v>
-      </c>
-      <c r="K47" s="101">
-        <v>44740</v>
-      </c>
-      <c r="L47">
-        <v>40</v>
-      </c>
-      <c r="M47">
-        <f t="shared" si="1"/>
-        <v>366</v>
-      </c>
-      <c r="N47" s="103">
-        <f t="shared" si="2"/>
-        <v>29.857142857142858</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14">
-      <c r="B48" t="s">
-        <v>656</v>
-      </c>
-      <c r="C48">
-        <v>23</v>
-      </c>
-      <c r="D48">
-        <v>30</v>
-      </c>
-      <c r="E48">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="G48" s="101">
-        <v>44745</v>
-      </c>
-      <c r="H48" s="103">
-        <v>11</v>
-      </c>
-      <c r="I48" s="103">
-        <f>+H48+I47</f>
-        <v>485</v>
-      </c>
-      <c r="J48" s="103">
-        <f>SUM(H42:H48)</f>
-        <v>261</v>
-      </c>
-      <c r="K48" s="101">
-        <v>44741</v>
-      </c>
-      <c r="L48">
-        <v>42</v>
-      </c>
-      <c r="M48">
-        <f t="shared" si="1"/>
-        <v>408</v>
-      </c>
-      <c r="N48" s="103">
-        <f t="shared" si="2"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14">
-      <c r="B49" t="s">
-        <v>655</v>
-      </c>
-      <c r="C49">
-        <v>17</v>
-      </c>
-      <c r="D49">
-        <v>17</v>
-      </c>
-      <c r="E49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G49" s="101">
-        <v>44746</v>
-      </c>
-      <c r="H49" s="103">
-        <v>7</v>
-      </c>
-      <c r="I49" s="103">
-        <f>+H49+I48</f>
-        <v>492</v>
-      </c>
-      <c r="J49" s="103">
-        <f>SUM(H43:H49)</f>
-        <v>215</v>
-      </c>
-      <c r="K49" s="101">
-        <v>44742</v>
-      </c>
-      <c r="L49">
-        <v>57</v>
-      </c>
-      <c r="M49">
-        <f t="shared" si="1"/>
-        <v>465</v>
-      </c>
-      <c r="N49" s="103">
-        <f t="shared" si="2"/>
-        <v>38.285714285714285</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14">
-      <c r="B50" t="s">
-        <v>654</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G50" s="101">
-        <v>44747</v>
-      </c>
-      <c r="H50" s="103">
-        <v>37</v>
-      </c>
-      <c r="I50" s="103">
-        <f>+H50+I49</f>
-        <v>529</v>
-      </c>
-      <c r="J50" s="103">
-        <f>SUM(H44:H50)</f>
-        <v>222</v>
-      </c>
-      <c r="K50" s="101">
-        <v>44743</v>
-      </c>
-      <c r="L50">
-        <v>54</v>
-      </c>
-      <c r="M50">
-        <f t="shared" si="1"/>
-        <v>519</v>
-      </c>
-      <c r="N50" s="103">
-        <f t="shared" si="2"/>
-        <v>39.142857142857146</v>
-      </c>
-    </row>
-    <row r="51" spans="2:14">
-      <c r="B51" t="s">
-        <v>653</v>
-      </c>
-      <c r="C51">
-        <v>59</v>
-      </c>
-      <c r="D51">
-        <v>59</v>
-      </c>
-      <c r="E51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G51" s="101">
-        <v>44748</v>
-      </c>
-      <c r="H51" s="103">
-        <v>45</v>
-      </c>
-      <c r="I51" s="103">
-        <f>+H51+I50</f>
-        <v>574</v>
-      </c>
-      <c r="J51" s="103">
-        <f>SUM(H45:H51)</f>
-        <v>225</v>
-      </c>
-      <c r="K51" s="101">
-        <v>44744</v>
-      </c>
-      <c r="L51">
-        <v>15</v>
-      </c>
-      <c r="M51">
-        <f t="shared" si="1"/>
-        <v>534</v>
-      </c>
-      <c r="N51" s="103">
-        <f t="shared" si="2"/>
-        <v>39.571428571428569</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14">
-      <c r="B52" t="s">
-        <v>652</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G52" s="101">
-        <v>44749</v>
-      </c>
-      <c r="H52" s="103">
-        <v>52</v>
-      </c>
-      <c r="I52" s="103">
-        <f>+H52+I51</f>
-        <v>626</v>
-      </c>
-      <c r="J52" s="103">
-        <f>SUM(H46:H52)</f>
-        <v>220</v>
-      </c>
-      <c r="K52" s="101">
-        <v>44745</v>
-      </c>
-      <c r="L52">
-        <v>8</v>
-      </c>
-      <c r="M52">
-        <f t="shared" si="1"/>
-        <v>542</v>
-      </c>
-      <c r="N52" s="103">
-        <f t="shared" si="2"/>
-        <v>39.428571428571431</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14">
-      <c r="B53" t="s">
-        <v>651</v>
-      </c>
-      <c r="C53">
-        <v>878</v>
-      </c>
-      <c r="D53">
-        <v>925</v>
-      </c>
-      <c r="E53">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="G53" s="101">
-        <v>44750</v>
-      </c>
-      <c r="H53" s="103">
-        <v>37</v>
-      </c>
-      <c r="I53" s="103">
-        <f>+H53+I52</f>
-        <v>663</v>
-      </c>
-      <c r="J53" s="103">
-        <f>SUM(H47:H53)</f>
-        <v>205</v>
-      </c>
-      <c r="K53" s="101">
-        <v>44746</v>
-      </c>
-      <c r="L53">
-        <v>24</v>
-      </c>
-      <c r="M53">
-        <f t="shared" si="1"/>
-        <v>566</v>
-      </c>
-      <c r="N53" s="103">
-        <f t="shared" si="2"/>
-        <v>34.285714285714285</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14">
-      <c r="B54" t="s">
-        <v>650</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G54" s="101">
-        <v>44751</v>
-      </c>
-      <c r="H54" s="103">
-        <v>37</v>
-      </c>
-      <c r="I54" s="103">
-        <f>+H54+I53</f>
-        <v>700</v>
-      </c>
-      <c r="J54" s="103">
-        <f>SUM(H48:H54)</f>
-        <v>226</v>
-      </c>
-      <c r="K54" s="101">
-        <v>44747</v>
-      </c>
-      <c r="L54">
-        <v>36</v>
-      </c>
-      <c r="M54">
-        <f t="shared" si="1"/>
-        <v>602</v>
-      </c>
-      <c r="N54" s="103">
-        <f t="shared" si="2"/>
-        <v>33.714285714285715</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14">
-      <c r="B55" t="s">
-        <v>649</v>
-      </c>
-      <c r="C55">
-        <v>2</v>
-      </c>
-      <c r="D55">
-        <v>2</v>
-      </c>
-      <c r="E55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G55" s="101">
-        <v>44752</v>
-      </c>
-      <c r="H55" s="103">
-        <v>7</v>
-      </c>
-      <c r="I55" s="103">
-        <f>+H55+I54</f>
-        <v>707</v>
-      </c>
-      <c r="J55" s="103">
-        <f>SUM(H49:H55)</f>
-        <v>222</v>
-      </c>
-      <c r="K55" s="101">
-        <v>44748</v>
-      </c>
-      <c r="L55">
-        <v>46</v>
-      </c>
-      <c r="M55">
-        <f t="shared" si="1"/>
-        <v>648</v>
-      </c>
-      <c r="N55" s="103">
-        <f t="shared" si="2"/>
-        <v>34.285714285714285</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14">
-      <c r="B56" t="s">
-        <v>648</v>
-      </c>
-      <c r="C56">
-        <v>133</v>
-      </c>
-      <c r="D56">
-        <v>133</v>
-      </c>
-      <c r="E56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G56" s="101">
-        <v>44753</v>
-      </c>
-      <c r="H56" s="103">
-        <v>100</v>
-      </c>
-      <c r="I56" s="103">
-        <f>+H56+I55</f>
-        <v>807</v>
-      </c>
-      <c r="J56" s="103">
-        <f>SUM(H50:H56)</f>
-        <v>315</v>
-      </c>
-      <c r="K56" s="101">
-        <v>44749</v>
-      </c>
-      <c r="L56">
-        <v>53</v>
-      </c>
-      <c r="M56">
-        <f t="shared" si="1"/>
-        <v>701</v>
-      </c>
-      <c r="N56" s="103">
-        <f t="shared" ref="N56:N82" si="3">AVERAGE(L50:L56)</f>
-        <v>33.714285714285715</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14">
-      <c r="B57" t="s">
-        <v>647</v>
-      </c>
-      <c r="C57">
-        <v>51</v>
-      </c>
-      <c r="D57">
-        <v>55</v>
-      </c>
-      <c r="E57">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="G57" s="101">
-        <v>44754</v>
-      </c>
-      <c r="H57" s="103">
-        <v>212</v>
-      </c>
-      <c r="I57" s="103">
-        <f>+H57+I56</f>
-        <v>1019</v>
-      </c>
-      <c r="J57" s="103">
-        <f>SUM(H51:H57)</f>
-        <v>490</v>
-      </c>
-      <c r="K57" s="101">
-        <v>44750</v>
-      </c>
-      <c r="L57">
-        <v>36</v>
-      </c>
-      <c r="M57">
-        <f t="shared" si="1"/>
-        <v>737</v>
-      </c>
-      <c r="N57" s="103">
-        <f t="shared" si="3"/>
-        <v>31.142857142857142</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14">
-      <c r="B58" t="s">
-        <v>646</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="E58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G58" s="101">
-        <v>44755</v>
-      </c>
-      <c r="H58" s="103">
-        <v>140</v>
-      </c>
-      <c r="I58" s="103">
-        <f>+H58+I57</f>
-        <v>1159</v>
-      </c>
-      <c r="J58" s="103">
-        <f>SUM(H52:H58)</f>
-        <v>585</v>
-      </c>
-      <c r="K58" s="101">
-        <v>44751</v>
-      </c>
-      <c r="L58">
-        <v>41</v>
-      </c>
-      <c r="M58">
-        <f t="shared" si="1"/>
-        <v>778</v>
-      </c>
-      <c r="N58" s="103">
-        <f t="shared" si="3"/>
-        <v>34.857142857142854</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14">
-      <c r="B59" t="s">
-        <v>645</v>
-      </c>
-      <c r="C59">
-        <v>251</v>
-      </c>
-      <c r="D59">
-        <v>305</v>
-      </c>
-      <c r="E59">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="G59" s="101">
-        <v>44756</v>
-      </c>
-      <c r="H59" s="103">
-        <v>216</v>
-      </c>
-      <c r="I59" s="103">
-        <f>+H59+I58</f>
-        <v>1375</v>
-      </c>
-      <c r="J59" s="103">
-        <f>SUM(H53:H59)</f>
-        <v>749</v>
-      </c>
-      <c r="K59" s="101">
-        <v>44752</v>
-      </c>
-      <c r="L59">
-        <v>7</v>
-      </c>
-      <c r="M59">
-        <f t="shared" si="1"/>
-        <v>785</v>
-      </c>
-      <c r="N59" s="103">
-        <f t="shared" si="3"/>
-        <v>34.714285714285715</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14">
       <c r="D60">
         <v>1</v>
       </c>
       <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="H60" s="101">
+        <v>44757</v>
+      </c>
+      <c r="I60" s="103">
+        <v>159</v>
+      </c>
+      <c r="J60" s="103">
+        <f t="shared" si="4"/>
+        <v>1534</v>
+      </c>
+      <c r="K60" s="103">
+        <f t="shared" si="5"/>
+        <v>871</v>
+      </c>
+      <c r="L60" s="101">
+        <v>44753</v>
+      </c>
+      <c r="M60">
+        <v>95</v>
+      </c>
+      <c r="N60">
         <f t="shared" si="0"/>
+        <v>880</v>
+      </c>
+      <c r="O60" s="103">
+        <f t="shared" si="6"/>
+        <v>44.857142857142854</v>
+      </c>
+    </row>
+    <row r="61" spans="2:15">
+      <c r="B61" t="s">
+        <v>649</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <v>3</v>
+      </c>
+      <c r="H61" s="101">
+        <v>44758</v>
+      </c>
+      <c r="I61" s="103">
+        <v>7</v>
+      </c>
+      <c r="J61" s="103">
+        <f t="shared" si="4"/>
+        <v>1541</v>
+      </c>
+      <c r="K61" s="103">
+        <f t="shared" si="5"/>
+        <v>841</v>
+      </c>
+      <c r="L61" s="101">
+        <v>44754</v>
+      </c>
+      <c r="M61">
+        <v>157</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="0"/>
+        <v>1037</v>
+      </c>
+      <c r="O61" s="103">
+        <f t="shared" si="6"/>
+        <v>62.142857142857146</v>
+      </c>
+    </row>
+    <row r="62" spans="2:15">
+      <c r="B62" t="s">
+        <v>648</v>
+      </c>
+      <c r="C62">
+        <v>133</v>
+      </c>
+      <c r="D62">
+        <v>133</v>
+      </c>
+      <c r="E62">
+        <v>133</v>
+      </c>
+      <c r="H62" s="101">
+        <v>44759</v>
+      </c>
+      <c r="I62" s="103">
         <v>1</v>
       </c>
-      <c r="G60" s="101">
+      <c r="J62" s="103">
+        <f t="shared" si="4"/>
+        <v>1542</v>
+      </c>
+      <c r="K62" s="103">
+        <f t="shared" si="5"/>
+        <v>835</v>
+      </c>
+      <c r="L62" s="101">
+        <v>44755</v>
+      </c>
+      <c r="M62">
+        <v>141</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="0"/>
+        <v>1178</v>
+      </c>
+      <c r="O62" s="103">
+        <f t="shared" si="6"/>
+        <v>75.714285714285708</v>
+      </c>
+    </row>
+    <row r="63" spans="2:15">
+      <c r="B63" t="s">
+        <v>647</v>
+      </c>
+      <c r="C63">
+        <v>51</v>
+      </c>
+      <c r="D63">
+        <v>55</v>
+      </c>
+      <c r="E63">
+        <v>64</v>
+      </c>
+      <c r="H63" s="101">
+        <v>44760</v>
+      </c>
+      <c r="I63" s="103">
+        <v>195</v>
+      </c>
+      <c r="J63" s="103">
+        <f t="shared" si="4"/>
+        <v>1737</v>
+      </c>
+      <c r="K63" s="103">
+        <f t="shared" si="5"/>
+        <v>930</v>
+      </c>
+      <c r="L63" s="101">
+        <v>44756</v>
+      </c>
+      <c r="M63">
+        <v>209</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="0"/>
+        <v>1387</v>
+      </c>
+      <c r="O63" s="103">
+        <f t="shared" si="6"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="2:15">
+      <c r="B64" t="s">
+        <v>646</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="H64" s="101">
+        <v>44761</v>
+      </c>
+      <c r="I64" s="103">
+        <v>301</v>
+      </c>
+      <c r="J64" s="103">
+        <f t="shared" si="4"/>
+        <v>2038</v>
+      </c>
+      <c r="K64" s="103">
+        <f t="shared" si="5"/>
+        <v>1019</v>
+      </c>
+      <c r="L64" s="101">
         <v>44757</v>
       </c>
-      <c r="H60" s="103">
-        <v>159</v>
-      </c>
-      <c r="I60" s="103">
-        <f>+H60+I59</f>
-        <v>1534</v>
-      </c>
-      <c r="J60" s="103">
-        <f>SUM(H54:H60)</f>
-        <v>871</v>
-      </c>
-      <c r="K60" s="101">
-        <v>44753</v>
-      </c>
-      <c r="L60">
-        <v>95</v>
-      </c>
-      <c r="M60">
-        <f t="shared" si="1"/>
-        <v>880</v>
-      </c>
-      <c r="N60" s="103">
-        <f t="shared" si="3"/>
-        <v>44.857142857142854</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14">
-      <c r="B61" t="s">
-        <v>644</v>
-      </c>
-      <c r="C61">
-        <v>53</v>
-      </c>
-      <c r="D61">
-        <v>59</v>
-      </c>
-      <c r="E61">
+      <c r="M64">
+        <v>152</v>
+      </c>
+      <c r="N64">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G61" s="101">
+        <v>1539</v>
+      </c>
+      <c r="O64" s="103">
+        <f t="shared" si="6"/>
+        <v>114.57142857142857</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15">
+      <c r="B65" t="s">
+        <v>645</v>
+      </c>
+      <c r="C65">
+        <v>251</v>
+      </c>
+      <c r="D65">
+        <v>305</v>
+      </c>
+      <c r="E65">
+        <v>340</v>
+      </c>
+      <c r="H65" s="101">
+        <v>44762</v>
+      </c>
+      <c r="I65" s="103">
+        <v>256</v>
+      </c>
+      <c r="J65" s="103">
+        <f t="shared" si="4"/>
+        <v>2294</v>
+      </c>
+      <c r="K65" s="103">
+        <f t="shared" si="5"/>
+        <v>1135</v>
+      </c>
+      <c r="L65" s="101">
         <v>44758</v>
       </c>
-      <c r="H61" s="103">
+      <c r="M65">
         <v>7</v>
       </c>
-      <c r="I61" s="103">
-        <f>+H61+I60</f>
-        <v>1541</v>
-      </c>
-      <c r="J61" s="103">
-        <f>SUM(H55:H61)</f>
-        <v>841</v>
-      </c>
-      <c r="K61" s="101">
-        <v>44754</v>
-      </c>
-      <c r="L61">
-        <v>157</v>
-      </c>
-      <c r="M61">
-        <f t="shared" si="1"/>
-        <v>1037</v>
-      </c>
-      <c r="N61" s="103">
-        <f t="shared" si="3"/>
-        <v>62.142857142857146</v>
-      </c>
-    </row>
-    <row r="62" spans="2:14">
-      <c r="B62" t="s">
-        <v>643</v>
-      </c>
-      <c r="C62">
-        <v>588</v>
-      </c>
-      <c r="D62">
-        <v>633</v>
-      </c>
-      <c r="E62">
+      <c r="N65">
         <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="G62" s="101">
-        <v>44759</v>
-      </c>
-      <c r="H62" s="103">
-        <v>1</v>
-      </c>
-      <c r="I62" s="103">
-        <f>+H62+I61</f>
-        <v>1542</v>
-      </c>
-      <c r="J62" s="103">
-        <f>SUM(H56:H62)</f>
-        <v>835</v>
-      </c>
-      <c r="K62" s="101">
-        <v>44755</v>
-      </c>
-      <c r="L62">
-        <v>141</v>
-      </c>
-      <c r="M62">
-        <f t="shared" si="1"/>
-        <v>1178</v>
-      </c>
-      <c r="N62" s="103">
-        <f t="shared" si="3"/>
-        <v>75.714285714285708</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14">
-      <c r="B63" t="s">
-        <v>642</v>
-      </c>
-      <c r="C63">
-        <v>2</v>
-      </c>
-      <c r="D63">
-        <v>2</v>
-      </c>
-      <c r="E63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G63" s="101">
-        <v>44760</v>
-      </c>
-      <c r="H63" s="103">
-        <v>195</v>
-      </c>
-      <c r="I63" s="103">
-        <f>+H63+I62</f>
-        <v>1737</v>
-      </c>
-      <c r="J63" s="103">
-        <f>SUM(H57:H63)</f>
-        <v>930</v>
-      </c>
-      <c r="K63" s="101">
-        <v>44756</v>
-      </c>
-      <c r="L63">
-        <v>209</v>
-      </c>
-      <c r="M63">
-        <f t="shared" si="1"/>
-        <v>1387</v>
-      </c>
-      <c r="N63" s="103">
-        <f t="shared" si="3"/>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="64" spans="2:14">
-      <c r="B64" t="s">
-        <v>641</v>
-      </c>
-      <c r="C64">
-        <v>2</v>
-      </c>
-      <c r="D64">
-        <v>2</v>
-      </c>
-      <c r="E64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G64" s="101">
-        <v>44761</v>
-      </c>
-      <c r="H64" s="103">
-        <v>301</v>
-      </c>
-      <c r="I64" s="103">
-        <f>+H64+I63</f>
-        <v>2038</v>
-      </c>
-      <c r="J64" s="103">
-        <f>SUM(H58:H64)</f>
-        <v>1019</v>
-      </c>
-      <c r="K64" s="101">
-        <v>44757</v>
-      </c>
-      <c r="L64">
-        <v>152</v>
-      </c>
-      <c r="M64">
-        <f t="shared" si="1"/>
-        <v>1539</v>
-      </c>
-      <c r="N64" s="103">
-        <f t="shared" si="3"/>
-        <v>114.57142857142857</v>
-      </c>
-    </row>
-    <row r="65" spans="2:14">
-      <c r="B65" t="s">
-        <v>640</v>
-      </c>
-      <c r="C65">
-        <v>20</v>
-      </c>
-      <c r="D65">
-        <v>21</v>
-      </c>
-      <c r="E65">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G65" s="101">
-        <v>44762</v>
-      </c>
-      <c r="H65" s="103">
-        <v>256</v>
-      </c>
-      <c r="I65" s="103">
-        <f>+H65+I64</f>
-        <v>2294</v>
-      </c>
-      <c r="J65" s="103">
-        <f>SUM(H59:H65)</f>
-        <v>1135</v>
-      </c>
-      <c r="K65" s="101">
-        <v>44758</v>
-      </c>
-      <c r="L65">
-        <v>7</v>
-      </c>
-      <c r="M65">
-        <f t="shared" si="1"/>
         <v>1546</v>
       </c>
-      <c r="N65" s="103">
-        <f t="shared" si="3"/>
+      <c r="O65" s="103">
+        <f t="shared" si="6"/>
         <v>109.71428571428571</v>
       </c>
     </row>
-    <row r="66" spans="2:14">
-      <c r="B66" t="s">
-        <v>639</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
+    <row r="66" spans="2:15">
       <c r="D66">
         <v>1</v>
       </c>
       <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="H66" s="101">
+        <v>44763</v>
+      </c>
+      <c r="I66" s="103">
+        <v>184</v>
+      </c>
+      <c r="J66" s="103">
+        <f t="shared" si="4"/>
+        <v>2478</v>
+      </c>
+      <c r="K66" s="103">
+        <f t="shared" si="5"/>
+        <v>1103</v>
+      </c>
+      <c r="L66" s="101">
+        <v>44759</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G66" s="101">
+        <v>1547</v>
+      </c>
+      <c r="O66" s="103">
+        <f t="shared" si="6"/>
+        <v>108.85714285714286</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15">
+      <c r="B67" t="s">
+        <v>644</v>
+      </c>
+      <c r="C67">
+        <v>53</v>
+      </c>
+      <c r="D67">
+        <v>59</v>
+      </c>
+      <c r="E67">
+        <v>76</v>
+      </c>
+      <c r="H67" s="101">
+        <v>44764</v>
+      </c>
+      <c r="I67" s="103">
+        <v>308</v>
+      </c>
+      <c r="J67" s="103">
+        <f t="shared" si="4"/>
+        <v>2786</v>
+      </c>
+      <c r="K67" s="103">
+        <f t="shared" si="5"/>
+        <v>1252</v>
+      </c>
+      <c r="L67" s="101">
+        <v>44760</v>
+      </c>
+      <c r="M67">
+        <v>168</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="0"/>
+        <v>1715</v>
+      </c>
+      <c r="O67" s="103">
+        <f t="shared" si="6"/>
+        <v>119.28571428571429</v>
+      </c>
+    </row>
+    <row r="68" spans="2:15">
+      <c r="B68" t="s">
+        <v>643</v>
+      </c>
+      <c r="C68">
+        <v>588</v>
+      </c>
+      <c r="D68">
+        <v>633</v>
+      </c>
+      <c r="E68">
+        <v>710</v>
+      </c>
+      <c r="H68" s="101">
+        <v>44765</v>
+      </c>
+      <c r="I68" s="103">
+        <v>9</v>
+      </c>
+      <c r="J68" s="103">
+        <f t="shared" si="4"/>
+        <v>2795</v>
+      </c>
+      <c r="K68" s="103">
+        <f t="shared" si="5"/>
+        <v>1254</v>
+      </c>
+      <c r="L68" s="101">
+        <v>44761</v>
+      </c>
+      <c r="M68">
+        <v>292</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="0"/>
+        <v>2007</v>
+      </c>
+      <c r="O68" s="103">
+        <f t="shared" si="6"/>
+        <v>138.57142857142858</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15">
+      <c r="B69" t="s">
+        <v>642</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+      <c r="H69" s="101">
+        <v>44766</v>
+      </c>
+      <c r="I69" s="103">
+        <v>2</v>
+      </c>
+      <c r="J69" s="103">
+        <f t="shared" si="4"/>
+        <v>2797</v>
+      </c>
+      <c r="K69" s="103">
+        <f t="shared" si="5"/>
+        <v>1255</v>
+      </c>
+      <c r="L69" s="101">
+        <v>44762</v>
+      </c>
+      <c r="M69">
+        <v>255</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="0"/>
+        <v>2262</v>
+      </c>
+      <c r="O69" s="103">
+        <f t="shared" si="6"/>
+        <v>154.85714285714286</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15">
+      <c r="B70" t="s">
+        <v>641</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+      <c r="H70" s="101">
+        <v>44767</v>
+      </c>
+      <c r="I70" s="103">
+        <v>439</v>
+      </c>
+      <c r="J70" s="103">
+        <f t="shared" si="4"/>
+        <v>3236</v>
+      </c>
+      <c r="K70" s="103">
+        <f t="shared" si="5"/>
+        <v>1499</v>
+      </c>
+      <c r="L70" s="101">
         <v>44763</v>
       </c>
-      <c r="H66" s="103">
+      <c r="M70">
+        <v>183</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="0"/>
+        <v>2445</v>
+      </c>
+      <c r="O70" s="103">
+        <f t="shared" si="6"/>
+        <v>151.14285714285714</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15">
+      <c r="B71" t="s">
+        <v>640</v>
+      </c>
+      <c r="C71">
+        <v>20</v>
+      </c>
+      <c r="D71">
+        <v>21</v>
+      </c>
+      <c r="E71">
+        <v>22</v>
+      </c>
+      <c r="L71" s="101">
+        <v>44764</v>
+      </c>
+      <c r="M71">
+        <v>322</v>
+      </c>
+      <c r="N71">
+        <f t="shared" ref="N71:N83" si="7">+M71+N70</f>
+        <v>2767</v>
+      </c>
+      <c r="O71" s="103">
+        <f t="shared" si="6"/>
+        <v>175.42857142857142</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15">
+      <c r="B72" t="s">
+        <v>639</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="L72" s="101">
+        <v>44765</v>
+      </c>
+      <c r="M72">
+        <v>13</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="7"/>
+        <v>2780</v>
+      </c>
+      <c r="O72" s="103">
+        <f t="shared" si="6"/>
+        <v>176.28571428571428</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15">
+      <c r="B73" t="s">
+        <v>638</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="L73" s="101">
+        <v>44766</v>
+      </c>
+      <c r="M73">
+        <v>6</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="7"/>
+        <v>2786</v>
+      </c>
+      <c r="O73" s="103">
+        <f t="shared" si="6"/>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15">
+      <c r="E74">
+        <v>5</v>
+      </c>
+      <c r="L74" s="101">
+        <v>44767</v>
+      </c>
+      <c r="M74">
+        <v>812</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="7"/>
+        <v>3598</v>
+      </c>
+      <c r="O74" s="103">
+        <f t="shared" si="6"/>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15">
+      <c r="B75" t="s">
+        <v>637</v>
+      </c>
+      <c r="C75">
+        <v>10</v>
+      </c>
+      <c r="D75">
+        <v>10</v>
+      </c>
+      <c r="E75">
+        <v>10</v>
+      </c>
+      <c r="L75" s="101">
+        <v>44768</v>
+      </c>
+      <c r="M75">
+        <v>586</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="7"/>
+        <v>4184</v>
+      </c>
+      <c r="O75" s="103">
+        <f t="shared" si="6"/>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15">
+      <c r="B76" t="s">
+        <v>636</v>
+      </c>
+      <c r="C76">
+        <v>11</v>
+      </c>
+      <c r="D76">
+        <v>11</v>
+      </c>
+      <c r="E76">
+        <v>15</v>
+      </c>
+      <c r="L76" s="101">
+        <v>44769</v>
+      </c>
+      <c r="M76">
+        <v>476</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="7"/>
+        <v>4660</v>
+      </c>
+      <c r="O76" s="103">
+        <f t="shared" si="6"/>
+        <v>342.57142857142856</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15">
+      <c r="B77" t="s">
+        <v>635</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+      <c r="D77">
+        <v>6</v>
+      </c>
+      <c r="E77">
+        <v>8</v>
+      </c>
+      <c r="L77" s="101">
+        <v>44770</v>
+      </c>
+      <c r="M77">
         <v>184</v>
       </c>
-      <c r="I66" s="103">
-        <f>+H66+I65</f>
-        <v>2478</v>
-      </c>
-      <c r="J66" s="103">
-        <f>SUM(H60:H66)</f>
-        <v>1103</v>
-      </c>
-      <c r="K66" s="101">
-        <v>44759</v>
-      </c>
-      <c r="L66">
+      <c r="N77">
+        <f t="shared" si="7"/>
+        <v>4844</v>
+      </c>
+      <c r="O77" s="103">
+        <f t="shared" si="6"/>
+        <v>342.71428571428572</v>
+      </c>
+    </row>
+    <row r="78" spans="2:15">
+      <c r="B78" t="s">
+        <v>634</v>
+      </c>
+      <c r="C78">
+        <v>33</v>
+      </c>
+      <c r="D78">
+        <v>33</v>
+      </c>
+      <c r="E78">
+        <v>37</v>
+      </c>
+      <c r="L78" s="101">
+        <v>44771</v>
+      </c>
+      <c r="M78">
+        <v>435</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="7"/>
+        <v>5279</v>
+      </c>
+      <c r="O78" s="108">
+        <f t="shared" si="6"/>
+        <v>358.85714285714283</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15">
+      <c r="B79" t="s">
+        <v>633</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+      <c r="E79">
+        <v>3</v>
+      </c>
+      <c r="L79" s="101">
+        <v>44772</v>
+      </c>
+      <c r="M79">
+        <v>16</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="7"/>
+        <v>5295</v>
+      </c>
+      <c r="O79" s="108">
+        <f t="shared" si="6"/>
+        <v>359.28571428571428</v>
+      </c>
+    </row>
+    <row r="80" spans="2:15">
+      <c r="B80" t="s">
+        <v>632</v>
+      </c>
+      <c r="C80">
         <v>1</v>
       </c>
-      <c r="M66">
-        <f t="shared" si="1"/>
-        <v>1547</v>
-      </c>
-      <c r="N66" s="103">
-        <f t="shared" si="3"/>
-        <v>108.85714285714286</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14">
-      <c r="B67" t="s">
-        <v>638</v>
-      </c>
-      <c r="C67">
-        <v>3</v>
-      </c>
-      <c r="D67">
-        <v>3</v>
-      </c>
-      <c r="E67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G67" s="101">
-        <v>44764</v>
-      </c>
-      <c r="H67" s="103">
-        <v>308</v>
-      </c>
-      <c r="I67" s="103">
-        <f>+H67+I66</f>
-        <v>2786</v>
-      </c>
-      <c r="J67" s="103">
-        <f>SUM(H61:H67)</f>
-        <v>1252</v>
-      </c>
-      <c r="K67" s="101">
-        <v>44760</v>
-      </c>
-      <c r="L67">
-        <v>168</v>
-      </c>
-      <c r="M67">
-        <f t="shared" si="1"/>
-        <v>1715</v>
-      </c>
-      <c r="N67" s="103">
-        <f t="shared" si="3"/>
-        <v>119.28571428571429</v>
-      </c>
-    </row>
-    <row r="68" spans="2:14">
-      <c r="B68" t="s">
-        <v>637</v>
-      </c>
-      <c r="C68">
-        <v>10</v>
-      </c>
-      <c r="D68">
-        <v>10</v>
-      </c>
-      <c r="E68">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G68" s="101">
-        <v>44765</v>
-      </c>
-      <c r="H68" s="103">
-        <v>9</v>
-      </c>
-      <c r="I68" s="103">
-        <f>+H68+I67</f>
-        <v>2795</v>
-      </c>
-      <c r="J68" s="103">
-        <f>SUM(H62:H68)</f>
-        <v>1254</v>
-      </c>
-      <c r="K68" s="101">
-        <v>44761</v>
-      </c>
-      <c r="L68">
-        <v>292</v>
-      </c>
-      <c r="M68">
-        <f t="shared" si="1"/>
-        <v>2007</v>
-      </c>
-      <c r="N68" s="103">
-        <f t="shared" si="3"/>
-        <v>138.57142857142858</v>
-      </c>
-    </row>
-    <row r="69" spans="2:14">
-      <c r="B69" t="s">
-        <v>636</v>
-      </c>
-      <c r="C69">
-        <v>11</v>
-      </c>
-      <c r="D69">
-        <v>11</v>
-      </c>
-      <c r="E69">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G69" s="101">
-        <v>44766</v>
-      </c>
-      <c r="H69" s="103">
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="L80" s="101">
+        <v>44773</v>
+      </c>
+      <c r="M80">
+        <v>14</v>
+      </c>
+      <c r="N80">
+        <f t="shared" si="7"/>
+        <v>5309</v>
+      </c>
+      <c r="O80" s="108">
+        <f t="shared" si="6"/>
+        <v>360.42857142857144</v>
+      </c>
+    </row>
+    <row r="81" spans="2:15">
+      <c r="B81" t="s">
+        <v>631</v>
+      </c>
+      <c r="C81">
+        <v>3738</v>
+      </c>
+      <c r="D81">
+        <v>4298</v>
+      </c>
+      <c r="E81">
+        <v>4942</v>
+      </c>
+      <c r="L81" s="101">
+        <v>44774</v>
+      </c>
+      <c r="M81">
+        <v>562</v>
+      </c>
+      <c r="N81">
+        <f t="shared" si="7"/>
+        <v>5871</v>
+      </c>
+      <c r="O81" s="103">
+        <f t="shared" si="6"/>
+        <v>324.71428571428572</v>
+      </c>
+    </row>
+    <row r="82" spans="2:15">
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="G82" s="107">
+        <f>+D90/C90-1</f>
+        <v>0.18426416632694664</v>
+      </c>
+      <c r="L82" s="101">
+        <v>44775</v>
+      </c>
+      <c r="M82">
+        <v>516</v>
+      </c>
+      <c r="N82">
+        <f t="shared" si="7"/>
+        <v>6387</v>
+      </c>
+      <c r="O82" s="103">
+        <f t="shared" si="6"/>
+        <v>314.71428571428572</v>
+      </c>
+    </row>
+    <row r="83" spans="2:15">
+      <c r="B83" t="s">
+        <v>630</v>
+      </c>
+      <c r="C83">
+        <v>85</v>
+      </c>
+      <c r="D83">
+        <v>88</v>
+      </c>
+      <c r="E83">
+        <v>111</v>
+      </c>
+      <c r="L83" s="101">
+        <v>44776</v>
+      </c>
+      <c r="M83">
+        <v>229</v>
+      </c>
+      <c r="N83">
+        <f t="shared" si="7"/>
+        <v>6616</v>
+      </c>
+      <c r="O83" s="103">
+        <f>AVERAGE(M77:M83)</f>
+        <v>279.42857142857144</v>
+      </c>
+    </row>
+    <row r="84" spans="2:15">
+      <c r="B84" t="s">
+        <v>629</v>
+      </c>
+      <c r="C84">
+        <v>264</v>
+      </c>
+      <c r="D84">
+        <v>272</v>
+      </c>
+      <c r="E84">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="85" spans="2:15">
+      <c r="B85" t="s">
+        <v>628</v>
+      </c>
+      <c r="C85">
         <v>2</v>
       </c>
-      <c r="I69" s="103">
-        <f>+H69+I68</f>
-        <v>2797</v>
-      </c>
-      <c r="J69" s="103">
-        <f>SUM(H63:H69)</f>
-        <v>1255</v>
-      </c>
-      <c r="K69" s="101">
-        <v>44762</v>
-      </c>
-      <c r="L69">
-        <v>255</v>
-      </c>
-      <c r="M69">
-        <f t="shared" si="1"/>
-        <v>2262</v>
-      </c>
-      <c r="N69" s="103">
-        <f t="shared" si="3"/>
-        <v>154.85714285714286</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14">
-      <c r="B70" t="s">
-        <v>635</v>
-      </c>
-      <c r="C70">
-        <v>3</v>
-      </c>
-      <c r="D70">
-        <v>6</v>
-      </c>
-      <c r="E70">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G70" s="101">
-        <v>44767</v>
-      </c>
-      <c r="H70" s="103">
-        <v>439</v>
-      </c>
-      <c r="I70" s="103">
-        <f>+H70+I69</f>
-        <v>3236</v>
-      </c>
-      <c r="J70" s="103">
-        <f>SUM(H64:H70)</f>
-        <v>1499</v>
-      </c>
-      <c r="K70" s="101">
-        <v>44763</v>
-      </c>
-      <c r="L70">
-        <v>183</v>
-      </c>
-      <c r="M70">
-        <f t="shared" si="1"/>
-        <v>2445</v>
-      </c>
-      <c r="N70" s="103">
-        <f t="shared" si="3"/>
-        <v>151.14285714285714</v>
-      </c>
-    </row>
-    <row r="71" spans="2:14">
-      <c r="B71" t="s">
-        <v>634</v>
-      </c>
-      <c r="C71">
-        <v>33</v>
-      </c>
-      <c r="D71">
-        <v>33</v>
-      </c>
-      <c r="E71">
-        <f t="shared" ref="E71:E84" si="4">+D71-C71</f>
-        <v>0</v>
-      </c>
-      <c r="K71" s="101">
-        <v>44764</v>
-      </c>
-      <c r="L71">
-        <v>322</v>
-      </c>
-      <c r="M71">
-        <f t="shared" ref="M71:M83" si="5">+L71+M70</f>
-        <v>2767</v>
-      </c>
-      <c r="N71" s="103">
-        <f t="shared" si="3"/>
-        <v>175.42857142857142</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14">
-      <c r="B72" t="s">
-        <v>633</v>
-      </c>
-      <c r="C72">
-        <v>3</v>
-      </c>
-      <c r="D72">
-        <v>3</v>
-      </c>
-      <c r="E72">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K72" s="101">
-        <v>44765</v>
-      </c>
-      <c r="L72">
-        <v>13</v>
-      </c>
-      <c r="M72">
-        <f t="shared" si="5"/>
-        <v>2780</v>
-      </c>
-      <c r="N72" s="103">
-        <f t="shared" si="3"/>
-        <v>176.28571428571428</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14">
-      <c r="B73" t="s">
-        <v>632</v>
-      </c>
-      <c r="C73">
+      <c r="D85">
+        <v>2</v>
+      </c>
+      <c r="E85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="2:15">
+      <c r="B86" t="s">
+        <v>627</v>
+      </c>
+      <c r="C86">
+        <v>2</v>
+      </c>
+      <c r="D86">
+        <v>2</v>
+      </c>
+      <c r="E86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="2:15">
+      <c r="B87" t="s">
+        <v>626</v>
+      </c>
+      <c r="C87">
         <v>1</v>
       </c>
-      <c r="D73">
+      <c r="D87">
         <v>1</v>
       </c>
-      <c r="E73">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K73" s="101">
-        <v>44766</v>
-      </c>
-      <c r="L73">
-        <v>6</v>
-      </c>
-      <c r="M73">
-        <f t="shared" si="5"/>
-        <v>2786</v>
-      </c>
-      <c r="N73" s="103">
-        <f t="shared" si="3"/>
-        <v>177</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14">
-      <c r="B74" t="s">
-        <v>631</v>
-      </c>
-      <c r="C74">
-        <v>3738</v>
-      </c>
-      <c r="D74">
-        <v>4298</v>
-      </c>
-      <c r="E74">
-        <f t="shared" si="4"/>
-        <v>560</v>
-      </c>
-      <c r="K74" s="101">
-        <v>44767</v>
-      </c>
-      <c r="L74">
-        <v>812</v>
-      </c>
-      <c r="M74">
-        <f t="shared" si="5"/>
-        <v>3598</v>
-      </c>
-      <c r="N74" s="103">
-        <f t="shared" si="3"/>
-        <v>269</v>
-      </c>
-    </row>
-    <row r="75" spans="2:14">
-      <c r="B75" t="s">
-        <v>630</v>
-      </c>
-      <c r="C75">
-        <v>85</v>
-      </c>
-      <c r="D75">
-        <v>88</v>
-      </c>
-      <c r="E75">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="K75" s="101">
-        <v>44768</v>
-      </c>
-      <c r="L75">
-        <v>586</v>
-      </c>
-      <c r="M75">
-        <f t="shared" si="5"/>
-        <v>4184</v>
-      </c>
-      <c r="N75" s="103">
-        <f t="shared" si="3"/>
-        <v>311</v>
-      </c>
-    </row>
-    <row r="76" spans="2:14">
-      <c r="B76" t="s">
-        <v>629</v>
-      </c>
-      <c r="C76">
-        <v>264</v>
-      </c>
-      <c r="D76">
-        <v>272</v>
-      </c>
-      <c r="E76">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="K76" s="101">
-        <v>44769</v>
-      </c>
-      <c r="L76">
-        <v>476</v>
-      </c>
-      <c r="M76">
-        <f t="shared" si="5"/>
-        <v>4660</v>
-      </c>
-      <c r="N76" s="103">
-        <f t="shared" si="3"/>
-        <v>342.57142857142856</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14">
-      <c r="B77" t="s">
-        <v>628</v>
-      </c>
-      <c r="C77">
+      <c r="E87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="2:15">
+      <c r="B88" t="s">
+        <v>625</v>
+      </c>
+      <c r="C88">
+        <v>16</v>
+      </c>
+      <c r="D88">
+        <v>16</v>
+      </c>
+      <c r="E88">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="2:15">
+      <c r="B89" t="s">
+        <v>624</v>
+      </c>
+      <c r="C89">
+        <v>2432</v>
+      </c>
+      <c r="D89">
+        <v>2546</v>
+      </c>
+      <c r="E89">
+        <v>2859</v>
+      </c>
+    </row>
+    <row r="90" spans="2:15">
+      <c r="B90" t="s">
+        <v>623</v>
+      </c>
+      <c r="C90">
+        <v>4906</v>
+      </c>
+      <c r="D90">
+        <v>5810</v>
+      </c>
+      <c r="E90">
+        <v>7509</v>
+      </c>
+    </row>
+    <row r="91" spans="2:15">
+      <c r="B91" s="104" t="s">
+        <v>705</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
         <v>2</v>
       </c>
-      <c r="D77">
-        <v>2</v>
-      </c>
-      <c r="E77">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K77" s="101">
-        <v>44770</v>
-      </c>
-      <c r="L77">
-        <v>184</v>
-      </c>
-      <c r="M77">
-        <f t="shared" si="5"/>
-        <v>4844</v>
-      </c>
-      <c r="N77" s="103">
-        <f t="shared" si="3"/>
-        <v>342.71428571428572</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14">
-      <c r="B78" t="s">
-        <v>627</v>
-      </c>
-      <c r="C78">
-        <v>2</v>
-      </c>
-      <c r="D78">
-        <v>2</v>
-      </c>
-      <c r="E78">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K78" s="101">
-        <v>44771</v>
-      </c>
-      <c r="L78">
-        <v>435</v>
-      </c>
-      <c r="M78">
-        <f t="shared" si="5"/>
-        <v>5279</v>
-      </c>
-      <c r="N78" s="109">
-        <f t="shared" si="3"/>
-        <v>358.85714285714283</v>
-      </c>
-    </row>
-    <row r="79" spans="2:14">
-      <c r="B79" t="s">
-        <v>626</v>
-      </c>
-      <c r="C79">
+    </row>
+    <row r="92" spans="2:15">
+      <c r="B92" t="s">
+        <v>622</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="D92">
         <v>1</v>
       </c>
-      <c r="D79">
-        <v>1</v>
-      </c>
-      <c r="E79">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K79" s="101">
-        <v>44772</v>
-      </c>
-      <c r="L79">
-        <v>16</v>
-      </c>
-      <c r="M79">
-        <f t="shared" si="5"/>
-        <v>5295</v>
-      </c>
-      <c r="N79" s="109">
-        <f t="shared" si="3"/>
-        <v>359.28571428571428</v>
-      </c>
-    </row>
-    <row r="80" spans="2:14">
-      <c r="B80" t="s">
-        <v>625</v>
-      </c>
-      <c r="C80">
-        <v>16</v>
-      </c>
-      <c r="D80">
-        <v>16</v>
-      </c>
-      <c r="E80">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K80" s="101">
-        <v>44773</v>
-      </c>
-      <c r="L80">
-        <v>14</v>
-      </c>
-      <c r="M80">
-        <f t="shared" si="5"/>
-        <v>5309</v>
-      </c>
-      <c r="N80" s="109">
-        <f t="shared" si="3"/>
-        <v>360.42857142857144</v>
-      </c>
-    </row>
-    <row r="81" spans="2:14">
-      <c r="B81" t="s">
-        <v>624</v>
-      </c>
-      <c r="C81">
-        <v>2432</v>
-      </c>
-      <c r="D81">
-        <v>2546</v>
-      </c>
-      <c r="E81">
-        <f t="shared" si="4"/>
-        <v>114</v>
-      </c>
-      <c r="K81" s="101">
-        <v>44774</v>
-      </c>
-      <c r="L81">
-        <v>562</v>
-      </c>
-      <c r="M81">
-        <f t="shared" si="5"/>
-        <v>5871</v>
-      </c>
-      <c r="N81" s="103">
-        <f t="shared" si="3"/>
-        <v>324.71428571428572</v>
-      </c>
-    </row>
-    <row r="82" spans="2:14">
-      <c r="B82" t="s">
-        <v>623</v>
-      </c>
-      <c r="C82">
-        <v>4906</v>
-      </c>
-      <c r="D82">
-        <v>5810</v>
-      </c>
-      <c r="E82">
-        <f t="shared" si="4"/>
-        <v>904</v>
-      </c>
-      <c r="F82" s="107">
-        <f>+D82/C82-1</f>
-        <v>0.18426416632694664</v>
-      </c>
-      <c r="K82" s="101">
-        <v>44775</v>
-      </c>
-      <c r="L82">
-        <v>516</v>
-      </c>
-      <c r="M82">
-        <f t="shared" si="5"/>
-        <v>6387</v>
-      </c>
-      <c r="N82" s="103">
-        <f t="shared" si="3"/>
-        <v>314.71428571428572</v>
-      </c>
-    </row>
-    <row r="83" spans="2:14">
-      <c r="B83" s="104" t="s">
-        <v>705</v>
-      </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
-      <c r="D83">
-        <v>1</v>
-      </c>
-      <c r="E83">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K83" s="101">
-        <v>44776</v>
-      </c>
-      <c r="L83">
-        <v>229</v>
-      </c>
-      <c r="M83">
-        <f t="shared" si="5"/>
-        <v>6616</v>
-      </c>
-      <c r="N83" s="103">
-        <f>AVERAGE(L77:L83)</f>
-        <v>279.42857142857144</v>
-      </c>
-    </row>
-    <row r="84" spans="2:14">
-      <c r="B84" t="s">
-        <v>622</v>
-      </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-      <c r="D84">
-        <v>1</v>
-      </c>
-      <c r="E84">
-        <f t="shared" si="4"/>
+      <c r="E92">
         <v>1</v>
       </c>
     </row>
@@ -16936,13 +16904,13 @@
     </row>
     <row r="25" spans="2:23">
       <c r="C25" s="32"/>
-      <c r="J25" s="108" t="s">
+      <c r="J25" s="109" t="s">
         <v>298</v>
       </c>
-      <c r="K25" s="108"/>
-      <c r="L25" s="108"/>
-      <c r="M25" s="108"/>
-      <c r="N25" s="108"/>
+      <c r="K25" s="109"/>
+      <c r="L25" s="109"/>
+      <c r="M25" s="109"/>
+      <c r="N25" s="109"/>
     </row>
     <row r="26" spans="2:23">
       <c r="C26" s="68" t="s">
@@ -18424,20 +18392,20 @@
     </row>
     <row r="330" spans="2:17">
       <c r="C330" s="32"/>
-      <c r="F330" s="108" t="s">
+      <c r="F330" s="109" t="s">
         <v>459</v>
       </c>
-      <c r="G330" s="108"/>
-      <c r="H330" s="108"/>
-      <c r="I330" s="108"/>
-      <c r="J330" s="108"/>
-      <c r="K330" s="108"/>
-      <c r="L330" s="108"/>
-      <c r="M330" s="108"/>
-      <c r="N330" s="108"/>
-      <c r="O330" s="108"/>
-      <c r="P330" s="108"/>
-      <c r="Q330" s="108"/>
+      <c r="G330" s="109"/>
+      <c r="H330" s="109"/>
+      <c r="I330" s="109"/>
+      <c r="J330" s="109"/>
+      <c r="K330" s="109"/>
+      <c r="L330" s="109"/>
+      <c r="M330" s="109"/>
+      <c r="N330" s="109"/>
+      <c r="O330" s="109"/>
+      <c r="P330" s="109"/>
+      <c r="Q330" s="109"/>
     </row>
     <row r="331" spans="2:17">
       <c r="C331" s="32" t="s">
@@ -19278,9 +19246,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19398,25 +19369,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFF1E9B8-B163-4EA4-B096-E0C9303C24CF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B8FCBE5-DC3A-4133-9A7B-7CABB6178323}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -19438,9 +19399,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B8FCBE5-DC3A-4133-9A7B-7CABB6178323}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFF1E9B8-B163-4EA4-B096-E0C9303C24CF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SIGA.xlsx
+++ b/SIGA.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A101A64-9FD2-4364-9939-5BA887035E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93935CC0-1609-44BC-BDD0-A2293242C16A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7650" yWindow="4470" windowWidth="19260" windowHeight="10590" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="52695" yWindow="1755" windowWidth="18645" windowHeight="11040" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -123,7 +123,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="707">
   <si>
     <t>Name</t>
   </si>
@@ -2241,6 +2241,9 @@
   </si>
   <si>
     <t>Uruguay</t>
+  </si>
+  <si>
+    <t>MA</t>
   </si>
 </sst>
 </file>
@@ -2693,7 +2696,1428 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Monkeypox Wild US</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Epidemic Raging Through the Country Savaging Lives with 0 Deaths</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Monkeypox!$Q$9:$Q$97</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="89"/>
+                <c:pt idx="0">
+                  <c:v>44702</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44703</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44704</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44705</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44706</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44707</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44708</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44709</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44710</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44711</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44712</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44713</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44714</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44715</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44716</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44717</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44718</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44719</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44720</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44721</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44722</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44723</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44724</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44725</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44726</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44727</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44728</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44729</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44730</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44731</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44732</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44733</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44734</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44735</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44736</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44737</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44738</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44739</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44740</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44741</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44742</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44743</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44744</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44745</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44746</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44747</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44748</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44749</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44750</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44751</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44752</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44753</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44754</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44755</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44756</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44757</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44758</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44759</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44760</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44761</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44762</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44763</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44764</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44765</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44766</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44767</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44768</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44769</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44770</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44771</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44772</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44773</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44774</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44775</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44776</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44777</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44778</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44779</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44780</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44781</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>44782</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>44783</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>44784</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>44785</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>44786</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44787</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>44788</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44789</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>44790</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Monkeypox!$S$9:$S$97</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="89"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1428571428571428</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8571428571428572</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7142857142857142</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7142857142857142</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.1428571428571428</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1428571428571428</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5714285714285716</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.1428571428571428</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.2857142857142856</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.1428571428571428</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.4285714285714288</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.1428571428571432</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.4285714285714288</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.2857142857142856</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.8571428571428568</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.2857142857142865</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.4285714285714288</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10.142857142857142</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10.285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11.714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11.857142857142858</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>13.285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>13.428571428571429</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>14.428571428571429</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>14.571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16.285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>17.428571428571427</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>22.571428571428573</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>26.571428571428573</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37.428571428571431</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42.714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>48.714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>59.428571428571431</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>68.857142857142861</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>75.857142857142861</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>80.857142857142861</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>79.428571428571431</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>88.285714285714292</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>97.285714285714292</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>101.57142857142857</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>109.42857142857143</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>115.42857142857143</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>119.28571428571429</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>147.85714285714286</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>159.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>173.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>183.57142857142858</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>210.85714285714286</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>221.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>231.57142857142858</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>233.57142857142858</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>247.42857142857142</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>295.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>303.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>314.85714285714283</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>316.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>321.85714285714283</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>331.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>339.85714285714283</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>354.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>354.85714285714283</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>344.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>384.85714285714283</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>380.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>372.14285714285717</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>354.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>334.14285714285717</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>310.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>298.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>291.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>288.71428571428572</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-22DA-4555-97AA-7CF9083337AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1724506752"/>
+        <c:axId val="1724508832"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="1724506752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1724508832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1724508832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1724506752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>347662</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>42862</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD7B207E-0008-6AD7-83ED-9BD23F22FEA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2798,7 +4222,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2877,7 +4301,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4978,10 +6402,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30E3C55D-9118-482B-8720-4989D85F03BD}">
-  <dimension ref="A1:O92"/>
+  <dimension ref="A1:S97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="D81" workbookViewId="0">
+      <selection activeCell="Q99" sqref="Q99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4989,12 +6413,12 @@
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:19">
       <c r="A1" s="102" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:19">
       <c r="C2" s="101">
         <v>44770</v>
       </c>
@@ -5004,38 +6428,52 @@
       <c r="E2" s="101">
         <v>44778</v>
       </c>
-      <c r="F2" s="101"/>
+      <c r="F2" s="101">
+        <v>44791</v>
+      </c>
       <c r="G2" s="101"/>
-      <c r="H2" t="s">
+      <c r="H2" s="101"/>
+      <c r="I2" t="s">
         <v>701</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>700</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>702</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>703</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>701</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>700</v>
       </c>
-      <c r="N2" s="104" t="s">
+      <c r="O2" s="104" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="P2" s="104"/>
+      <c r="S2" s="104" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="C3" s="101"/>
       <c r="D3" s="101"/>
       <c r="E3" s="101"/>
       <c r="F3" s="101"/>
       <c r="G3" s="101"/>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="H3" s="101"/>
+      <c r="Q3" s="101">
+        <v>44696</v>
+      </c>
+      <c r="R3" s="105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="B4" s="104" t="s">
         <v>704</v>
       </c>
@@ -5051,12 +6489,19 @@
         <f>SUM(E5:E97)</f>
         <v>28220</v>
       </c>
-      <c r="F4" s="106">
+      <c r="F4" s="105"/>
+      <c r="G4" s="106">
         <f>+E4/C4-1</f>
         <v>0.33440514469453375</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="Q4" s="101">
+        <v>44697</v>
+      </c>
+      <c r="R4" s="105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="B5" t="s">
         <v>699</v>
       </c>
@@ -5069,29 +6514,35 @@
       <c r="E5">
         <v>4</v>
       </c>
-      <c r="H5" s="101">
+      <c r="I5" s="101">
         <v>44698</v>
       </c>
-      <c r="I5" s="103">
+      <c r="J5" s="108">
         <v>1</v>
       </c>
-      <c r="J5" s="103">
-        <f>+I5</f>
+      <c r="K5" s="103">
+        <f>+J5</f>
         <v>1</v>
       </c>
-      <c r="K5" s="103"/>
-      <c r="L5" s="101">
+      <c r="L5" s="103"/>
+      <c r="M5" s="101">
         <v>44698</v>
       </c>
-      <c r="M5">
+      <c r="N5" s="105">
         <v>1</v>
       </c>
-      <c r="N5">
-        <f>+M5</f>
+      <c r="O5">
+        <f>+N5</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="Q5" s="101">
+        <v>44698</v>
+      </c>
+      <c r="R5" s="105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="B6" t="s">
         <v>698</v>
       </c>
@@ -5104,29 +6555,35 @@
       <c r="E6">
         <v>31</v>
       </c>
-      <c r="H6" s="101">
-        <f>+H5+1</f>
+      <c r="I6" s="101">
+        <f>+I5+1</f>
         <v>44699</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="103">
-        <f>+J5+I6</f>
+      <c r="J6" s="105">
+        <v>0</v>
+      </c>
+      <c r="K6" s="103">
+        <f>+K5+J6</f>
         <v>1</v>
       </c>
-      <c r="L6" s="101">
+      <c r="M6" s="101">
         <v>44699</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <f>+M6+N5</f>
+      <c r="N6" s="105">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <f>+N6+O5</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="Q6" s="101">
+        <v>44699</v>
+      </c>
+      <c r="R6" s="105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="B7" t="s">
         <v>697</v>
       </c>
@@ -5139,29 +6596,35 @@
       <c r="E7">
         <v>58</v>
       </c>
-      <c r="H7" s="101">
-        <f>+H6+1</f>
+      <c r="I7" s="101">
+        <f>+I6+1</f>
         <v>44700</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="103">
-        <f>+J6+I7</f>
+      <c r="J7" s="105">
+        <v>0</v>
+      </c>
+      <c r="K7" s="103">
+        <f>+K6+J7</f>
         <v>1</v>
       </c>
-      <c r="L7" s="101">
+      <c r="M7" s="101">
         <v>44700</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <f t="shared" ref="N7:N70" si="0">+M7+N6</f>
+      <c r="N7" s="105">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f t="shared" ref="O7:O70" si="0">+N7+O6</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="Q7" s="101">
+        <v>44700</v>
+      </c>
+      <c r="R7" s="105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="B8" t="s">
         <v>696</v>
       </c>
@@ -5174,29 +6637,35 @@
       <c r="E8">
         <v>160</v>
       </c>
-      <c r="H8" s="101">
+      <c r="I8" s="101">
         <v>44701</v>
       </c>
-      <c r="I8" s="103">
+      <c r="J8" s="108">
         <v>1</v>
       </c>
-      <c r="J8" s="103">
-        <f>+J7+I8</f>
+      <c r="K8" s="103">
+        <f>+K7+J8</f>
         <v>2</v>
       </c>
-      <c r="K8" s="103"/>
-      <c r="L8" s="101">
+      <c r="L8" s="103"/>
+      <c r="M8" s="101">
         <v>44701</v>
       </c>
-      <c r="M8">
+      <c r="N8" s="105">
         <v>1</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="Q8" s="101">
+        <v>44701</v>
+      </c>
+      <c r="R8" s="105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="B9" t="s">
         <v>695</v>
       </c>
@@ -5209,29 +6678,39 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="H9" s="101">
+      <c r="I9" s="101">
         <v>44702</v>
       </c>
-      <c r="I9" s="103">
+      <c r="J9" s="108">
         <v>2</v>
       </c>
-      <c r="J9" s="103">
-        <f t="shared" ref="J9:J40" si="1">+I9+J8</f>
+      <c r="K9" s="103">
+        <f t="shared" ref="K9:K44" si="1">+J9+K8</f>
         <v>4</v>
       </c>
-      <c r="K9" s="103"/>
-      <c r="L9" s="101">
+      <c r="L9" s="103"/>
+      <c r="M9" s="101">
         <v>44702</v>
       </c>
-      <c r="M9">
+      <c r="N9" s="105">
         <v>2</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="Q9" s="101">
+        <v>44702</v>
+      </c>
+      <c r="R9" s="105">
+        <v>2</v>
+      </c>
+      <c r="S9" s="103">
+        <f>AVERAGE(R3:R9)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="B10" t="s">
         <v>694</v>
       </c>
@@ -5244,29 +6723,32 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="H10" s="101">
-        <v>44704</v>
-      </c>
-      <c r="I10" s="103">
-        <v>2</v>
-      </c>
-      <c r="J10" s="103">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
+      <c r="I10" s="101"/>
+      <c r="J10" s="108"/>
       <c r="K10" s="103"/>
-      <c r="L10" s="101">
+      <c r="L10" s="103"/>
+      <c r="M10" s="101">
         <v>44703</v>
       </c>
-      <c r="M10">
+      <c r="N10" s="105">
         <v>1</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="Q10" s="101">
+        <v>44703</v>
+      </c>
+      <c r="R10" s="105">
+        <v>2</v>
+      </c>
+      <c r="S10" s="103">
+        <f t="shared" ref="S9:S72" si="2">AVERAGE(R4:R10)</f>
+        <v>1.1428571428571428</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="B11" t="s">
         <v>693</v>
       </c>
@@ -5279,169 +6761,216 @@
       <c r="E11">
         <v>482</v>
       </c>
-      <c r="H11" s="101">
+      <c r="I11" s="101">
+        <v>44704</v>
+      </c>
+      <c r="J11" s="108">
+        <v>2</v>
+      </c>
+      <c r="K11" s="103">
+        <f>+J11+K9</f>
+        <v>6</v>
+      </c>
+      <c r="L11" s="103"/>
+      <c r="M11" s="101">
+        <v>44704</v>
+      </c>
+      <c r="N11" s="105">
+        <v>4</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="Q11" s="101">
+        <v>44704</v>
+      </c>
+      <c r="R11" s="105">
+        <v>3</v>
+      </c>
+      <c r="S11" s="103">
+        <f t="shared" si="2"/>
+        <v>1.5714285714285714</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="B12" t="s">
+        <v>692</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="I12" s="101">
         <v>44705</v>
       </c>
-      <c r="I11" s="103">
+      <c r="J12" s="108">
         <v>2</v>
       </c>
-      <c r="J11" s="103">
+      <c r="K12" s="103">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="K11" s="103"/>
-      <c r="L11" s="101">
-        <v>44704</v>
-      </c>
-      <c r="M11">
-        <v>4</v>
-      </c>
-      <c r="N11">
+      <c r="L12" s="103"/>
+      <c r="M12" s="101">
+        <v>44705</v>
+      </c>
+      <c r="N12" s="105">
+        <v>1</v>
+      </c>
+      <c r="O12">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="B12" t="s">
-        <v>692</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="H12" s="101">
+        <v>10</v>
+      </c>
+      <c r="Q12" s="101">
+        <v>44705</v>
+      </c>
+      <c r="R12" s="105">
+        <v>1</v>
+      </c>
+      <c r="S12" s="103">
+        <f t="shared" si="2"/>
+        <v>1.5714285714285714</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="B13" t="s">
+        <v>691</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="I13" s="101">
         <v>44706</v>
       </c>
-      <c r="I12" s="103">
+      <c r="J13" s="108">
         <v>2</v>
       </c>
-      <c r="J12" s="103">
+      <c r="K13" s="103">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="K12" s="103"/>
-      <c r="L12" s="101">
-        <v>44705</v>
-      </c>
-      <c r="M12">
+      <c r="L13" s="103"/>
+      <c r="M13" s="101">
+        <v>44706</v>
+      </c>
+      <c r="N13" s="105">
+        <v>2</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="Q13" s="101">
+        <v>44706</v>
+      </c>
+      <c r="R13" s="105">
+        <v>2</v>
+      </c>
+      <c r="S13" s="103">
+        <f t="shared" si="2"/>
+        <v>1.8571428571428572</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="B14" t="s">
+        <v>690</v>
+      </c>
+      <c r="C14">
         <v>1</v>
       </c>
-      <c r="N12">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="B13" t="s">
-        <v>691</v>
-      </c>
-      <c r="C13">
+      <c r="D14">
         <v>1</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="H13" s="101">
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="I14" s="101">
         <v>44707</v>
       </c>
-      <c r="I13" s="103">
+      <c r="J14" s="108">
         <v>2</v>
       </c>
-      <c r="J13" s="103">
+      <c r="K14" s="103">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="K13" s="103">
-        <f>SUM(I5:I13)</f>
+      <c r="L14" s="103">
+        <f>SUM(J5:J14)</f>
         <v>12</v>
       </c>
-      <c r="L13" s="101">
-        <v>44706</v>
-      </c>
-      <c r="M13">
+      <c r="M14" s="101">
+        <v>44707</v>
+      </c>
+      <c r="N14" s="105">
         <v>2</v>
       </c>
-      <c r="N13">
+      <c r="O14">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="B14" t="s">
-        <v>690</v>
-      </c>
-      <c r="C14">
+        <v>14</v>
+      </c>
+      <c r="Q14" s="101">
+        <v>44707</v>
+      </c>
+      <c r="R14" s="105">
+        <v>2</v>
+      </c>
+      <c r="S14" s="103">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="E15">
         <v>1</v>
       </c>
-      <c r="D14">
+      <c r="I15" s="101">
+        <v>44708</v>
+      </c>
+      <c r="J15" s="108">
         <v>1</v>
       </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="H14" s="101">
-        <v>44708</v>
-      </c>
-      <c r="I14" s="103">
-        <v>1</v>
-      </c>
-      <c r="J14" s="103">
+      <c r="K15" s="103">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="K14" s="103">
-        <f t="shared" ref="K14:K45" si="2">SUM(I8:I14)</f>
+      <c r="L15" s="103">
+        <f>SUM(J8:J15)</f>
         <v>12</v>
       </c>
-      <c r="L14" s="101">
-        <v>44707</v>
-      </c>
-      <c r="M14">
-        <v>2</v>
-      </c>
-      <c r="N14">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="H15" s="101">
-        <v>44710</v>
-      </c>
-      <c r="I15" s="103">
-        <v>2</v>
-      </c>
-      <c r="J15" s="103">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="K15" s="103">
-        <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="L15" s="101">
+      <c r="M15" s="101">
         <v>44708</v>
       </c>
-      <c r="M15">
+      <c r="N15" s="105">
         <v>3</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="Q15" s="101">
+        <v>44708</v>
+      </c>
+      <c r="R15" s="105">
+        <v>2</v>
+      </c>
+      <c r="S15" s="103">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="B16" t="s">
         <v>689</v>
       </c>
@@ -5454,32 +6983,32 @@
       <c r="E16">
         <v>1474</v>
       </c>
-      <c r="H16" s="101">
-        <v>44712</v>
-      </c>
-      <c r="I16" s="103">
-        <v>3</v>
-      </c>
-      <c r="J16" s="103">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="K16" s="103">
-        <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="L16" s="101">
+      <c r="I16" s="101"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="103"/>
+      <c r="L16" s="103"/>
+      <c r="M16" s="101">
         <v>44709</v>
       </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
+      <c r="N16" s="105">
+        <v>0</v>
+      </c>
+      <c r="O16">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="2:14">
+      <c r="Q16" s="101">
+        <v>44709</v>
+      </c>
+      <c r="R16" s="105">
+        <v>0</v>
+      </c>
+      <c r="S16" s="103">
+        <f t="shared" si="2"/>
+        <v>1.7142857142857142</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19">
       <c r="B17" t="s">
         <v>688</v>
       </c>
@@ -5492,1059 +7021,1291 @@
       <c r="E17">
         <v>4</v>
       </c>
-      <c r="H17" s="101">
+      <c r="I17" s="101">
+        <v>44710</v>
+      </c>
+      <c r="J17" s="108">
+        <v>2</v>
+      </c>
+      <c r="K17" s="103">
+        <f>+J17+K15</f>
+        <v>15</v>
+      </c>
+      <c r="L17" s="103">
+        <f>SUM(J9:J17)</f>
+        <v>13</v>
+      </c>
+      <c r="M17" s="101">
+        <v>44710</v>
+      </c>
+      <c r="N17" s="105">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="Q17" s="101">
+        <v>44710</v>
+      </c>
+      <c r="R17" s="105">
+        <v>2</v>
+      </c>
+      <c r="S17" s="103">
+        <f t="shared" si="2"/>
+        <v>1.7142857142857142</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19">
+      <c r="B18" t="s">
+        <v>687</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>7</v>
+      </c>
+      <c r="I18" s="101"/>
+      <c r="J18" s="108"/>
+      <c r="K18" s="103"/>
+      <c r="L18" s="103"/>
+      <c r="M18" s="101">
+        <v>44711</v>
+      </c>
+      <c r="N18" s="105">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="Q18" s="101">
+        <v>44711</v>
+      </c>
+      <c r="R18" s="105">
+        <v>1</v>
+      </c>
+      <c r="S18" s="103">
+        <f t="shared" si="2"/>
+        <v>1.4285714285714286</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19">
+      <c r="B19" t="s">
+        <v>686</v>
+      </c>
+      <c r="C19">
+        <v>745</v>
+      </c>
+      <c r="D19">
+        <v>803</v>
+      </c>
+      <c r="E19">
+        <v>957</v>
+      </c>
+      <c r="I19" s="101">
+        <v>44712</v>
+      </c>
+      <c r="J19" s="108">
+        <v>3</v>
+      </c>
+      <c r="K19" s="103">
+        <f>+J19+K17</f>
+        <v>18</v>
+      </c>
+      <c r="L19" s="103">
+        <f>SUM(J11:J19)</f>
+        <v>14</v>
+      </c>
+      <c r="M19" s="101">
+        <v>44712</v>
+      </c>
+      <c r="N19" s="105">
+        <v>3</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="Q19" s="101">
+        <v>44712</v>
+      </c>
+      <c r="R19" s="105">
+        <v>6</v>
+      </c>
+      <c r="S19" s="103">
+        <f t="shared" si="2"/>
+        <v>2.1428571428571428</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19">
+      <c r="B20" t="s">
+        <v>685</v>
+      </c>
+      <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>8</v>
+      </c>
+      <c r="E20">
+        <v>8</v>
+      </c>
+      <c r="I20" s="101">
         <v>44713</v>
       </c>
-      <c r="I17" s="103">
+      <c r="J20" s="108">
         <v>1</v>
       </c>
-      <c r="J17" s="103">
+      <c r="K20" s="103">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="K17" s="103">
+      <c r="L20" s="103">
+        <f>SUM(J12:J20)</f>
+        <v>13</v>
+      </c>
+      <c r="M20" s="101">
+        <v>44713</v>
+      </c>
+      <c r="N20" s="105">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="Q20" s="101">
+        <v>44713</v>
+      </c>
+      <c r="R20" s="105">
+        <v>2</v>
+      </c>
+      <c r="S20" s="103">
         <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="L17" s="101">
-        <v>44710</v>
-      </c>
-      <c r="M17">
-        <v>1</v>
-      </c>
-      <c r="N17">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14">
-      <c r="B18" t="s">
-        <v>687</v>
-      </c>
-      <c r="C18">
-        <v>7</v>
-      </c>
-      <c r="D18">
-        <v>7</v>
-      </c>
-      <c r="E18">
-        <v>7</v>
-      </c>
-      <c r="H18" s="101">
+        <v>2.1428571428571428</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19">
+      <c r="B21" t="s">
+        <v>684</v>
+      </c>
+      <c r="C21">
+        <v>45</v>
+      </c>
+      <c r="D21">
+        <v>55</v>
+      </c>
+      <c r="E21">
+        <v>69</v>
+      </c>
+      <c r="I21" s="101">
         <v>44714</v>
       </c>
-      <c r="I18" s="103">
+      <c r="J21" s="108">
         <v>3</v>
       </c>
-      <c r="J18" s="103">
+      <c r="K21" s="103">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="K18" s="103">
+      <c r="L21" s="103">
+        <f>SUM(J13:J21)</f>
+        <v>14</v>
+      </c>
+      <c r="M21" s="101">
+        <v>44714</v>
+      </c>
+      <c r="N21" s="105">
+        <v>3</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="Q21" s="101">
+        <v>44714</v>
+      </c>
+      <c r="R21" s="105">
+        <v>5</v>
+      </c>
+      <c r="S21" s="103">
         <f t="shared" si="2"/>
-        <v>14</v>
-      </c>
-      <c r="L18" s="101">
-        <v>44711</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14">
-      <c r="B19" t="s">
-        <v>686</v>
-      </c>
-      <c r="C19">
-        <v>745</v>
-      </c>
-      <c r="D19">
-        <v>803</v>
-      </c>
-      <c r="E19">
-        <v>957</v>
-      </c>
-      <c r="H19" s="101">
+        <v>2.5714285714285716</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19">
+      <c r="B22" t="s">
+        <v>683</v>
+      </c>
+      <c r="C22">
+        <v>12</v>
+      </c>
+      <c r="D22">
+        <v>12</v>
+      </c>
+      <c r="E22">
+        <v>20</v>
+      </c>
+      <c r="I22" s="101">
         <v>44715</v>
       </c>
-      <c r="I19" s="103">
+      <c r="J22" s="108">
         <v>4</v>
       </c>
-      <c r="J19" s="103">
+      <c r="K22" s="103">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="K19" s="103">
+      <c r="L22" s="103">
+        <f>SUM(J14:J22)</f>
+        <v>16</v>
+      </c>
+      <c r="M22" s="101">
+        <v>44715</v>
+      </c>
+      <c r="N22" s="105">
+        <v>6</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="Q22" s="101">
+        <v>44715</v>
+      </c>
+      <c r="R22" s="105">
+        <v>6</v>
+      </c>
+      <c r="S22" s="103">
         <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="L19" s="101">
-        <v>44712</v>
-      </c>
-      <c r="M19">
+        <v>3.1428571428571428</v>
+      </c>
+    </row>
+    <row r="23" spans="2:19">
+      <c r="B23" t="s">
+        <v>682</v>
+      </c>
+      <c r="C23">
         <v>3</v>
       </c>
-      <c r="N19">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14">
-      <c r="B20" t="s">
-        <v>685</v>
-      </c>
-      <c r="C20">
-        <v>8</v>
-      </c>
-      <c r="D20">
-        <v>8</v>
-      </c>
-      <c r="E20">
-        <v>8</v>
-      </c>
-      <c r="H20" s="101">
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="I23" s="101">
         <v>44716</v>
       </c>
-      <c r="I20" s="103">
+      <c r="J23" s="108">
         <v>1</v>
       </c>
-      <c r="J20" s="103">
+      <c r="K23" s="103">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="K20" s="103">
+      <c r="L23" s="103">
+        <f>SUM(J15:J23)</f>
+        <v>15</v>
+      </c>
+      <c r="M23" s="101">
+        <v>44716</v>
+      </c>
+      <c r="N23" s="105">
+        <v>2</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="Q23" s="101">
+        <v>44716</v>
+      </c>
+      <c r="R23" s="105">
+        <v>1</v>
+      </c>
+      <c r="S23" s="103">
         <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="L20" s="101">
-        <v>44713</v>
-      </c>
-      <c r="M20">
+        <v>3.2857142857142856</v>
+      </c>
+    </row>
+    <row r="24" spans="2:19">
+      <c r="B24" t="s">
+        <v>681</v>
+      </c>
+      <c r="C24">
+        <v>11</v>
+      </c>
+      <c r="D24">
+        <v>12</v>
+      </c>
+      <c r="E24">
+        <v>12</v>
+      </c>
+      <c r="I24" s="101"/>
+      <c r="J24" s="103"/>
+      <c r="K24" s="103"/>
+      <c r="L24" s="103"/>
+      <c r="M24" s="101">
+        <v>44717</v>
+      </c>
+      <c r="N24" s="105">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="Q24" s="101">
+        <v>44717</v>
+      </c>
+      <c r="R24" s="105">
         <v>1</v>
       </c>
-      <c r="N20">
+      <c r="S24" s="103">
+        <f t="shared" si="2"/>
+        <v>3.1428571428571428</v>
+      </c>
+    </row>
+    <row r="25" spans="2:19">
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="I25" s="101">
+        <v>44718</v>
+      </c>
+      <c r="J25" s="108">
+        <v>6</v>
+      </c>
+      <c r="K25" s="103">
+        <f>+J25+K23</f>
+        <v>33</v>
+      </c>
+      <c r="L25" s="103">
+        <f>SUM(J17:J25)</f>
+        <v>20</v>
+      </c>
+      <c r="M25" s="101">
+        <v>44718</v>
+      </c>
+      <c r="N25" s="105">
+        <v>5</v>
+      </c>
+      <c r="O25">
         <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14">
-      <c r="B21" t="s">
-        <v>684</v>
-      </c>
-      <c r="C21">
-        <v>45</v>
-      </c>
-      <c r="D21">
-        <v>55</v>
-      </c>
-      <c r="E21">
-        <v>69</v>
-      </c>
-      <c r="H21" s="101">
+        <v>38</v>
+      </c>
+      <c r="Q25" s="101">
         <v>44718</v>
       </c>
-      <c r="I21" s="103">
-        <v>6</v>
-      </c>
-      <c r="J21" s="103">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="K21" s="103">
+      <c r="R25" s="105">
+        <v>7</v>
+      </c>
+      <c r="S25" s="103">
         <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:19">
+      <c r="B26" t="s">
+        <v>680</v>
+      </c>
+      <c r="C26">
+        <v>19</v>
+      </c>
+      <c r="D26">
         <v>20</v>
       </c>
-      <c r="L21" s="101">
-        <v>44714</v>
-      </c>
-      <c r="M21">
-        <v>3</v>
-      </c>
-      <c r="N21">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14">
-      <c r="B22" t="s">
-        <v>683</v>
-      </c>
-      <c r="C22">
-        <v>12</v>
-      </c>
-      <c r="D22">
-        <v>12</v>
-      </c>
-      <c r="E22">
-        <v>20</v>
-      </c>
-      <c r="H22" s="101">
+      <c r="E26">
+        <v>28</v>
+      </c>
+      <c r="I26" s="101">
         <v>44719</v>
       </c>
-      <c r="I22" s="103">
+      <c r="J26" s="108">
         <v>2</v>
       </c>
-      <c r="J22" s="103">
+      <c r="K26" s="103">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="K22" s="103">
+      <c r="L26" s="103">
+        <f>SUM(J19:J26)</f>
+        <v>20</v>
+      </c>
+      <c r="M26" s="101">
+        <v>44719</v>
+      </c>
+      <c r="N26" s="105">
+        <v>4</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="Q26" s="101">
+        <v>44719</v>
+      </c>
+      <c r="R26" s="105">
+        <v>9</v>
+      </c>
+      <c r="S26" s="103">
         <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="L22" s="101">
-        <v>44715</v>
-      </c>
-      <c r="M22">
-        <v>6</v>
-      </c>
-      <c r="N22">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14">
-      <c r="B23" t="s">
-        <v>682</v>
-      </c>
-      <c r="C23">
-        <v>3</v>
-      </c>
-      <c r="D23">
-        <v>3</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="H23" s="101">
+        <v>4.4285714285714288</v>
+      </c>
+    </row>
+    <row r="27" spans="2:19">
+      <c r="B27" t="s">
+        <v>679</v>
+      </c>
+      <c r="C27">
+        <v>163</v>
+      </c>
+      <c r="D27">
+        <v>163</v>
+      </c>
+      <c r="E27">
+        <v>163</v>
+      </c>
+      <c r="I27" s="101">
         <v>44720</v>
       </c>
-      <c r="I23" s="103">
+      <c r="J27" s="108">
         <v>5</v>
       </c>
-      <c r="J23" s="103">
+      <c r="K27" s="103">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="K23" s="103">
+      <c r="L27" s="103">
+        <f>SUM(J20:J27)</f>
+        <v>22</v>
+      </c>
+      <c r="M27" s="101">
+        <v>44720</v>
+      </c>
+      <c r="N27" s="105">
+        <v>6</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="Q27" s="101">
+        <v>44720</v>
+      </c>
+      <c r="R27" s="105">
+        <v>14</v>
+      </c>
+      <c r="S27" s="103">
         <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-      <c r="L23" s="101">
-        <v>44716</v>
-      </c>
-      <c r="M23">
+        <v>6.1428571428571432</v>
+      </c>
+    </row>
+    <row r="28" spans="2:19">
+      <c r="B28" t="s">
+        <v>678</v>
+      </c>
+      <c r="C28">
+        <v>76</v>
+      </c>
+      <c r="D28">
+        <v>99</v>
+      </c>
+      <c r="E28">
+        <v>114</v>
+      </c>
+      <c r="I28" s="101">
+        <v>44721</v>
+      </c>
+      <c r="J28" s="108">
         <v>2</v>
       </c>
-      <c r="N23">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14">
-      <c r="B24" t="s">
-        <v>681</v>
-      </c>
-      <c r="C24">
-        <v>11</v>
-      </c>
-      <c r="D24">
-        <v>12</v>
-      </c>
-      <c r="E24">
-        <v>12</v>
-      </c>
-      <c r="H24" s="101">
-        <v>44721</v>
-      </c>
-      <c r="I24" s="103">
-        <v>2</v>
-      </c>
-      <c r="J24" s="103">
+      <c r="K28" s="103">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="K24" s="103">
+      <c r="L28" s="103">
+        <f>SUM(J21:J28)</f>
+        <v>23</v>
+      </c>
+      <c r="M28" s="101">
+        <v>44721</v>
+      </c>
+      <c r="N28" s="105">
+        <v>7</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="Q28" s="101">
+        <v>44721</v>
+      </c>
+      <c r="R28" s="105">
+        <v>7</v>
+      </c>
+      <c r="S28" s="103">
         <f t="shared" si="2"/>
-        <v>23</v>
-      </c>
-      <c r="L24" s="101">
-        <v>44717</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14">
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="H25" s="101">
+        <v>6.4285714285714288</v>
+      </c>
+    </row>
+    <row r="29" spans="2:19">
+      <c r="B29" t="s">
+        <v>677</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="I29" s="101">
         <v>44722</v>
       </c>
-      <c r="I25" s="103">
+      <c r="J29" s="108">
         <v>4</v>
       </c>
-      <c r="J25" s="103">
+      <c r="K29" s="103">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="K25" s="103">
+      <c r="L29" s="103">
+        <f>SUM(J22:J29)</f>
+        <v>24</v>
+      </c>
+      <c r="M29" s="101">
+        <v>44722</v>
+      </c>
+      <c r="N29" s="105">
+        <v>4</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="Q29" s="101">
+        <v>44722</v>
+      </c>
+      <c r="R29" s="105">
+        <v>12</v>
+      </c>
+      <c r="S29" s="103">
+        <f t="shared" si="2"/>
+        <v>7.2857142857142856</v>
+      </c>
+    </row>
+    <row r="30" spans="2:19">
+      <c r="B30" t="s">
+        <v>676</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>6</v>
+      </c>
+      <c r="I30" s="101">
+        <v>44723</v>
+      </c>
+      <c r="J30" s="108">
+        <v>4</v>
+      </c>
+      <c r="K30" s="103">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="L30" s="103">
+        <f>SUM(J23:J30)</f>
+        <v>24</v>
+      </c>
+      <c r="M30" s="101">
+        <v>44723</v>
+      </c>
+      <c r="N30" s="105">
+        <v>2</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="Q30" s="101">
+        <v>44723</v>
+      </c>
+      <c r="R30" s="105">
+        <v>5</v>
+      </c>
+      <c r="S30" s="103">
+        <f t="shared" si="2"/>
+        <v>7.8571428571428568</v>
+      </c>
+    </row>
+    <row r="31" spans="2:19">
+      <c r="B31" t="s">
+        <v>675</v>
+      </c>
+      <c r="C31">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>6</v>
+      </c>
+      <c r="E31">
+        <v>9</v>
+      </c>
+      <c r="I31" s="101">
+        <v>44724</v>
+      </c>
+      <c r="J31" s="108">
+        <v>2</v>
+      </c>
+      <c r="K31" s="103">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="L31" s="103">
+        <f>SUM(J25:J31)</f>
+        <v>25</v>
+      </c>
+      <c r="M31" s="101">
+        <v>44724</v>
+      </c>
+      <c r="N31" s="105">
+        <v>5</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="Q31" s="101">
+        <v>44724</v>
+      </c>
+      <c r="R31" s="105">
+        <v>4</v>
+      </c>
+      <c r="S31" s="103">
+        <f t="shared" si="2"/>
+        <v>8.2857142857142865</v>
+      </c>
+    </row>
+    <row r="32" spans="2:19">
+      <c r="B32" t="s">
+        <v>674</v>
+      </c>
+      <c r="C32">
+        <v>17</v>
+      </c>
+      <c r="D32">
+        <v>17</v>
+      </c>
+      <c r="E32">
+        <v>22</v>
+      </c>
+      <c r="I32" s="101">
+        <v>44725</v>
+      </c>
+      <c r="J32" s="108">
+        <v>2</v>
+      </c>
+      <c r="K32" s="103">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="L32" s="103">
+        <f>SUM(J26:J32)</f>
+        <v>21</v>
+      </c>
+      <c r="M32" s="101">
+        <v>44725</v>
+      </c>
+      <c r="N32" s="105">
+        <v>3</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="Q32" s="101">
+        <v>44725</v>
+      </c>
+      <c r="R32" s="105">
+        <v>8</v>
+      </c>
+      <c r="S32" s="103">
+        <f t="shared" si="2"/>
+        <v>8.4285714285714288</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19">
+      <c r="B33" t="s">
+        <v>673</v>
+      </c>
+      <c r="C33">
+        <v>1837</v>
+      </c>
+      <c r="D33">
+        <v>1955</v>
+      </c>
+      <c r="E33">
+        <v>2423</v>
+      </c>
+      <c r="I33" s="101">
+        <v>44726</v>
+      </c>
+      <c r="J33" s="108">
+        <v>11</v>
+      </c>
+      <c r="K33" s="103">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="L33" s="103">
+        <f>SUM(J27:J33)</f>
+        <v>30</v>
+      </c>
+      <c r="M33" s="101">
+        <v>44726</v>
+      </c>
+      <c r="N33" s="105">
+        <v>15</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="Q33" s="101">
+        <v>44726</v>
+      </c>
+      <c r="R33" s="105">
+        <v>21</v>
+      </c>
+      <c r="S33" s="103">
+        <f t="shared" si="2"/>
+        <v>10.142857142857142</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19">
+      <c r="B34" t="s">
+        <v>672</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="I34" s="101">
+        <v>44727</v>
+      </c>
+      <c r="J34" s="108">
+        <v>7</v>
+      </c>
+      <c r="K34" s="103">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="L34" s="103">
+        <f>SUM(J28:J34)</f>
+        <v>32</v>
+      </c>
+      <c r="M34" s="101">
+        <v>44727</v>
+      </c>
+      <c r="N34" s="105">
+        <v>10</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="0"/>
+        <v>94</v>
+      </c>
+      <c r="Q34" s="101">
+        <v>44727</v>
+      </c>
+      <c r="R34" s="105">
+        <v>15</v>
+      </c>
+      <c r="S34" s="103">
+        <f t="shared" si="2"/>
+        <v>10.285714285714286</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19">
+      <c r="B35" t="s">
+        <v>671</v>
+      </c>
+      <c r="C35">
+        <v>2540</v>
+      </c>
+      <c r="D35">
+        <v>2677</v>
+      </c>
+      <c r="E35">
+        <v>2887</v>
+      </c>
+      <c r="I35" s="101">
+        <v>44728</v>
+      </c>
+      <c r="J35" s="108">
+        <v>13</v>
+      </c>
+      <c r="K35" s="103">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="L35" s="103">
+        <f>SUM(J29:J35)</f>
+        <v>43</v>
+      </c>
+      <c r="M35" s="101">
+        <v>44728</v>
+      </c>
+      <c r="N35" s="105">
+        <v>17</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="0"/>
+        <v>111</v>
+      </c>
+      <c r="Q35" s="101">
+        <v>44728</v>
+      </c>
+      <c r="R35" s="105">
+        <v>17</v>
+      </c>
+      <c r="S35" s="103">
+        <f t="shared" si="2"/>
+        <v>11.714285714285714</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19">
+      <c r="B36" t="s">
+        <v>670</v>
+      </c>
+      <c r="C36">
+        <v>30</v>
+      </c>
+      <c r="D36">
+        <v>30</v>
+      </c>
+      <c r="E36">
+        <v>30</v>
+      </c>
+      <c r="I36" s="101">
+        <v>44729</v>
+      </c>
+      <c r="J36" s="108">
+        <v>4</v>
+      </c>
+      <c r="K36" s="103">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="L36" s="103">
+        <f>SUM(J30:J36)</f>
+        <v>43</v>
+      </c>
+      <c r="M36" s="101">
+        <v>44729</v>
+      </c>
+      <c r="N36" s="105">
+        <v>8</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="0"/>
+        <v>119</v>
+      </c>
+      <c r="Q36" s="101">
+        <v>44729</v>
+      </c>
+      <c r="R36" s="105">
+        <v>13</v>
+      </c>
+      <c r="S36" s="103">
+        <f t="shared" si="2"/>
+        <v>11.857142857142858</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19">
+      <c r="B37" t="s">
+        <v>669</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <v>5</v>
+      </c>
+      <c r="I37" s="101">
+        <v>44730</v>
+      </c>
+      <c r="J37" s="108">
+        <v>11</v>
+      </c>
+      <c r="K37" s="103">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="L37" s="103">
+        <f>SUM(J31:J37)</f>
+        <v>50</v>
+      </c>
+      <c r="M37" s="101">
+        <v>44730</v>
+      </c>
+      <c r="N37" s="105">
+        <v>9</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="Q37" s="101">
+        <v>44730</v>
+      </c>
+      <c r="R37" s="105">
+        <v>15</v>
+      </c>
+      <c r="S37" s="103">
+        <f t="shared" si="2"/>
+        <v>13.285714285714286</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19">
+      <c r="B38" t="s">
+        <v>668</v>
+      </c>
+      <c r="C38">
+        <v>32</v>
+      </c>
+      <c r="D38">
+        <v>32</v>
+      </c>
+      <c r="E38">
+        <v>39</v>
+      </c>
+      <c r="I38" s="101">
+        <v>44731</v>
+      </c>
+      <c r="J38" s="108">
+        <v>5</v>
+      </c>
+      <c r="K38" s="103">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="L38" s="103">
+        <f>SUM(J32:J38)</f>
+        <v>53</v>
+      </c>
+      <c r="M38" s="101">
+        <v>44731</v>
+      </c>
+      <c r="N38" s="105">
+        <v>4</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="Q38" s="101">
+        <v>44731</v>
+      </c>
+      <c r="R38" s="105">
+        <v>5</v>
+      </c>
+      <c r="S38" s="103">
+        <f t="shared" si="2"/>
+        <v>13.428571428571429</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19">
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="I39" s="101">
+        <v>44732</v>
+      </c>
+      <c r="J39" s="108">
+        <v>7</v>
+      </c>
+      <c r="K39" s="103">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="L39" s="103">
+        <f>SUM(J33:J39)</f>
+        <v>58</v>
+      </c>
+      <c r="M39" s="101">
+        <v>44732</v>
+      </c>
+      <c r="N39" s="105">
+        <v>11</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="0"/>
+        <v>143</v>
+      </c>
+      <c r="Q39" s="101">
+        <v>44732</v>
+      </c>
+      <c r="R39" s="105">
+        <v>15</v>
+      </c>
+      <c r="S39" s="103">
+        <f t="shared" si="2"/>
+        <v>14.428571428571429</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19">
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="I40" s="101">
+        <v>44733</v>
+      </c>
+      <c r="J40" s="108">
+        <v>15</v>
+      </c>
+      <c r="K40" s="103">
+        <f t="shared" si="1"/>
+        <v>127</v>
+      </c>
+      <c r="L40" s="103">
+        <f>SUM(J34:J40)</f>
+        <v>62</v>
+      </c>
+      <c r="M40" s="101">
+        <v>44733</v>
+      </c>
+      <c r="N40" s="105">
+        <v>14</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="0"/>
+        <v>157</v>
+      </c>
+      <c r="Q40" s="101">
+        <v>44733</v>
+      </c>
+      <c r="R40" s="105">
+        <v>22</v>
+      </c>
+      <c r="S40" s="103">
+        <f t="shared" si="2"/>
+        <v>14.571428571428571</v>
+      </c>
+    </row>
+    <row r="41" spans="2:19">
+      <c r="B41" t="s">
+        <v>667</v>
+      </c>
+      <c r="C41">
+        <v>37</v>
+      </c>
+      <c r="D41">
+        <v>39</v>
+      </c>
+      <c r="E41">
+        <v>48</v>
+      </c>
+      <c r="I41" s="101">
+        <v>44734</v>
+      </c>
+      <c r="J41" s="108">
+        <v>19</v>
+      </c>
+      <c r="K41" s="103">
+        <f t="shared" si="1"/>
+        <v>146</v>
+      </c>
+      <c r="L41" s="103">
+        <f>SUM(J35:J41)</f>
+        <v>74</v>
+      </c>
+      <c r="M41" s="101">
+        <v>44734</v>
+      </c>
+      <c r="N41" s="105">
+        <v>20</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="0"/>
+        <v>177</v>
+      </c>
+      <c r="Q41" s="101">
+        <v>44734</v>
+      </c>
+      <c r="R41" s="105">
+        <v>27</v>
+      </c>
+      <c r="S41" s="103">
+        <f t="shared" si="2"/>
+        <v>16.285714285714285</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19">
+      <c r="B42" t="s">
+        <v>666</v>
+      </c>
+      <c r="C42">
+        <v>9</v>
+      </c>
+      <c r="D42">
+        <v>9</v>
+      </c>
+      <c r="E42">
+        <v>11</v>
+      </c>
+      <c r="I42" s="101">
+        <v>44735</v>
+      </c>
+      <c r="J42" s="108">
+        <v>19</v>
+      </c>
+      <c r="K42" s="103">
+        <f t="shared" si="1"/>
+        <v>165</v>
+      </c>
+      <c r="L42" s="103">
+        <f>SUM(J36:J42)</f>
+        <v>80</v>
+      </c>
+      <c r="M42" s="101">
+        <v>44735</v>
+      </c>
+      <c r="N42" s="105">
+        <v>20</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="0"/>
+        <v>197</v>
+      </c>
+      <c r="Q42" s="101">
+        <v>44735</v>
+      </c>
+      <c r="R42" s="105">
+        <v>25</v>
+      </c>
+      <c r="S42" s="103">
+        <f t="shared" si="2"/>
+        <v>17.428571428571427</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19">
+      <c r="B43" t="s">
+        <v>665</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <v>4</v>
+      </c>
+      <c r="E43">
+        <v>6</v>
+      </c>
+      <c r="I43" s="101">
+        <v>44736</v>
+      </c>
+      <c r="J43" s="108">
+        <v>35</v>
+      </c>
+      <c r="K43" s="103">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="L43" s="103">
+        <f>SUM(J37:J43)</f>
+        <v>111</v>
+      </c>
+      <c r="M43" s="101">
+        <v>44736</v>
+      </c>
+      <c r="N43" s="105">
+        <v>48</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="0"/>
+        <v>245</v>
+      </c>
+      <c r="Q43" s="101">
+        <v>44736</v>
+      </c>
+      <c r="R43" s="105">
+        <v>49</v>
+      </c>
+      <c r="S43" s="103">
+        <f t="shared" si="2"/>
+        <v>22.571428571428573</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19">
+      <c r="B44" t="s">
+        <v>664</v>
+      </c>
+      <c r="C44">
+        <v>85</v>
+      </c>
+      <c r="D44">
+        <v>85</v>
+      </c>
+      <c r="E44">
+        <v>97</v>
+      </c>
+      <c r="I44" s="101">
+        <v>44737</v>
+      </c>
+      <c r="J44" s="108">
+        <v>12</v>
+      </c>
+      <c r="K44" s="103">
+        <f t="shared" si="1"/>
+        <v>212</v>
+      </c>
+      <c r="L44" s="103">
+        <f>SUM(J38:J44)</f>
+        <v>112</v>
+      </c>
+      <c r="M44" s="101">
+        <v>44737</v>
+      </c>
+      <c r="N44" s="105">
+        <v>12</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="0"/>
+        <v>257</v>
+      </c>
+      <c r="Q44" s="101">
+        <v>44737</v>
+      </c>
+      <c r="R44" s="105">
+        <v>25</v>
+      </c>
+      <c r="S44" s="103">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="L25" s="101">
-        <v>44718</v>
-      </c>
-      <c r="M25">
-        <v>5</v>
-      </c>
-      <c r="N25">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14">
-      <c r="B26" t="s">
-        <v>680</v>
-      </c>
-      <c r="C26">
-        <v>19</v>
-      </c>
-      <c r="D26">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>28</v>
-      </c>
-      <c r="H26" s="101">
-        <v>44723</v>
-      </c>
-      <c r="I26" s="103">
-        <v>4</v>
-      </c>
-      <c r="J26" s="103">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="K26" s="103">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="L26" s="101">
-        <v>44719</v>
-      </c>
-      <c r="M26">
-        <v>4</v>
-      </c>
-      <c r="N26">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14">
-      <c r="B27" t="s">
-        <v>679</v>
-      </c>
-      <c r="C27">
-        <v>163</v>
-      </c>
-      <c r="D27">
-        <v>163</v>
-      </c>
-      <c r="E27">
-        <v>163</v>
-      </c>
-      <c r="H27" s="101">
-        <v>44724</v>
-      </c>
-      <c r="I27" s="103">
-        <v>2</v>
-      </c>
-      <c r="J27" s="103">
-        <f t="shared" si="1"/>
-        <v>52</v>
-      </c>
-      <c r="K27" s="103">
-        <f t="shared" si="2"/>
-        <v>25</v>
-      </c>
-      <c r="L27" s="101">
-        <v>44720</v>
-      </c>
-      <c r="M27">
-        <v>6</v>
-      </c>
-      <c r="N27">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14">
-      <c r="B28" t="s">
-        <v>678</v>
-      </c>
-      <c r="C28">
-        <v>76</v>
-      </c>
-      <c r="D28">
-        <v>99</v>
-      </c>
-      <c r="E28">
-        <v>114</v>
-      </c>
-      <c r="H28" s="101">
-        <v>44725</v>
-      </c>
-      <c r="I28" s="103">
-        <v>2</v>
-      </c>
-      <c r="J28" s="103">
-        <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="K28" s="103">
-        <f t="shared" si="2"/>
-        <v>21</v>
-      </c>
-      <c r="L28" s="101">
-        <v>44721</v>
-      </c>
-      <c r="M28">
-        <v>7</v>
-      </c>
-      <c r="N28">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14">
-      <c r="B29" t="s">
-        <v>677</v>
-      </c>
-      <c r="C29">
-        <v>3</v>
-      </c>
-      <c r="D29">
-        <v>3</v>
-      </c>
-      <c r="E29">
-        <v>4</v>
-      </c>
-      <c r="H29" s="101">
-        <v>44726</v>
-      </c>
-      <c r="I29" s="103">
-        <v>11</v>
-      </c>
-      <c r="J29" s="103">
-        <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="K29" s="103">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-      <c r="L29" s="101">
-        <v>44722</v>
-      </c>
-      <c r="M29">
-        <v>4</v>
-      </c>
-      <c r="N29">
-        <f t="shared" si="0"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14">
-      <c r="B30" t="s">
-        <v>676</v>
-      </c>
-      <c r="C30">
-        <v>3</v>
-      </c>
-      <c r="D30">
-        <v>3</v>
-      </c>
-      <c r="E30">
-        <v>6</v>
-      </c>
-      <c r="H30" s="101">
-        <v>44727</v>
-      </c>
-      <c r="I30" s="103">
-        <v>7</v>
-      </c>
-      <c r="J30" s="103">
-        <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-      <c r="K30" s="103">
-        <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="L30" s="101">
-        <v>44723</v>
-      </c>
-      <c r="M30">
-        <v>2</v>
-      </c>
-      <c r="N30">
-        <f t="shared" si="0"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14">
-      <c r="B31" t="s">
-        <v>675</v>
-      </c>
-      <c r="C31">
-        <v>5</v>
-      </c>
-      <c r="D31">
-        <v>6</v>
-      </c>
-      <c r="E31">
-        <v>9</v>
-      </c>
-      <c r="H31" s="101">
-        <v>44728</v>
-      </c>
-      <c r="I31" s="103">
-        <v>13</v>
-      </c>
-      <c r="J31" s="103">
-        <f t="shared" si="1"/>
-        <v>85</v>
-      </c>
-      <c r="K31" s="103">
-        <f t="shared" si="2"/>
-        <v>43</v>
-      </c>
-      <c r="L31" s="101">
-        <v>44724</v>
-      </c>
-      <c r="M31">
-        <v>5</v>
-      </c>
-      <c r="N31">
-        <f t="shared" si="0"/>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14">
-      <c r="B32" t="s">
-        <v>674</v>
-      </c>
-      <c r="C32">
-        <v>17</v>
-      </c>
-      <c r="D32">
-        <v>17</v>
-      </c>
-      <c r="E32">
-        <v>22</v>
-      </c>
-      <c r="H32" s="101">
-        <v>44729</v>
-      </c>
-      <c r="I32" s="103">
-        <v>4</v>
-      </c>
-      <c r="J32" s="103">
-        <f t="shared" si="1"/>
-        <v>89</v>
-      </c>
-      <c r="K32" s="103">
-        <f t="shared" si="2"/>
-        <v>43</v>
-      </c>
-      <c r="L32" s="101">
-        <v>44725</v>
-      </c>
-      <c r="M32">
-        <v>3</v>
-      </c>
-      <c r="N32">
-        <f t="shared" si="0"/>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="2:15">
-      <c r="B33" t="s">
-        <v>673</v>
-      </c>
-      <c r="C33">
-        <v>1837</v>
-      </c>
-      <c r="D33">
-        <v>1955</v>
-      </c>
-      <c r="E33">
-        <v>2423</v>
-      </c>
-      <c r="H33" s="101">
-        <v>44730</v>
-      </c>
-      <c r="I33" s="103">
-        <v>11</v>
-      </c>
-      <c r="J33" s="103">
-        <f t="shared" si="1"/>
-        <v>100</v>
-      </c>
-      <c r="K33" s="103">
-        <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-      <c r="L33" s="101">
-        <v>44726</v>
-      </c>
-      <c r="M33">
-        <v>15</v>
-      </c>
-      <c r="N33">
-        <f t="shared" si="0"/>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15">
-      <c r="B34" t="s">
-        <v>672</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="H34" s="101">
-        <v>44731</v>
-      </c>
-      <c r="I34" s="103">
-        <v>5</v>
-      </c>
-      <c r="J34" s="103">
-        <f t="shared" si="1"/>
-        <v>105</v>
-      </c>
-      <c r="K34" s="103">
-        <f t="shared" si="2"/>
-        <v>53</v>
-      </c>
-      <c r="L34" s="101">
-        <v>44727</v>
-      </c>
-      <c r="M34">
-        <v>10</v>
-      </c>
-      <c r="N34">
-        <f t="shared" si="0"/>
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="2:15">
-      <c r="B35" t="s">
-        <v>671</v>
-      </c>
-      <c r="C35">
-        <v>2540</v>
-      </c>
-      <c r="D35">
-        <v>2677</v>
-      </c>
-      <c r="E35">
-        <v>2887</v>
-      </c>
-      <c r="H35" s="101">
-        <v>44732</v>
-      </c>
-      <c r="I35" s="103">
-        <v>7</v>
-      </c>
-      <c r="J35" s="103">
-        <f t="shared" si="1"/>
-        <v>112</v>
-      </c>
-      <c r="K35" s="103">
-        <f t="shared" si="2"/>
-        <v>58</v>
-      </c>
-      <c r="L35" s="101">
-        <v>44728</v>
-      </c>
-      <c r="M35">
-        <v>17</v>
-      </c>
-      <c r="N35">
-        <f t="shared" si="0"/>
-        <v>111</v>
-      </c>
-    </row>
-    <row r="36" spans="2:15">
-      <c r="B36" t="s">
-        <v>670</v>
-      </c>
-      <c r="C36">
-        <v>30</v>
-      </c>
-      <c r="D36">
-        <v>30</v>
-      </c>
-      <c r="E36">
-        <v>30</v>
-      </c>
-      <c r="H36" s="101">
-        <v>44733</v>
-      </c>
-      <c r="I36" s="103">
-        <v>15</v>
-      </c>
-      <c r="J36" s="103">
-        <f t="shared" si="1"/>
-        <v>127</v>
-      </c>
-      <c r="K36" s="103">
-        <f t="shared" si="2"/>
-        <v>62</v>
-      </c>
-      <c r="L36" s="101">
-        <v>44729</v>
-      </c>
-      <c r="M36">
-        <v>8</v>
-      </c>
-      <c r="N36">
-        <f t="shared" si="0"/>
-        <v>119</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15">
-      <c r="B37" t="s">
-        <v>669</v>
-      </c>
-      <c r="C37">
-        <v>5</v>
-      </c>
-      <c r="D37">
-        <v>5</v>
-      </c>
-      <c r="E37">
-        <v>5</v>
-      </c>
-      <c r="H37" s="101">
-        <v>44734</v>
-      </c>
-      <c r="I37" s="103">
-        <v>19</v>
-      </c>
-      <c r="J37" s="103">
-        <f t="shared" si="1"/>
-        <v>146</v>
-      </c>
-      <c r="K37" s="103">
-        <f t="shared" si="2"/>
-        <v>74</v>
-      </c>
-      <c r="L37" s="101">
-        <v>44730</v>
-      </c>
-      <c r="M37">
-        <v>9</v>
-      </c>
-      <c r="N37">
-        <f t="shared" si="0"/>
-        <v>128</v>
-      </c>
-    </row>
-    <row r="38" spans="2:15">
-      <c r="B38" t="s">
-        <v>668</v>
-      </c>
-      <c r="C38">
-        <v>32</v>
-      </c>
-      <c r="D38">
-        <v>32</v>
-      </c>
-      <c r="E38">
-        <v>39</v>
-      </c>
-      <c r="H38" s="101">
-        <v>44735</v>
-      </c>
-      <c r="I38" s="103">
-        <v>19</v>
-      </c>
-      <c r="J38" s="103">
-        <f t="shared" si="1"/>
-        <v>165</v>
-      </c>
-      <c r="K38" s="103">
-        <f t="shared" si="2"/>
-        <v>80</v>
-      </c>
-      <c r="L38" s="101">
-        <v>44731</v>
-      </c>
-      <c r="M38">
-        <v>4</v>
-      </c>
-      <c r="N38">
-        <f t="shared" si="0"/>
-        <v>132</v>
-      </c>
-      <c r="O38" s="103">
-        <f t="shared" ref="O38:O55" si="3">AVERAGE(M32:M38)</f>
-        <v>9.4285714285714288</v>
-      </c>
-    </row>
-    <row r="39" spans="2:15">
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="H39" s="101">
-        <v>44736</v>
-      </c>
-      <c r="I39" s="103">
-        <v>35</v>
-      </c>
-      <c r="J39" s="103">
-        <f t="shared" si="1"/>
-        <v>200</v>
-      </c>
-      <c r="K39" s="103">
-        <f t="shared" si="2"/>
-        <v>111</v>
-      </c>
-      <c r="L39" s="101">
-        <v>44732</v>
-      </c>
-      <c r="M39">
-        <v>11</v>
-      </c>
-      <c r="N39">
-        <f t="shared" si="0"/>
-        <v>143</v>
-      </c>
-      <c r="O39" s="103">
-        <f t="shared" si="3"/>
-        <v>10.571428571428571</v>
-      </c>
-    </row>
-    <row r="40" spans="2:15">
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="H40" s="101">
-        <v>44737</v>
-      </c>
-      <c r="I40" s="103">
-        <v>12</v>
-      </c>
-      <c r="J40" s="103">
-        <f t="shared" si="1"/>
-        <v>212</v>
-      </c>
-      <c r="K40" s="103">
-        <f t="shared" si="2"/>
-        <v>112</v>
-      </c>
-      <c r="L40" s="101">
-        <v>44733</v>
-      </c>
-      <c r="M40">
-        <v>14</v>
-      </c>
-      <c r="N40">
-        <f t="shared" si="0"/>
-        <v>157</v>
-      </c>
-      <c r="O40" s="103">
-        <f t="shared" si="3"/>
-        <v>10.428571428571429</v>
-      </c>
-    </row>
-    <row r="41" spans="2:15">
-      <c r="B41" t="s">
-        <v>667</v>
-      </c>
-      <c r="C41">
-        <v>37</v>
-      </c>
-      <c r="D41">
-        <v>39</v>
-      </c>
-      <c r="E41">
-        <v>48</v>
-      </c>
-      <c r="H41" s="101">
-        <v>44738</v>
-      </c>
-      <c r="I41" s="103">
-        <v>12</v>
-      </c>
-      <c r="J41" s="103">
-        <f t="shared" ref="J41:J72" si="4">+I41+J40</f>
-        <v>224</v>
-      </c>
-      <c r="K41" s="103">
-        <f t="shared" si="2"/>
-        <v>119</v>
-      </c>
-      <c r="L41" s="101">
-        <v>44734</v>
-      </c>
-      <c r="M41">
-        <v>20</v>
-      </c>
-      <c r="N41">
-        <f t="shared" si="0"/>
-        <v>177</v>
-      </c>
-      <c r="O41" s="103">
-        <f t="shared" si="3"/>
-        <v>11.857142857142858</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15">
-      <c r="B42" t="s">
-        <v>666</v>
-      </c>
-      <c r="C42">
-        <v>9</v>
-      </c>
-      <c r="D42">
-        <v>9</v>
-      </c>
-      <c r="E42">
-        <v>11</v>
-      </c>
-      <c r="H42" s="101">
-        <v>44739</v>
-      </c>
-      <c r="I42" s="103">
-        <v>53</v>
-      </c>
-      <c r="J42" s="103">
-        <f t="shared" si="4"/>
-        <v>277</v>
-      </c>
-      <c r="K42" s="103">
-        <f t="shared" si="2"/>
-        <v>165</v>
-      </c>
-      <c r="L42" s="101">
-        <v>44735</v>
-      </c>
-      <c r="M42">
-        <v>20</v>
-      </c>
-      <c r="N42">
-        <f t="shared" si="0"/>
-        <v>197</v>
-      </c>
-      <c r="O42" s="103">
-        <f t="shared" si="3"/>
-        <v>12.285714285714286</v>
-      </c>
-    </row>
-    <row r="43" spans="2:15">
-      <c r="B43" t="s">
-        <v>665</v>
-      </c>
-      <c r="C43">
-        <v>4</v>
-      </c>
-      <c r="D43">
-        <v>4</v>
-      </c>
-      <c r="E43">
-        <v>6</v>
-      </c>
-      <c r="H43" s="101">
-        <v>44740</v>
-      </c>
-      <c r="I43" s="103">
-        <v>30</v>
-      </c>
-      <c r="J43" s="103">
-        <f t="shared" si="4"/>
-        <v>307</v>
-      </c>
-      <c r="K43" s="103">
-        <f t="shared" si="2"/>
-        <v>180</v>
-      </c>
-      <c r="L43" s="101">
-        <v>44736</v>
-      </c>
-      <c r="M43">
-        <v>48</v>
-      </c>
-      <c r="N43">
-        <f t="shared" si="0"/>
-        <v>245</v>
-      </c>
-      <c r="O43" s="103">
-        <f t="shared" si="3"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="2:15">
-      <c r="B44" t="s">
-        <v>664</v>
-      </c>
-      <c r="C44">
-        <v>85</v>
-      </c>
-      <c r="D44">
-        <v>85</v>
-      </c>
-      <c r="E44">
-        <v>97</v>
-      </c>
-      <c r="H44" s="101">
-        <v>44741</v>
-      </c>
-      <c r="I44" s="103">
-        <v>42</v>
-      </c>
-      <c r="J44" s="103">
-        <f t="shared" si="4"/>
-        <v>349</v>
-      </c>
-      <c r="K44" s="103">
-        <f t="shared" si="2"/>
-        <v>203</v>
-      </c>
-      <c r="L44" s="101">
-        <v>44737</v>
-      </c>
-      <c r="M44">
-        <v>12</v>
-      </c>
-      <c r="N44">
-        <f t="shared" si="0"/>
-        <v>257</v>
-      </c>
-      <c r="O44" s="103">
-        <f t="shared" si="3"/>
-        <v>18.428571428571427</v>
-      </c>
-    </row>
-    <row r="45" spans="2:15">
+    </row>
+    <row r="45" spans="2:19">
       <c r="B45" t="s">
         <v>663</v>
       </c>
@@ -6557,36 +8318,42 @@
       <c r="E45">
         <v>160</v>
       </c>
-      <c r="H45" s="101">
-        <v>44742</v>
-      </c>
-      <c r="I45" s="103">
-        <v>57</v>
-      </c>
-      <c r="J45" s="103">
-        <f t="shared" si="4"/>
-        <v>406</v>
+      <c r="I45" s="101">
+        <v>44738</v>
+      </c>
+      <c r="J45" s="108">
+        <v>12</v>
       </c>
       <c r="K45" s="103">
-        <f t="shared" si="2"/>
-        <v>241</v>
-      </c>
-      <c r="L45" s="101">
+        <f t="shared" ref="K45:K74" si="3">+J45+K44</f>
+        <v>224</v>
+      </c>
+      <c r="L45" s="103">
+        <f>SUM(J39:J45)</f>
+        <v>119</v>
+      </c>
+      <c r="M45" s="101">
         <v>44738</v>
       </c>
-      <c r="M45">
+      <c r="N45" s="105">
         <v>9</v>
       </c>
-      <c r="N45">
+      <c r="O45">
         <f t="shared" si="0"/>
         <v>266</v>
       </c>
-      <c r="O45" s="103">
-        <f t="shared" si="3"/>
-        <v>19.142857142857142</v>
-      </c>
-    </row>
-    <row r="46" spans="2:15">
+      <c r="Q45" s="101">
+        <v>44738</v>
+      </c>
+      <c r="R45" s="105">
+        <v>23</v>
+      </c>
+      <c r="S45" s="103">
+        <f t="shared" si="2"/>
+        <v>26.571428571428573</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19">
       <c r="B46" t="s">
         <v>662</v>
       </c>
@@ -6599,36 +8366,42 @@
       <c r="E46">
         <v>545</v>
       </c>
-      <c r="H46" s="101">
-        <v>44743</v>
-      </c>
-      <c r="I46" s="103">
-        <v>52</v>
-      </c>
-      <c r="J46" s="103">
-        <f t="shared" si="4"/>
-        <v>458</v>
+      <c r="I46" s="101">
+        <v>44739</v>
+      </c>
+      <c r="J46" s="108">
+        <v>53</v>
       </c>
       <c r="K46" s="103">
-        <f t="shared" ref="K46:K77" si="5">SUM(I40:I46)</f>
-        <v>258</v>
-      </c>
-      <c r="L46" s="101">
+        <f t="shared" si="3"/>
+        <v>277</v>
+      </c>
+      <c r="L46" s="103">
+        <f>SUM(J40:J46)</f>
+        <v>165</v>
+      </c>
+      <c r="M46" s="101">
         <v>44739</v>
       </c>
-      <c r="M46">
+      <c r="N46" s="105">
         <v>60</v>
       </c>
-      <c r="N46">
+      <c r="O46">
         <f t="shared" si="0"/>
         <v>326</v>
       </c>
-      <c r="O46" s="103">
-        <f t="shared" si="3"/>
-        <v>26.142857142857142</v>
-      </c>
-    </row>
-    <row r="47" spans="2:15">
+      <c r="Q46" s="101">
+        <v>44739</v>
+      </c>
+      <c r="R46" s="105">
+        <v>91</v>
+      </c>
+      <c r="S46" s="103">
+        <f t="shared" si="2"/>
+        <v>37.428571428571431</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19">
       <c r="B47" t="s">
         <v>661</v>
       </c>
@@ -6641,36 +8414,42 @@
       <c r="E47">
         <v>2</v>
       </c>
-      <c r="H47" s="101">
-        <v>44744</v>
-      </c>
-      <c r="I47" s="103">
-        <v>16</v>
-      </c>
-      <c r="J47" s="103">
-        <f t="shared" si="4"/>
-        <v>474</v>
+      <c r="I47" s="101">
+        <v>44740</v>
+      </c>
+      <c r="J47" s="108">
+        <v>30</v>
       </c>
       <c r="K47" s="103">
-        <f t="shared" si="5"/>
-        <v>262</v>
-      </c>
-      <c r="L47" s="101">
+        <f t="shared" si="3"/>
+        <v>307</v>
+      </c>
+      <c r="L47" s="103">
+        <f>SUM(J41:J47)</f>
+        <v>180</v>
+      </c>
+      <c r="M47" s="101">
         <v>44740</v>
       </c>
-      <c r="M47">
+      <c r="N47" s="105">
         <v>40</v>
       </c>
-      <c r="N47">
+      <c r="O47">
         <f t="shared" si="0"/>
         <v>366</v>
       </c>
-      <c r="O47" s="103">
-        <f t="shared" si="3"/>
-        <v>29.857142857142858</v>
-      </c>
-    </row>
-    <row r="48" spans="2:15">
+      <c r="Q47" s="101">
+        <v>44740</v>
+      </c>
+      <c r="R47" s="105">
+        <v>59</v>
+      </c>
+      <c r="S47" s="103">
+        <f t="shared" si="2"/>
+        <v>42.714285714285715</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19">
       <c r="B48" t="s">
         <v>660</v>
       </c>
@@ -6683,36 +8462,42 @@
       <c r="E48">
         <v>2</v>
       </c>
-      <c r="H48" s="101">
-        <v>44745</v>
-      </c>
-      <c r="I48" s="103">
-        <v>11</v>
-      </c>
-      <c r="J48" s="103">
-        <f t="shared" si="4"/>
-        <v>485</v>
+      <c r="I48" s="101">
+        <v>44741</v>
+      </c>
+      <c r="J48" s="108">
+        <v>42</v>
       </c>
       <c r="K48" s="103">
-        <f t="shared" si="5"/>
-        <v>261</v>
-      </c>
-      <c r="L48" s="101">
+        <f t="shared" si="3"/>
+        <v>349</v>
+      </c>
+      <c r="L48" s="103">
+        <f>SUM(J42:J48)</f>
+        <v>203</v>
+      </c>
+      <c r="M48" s="101">
         <v>44741</v>
       </c>
-      <c r="M48">
+      <c r="N48" s="105">
         <v>42</v>
       </c>
-      <c r="N48">
+      <c r="O48">
         <f t="shared" si="0"/>
         <v>408</v>
       </c>
-      <c r="O48" s="103">
-        <f t="shared" si="3"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="49" spans="2:15">
+      <c r="Q48" s="101">
+        <v>44741</v>
+      </c>
+      <c r="R48" s="105">
+        <v>69</v>
+      </c>
+      <c r="S48" s="103">
+        <f t="shared" si="2"/>
+        <v>48.714285714285715</v>
+      </c>
+    </row>
+    <row r="49" spans="2:19">
       <c r="B49" t="s">
         <v>659</v>
       </c>
@@ -6725,36 +8510,42 @@
       <c r="E49">
         <v>3</v>
       </c>
-      <c r="H49" s="101">
-        <v>44746</v>
-      </c>
-      <c r="I49" s="103">
-        <v>7</v>
-      </c>
-      <c r="J49" s="103">
-        <f t="shared" si="4"/>
-        <v>492</v>
+      <c r="I49" s="101">
+        <v>44742</v>
+      </c>
+      <c r="J49" s="108">
+        <v>57</v>
       </c>
       <c r="K49" s="103">
-        <f t="shared" si="5"/>
-        <v>215</v>
-      </c>
-      <c r="L49" s="101">
+        <f t="shared" si="3"/>
+        <v>406</v>
+      </c>
+      <c r="L49" s="103">
+        <f>SUM(J43:J49)</f>
+        <v>241</v>
+      </c>
+      <c r="M49" s="101">
         <v>44742</v>
       </c>
-      <c r="M49">
+      <c r="N49" s="105">
         <v>57</v>
       </c>
-      <c r="N49">
+      <c r="O49">
         <f t="shared" si="0"/>
         <v>465</v>
       </c>
-      <c r="O49" s="103">
-        <f t="shared" si="3"/>
-        <v>38.285714285714285</v>
-      </c>
-    </row>
-    <row r="50" spans="2:15">
+      <c r="Q49" s="101">
+        <v>44742</v>
+      </c>
+      <c r="R49" s="105">
+        <v>100</v>
+      </c>
+      <c r="S49" s="103">
+        <f t="shared" si="2"/>
+        <v>59.428571428571431</v>
+      </c>
+    </row>
+    <row r="50" spans="2:19">
       <c r="B50" t="s">
         <v>658</v>
       </c>
@@ -6767,36 +8558,42 @@
       <c r="E50">
         <v>6</v>
       </c>
-      <c r="H50" s="101">
-        <v>44747</v>
-      </c>
-      <c r="I50" s="103">
-        <v>37</v>
-      </c>
-      <c r="J50" s="103">
-        <f t="shared" si="4"/>
-        <v>529</v>
+      <c r="I50" s="101">
+        <v>44743</v>
+      </c>
+      <c r="J50" s="108">
+        <v>52</v>
       </c>
       <c r="K50" s="103">
-        <f t="shared" si="5"/>
-        <v>222</v>
-      </c>
-      <c r="L50" s="101">
+        <f t="shared" si="3"/>
+        <v>458</v>
+      </c>
+      <c r="L50" s="103">
+        <f>SUM(J44:J50)</f>
+        <v>258</v>
+      </c>
+      <c r="M50" s="101">
         <v>44743</v>
       </c>
-      <c r="M50">
+      <c r="N50" s="105">
         <v>54</v>
       </c>
-      <c r="N50">
+      <c r="O50">
         <f t="shared" si="0"/>
         <v>519</v>
       </c>
-      <c r="O50" s="103">
-        <f t="shared" si="3"/>
-        <v>39.142857142857146</v>
-      </c>
-    </row>
-    <row r="51" spans="2:15">
+      <c r="Q50" s="101">
+        <v>44743</v>
+      </c>
+      <c r="R50" s="105">
+        <v>115</v>
+      </c>
+      <c r="S50" s="103">
+        <f t="shared" si="2"/>
+        <v>68.857142857142861</v>
+      </c>
+    </row>
+    <row r="51" spans="2:19">
       <c r="B51" t="s">
         <v>657</v>
       </c>
@@ -6809,69 +8606,81 @@
       <c r="E51">
         <v>2</v>
       </c>
-      <c r="H51" s="101">
-        <v>44748</v>
-      </c>
-      <c r="I51" s="103">
-        <v>45</v>
-      </c>
-      <c r="J51" s="103">
-        <f t="shared" si="4"/>
-        <v>574</v>
+      <c r="I51" s="101">
+        <v>44744</v>
+      </c>
+      <c r="J51" s="108">
+        <v>16</v>
       </c>
       <c r="K51" s="103">
-        <f t="shared" si="5"/>
-        <v>225</v>
-      </c>
-      <c r="L51" s="101">
+        <f t="shared" si="3"/>
+        <v>474</v>
+      </c>
+      <c r="L51" s="103">
+        <f>SUM(J45:J51)</f>
+        <v>262</v>
+      </c>
+      <c r="M51" s="101">
         <v>44744</v>
       </c>
-      <c r="M51">
+      <c r="N51" s="105">
         <v>15</v>
       </c>
-      <c r="N51">
+      <c r="O51">
         <f t="shared" si="0"/>
         <v>534</v>
       </c>
-      <c r="O51" s="103">
-        <f t="shared" si="3"/>
-        <v>39.571428571428569</v>
-      </c>
-    </row>
-    <row r="52" spans="2:15">
+      <c r="Q51" s="101">
+        <v>44744</v>
+      </c>
+      <c r="R51" s="105">
+        <v>74</v>
+      </c>
+      <c r="S51" s="103">
+        <f t="shared" si="2"/>
+        <v>75.857142857142861</v>
+      </c>
+    </row>
+    <row r="52" spans="2:19">
       <c r="E52">
         <v>3</v>
       </c>
-      <c r="H52" s="101">
-        <v>44749</v>
-      </c>
-      <c r="I52" s="103">
-        <v>52</v>
-      </c>
-      <c r="J52" s="103">
-        <f t="shared" si="4"/>
-        <v>626</v>
+      <c r="I52" s="101">
+        <v>44745</v>
+      </c>
+      <c r="J52" s="108">
+        <v>11</v>
       </c>
       <c r="K52" s="103">
-        <f t="shared" si="5"/>
-        <v>220</v>
-      </c>
-      <c r="L52" s="101">
+        <f t="shared" si="3"/>
+        <v>485</v>
+      </c>
+      <c r="L52" s="103">
+        <f>SUM(J46:J52)</f>
+        <v>261</v>
+      </c>
+      <c r="M52" s="101">
         <v>44745</v>
       </c>
-      <c r="M52">
+      <c r="N52" s="105">
         <v>8</v>
       </c>
-      <c r="N52">
+      <c r="O52">
         <f t="shared" si="0"/>
         <v>542</v>
       </c>
-      <c r="O52" s="103">
-        <f t="shared" si="3"/>
-        <v>39.428571428571431</v>
-      </c>
-    </row>
-    <row r="53" spans="2:15">
+      <c r="Q52" s="101">
+        <v>44745</v>
+      </c>
+      <c r="R52" s="105">
+        <v>58</v>
+      </c>
+      <c r="S52" s="103">
+        <f t="shared" si="2"/>
+        <v>80.857142857142861</v>
+      </c>
+    </row>
+    <row r="53" spans="2:19">
       <c r="B53" t="s">
         <v>656</v>
       </c>
@@ -6884,36 +8693,42 @@
       <c r="E53">
         <v>32</v>
       </c>
-      <c r="H53" s="101">
-        <v>44750</v>
-      </c>
-      <c r="I53" s="103">
-        <v>37</v>
-      </c>
-      <c r="J53" s="103">
-        <f t="shared" si="4"/>
-        <v>663</v>
+      <c r="I53" s="101">
+        <v>44746</v>
+      </c>
+      <c r="J53" s="108">
+        <v>7</v>
       </c>
       <c r="K53" s="103">
-        <f t="shared" si="5"/>
-        <v>205</v>
-      </c>
-      <c r="L53" s="101">
+        <f t="shared" si="3"/>
+        <v>492</v>
+      </c>
+      <c r="L53" s="103">
+        <f>SUM(J47:J53)</f>
+        <v>215</v>
+      </c>
+      <c r="M53" s="101">
         <v>44746</v>
       </c>
-      <c r="M53">
+      <c r="N53" s="105">
         <v>24</v>
       </c>
-      <c r="N53">
+      <c r="O53">
         <f t="shared" si="0"/>
         <v>566</v>
       </c>
-      <c r="O53" s="103">
-        <f t="shared" si="3"/>
-        <v>34.285714285714285</v>
-      </c>
-    </row>
-    <row r="54" spans="2:15">
+      <c r="Q53" s="101">
+        <v>44746</v>
+      </c>
+      <c r="R53" s="105">
+        <v>81</v>
+      </c>
+      <c r="S53" s="103">
+        <f t="shared" si="2"/>
+        <v>79.428571428571431</v>
+      </c>
+    </row>
+    <row r="54" spans="2:19">
       <c r="B54" t="s">
         <v>655</v>
       </c>
@@ -6926,36 +8741,42 @@
       <c r="E54">
         <v>17</v>
       </c>
-      <c r="H54" s="101">
-        <v>44751</v>
-      </c>
-      <c r="I54" s="103">
+      <c r="I54" s="101">
+        <v>44747</v>
+      </c>
+      <c r="J54" s="108">
         <v>37</v>
       </c>
-      <c r="J54" s="103">
-        <f t="shared" si="4"/>
-        <v>700</v>
-      </c>
       <c r="K54" s="103">
-        <f t="shared" si="5"/>
-        <v>226</v>
-      </c>
-      <c r="L54" s="101">
+        <f t="shared" si="3"/>
+        <v>529</v>
+      </c>
+      <c r="L54" s="103">
+        <f>SUM(J48:J54)</f>
+        <v>222</v>
+      </c>
+      <c r="M54" s="101">
         <v>44747</v>
       </c>
-      <c r="M54">
+      <c r="N54" s="105">
         <v>36</v>
       </c>
-      <c r="N54">
+      <c r="O54">
         <f t="shared" si="0"/>
         <v>602</v>
       </c>
-      <c r="O54" s="103">
-        <f t="shared" si="3"/>
-        <v>33.714285714285715</v>
-      </c>
-    </row>
-    <row r="55" spans="2:15">
+      <c r="Q54" s="101">
+        <v>44747</v>
+      </c>
+      <c r="R54" s="105">
+        <v>121</v>
+      </c>
+      <c r="S54" s="103">
+        <f t="shared" si="2"/>
+        <v>88.285714285714292</v>
+      </c>
+    </row>
+    <row r="55" spans="2:19">
       <c r="B55" t="s">
         <v>654</v>
       </c>
@@ -6968,36 +8789,42 @@
       <c r="E55">
         <v>1</v>
       </c>
-      <c r="H55" s="101">
-        <v>44752</v>
-      </c>
-      <c r="I55" s="103">
-        <v>7</v>
-      </c>
-      <c r="J55" s="103">
-        <f t="shared" si="4"/>
-        <v>707</v>
+      <c r="I55" s="101">
+        <v>44748</v>
+      </c>
+      <c r="J55" s="108">
+        <v>45</v>
       </c>
       <c r="K55" s="103">
-        <f t="shared" si="5"/>
-        <v>222</v>
-      </c>
-      <c r="L55" s="101">
+        <f t="shared" si="3"/>
+        <v>574</v>
+      </c>
+      <c r="L55" s="103">
+        <f>SUM(J49:J55)</f>
+        <v>225</v>
+      </c>
+      <c r="M55" s="101">
         <v>44748</v>
       </c>
-      <c r="M55">
+      <c r="N55" s="105">
         <v>46</v>
       </c>
-      <c r="N55">
+      <c r="O55">
         <f t="shared" si="0"/>
         <v>648</v>
       </c>
-      <c r="O55" s="103">
-        <f t="shared" si="3"/>
-        <v>34.285714285714285</v>
-      </c>
-    </row>
-    <row r="56" spans="2:15">
+      <c r="Q55" s="101">
+        <v>44748</v>
+      </c>
+      <c r="R55" s="105">
+        <v>132</v>
+      </c>
+      <c r="S55" s="103">
+        <f t="shared" si="2"/>
+        <v>97.285714285714292</v>
+      </c>
+    </row>
+    <row r="56" spans="2:19">
       <c r="B56" t="s">
         <v>653</v>
       </c>
@@ -7010,36 +8837,42 @@
       <c r="E56">
         <v>91</v>
       </c>
-      <c r="H56" s="101">
-        <v>44753</v>
-      </c>
-      <c r="I56" s="103">
-        <v>100</v>
-      </c>
-      <c r="J56" s="103">
-        <f t="shared" si="4"/>
-        <v>807</v>
+      <c r="I56" s="101">
+        <v>44749</v>
+      </c>
+      <c r="J56" s="108">
+        <v>52</v>
       </c>
       <c r="K56" s="103">
-        <f t="shared" si="5"/>
-        <v>315</v>
-      </c>
-      <c r="L56" s="101">
+        <f t="shared" si="3"/>
+        <v>626</v>
+      </c>
+      <c r="L56" s="103">
+        <f>SUM(J50:J56)</f>
+        <v>220</v>
+      </c>
+      <c r="M56" s="101">
         <v>44749</v>
       </c>
-      <c r="M56">
+      <c r="N56" s="105">
         <v>53</v>
       </c>
-      <c r="N56">
+      <c r="O56">
         <f t="shared" si="0"/>
         <v>701</v>
       </c>
-      <c r="O56" s="103">
-        <f t="shared" ref="O56:O82" si="6">AVERAGE(M50:M56)</f>
-        <v>33.714285714285715</v>
-      </c>
-    </row>
-    <row r="57" spans="2:15">
+      <c r="Q56" s="101">
+        <v>44749</v>
+      </c>
+      <c r="R56" s="105">
+        <v>130</v>
+      </c>
+      <c r="S56" s="103">
+        <f t="shared" si="2"/>
+        <v>101.57142857142857</v>
+      </c>
+    </row>
+    <row r="57" spans="2:19">
       <c r="B57" t="s">
         <v>652</v>
       </c>
@@ -7052,69 +8885,81 @@
       <c r="E57">
         <v>1</v>
       </c>
-      <c r="H57" s="101">
-        <v>44754</v>
-      </c>
-      <c r="I57" s="103">
-        <v>212</v>
-      </c>
-      <c r="J57" s="103">
-        <f t="shared" si="4"/>
-        <v>1019</v>
+      <c r="I57" s="101">
+        <v>44750</v>
+      </c>
+      <c r="J57" s="108">
+        <v>37</v>
       </c>
       <c r="K57" s="103">
-        <f t="shared" si="5"/>
-        <v>490</v>
-      </c>
-      <c r="L57" s="101">
+        <f t="shared" si="3"/>
+        <v>663</v>
+      </c>
+      <c r="L57" s="103">
+        <f>SUM(J51:J57)</f>
+        <v>205</v>
+      </c>
+      <c r="M57" s="101">
         <v>44750</v>
       </c>
-      <c r="M57">
+      <c r="N57" s="105">
         <v>36</v>
       </c>
-      <c r="N57">
+      <c r="O57">
         <f t="shared" si="0"/>
         <v>737</v>
       </c>
-      <c r="O57" s="103">
-        <f t="shared" si="6"/>
-        <v>31.142857142857142</v>
-      </c>
-    </row>
-    <row r="58" spans="2:15">
+      <c r="Q57" s="101">
+        <v>44750</v>
+      </c>
+      <c r="R57" s="105">
+        <v>170</v>
+      </c>
+      <c r="S57" s="103">
+        <f t="shared" si="2"/>
+        <v>109.42857142857143</v>
+      </c>
+    </row>
+    <row r="58" spans="2:19">
       <c r="E58">
         <v>1</v>
       </c>
-      <c r="H58" s="101">
-        <v>44755</v>
-      </c>
-      <c r="I58" s="103">
-        <v>140</v>
-      </c>
-      <c r="J58" s="103">
-        <f t="shared" si="4"/>
-        <v>1159</v>
+      <c r="I58" s="101">
+        <v>44751</v>
+      </c>
+      <c r="J58" s="108">
+        <v>37</v>
       </c>
       <c r="K58" s="103">
-        <f t="shared" si="5"/>
-        <v>585</v>
-      </c>
-      <c r="L58" s="101">
+        <f t="shared" si="3"/>
+        <v>700</v>
+      </c>
+      <c r="L58" s="103">
+        <f>SUM(J52:J58)</f>
+        <v>226</v>
+      </c>
+      <c r="M58" s="101">
         <v>44751</v>
       </c>
-      <c r="M58">
+      <c r="N58" s="105">
         <v>41</v>
       </c>
-      <c r="N58">
+      <c r="O58">
         <f t="shared" si="0"/>
         <v>778</v>
       </c>
-      <c r="O58" s="103">
-        <f t="shared" si="6"/>
-        <v>34.857142857142854</v>
-      </c>
-    </row>
-    <row r="59" spans="2:15">
+      <c r="Q58" s="101">
+        <v>44751</v>
+      </c>
+      <c r="R58" s="105">
+        <v>116</v>
+      </c>
+      <c r="S58" s="103">
+        <f t="shared" si="2"/>
+        <v>115.42857142857143</v>
+      </c>
+    </row>
+    <row r="59" spans="2:19">
       <c r="B59" t="s">
         <v>651</v>
       </c>
@@ -7127,36 +8972,42 @@
       <c r="E59">
         <v>959</v>
       </c>
-      <c r="H59" s="101">
-        <v>44756</v>
-      </c>
-      <c r="I59" s="103">
-        <v>216</v>
-      </c>
-      <c r="J59" s="103">
-        <f t="shared" si="4"/>
-        <v>1375</v>
+      <c r="I59" s="101">
+        <v>44752</v>
+      </c>
+      <c r="J59" s="108">
+        <v>7</v>
       </c>
       <c r="K59" s="103">
-        <f t="shared" si="5"/>
-        <v>749</v>
-      </c>
-      <c r="L59" s="101">
+        <f t="shared" si="3"/>
+        <v>707</v>
+      </c>
+      <c r="L59" s="103">
+        <f>SUM(J53:J59)</f>
+        <v>222</v>
+      </c>
+      <c r="M59" s="101">
         <v>44752</v>
       </c>
-      <c r="M59">
+      <c r="N59" s="105">
         <v>7</v>
       </c>
-      <c r="N59">
+      <c r="O59">
         <f t="shared" si="0"/>
         <v>785</v>
       </c>
-      <c r="O59" s="103">
-        <f t="shared" si="6"/>
-        <v>34.714285714285715</v>
-      </c>
-    </row>
-    <row r="60" spans="2:15">
+      <c r="Q59" s="101">
+        <v>44752</v>
+      </c>
+      <c r="R59" s="105">
+        <v>85</v>
+      </c>
+      <c r="S59" s="103">
+        <f t="shared" si="2"/>
+        <v>119.28571428571429</v>
+      </c>
+    </row>
+    <row r="60" spans="2:19">
       <c r="B60" t="s">
         <v>650</v>
       </c>
@@ -7169,36 +9020,42 @@
       <c r="E60">
         <v>1</v>
       </c>
-      <c r="H60" s="101">
-        <v>44757</v>
-      </c>
-      <c r="I60" s="103">
-        <v>159</v>
-      </c>
-      <c r="J60" s="103">
-        <f t="shared" si="4"/>
-        <v>1534</v>
+      <c r="I60" s="101">
+        <v>44753</v>
+      </c>
+      <c r="J60" s="108">
+        <v>100</v>
       </c>
       <c r="K60" s="103">
-        <f t="shared" si="5"/>
-        <v>871</v>
-      </c>
-      <c r="L60" s="101">
+        <f t="shared" si="3"/>
+        <v>807</v>
+      </c>
+      <c r="L60" s="103">
+        <f>SUM(J54:J60)</f>
+        <v>315</v>
+      </c>
+      <c r="M60" s="101">
         <v>44753</v>
       </c>
-      <c r="M60">
+      <c r="N60" s="105">
         <v>95</v>
       </c>
-      <c r="N60">
+      <c r="O60">
         <f t="shared" si="0"/>
         <v>880</v>
       </c>
-      <c r="O60" s="103">
-        <f t="shared" si="6"/>
-        <v>44.857142857142854</v>
-      </c>
-    </row>
-    <row r="61" spans="2:15">
+      <c r="Q60" s="101">
+        <v>44753</v>
+      </c>
+      <c r="R60" s="105">
+        <v>233</v>
+      </c>
+      <c r="S60" s="103">
+        <f t="shared" si="2"/>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="61" spans="2:19">
       <c r="B61" t="s">
         <v>649</v>
       </c>
@@ -7211,36 +9068,42 @@
       <c r="E61">
         <v>3</v>
       </c>
-      <c r="H61" s="101">
-        <v>44758</v>
-      </c>
-      <c r="I61" s="103">
-        <v>7</v>
-      </c>
-      <c r="J61" s="103">
-        <f t="shared" si="4"/>
-        <v>1541</v>
+      <c r="I61" s="101">
+        <v>44754</v>
+      </c>
+      <c r="J61" s="108">
+        <v>212</v>
       </c>
       <c r="K61" s="103">
-        <f t="shared" si="5"/>
-        <v>841</v>
-      </c>
-      <c r="L61" s="101">
+        <f t="shared" si="3"/>
+        <v>1019</v>
+      </c>
+      <c r="L61" s="103">
+        <f>SUM(J55:J61)</f>
+        <v>490</v>
+      </c>
+      <c r="M61" s="101">
         <v>44754</v>
       </c>
-      <c r="M61">
+      <c r="N61" s="105">
         <v>157</v>
       </c>
-      <c r="N61">
+      <c r="O61">
         <f t="shared" si="0"/>
         <v>1037</v>
       </c>
-      <c r="O61" s="103">
-        <f t="shared" si="6"/>
-        <v>62.142857142857146</v>
-      </c>
-    </row>
-    <row r="62" spans="2:15">
+      <c r="Q61" s="101">
+        <v>44754</v>
+      </c>
+      <c r="R61" s="105">
+        <v>169</v>
+      </c>
+      <c r="S61" s="103">
+        <f t="shared" si="2"/>
+        <v>147.85714285714286</v>
+      </c>
+    </row>
+    <row r="62" spans="2:19">
       <c r="B62" t="s">
         <v>648</v>
       </c>
@@ -7253,36 +9116,42 @@
       <c r="E62">
         <v>133</v>
       </c>
-      <c r="H62" s="101">
-        <v>44759</v>
-      </c>
-      <c r="I62" s="103">
-        <v>1</v>
-      </c>
-      <c r="J62" s="103">
-        <f t="shared" si="4"/>
-        <v>1542</v>
+      <c r="I62" s="101">
+        <v>44755</v>
+      </c>
+      <c r="J62" s="108">
+        <v>140</v>
       </c>
       <c r="K62" s="103">
-        <f t="shared" si="5"/>
-        <v>835</v>
-      </c>
-      <c r="L62" s="101">
+        <f t="shared" si="3"/>
+        <v>1159</v>
+      </c>
+      <c r="L62" s="103">
+        <f>SUM(J56:J62)</f>
+        <v>585</v>
+      </c>
+      <c r="M62" s="101">
         <v>44755</v>
       </c>
-      <c r="M62">
+      <c r="N62" s="105">
         <v>141</v>
       </c>
-      <c r="N62">
+      <c r="O62">
         <f t="shared" si="0"/>
         <v>1178</v>
       </c>
-      <c r="O62" s="103">
-        <f t="shared" si="6"/>
-        <v>75.714285714285708</v>
-      </c>
-    </row>
-    <row r="63" spans="2:15">
+      <c r="Q62" s="101">
+        <v>44755</v>
+      </c>
+      <c r="R62" s="105">
+        <v>212</v>
+      </c>
+      <c r="S62" s="103">
+        <f t="shared" si="2"/>
+        <v>159.28571428571428</v>
+      </c>
+    </row>
+    <row r="63" spans="2:19">
       <c r="B63" t="s">
         <v>647</v>
       </c>
@@ -7295,36 +9164,42 @@
       <c r="E63">
         <v>64</v>
       </c>
-      <c r="H63" s="101">
-        <v>44760</v>
-      </c>
-      <c r="I63" s="103">
-        <v>195</v>
-      </c>
-      <c r="J63" s="103">
-        <f t="shared" si="4"/>
-        <v>1737</v>
+      <c r="I63" s="101">
+        <v>44756</v>
+      </c>
+      <c r="J63" s="108">
+        <v>216</v>
       </c>
       <c r="K63" s="103">
-        <f t="shared" si="5"/>
-        <v>930</v>
-      </c>
-      <c r="L63" s="101">
+        <f t="shared" si="3"/>
+        <v>1375</v>
+      </c>
+      <c r="L63" s="103">
+        <f>SUM(J57:J63)</f>
+        <v>749</v>
+      </c>
+      <c r="M63" s="101">
         <v>44756</v>
       </c>
-      <c r="M63">
+      <c r="N63" s="105">
         <v>209</v>
       </c>
-      <c r="N63">
+      <c r="O63">
         <f t="shared" si="0"/>
         <v>1387</v>
       </c>
-      <c r="O63" s="103">
-        <f t="shared" si="6"/>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="64" spans="2:15">
+      <c r="Q63" s="101">
+        <v>44756</v>
+      </c>
+      <c r="R63" s="105">
+        <v>231</v>
+      </c>
+      <c r="S63" s="103">
+        <f t="shared" si="2"/>
+        <v>173.71428571428572</v>
+      </c>
+    </row>
+    <row r="64" spans="2:19">
       <c r="B64" t="s">
         <v>646</v>
       </c>
@@ -7337,36 +9212,42 @@
       <c r="E64">
         <v>1</v>
       </c>
-      <c r="H64" s="101">
-        <v>44761</v>
-      </c>
-      <c r="I64" s="103">
-        <v>301</v>
-      </c>
-      <c r="J64" s="103">
-        <f t="shared" si="4"/>
-        <v>2038</v>
+      <c r="I64" s="101">
+        <v>44757</v>
+      </c>
+      <c r="J64" s="108">
+        <v>159</v>
       </c>
       <c r="K64" s="103">
-        <f t="shared" si="5"/>
-        <v>1019</v>
-      </c>
-      <c r="L64" s="101">
+        <f t="shared" si="3"/>
+        <v>1534</v>
+      </c>
+      <c r="L64" s="103">
+        <f>SUM(J58:J64)</f>
+        <v>871</v>
+      </c>
+      <c r="M64" s="101">
         <v>44757</v>
       </c>
-      <c r="M64">
+      <c r="N64" s="105">
         <v>152</v>
       </c>
-      <c r="N64">
+      <c r="O64">
         <f t="shared" si="0"/>
         <v>1539</v>
       </c>
-      <c r="O64" s="103">
-        <f t="shared" si="6"/>
-        <v>114.57142857142857</v>
-      </c>
-    </row>
-    <row r="65" spans="2:15">
+      <c r="Q64" s="101">
+        <v>44757</v>
+      </c>
+      <c r="R64" s="105">
+        <v>239</v>
+      </c>
+      <c r="S64" s="103">
+        <f t="shared" si="2"/>
+        <v>183.57142857142858</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19">
       <c r="B65" t="s">
         <v>645</v>
       </c>
@@ -7379,72 +9260,84 @@
       <c r="E65">
         <v>340</v>
       </c>
-      <c r="H65" s="101">
-        <v>44762</v>
-      </c>
-      <c r="I65" s="103">
-        <v>256</v>
-      </c>
-      <c r="J65" s="103">
-        <f t="shared" si="4"/>
-        <v>2294</v>
+      <c r="I65" s="101">
+        <v>44758</v>
+      </c>
+      <c r="J65" s="108">
+        <v>7</v>
       </c>
       <c r="K65" s="103">
-        <f t="shared" si="5"/>
-        <v>1135</v>
-      </c>
-      <c r="L65" s="101">
+        <f t="shared" si="3"/>
+        <v>1541</v>
+      </c>
+      <c r="L65" s="103">
+        <f>SUM(J59:J65)</f>
+        <v>841</v>
+      </c>
+      <c r="M65" s="101">
         <v>44758</v>
       </c>
-      <c r="M65">
+      <c r="N65" s="105">
         <v>7</v>
       </c>
-      <c r="N65">
+      <c r="O65">
         <f t="shared" si="0"/>
         <v>1546</v>
       </c>
-      <c r="O65" s="103">
-        <f t="shared" si="6"/>
-        <v>109.71428571428571</v>
-      </c>
-    </row>
-    <row r="66" spans="2:15">
+      <c r="Q65" s="101">
+        <v>44758</v>
+      </c>
+      <c r="R65" s="105">
+        <v>133</v>
+      </c>
+      <c r="S65" s="103">
+        <f t="shared" si="2"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19">
       <c r="D66">
         <v>1</v>
       </c>
       <c r="E66">
         <v>1</v>
       </c>
-      <c r="H66" s="101">
-        <v>44763</v>
-      </c>
-      <c r="I66" s="103">
-        <v>184</v>
-      </c>
-      <c r="J66" s="103">
-        <f t="shared" si="4"/>
-        <v>2478</v>
+      <c r="I66" s="101">
+        <v>44759</v>
+      </c>
+      <c r="J66" s="108">
+        <v>1</v>
       </c>
       <c r="K66" s="103">
-        <f t="shared" si="5"/>
-        <v>1103</v>
-      </c>
-      <c r="L66" s="101">
+        <f t="shared" si="3"/>
+        <v>1542</v>
+      </c>
+      <c r="L66" s="103">
+        <f>SUM(J60:J66)</f>
+        <v>835</v>
+      </c>
+      <c r="M66" s="101">
         <v>44759</v>
       </c>
-      <c r="M66">
+      <c r="N66" s="105">
         <v>1</v>
       </c>
-      <c r="N66">
+      <c r="O66">
         <f t="shared" si="0"/>
         <v>1547</v>
       </c>
-      <c r="O66" s="103">
-        <f t="shared" si="6"/>
-        <v>108.85714285714286</v>
-      </c>
-    </row>
-    <row r="67" spans="2:15">
+      <c r="Q66" s="101">
+        <v>44759</v>
+      </c>
+      <c r="R66" s="105">
+        <v>113</v>
+      </c>
+      <c r="S66" s="103">
+        <f t="shared" si="2"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19">
       <c r="B67" t="s">
         <v>644</v>
       </c>
@@ -7457,265 +9350,369 @@
       <c r="E67">
         <v>76</v>
       </c>
-      <c r="H67" s="101">
+      <c r="I67" s="101">
+        <v>44760</v>
+      </c>
+      <c r="J67" s="108">
+        <v>195</v>
+      </c>
+      <c r="K67" s="103">
+        <f t="shared" si="3"/>
+        <v>1737</v>
+      </c>
+      <c r="L67" s="103">
+        <f>SUM(J61:J67)</f>
+        <v>930</v>
+      </c>
+      <c r="M67" s="101">
+        <v>44760</v>
+      </c>
+      <c r="N67" s="105">
+        <v>168</v>
+      </c>
+      <c r="O67">
+        <f t="shared" si="0"/>
+        <v>1715</v>
+      </c>
+      <c r="Q67" s="101">
+        <v>44760</v>
+      </c>
+      <c r="R67" s="105">
+        <v>379</v>
+      </c>
+      <c r="S67" s="103">
+        <f t="shared" si="2"/>
+        <v>210.85714285714286</v>
+      </c>
+    </row>
+    <row r="68" spans="2:19">
+      <c r="B68" t="s">
+        <v>643</v>
+      </c>
+      <c r="C68">
+        <v>588</v>
+      </c>
+      <c r="D68">
+        <v>633</v>
+      </c>
+      <c r="E68">
+        <v>710</v>
+      </c>
+      <c r="I68" s="101">
+        <v>44761</v>
+      </c>
+      <c r="J68" s="108">
+        <v>301</v>
+      </c>
+      <c r="K68" s="103">
+        <f t="shared" si="3"/>
+        <v>2038</v>
+      </c>
+      <c r="L68" s="103">
+        <f>SUM(J62:J68)</f>
+        <v>1019</v>
+      </c>
+      <c r="M68" s="101">
+        <v>44761</v>
+      </c>
+      <c r="N68" s="105">
+        <v>292</v>
+      </c>
+      <c r="O68">
+        <f t="shared" si="0"/>
+        <v>2007</v>
+      </c>
+      <c r="Q68" s="101">
+        <v>44761</v>
+      </c>
+      <c r="R68" s="105">
+        <v>245</v>
+      </c>
+      <c r="S68" s="103">
+        <f t="shared" si="2"/>
+        <v>221.71428571428572</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19">
+      <c r="B69" t="s">
+        <v>642</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+      <c r="D69">
+        <v>2</v>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+      <c r="I69" s="101">
+        <v>44762</v>
+      </c>
+      <c r="J69" s="108">
+        <v>256</v>
+      </c>
+      <c r="K69" s="103">
+        <f t="shared" si="3"/>
+        <v>2294</v>
+      </c>
+      <c r="L69" s="103">
+        <f>SUM(J63:J69)</f>
+        <v>1135</v>
+      </c>
+      <c r="M69" s="101">
+        <v>44762</v>
+      </c>
+      <c r="N69" s="105">
+        <v>255</v>
+      </c>
+      <c r="O69">
+        <f t="shared" si="0"/>
+        <v>2262</v>
+      </c>
+      <c r="Q69" s="101">
+        <v>44762</v>
+      </c>
+      <c r="R69" s="105">
+        <v>281</v>
+      </c>
+      <c r="S69" s="103">
+        <f t="shared" si="2"/>
+        <v>231.57142857142858</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19">
+      <c r="B70" t="s">
+        <v>641</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+      <c r="D70">
+        <v>2</v>
+      </c>
+      <c r="E70">
+        <v>2</v>
+      </c>
+      <c r="I70" s="101">
+        <v>44763</v>
+      </c>
+      <c r="J70" s="108">
+        <v>184</v>
+      </c>
+      <c r="K70" s="103">
+        <f t="shared" si="3"/>
+        <v>2478</v>
+      </c>
+      <c r="L70" s="103">
+        <f>SUM(J64:J70)</f>
+        <v>1103</v>
+      </c>
+      <c r="M70" s="101">
+        <v>44763</v>
+      </c>
+      <c r="N70" s="105">
+        <v>183</v>
+      </c>
+      <c r="O70">
+        <f t="shared" si="0"/>
+        <v>2445</v>
+      </c>
+      <c r="Q70" s="101">
+        <v>44763</v>
+      </c>
+      <c r="R70" s="105">
+        <v>245</v>
+      </c>
+      <c r="S70" s="103">
+        <f t="shared" si="2"/>
+        <v>233.57142857142858</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19">
+      <c r="B71" t="s">
+        <v>640</v>
+      </c>
+      <c r="C71">
+        <v>20</v>
+      </c>
+      <c r="D71">
+        <v>21</v>
+      </c>
+      <c r="E71">
+        <v>22</v>
+      </c>
+      <c r="I71" s="101">
         <v>44764</v>
       </c>
-      <c r="I67" s="103">
+      <c r="J71" s="108">
         <v>308</v>
       </c>
-      <c r="J67" s="103">
+      <c r="K71" s="103">
+        <f t="shared" si="3"/>
+        <v>2786</v>
+      </c>
+      <c r="L71" s="103">
+        <f>SUM(J65:J71)</f>
+        <v>1252</v>
+      </c>
+      <c r="M71" s="101">
+        <v>44764</v>
+      </c>
+      <c r="N71" s="105">
+        <v>322</v>
+      </c>
+      <c r="O71">
+        <f t="shared" ref="O71:O83" si="4">+N71+O70</f>
+        <v>2767</v>
+      </c>
+      <c r="Q71" s="101">
+        <v>44764</v>
+      </c>
+      <c r="R71" s="105">
+        <v>319</v>
+      </c>
+      <c r="S71" s="103">
+        <f t="shared" si="2"/>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19">
+      <c r="B72" t="s">
+        <v>639</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="I72" s="101">
+        <v>44765</v>
+      </c>
+      <c r="J72" s="108">
+        <v>9</v>
+      </c>
+      <c r="K72" s="103">
+        <f t="shared" si="3"/>
+        <v>2795</v>
+      </c>
+      <c r="L72" s="103">
+        <f>SUM(J66:J72)</f>
+        <v>1254</v>
+      </c>
+      <c r="M72" s="101">
+        <v>44765</v>
+      </c>
+      <c r="N72" s="105">
+        <v>13</v>
+      </c>
+      <c r="O72">
+        <f t="shared" si="4"/>
+        <v>2780</v>
+      </c>
+      <c r="Q72" s="101">
+        <v>44765</v>
+      </c>
+      <c r="R72" s="105">
+        <v>150</v>
+      </c>
+      <c r="S72" s="103">
+        <f t="shared" si="2"/>
+        <v>247.42857142857142</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19">
+      <c r="B73" t="s">
+        <v>638</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="I73" s="101">
+        <v>44766</v>
+      </c>
+      <c r="J73" s="108">
+        <v>2</v>
+      </c>
+      <c r="K73" s="103">
+        <f t="shared" si="3"/>
+        <v>2797</v>
+      </c>
+      <c r="L73" s="103">
+        <f>SUM(J67:J73)</f>
+        <v>1255</v>
+      </c>
+      <c r="M73" s="101">
+        <v>44766</v>
+      </c>
+      <c r="N73" s="105">
+        <v>6</v>
+      </c>
+      <c r="O73">
         <f t="shared" si="4"/>
         <v>2786</v>
       </c>
-      <c r="K67" s="103">
-        <f t="shared" si="5"/>
-        <v>1252</v>
-      </c>
-      <c r="L67" s="101">
-        <v>44760</v>
-      </c>
-      <c r="M67">
-        <v>168</v>
-      </c>
-      <c r="N67">
-        <f t="shared" si="0"/>
-        <v>1715</v>
-      </c>
-      <c r="O67" s="103">
-        <f t="shared" si="6"/>
-        <v>119.28571428571429</v>
-      </c>
-    </row>
-    <row r="68" spans="2:15">
-      <c r="B68" t="s">
-        <v>643</v>
-      </c>
-      <c r="C68">
-        <v>588</v>
-      </c>
-      <c r="D68">
-        <v>633</v>
-      </c>
-      <c r="E68">
-        <v>710</v>
-      </c>
-      <c r="H68" s="101">
-        <v>44765</v>
-      </c>
-      <c r="I68" s="103">
-        <v>9</v>
-      </c>
-      <c r="J68" s="103">
-        <f t="shared" si="4"/>
-        <v>2795</v>
-      </c>
-      <c r="K68" s="103">
-        <f t="shared" si="5"/>
-        <v>1254</v>
-      </c>
-      <c r="L68" s="101">
-        <v>44761</v>
-      </c>
-      <c r="M68">
-        <v>292</v>
-      </c>
-      <c r="N68">
-        <f t="shared" si="0"/>
-        <v>2007</v>
-      </c>
-      <c r="O68" s="103">
-        <f t="shared" si="6"/>
-        <v>138.57142857142858</v>
-      </c>
-    </row>
-    <row r="69" spans="2:15">
-      <c r="B69" t="s">
-        <v>642</v>
-      </c>
-      <c r="C69">
-        <v>2</v>
-      </c>
-      <c r="D69">
-        <v>2</v>
-      </c>
-      <c r="E69">
-        <v>2</v>
-      </c>
-      <c r="H69" s="101">
+      <c r="Q73" s="101">
         <v>44766</v>
       </c>
-      <c r="I69" s="103">
-        <v>2</v>
-      </c>
-      <c r="J69" s="103">
-        <f t="shared" si="4"/>
-        <v>2797</v>
-      </c>
-      <c r="K69" s="103">
-        <f t="shared" si="5"/>
-        <v>1255</v>
-      </c>
-      <c r="L69" s="101">
-        <v>44762</v>
-      </c>
-      <c r="M69">
-        <v>255</v>
-      </c>
-      <c r="N69">
-        <f t="shared" si="0"/>
-        <v>2262</v>
-      </c>
-      <c r="O69" s="103">
-        <f t="shared" si="6"/>
-        <v>154.85714285714286</v>
-      </c>
-    </row>
-    <row r="70" spans="2:15">
-      <c r="B70" t="s">
-        <v>641</v>
-      </c>
-      <c r="C70">
-        <v>2</v>
-      </c>
-      <c r="D70">
-        <v>2</v>
-      </c>
-      <c r="E70">
-        <v>2</v>
-      </c>
-      <c r="H70" s="101">
-        <v>44767</v>
-      </c>
-      <c r="I70" s="103">
-        <v>439</v>
-      </c>
-      <c r="J70" s="103">
-        <f t="shared" si="4"/>
-        <v>3236</v>
-      </c>
-      <c r="K70" s="103">
-        <f t="shared" si="5"/>
-        <v>1499</v>
-      </c>
-      <c r="L70" s="101">
-        <v>44763</v>
-      </c>
-      <c r="M70">
-        <v>183</v>
-      </c>
-      <c r="N70">
-        <f t="shared" si="0"/>
-        <v>2445</v>
-      </c>
-      <c r="O70" s="103">
-        <f t="shared" si="6"/>
-        <v>151.14285714285714</v>
-      </c>
-    </row>
-    <row r="71" spans="2:15">
-      <c r="B71" t="s">
-        <v>640</v>
-      </c>
-      <c r="C71">
-        <v>20</v>
-      </c>
-      <c r="D71">
-        <v>21</v>
-      </c>
-      <c r="E71">
-        <v>22</v>
-      </c>
-      <c r="L71" s="101">
-        <v>44764</v>
-      </c>
-      <c r="M71">
-        <v>322</v>
-      </c>
-      <c r="N71">
-        <f t="shared" ref="N71:N83" si="7">+M71+N70</f>
-        <v>2767</v>
-      </c>
-      <c r="O71" s="103">
-        <f t="shared" si="6"/>
-        <v>175.42857142857142</v>
-      </c>
-    </row>
-    <row r="72" spans="2:15">
-      <c r="B72" t="s">
-        <v>639</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
-      <c r="E72">
-        <v>1</v>
-      </c>
-      <c r="L72" s="101">
-        <v>44765</v>
-      </c>
-      <c r="M72">
-        <v>13</v>
-      </c>
-      <c r="N72">
-        <f t="shared" si="7"/>
-        <v>2780</v>
-      </c>
-      <c r="O72" s="103">
-        <f t="shared" si="6"/>
-        <v>176.28571428571428</v>
-      </c>
-    </row>
-    <row r="73" spans="2:15">
-      <c r="B73" t="s">
-        <v>638</v>
-      </c>
-      <c r="C73">
-        <v>3</v>
-      </c>
-      <c r="D73">
-        <v>3</v>
-      </c>
-      <c r="E73">
-        <v>1</v>
-      </c>
-      <c r="L73" s="101">
-        <v>44766</v>
-      </c>
-      <c r="M73">
-        <v>6</v>
-      </c>
-      <c r="N73">
-        <f t="shared" si="7"/>
-        <v>2786</v>
-      </c>
-      <c r="O73" s="103">
-        <f t="shared" si="6"/>
-        <v>177</v>
-      </c>
-    </row>
-    <row r="74" spans="2:15">
+      <c r="R73" s="105">
+        <v>110</v>
+      </c>
+      <c r="S73" s="103">
+        <f t="shared" ref="S73:S96" si="5">AVERAGE(R67:R73)</f>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19">
       <c r="E74">
         <v>5</v>
       </c>
-      <c r="L74" s="101">
+      <c r="I74" s="101">
         <v>44767</v>
       </c>
-      <c r="M74">
+      <c r="J74" s="108">
+        <v>439</v>
+      </c>
+      <c r="K74" s="103">
+        <f t="shared" si="3"/>
+        <v>3236</v>
+      </c>
+      <c r="L74" s="103">
+        <f>SUM(J68:J74)</f>
+        <v>1499</v>
+      </c>
+      <c r="M74" s="101">
+        <v>44767</v>
+      </c>
+      <c r="N74" s="105">
         <v>812</v>
       </c>
-      <c r="N74">
-        <f t="shared" si="7"/>
+      <c r="O74">
+        <f t="shared" si="4"/>
         <v>3598</v>
       </c>
-      <c r="O74" s="103">
-        <f t="shared" si="6"/>
-        <v>269</v>
-      </c>
-    </row>
-    <row r="75" spans="2:15">
+      <c r="Q74" s="101">
+        <v>44767</v>
+      </c>
+      <c r="R74" s="105">
+        <v>407</v>
+      </c>
+      <c r="S74" s="103">
+        <f t="shared" si="5"/>
+        <v>251</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19">
       <c r="B75" t="s">
         <v>637</v>
       </c>
@@ -7728,22 +9725,28 @@
       <c r="E75">
         <v>10</v>
       </c>
-      <c r="L75" s="101">
+      <c r="M75" s="101">
         <v>44768</v>
       </c>
-      <c r="M75">
+      <c r="N75" s="105">
         <v>586</v>
       </c>
-      <c r="N75">
-        <f t="shared" si="7"/>
+      <c r="O75">
+        <f t="shared" si="4"/>
         <v>4184</v>
       </c>
-      <c r="O75" s="103">
-        <f t="shared" si="6"/>
-        <v>311</v>
-      </c>
-    </row>
-    <row r="76" spans="2:15">
+      <c r="Q75" s="101">
+        <v>44768</v>
+      </c>
+      <c r="R75" s="105">
+        <v>378</v>
+      </c>
+      <c r="S75" s="103">
+        <f t="shared" si="5"/>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19">
       <c r="B76" t="s">
         <v>636</v>
       </c>
@@ -7756,22 +9759,28 @@
       <c r="E76">
         <v>15</v>
       </c>
-      <c r="L76" s="101">
+      <c r="M76" s="101">
         <v>44769</v>
       </c>
-      <c r="M76">
+      <c r="N76" s="105">
         <v>476</v>
       </c>
-      <c r="N76">
-        <f t="shared" si="7"/>
+      <c r="O76">
+        <f t="shared" si="4"/>
         <v>4660</v>
       </c>
-      <c r="O76" s="103">
-        <f t="shared" si="6"/>
-        <v>342.57142857142856</v>
-      </c>
-    </row>
-    <row r="77" spans="2:15">
+      <c r="Q76" s="101">
+        <v>44769</v>
+      </c>
+      <c r="R76" s="105">
+        <v>460</v>
+      </c>
+      <c r="S76" s="103">
+        <f t="shared" si="5"/>
+        <v>295.57142857142856</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19">
       <c r="B77" t="s">
         <v>635</v>
       </c>
@@ -7784,22 +9793,28 @@
       <c r="E77">
         <v>8</v>
       </c>
-      <c r="L77" s="101">
+      <c r="M77" s="101">
         <v>44770</v>
       </c>
-      <c r="M77">
+      <c r="N77" s="105">
         <v>184</v>
       </c>
-      <c r="N77">
-        <f t="shared" si="7"/>
+      <c r="O77">
+        <f t="shared" si="4"/>
         <v>4844</v>
       </c>
-      <c r="O77" s="103">
-        <f t="shared" si="6"/>
-        <v>342.71428571428572</v>
-      </c>
-    </row>
-    <row r="78" spans="2:15">
+      <c r="Q77" s="101">
+        <v>44770</v>
+      </c>
+      <c r="R77" s="105">
+        <v>299</v>
+      </c>
+      <c r="S77" s="103">
+        <f t="shared" si="5"/>
+        <v>303.28571428571428</v>
+      </c>
+    </row>
+    <row r="78" spans="2:19">
       <c r="B78" t="s">
         <v>634</v>
       </c>
@@ -7812,22 +9827,28 @@
       <c r="E78">
         <v>37</v>
       </c>
-      <c r="L78" s="101">
+      <c r="M78" s="101">
         <v>44771</v>
       </c>
-      <c r="M78">
+      <c r="N78" s="105">
         <v>435</v>
       </c>
-      <c r="N78">
-        <f t="shared" si="7"/>
+      <c r="O78">
+        <f t="shared" si="4"/>
         <v>5279</v>
       </c>
-      <c r="O78" s="108">
-        <f t="shared" si="6"/>
-        <v>358.85714285714283</v>
-      </c>
-    </row>
-    <row r="79" spans="2:15">
+      <c r="Q78" s="101">
+        <v>44771</v>
+      </c>
+      <c r="R78" s="105">
+        <v>400</v>
+      </c>
+      <c r="S78" s="103">
+        <f t="shared" si="5"/>
+        <v>314.85714285714283</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19">
       <c r="B79" t="s">
         <v>633</v>
       </c>
@@ -7840,22 +9861,28 @@
       <c r="E79">
         <v>3</v>
       </c>
-      <c r="L79" s="101">
+      <c r="M79" s="101">
         <v>44772</v>
       </c>
-      <c r="M79">
+      <c r="N79" s="105">
         <v>16</v>
       </c>
-      <c r="N79">
-        <f t="shared" si="7"/>
+      <c r="O79">
+        <f t="shared" si="4"/>
         <v>5295</v>
       </c>
-      <c r="O79" s="108">
-        <f t="shared" si="6"/>
-        <v>359.28571428571428</v>
-      </c>
-    </row>
-    <row r="80" spans="2:15">
+      <c r="Q79" s="101">
+        <v>44772</v>
+      </c>
+      <c r="R79" s="105">
+        <v>160</v>
+      </c>
+      <c r="S79" s="103">
+        <f t="shared" si="5"/>
+        <v>316.28571428571428</v>
+      </c>
+    </row>
+    <row r="80" spans="2:19">
       <c r="B80" t="s">
         <v>632</v>
       </c>
@@ -7868,22 +9895,28 @@
       <c r="E80">
         <v>1</v>
       </c>
-      <c r="L80" s="101">
+      <c r="M80" s="101">
         <v>44773</v>
       </c>
-      <c r="M80">
+      <c r="N80" s="105">
         <v>14</v>
       </c>
-      <c r="N80">
-        <f t="shared" si="7"/>
+      <c r="O80">
+        <f t="shared" si="4"/>
         <v>5309</v>
       </c>
-      <c r="O80" s="108">
-        <f t="shared" si="6"/>
-        <v>360.42857142857144</v>
-      </c>
-    </row>
-    <row r="81" spans="2:15">
+      <c r="Q80" s="101">
+        <v>44773</v>
+      </c>
+      <c r="R80" s="105">
+        <v>149</v>
+      </c>
+      <c r="S80" s="103">
+        <f t="shared" si="5"/>
+        <v>321.85714285714283</v>
+      </c>
+    </row>
+    <row r="81" spans="2:19">
       <c r="B81" t="s">
         <v>631</v>
       </c>
@@ -7896,45 +9929,57 @@
       <c r="E81">
         <v>4942</v>
       </c>
-      <c r="L81" s="101">
+      <c r="M81" s="101">
         <v>44774</v>
       </c>
-      <c r="M81">
+      <c r="N81" s="105">
         <v>562</v>
       </c>
-      <c r="N81">
-        <f t="shared" si="7"/>
+      <c r="O81">
+        <f t="shared" si="4"/>
         <v>5871</v>
       </c>
-      <c r="O81" s="103">
-        <f t="shared" si="6"/>
-        <v>324.71428571428572</v>
-      </c>
-    </row>
-    <row r="82" spans="2:15">
+      <c r="Q81" s="101">
+        <v>44774</v>
+      </c>
+      <c r="R81" s="105">
+        <v>473</v>
+      </c>
+      <c r="S81" s="103">
+        <f t="shared" si="5"/>
+        <v>331.28571428571428</v>
+      </c>
+    </row>
+    <row r="82" spans="2:19">
       <c r="E82">
         <v>1</v>
       </c>
-      <c r="G82" s="107">
+      <c r="H82" s="107">
         <f>+D90/C90-1</f>
         <v>0.18426416632694664</v>
       </c>
-      <c r="L82" s="101">
+      <c r="M82" s="101">
         <v>44775</v>
       </c>
-      <c r="M82">
+      <c r="N82" s="105">
         <v>516</v>
       </c>
-      <c r="N82">
-        <f t="shared" si="7"/>
+      <c r="O82">
+        <f t="shared" si="4"/>
         <v>6387</v>
       </c>
-      <c r="O82" s="103">
-        <f t="shared" si="6"/>
-        <v>314.71428571428572</v>
-      </c>
-    </row>
-    <row r="83" spans="2:15">
+      <c r="Q82" s="101">
+        <v>44775</v>
+      </c>
+      <c r="R82" s="105">
+        <v>438</v>
+      </c>
+      <c r="S82" s="103">
+        <f t="shared" si="5"/>
+        <v>339.85714285714283</v>
+      </c>
+    </row>
+    <row r="83" spans="2:19">
       <c r="B83" t="s">
         <v>630</v>
       </c>
@@ -7947,22 +9992,28 @@
       <c r="E83">
         <v>111</v>
       </c>
-      <c r="L83" s="101">
+      <c r="M83" s="101">
         <v>44776</v>
       </c>
-      <c r="M83">
+      <c r="N83" s="105">
         <v>229</v>
       </c>
-      <c r="N83">
-        <f t="shared" si="7"/>
+      <c r="O83">
+        <f t="shared" si="4"/>
         <v>6616</v>
       </c>
-      <c r="O83" s="103">
-        <f>AVERAGE(M77:M83)</f>
-        <v>279.42857142857144</v>
-      </c>
-    </row>
-    <row r="84" spans="2:15">
+      <c r="Q83" s="101">
+        <v>44776</v>
+      </c>
+      <c r="R83" s="105">
+        <v>426</v>
+      </c>
+      <c r="S83" s="103">
+        <f t="shared" si="5"/>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="84" spans="2:19">
       <c r="B84" t="s">
         <v>629</v>
       </c>
@@ -7975,8 +10026,18 @@
       <c r="E84">
         <v>316</v>
       </c>
-    </row>
-    <row r="85" spans="2:15">
+      <c r="Q84" s="101">
+        <v>44777</v>
+      </c>
+      <c r="R84" s="105">
+        <v>436</v>
+      </c>
+      <c r="S84" s="103">
+        <f t="shared" si="5"/>
+        <v>354.57142857142856</v>
+      </c>
+    </row>
+    <row r="85" spans="2:19">
       <c r="B85" t="s">
         <v>628</v>
       </c>
@@ -7989,8 +10050,18 @@
       <c r="E85">
         <v>2</v>
       </c>
-    </row>
-    <row r="86" spans="2:15">
+      <c r="Q85" s="101">
+        <v>44778</v>
+      </c>
+      <c r="R85" s="105">
+        <v>424</v>
+      </c>
+      <c r="S85" s="103">
+        <f t="shared" si="5"/>
+        <v>358</v>
+      </c>
+    </row>
+    <row r="86" spans="2:19">
       <c r="B86" t="s">
         <v>627</v>
       </c>
@@ -8003,8 +10074,18 @@
       <c r="E86">
         <v>4</v>
       </c>
-    </row>
-    <row r="87" spans="2:15">
+      <c r="Q86" s="101">
+        <v>44779</v>
+      </c>
+      <c r="R86" s="105">
+        <v>138</v>
+      </c>
+      <c r="S86" s="103">
+        <f t="shared" si="5"/>
+        <v>354.85714285714283</v>
+      </c>
+    </row>
+    <row r="87" spans="2:19">
       <c r="B87" t="s">
         <v>626</v>
       </c>
@@ -8017,8 +10098,18 @@
       <c r="E87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="2:15">
+      <c r="Q87" s="101">
+        <v>44780</v>
+      </c>
+      <c r="R87" s="105">
+        <v>78</v>
+      </c>
+      <c r="S87" s="103">
+        <f t="shared" si="5"/>
+        <v>344.71428571428572</v>
+      </c>
+    </row>
+    <row r="88" spans="2:19">
       <c r="B88" t="s">
         <v>625</v>
       </c>
@@ -8031,8 +10122,18 @@
       <c r="E88">
         <v>16</v>
       </c>
-    </row>
-    <row r="89" spans="2:15">
+      <c r="Q88" s="101">
+        <v>44781</v>
+      </c>
+      <c r="R88" s="105">
+        <v>754</v>
+      </c>
+      <c r="S88" s="103">
+        <f t="shared" si="5"/>
+        <v>384.85714285714283</v>
+      </c>
+    </row>
+    <row r="89" spans="2:19">
       <c r="B89" t="s">
         <v>624</v>
       </c>
@@ -8045,8 +10146,18 @@
       <c r="E89">
         <v>2859</v>
       </c>
-    </row>
-    <row r="90" spans="2:15">
+      <c r="Q89" s="101">
+        <v>44782</v>
+      </c>
+      <c r="R89" s="105">
+        <v>409</v>
+      </c>
+      <c r="S89" s="103">
+        <f t="shared" si="5"/>
+        <v>380.71428571428572</v>
+      </c>
+    </row>
+    <row r="90" spans="2:19">
       <c r="B90" t="s">
         <v>623</v>
       </c>
@@ -8059,8 +10170,18 @@
       <c r="E90">
         <v>7509</v>
       </c>
-    </row>
-    <row r="91" spans="2:15">
+      <c r="Q90" s="101">
+        <v>44783</v>
+      </c>
+      <c r="R90" s="105">
+        <v>366</v>
+      </c>
+      <c r="S90" s="103">
+        <f t="shared" si="5"/>
+        <v>372.14285714285717</v>
+      </c>
+    </row>
+    <row r="91" spans="2:19">
       <c r="B91" s="104" t="s">
         <v>705</v>
       </c>
@@ -8073,8 +10194,18 @@
       <c r="E91">
         <v>2</v>
       </c>
-    </row>
-    <row r="92" spans="2:15">
+      <c r="Q91" s="101">
+        <v>44784</v>
+      </c>
+      <c r="R91" s="105">
+        <v>314</v>
+      </c>
+      <c r="S91" s="103">
+        <f t="shared" si="5"/>
+        <v>354.71428571428572</v>
+      </c>
+    </row>
+    <row r="92" spans="2:19">
       <c r="B92" t="s">
         <v>622</v>
       </c>
@@ -8086,6 +10217,76 @@
       </c>
       <c r="E92">
         <v>1</v>
+      </c>
+      <c r="Q92" s="101">
+        <v>44785</v>
+      </c>
+      <c r="R92" s="105">
+        <v>280</v>
+      </c>
+      <c r="S92" s="103">
+        <f t="shared" si="5"/>
+        <v>334.14285714285717</v>
+      </c>
+    </row>
+    <row r="93" spans="2:19">
+      <c r="Q93" s="101">
+        <v>44786</v>
+      </c>
+      <c r="R93" s="105">
+        <v>39</v>
+      </c>
+      <c r="S93" s="103">
+        <f t="shared" si="5"/>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="94" spans="2:19">
+      <c r="Q94" s="101">
+        <v>44787</v>
+      </c>
+      <c r="R94" s="105">
+        <v>10</v>
+      </c>
+      <c r="S94" s="103">
+        <f t="shared" si="5"/>
+        <v>310.28571428571428</v>
+      </c>
+    </row>
+    <row r="95" spans="2:19">
+      <c r="Q95" s="101">
+        <v>44788</v>
+      </c>
+      <c r="R95" s="105">
+        <v>670</v>
+      </c>
+      <c r="S95" s="103">
+        <f t="shared" si="5"/>
+        <v>298.28571428571428</v>
+      </c>
+    </row>
+    <row r="96" spans="2:19">
+      <c r="Q96" s="101">
+        <v>44789</v>
+      </c>
+      <c r="R96" s="105">
+        <v>361</v>
+      </c>
+      <c r="S96" s="103">
+        <f t="shared" si="5"/>
+        <v>291.42857142857144</v>
+      </c>
+    </row>
+    <row r="97" spans="17:19">
+      <c r="Q97" s="101">
+        <v>44790</v>
+      </c>
+      <c r="R97" s="105">
+        <v>347</v>
+      </c>
+      <c r="S97" s="103">
+        <f>AVERAGE(R91:R97)</f>
+        <v>288.71428571428572</v>
       </c>
     </row>
   </sheetData>
@@ -8094,6 +10295,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -19246,12 +21448,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19369,15 +21568,25 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B8FCBE5-DC3A-4133-9A7B-7CABB6178323}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFF1E9B8-B163-4EA4-B096-E0C9303C24CF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -19399,16 +21608,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFF1E9B8-B163-4EA4-B096-E0C9303C24CF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B8FCBE5-DC3A-4133-9A7B-7CABB6178323}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SIGA.xlsx
+++ b/SIGA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93935CC0-1609-44BC-BDD0-A2293242C16A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40EEFCC-0AE3-4491-81B0-08C829E1EAFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52695" yWindow="1755" windowWidth="18645" windowHeight="11040" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="52710" yWindow="1680" windowWidth="16515" windowHeight="13575" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -2470,7 +2470,7 @@
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2677,6 +2677,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6402,10 +6403,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30E3C55D-9118-482B-8720-4989D85F03BD}">
-  <dimension ref="A1:S97"/>
+  <dimension ref="A1:S99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D81" workbookViewId="0">
-      <selection activeCell="Q99" sqref="Q99"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6428,8 +6429,8 @@
       <c r="E2" s="101">
         <v>44778</v>
       </c>
-      <c r="F2" s="101">
-        <v>44791</v>
+      <c r="F2" s="110">
+        <v>44795</v>
       </c>
       <c r="G2" s="101"/>
       <c r="H2" s="101"/>
@@ -6462,8 +6463,14 @@
     <row r="3" spans="1:19">
       <c r="C3" s="101"/>
       <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
+      <c r="E3" s="107">
+        <f>+E4/C4-1</f>
+        <v>0.33440514469453375</v>
+      </c>
+      <c r="F3" s="107">
+        <f>+F4/D4-1</f>
+        <v>0.8185705817596749</v>
+      </c>
       <c r="G3" s="101"/>
       <c r="H3" s="101"/>
       <c r="Q3" s="101">
@@ -6489,7 +6496,10 @@
         <f>SUM(E5:E97)</f>
         <v>28220</v>
       </c>
-      <c r="F4" s="105"/>
+      <c r="F4" s="105">
+        <f>SUM(F5:F97)</f>
+        <v>42951</v>
+      </c>
       <c r="G4" s="106">
         <f>+E4/C4-1</f>
         <v>0.33440514469453375</v>
@@ -6514,6 +6524,9 @@
       <c r="E5">
         <v>4</v>
       </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
       <c r="I5" s="101">
         <v>44698</v>
       </c>
@@ -6555,6 +6568,9 @@
       <c r="E6">
         <v>31</v>
       </c>
+      <c r="F6">
+        <v>72</v>
+      </c>
       <c r="I6" s="101">
         <f>+I5+1</f>
         <v>44699</v>
@@ -6596,6 +6612,9 @@
       <c r="E7">
         <v>58</v>
       </c>
+      <c r="F7">
+        <v>89</v>
+      </c>
       <c r="I7" s="101">
         <f>+I6+1</f>
         <v>44700</v>
@@ -6637,6 +6656,9 @@
       <c r="E8">
         <v>160</v>
       </c>
+      <c r="F8">
+        <v>217</v>
+      </c>
       <c r="I8" s="101">
         <v>44701</v>
       </c>
@@ -6678,6 +6700,9 @@
       <c r="E9">
         <v>1</v>
       </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
       <c r="I9" s="101">
         <v>44702</v>
       </c>
@@ -6721,6 +6746,9 @@
         <v>1</v>
       </c>
       <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
         <v>1</v>
       </c>
       <c r="I10" s="101"/>
@@ -6744,7 +6772,7 @@
         <v>2</v>
       </c>
       <c r="S10" s="103">
-        <f t="shared" ref="S9:S72" si="2">AVERAGE(R4:R10)</f>
+        <f t="shared" ref="S10:S72" si="2">AVERAGE(R4:R10)</f>
         <v>1.1428571428571428</v>
       </c>
     </row>
@@ -6761,6 +6789,9 @@
       <c r="E11">
         <v>482</v>
       </c>
+      <c r="F11">
+        <v>624</v>
+      </c>
       <c r="I11" s="101">
         <v>44704</v>
       </c>
@@ -6806,6 +6837,9 @@
       <c r="E12">
         <v>3</v>
       </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
       <c r="I12" s="101">
         <v>44705</v>
       </c>
@@ -6851,6 +6885,9 @@
       <c r="E13">
         <v>1</v>
       </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
       <c r="I13" s="101">
         <v>44706</v>
       </c>
@@ -6896,6 +6933,9 @@
       <c r="E14">
         <v>3</v>
       </c>
+      <c r="F14">
+        <v>37</v>
+      </c>
       <c r="I14" s="101">
         <v>44707</v>
       </c>
@@ -6935,6 +6975,9 @@
       <c r="E15">
         <v>1</v>
       </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
       <c r="I15" s="101">
         <v>44708</v>
       </c>
@@ -6982,6 +7025,9 @@
       </c>
       <c r="E16">
         <v>1474</v>
+      </c>
+      <c r="F16">
+        <v>3450</v>
       </c>
       <c r="I16" s="101"/>
       <c r="J16" s="108"/>
@@ -7021,6 +7067,9 @@
       <c r="E17">
         <v>4</v>
       </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
       <c r="I17" s="101">
         <v>44710</v>
       </c>
@@ -7067,6 +7116,9 @@
         <v>7</v>
       </c>
       <c r="E18">
+        <v>7</v>
+      </c>
+      <c r="F18">
         <v>7</v>
       </c>
       <c r="I18" s="101"/>
@@ -7107,6 +7159,9 @@
       <c r="E19">
         <v>957</v>
       </c>
+      <c r="F19">
+        <v>1168</v>
+      </c>
       <c r="I19" s="101">
         <v>44712</v>
       </c>
@@ -7155,6 +7210,9 @@
       <c r="E20">
         <v>8</v>
       </c>
+      <c r="F20">
+        <v>8</v>
+      </c>
       <c r="I20" s="101">
         <v>44713</v>
       </c>
@@ -7203,6 +7261,9 @@
       <c r="E21">
         <v>69</v>
       </c>
+      <c r="F21">
+        <v>189</v>
+      </c>
       <c r="I21" s="101">
         <v>44714</v>
       </c>
@@ -7251,6 +7312,9 @@
       <c r="E22">
         <v>20</v>
       </c>
+      <c r="F22">
+        <v>164</v>
+      </c>
       <c r="I22" s="101">
         <v>44715</v>
       </c>
@@ -7299,6 +7363,9 @@
       <c r="E23">
         <v>3</v>
       </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
       <c r="I23" s="101">
         <v>44716</v>
       </c>
@@ -7346,6 +7413,9 @@
       </c>
       <c r="E24">
         <v>12</v>
+      </c>
+      <c r="F24">
+        <v>22</v>
       </c>
       <c r="I24" s="101"/>
       <c r="J24" s="103"/>
@@ -7376,6 +7446,9 @@
       <c r="E25">
         <v>1</v>
       </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
       <c r="I25" s="101">
         <v>44718</v>
       </c>
@@ -7424,6 +7497,9 @@
       <c r="E26">
         <v>28</v>
       </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
       <c r="I26" s="101">
         <v>44719</v>
       </c>
@@ -7472,6 +7548,9 @@
       <c r="E27">
         <v>163</v>
       </c>
+      <c r="F27">
+        <v>39</v>
+      </c>
       <c r="I27" s="101">
         <v>44720</v>
       </c>
@@ -7520,6 +7599,9 @@
       <c r="E28">
         <v>114</v>
       </c>
+      <c r="F28">
+        <v>163</v>
+      </c>
       <c r="I28" s="101">
         <v>44721</v>
       </c>
@@ -7568,6 +7650,9 @@
       <c r="E29">
         <v>4</v>
       </c>
+      <c r="F29">
+        <v>169</v>
+      </c>
       <c r="I29" s="101">
         <v>44722</v>
       </c>
@@ -7616,6 +7701,9 @@
       <c r="E30">
         <v>6</v>
       </c>
+      <c r="F30">
+        <v>6</v>
+      </c>
       <c r="I30" s="101">
         <v>44723</v>
       </c>
@@ -7664,6 +7752,9 @@
       <c r="E31">
         <v>9</v>
       </c>
+      <c r="F31">
+        <v>19</v>
+      </c>
       <c r="I31" s="101">
         <v>44724</v>
       </c>
@@ -7675,7 +7766,7 @@
         <v>52</v>
       </c>
       <c r="L31" s="103">
-        <f>SUM(J25:J31)</f>
+        <f t="shared" ref="L31:L74" si="3">SUM(J25:J31)</f>
         <v>25</v>
       </c>
       <c r="M31" s="101">
@@ -7712,6 +7803,9 @@
       <c r="E32">
         <v>22</v>
       </c>
+      <c r="F32">
+        <v>9</v>
+      </c>
       <c r="I32" s="101">
         <v>44725</v>
       </c>
@@ -7723,7 +7817,7 @@
         <v>54</v>
       </c>
       <c r="L32" s="103">
-        <f>SUM(J26:J32)</f>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="M32" s="101">
@@ -7760,6 +7854,9 @@
       <c r="E33">
         <v>2423</v>
       </c>
+      <c r="F33">
+        <v>22</v>
+      </c>
       <c r="I33" s="101">
         <v>44726</v>
       </c>
@@ -7771,7 +7868,7 @@
         <v>65</v>
       </c>
       <c r="L33" s="103">
-        <f>SUM(J27:J33)</f>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="M33" s="101">
@@ -7808,6 +7905,9 @@
       <c r="E34">
         <v>1</v>
       </c>
+      <c r="F34">
+        <v>2889</v>
+      </c>
       <c r="I34" s="101">
         <v>44727</v>
       </c>
@@ -7819,7 +7919,7 @@
         <v>72</v>
       </c>
       <c r="L34" s="103">
-        <f>SUM(J28:J34)</f>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="M34" s="101">
@@ -7856,6 +7956,9 @@
       <c r="E35">
         <v>2887</v>
       </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
       <c r="I35" s="101">
         <v>44728</v>
       </c>
@@ -7867,7 +7970,7 @@
         <v>85</v>
       </c>
       <c r="L35" s="103">
-        <f>SUM(J29:J35)</f>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="M35" s="101">
@@ -7904,6 +8007,9 @@
       <c r="E36">
         <v>30</v>
       </c>
+      <c r="F36">
+        <v>3295</v>
+      </c>
       <c r="I36" s="101">
         <v>44729</v>
       </c>
@@ -7915,7 +8021,7 @@
         <v>89</v>
       </c>
       <c r="L36" s="103">
-        <f>SUM(J30:J36)</f>
+        <f t="shared" si="3"/>
         <v>43</v>
       </c>
       <c r="M36" s="101">
@@ -7952,6 +8058,9 @@
       <c r="E37">
         <v>5</v>
       </c>
+      <c r="F37">
+        <v>47</v>
+      </c>
       <c r="I37" s="101">
         <v>44730</v>
       </c>
@@ -7963,7 +8072,7 @@
         <v>100</v>
       </c>
       <c r="L37" s="103">
-        <f>SUM(J31:J37)</f>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="M37" s="101">
@@ -8000,6 +8109,9 @@
       <c r="E38">
         <v>39</v>
       </c>
+      <c r="F38">
+        <v>6</v>
+      </c>
       <c r="I38" s="101">
         <v>44731</v>
       </c>
@@ -8011,7 +8123,7 @@
         <v>105</v>
       </c>
       <c r="L38" s="103">
-        <f>SUM(J32:J38)</f>
+        <f t="shared" si="3"/>
         <v>53</v>
       </c>
       <c r="M38" s="101">
@@ -8039,6 +8151,9 @@
       <c r="E39">
         <v>1</v>
       </c>
+      <c r="F39">
+        <v>50</v>
+      </c>
       <c r="I39" s="101">
         <v>44732</v>
       </c>
@@ -8050,7 +8165,7 @@
         <v>112</v>
       </c>
       <c r="L39" s="103">
-        <f>SUM(J33:J39)</f>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
       <c r="M39" s="101">
@@ -8078,6 +8193,9 @@
       <c r="E40">
         <v>1</v>
       </c>
+      <c r="F40">
+        <v>2</v>
+      </c>
       <c r="I40" s="101">
         <v>44733</v>
       </c>
@@ -8089,7 +8207,7 @@
         <v>127</v>
       </c>
       <c r="L40" s="103">
-        <f>SUM(J34:J40)</f>
+        <f t="shared" si="3"/>
         <v>62</v>
       </c>
       <c r="M40" s="101">
@@ -8126,6 +8244,9 @@
       <c r="E41">
         <v>48</v>
       </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
       <c r="I41" s="101">
         <v>44734</v>
       </c>
@@ -8137,7 +8258,7 @@
         <v>146</v>
       </c>
       <c r="L41" s="103">
-        <f>SUM(J35:J41)</f>
+        <f t="shared" si="3"/>
         <v>74</v>
       </c>
       <c r="M41" s="101">
@@ -8174,6 +8295,9 @@
       <c r="E42">
         <v>11</v>
       </c>
+      <c r="F42">
+        <v>4</v>
+      </c>
       <c r="I42" s="101">
         <v>44735</v>
       </c>
@@ -8185,7 +8309,7 @@
         <v>165</v>
       </c>
       <c r="L42" s="103">
-        <f>SUM(J36:J42)</f>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="M42" s="101">
@@ -8222,6 +8346,9 @@
       <c r="E43">
         <v>6</v>
       </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
       <c r="I43" s="101">
         <v>44736</v>
       </c>
@@ -8233,7 +8360,7 @@
         <v>200</v>
       </c>
       <c r="L43" s="103">
-        <f>SUM(J37:J43)</f>
+        <f t="shared" si="3"/>
         <v>111</v>
       </c>
       <c r="M43" s="101">
@@ -8270,6 +8397,9 @@
       <c r="E44">
         <v>97</v>
       </c>
+      <c r="F44">
+        <v>63</v>
+      </c>
       <c r="I44" s="101">
         <v>44737</v>
       </c>
@@ -8281,7 +8411,7 @@
         <v>212</v>
       </c>
       <c r="L44" s="103">
-        <f>SUM(J38:J44)</f>
+        <f t="shared" si="3"/>
         <v>112</v>
       </c>
       <c r="M44" s="101">
@@ -8318,6 +8448,9 @@
       <c r="E45">
         <v>160</v>
       </c>
+      <c r="F45">
+        <v>12</v>
+      </c>
       <c r="I45" s="101">
         <v>44738</v>
       </c>
@@ -8325,11 +8458,11 @@
         <v>12</v>
       </c>
       <c r="K45" s="103">
-        <f t="shared" ref="K45:K74" si="3">+J45+K44</f>
+        <f t="shared" ref="K45:K74" si="4">+J45+K44</f>
         <v>224</v>
       </c>
       <c r="L45" s="103">
-        <f>SUM(J39:J45)</f>
+        <f t="shared" si="3"/>
         <v>119</v>
       </c>
       <c r="M45" s="101">
@@ -8366,6 +8499,9 @@
       <c r="E46">
         <v>545</v>
       </c>
+      <c r="F46">
+        <v>9</v>
+      </c>
       <c r="I46" s="101">
         <v>44739</v>
       </c>
@@ -8373,11 +8509,11 @@
         <v>53</v>
       </c>
       <c r="K46" s="103">
+        <f t="shared" si="4"/>
+        <v>277</v>
+      </c>
+      <c r="L46" s="103">
         <f t="shared" si="3"/>
-        <v>277</v>
-      </c>
-      <c r="L46" s="103">
-        <f>SUM(J40:J46)</f>
         <v>165</v>
       </c>
       <c r="M46" s="101">
@@ -8414,6 +8550,9 @@
       <c r="E47">
         <v>2</v>
       </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
       <c r="I47" s="101">
         <v>44740</v>
       </c>
@@ -8421,11 +8560,11 @@
         <v>30</v>
       </c>
       <c r="K47" s="103">
+        <f t="shared" si="4"/>
+        <v>307</v>
+      </c>
+      <c r="L47" s="103">
         <f t="shared" si="3"/>
-        <v>307</v>
-      </c>
-      <c r="L47" s="103">
-        <f>SUM(J41:J47)</f>
         <v>180</v>
       </c>
       <c r="M47" s="101">
@@ -8462,6 +8601,9 @@
       <c r="E48">
         <v>2</v>
       </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
       <c r="I48" s="101">
         <v>44741</v>
       </c>
@@ -8469,11 +8611,11 @@
         <v>42</v>
       </c>
       <c r="K48" s="103">
+        <f t="shared" si="4"/>
+        <v>349</v>
+      </c>
+      <c r="L48" s="103">
         <f t="shared" si="3"/>
-        <v>349</v>
-      </c>
-      <c r="L48" s="103">
-        <f>SUM(J42:J48)</f>
         <v>203</v>
       </c>
       <c r="M48" s="101">
@@ -8510,6 +8652,9 @@
       <c r="E49">
         <v>3</v>
       </c>
+      <c r="F49">
+        <v>113</v>
+      </c>
       <c r="I49" s="101">
         <v>44742</v>
       </c>
@@ -8517,11 +8662,11 @@
         <v>57</v>
       </c>
       <c r="K49" s="103">
+        <f t="shared" si="4"/>
+        <v>406</v>
+      </c>
+      <c r="L49" s="103">
         <f t="shared" si="3"/>
-        <v>406</v>
-      </c>
-      <c r="L49" s="103">
-        <f>SUM(J43:J49)</f>
         <v>241</v>
       </c>
       <c r="M49" s="101">
@@ -8558,6 +8703,9 @@
       <c r="E50">
         <v>6</v>
       </c>
+      <c r="F50">
+        <v>208</v>
+      </c>
       <c r="I50" s="101">
         <v>44743</v>
       </c>
@@ -8565,11 +8713,11 @@
         <v>52</v>
       </c>
       <c r="K50" s="103">
+        <f t="shared" si="4"/>
+        <v>458</v>
+      </c>
+      <c r="L50" s="103">
         <f t="shared" si="3"/>
-        <v>458</v>
-      </c>
-      <c r="L50" s="103">
-        <f>SUM(J44:J50)</f>
         <v>258</v>
       </c>
       <c r="M50" s="101">
@@ -8606,6 +8754,9 @@
       <c r="E51">
         <v>2</v>
       </c>
+      <c r="F51">
+        <v>689</v>
+      </c>
       <c r="I51" s="101">
         <v>44744</v>
       </c>
@@ -8613,11 +8764,11 @@
         <v>16</v>
       </c>
       <c r="K51" s="103">
+        <f t="shared" si="4"/>
+        <v>474</v>
+      </c>
+      <c r="L51" s="103">
         <f t="shared" si="3"/>
-        <v>474</v>
-      </c>
-      <c r="L51" s="103">
-        <f>SUM(J45:J51)</f>
         <v>262</v>
       </c>
       <c r="M51" s="101">
@@ -8645,6 +8796,9 @@
       <c r="E52">
         <v>3</v>
       </c>
+      <c r="F52">
+        <v>4</v>
+      </c>
       <c r="I52" s="101">
         <v>44745</v>
       </c>
@@ -8652,11 +8806,11 @@
         <v>11</v>
       </c>
       <c r="K52" s="103">
+        <f t="shared" si="4"/>
+        <v>485</v>
+      </c>
+      <c r="L52" s="103">
         <f t="shared" si="3"/>
-        <v>485</v>
-      </c>
-      <c r="L52" s="103">
-        <f>SUM(J46:J52)</f>
         <v>261</v>
       </c>
       <c r="M52" s="101">
@@ -8693,6 +8847,9 @@
       <c r="E53">
         <v>32</v>
       </c>
+      <c r="F53">
+        <v>4</v>
+      </c>
       <c r="I53" s="101">
         <v>44746</v>
       </c>
@@ -8700,11 +8857,11 @@
         <v>7</v>
       </c>
       <c r="K53" s="103">
+        <f t="shared" si="4"/>
+        <v>492</v>
+      </c>
+      <c r="L53" s="103">
         <f t="shared" si="3"/>
-        <v>492</v>
-      </c>
-      <c r="L53" s="103">
-        <f>SUM(J47:J53)</f>
         <v>215</v>
       </c>
       <c r="M53" s="101">
@@ -8741,6 +8898,9 @@
       <c r="E54">
         <v>17</v>
       </c>
+      <c r="F54">
+        <v>4</v>
+      </c>
       <c r="I54" s="101">
         <v>44747</v>
       </c>
@@ -8748,11 +8908,11 @@
         <v>37</v>
       </c>
       <c r="K54" s="103">
+        <f t="shared" si="4"/>
+        <v>529</v>
+      </c>
+      <c r="L54" s="103">
         <f t="shared" si="3"/>
-        <v>529</v>
-      </c>
-      <c r="L54" s="103">
-        <f>SUM(J48:J54)</f>
         <v>222</v>
       </c>
       <c r="M54" s="101">
@@ -8789,6 +8949,9 @@
       <c r="E55">
         <v>1</v>
       </c>
+      <c r="F55">
+        <v>6</v>
+      </c>
       <c r="I55" s="101">
         <v>44748</v>
       </c>
@@ -8796,11 +8959,11 @@
         <v>45</v>
       </c>
       <c r="K55" s="103">
+        <f t="shared" si="4"/>
+        <v>574</v>
+      </c>
+      <c r="L55" s="103">
         <f t="shared" si="3"/>
-        <v>574</v>
-      </c>
-      <c r="L55" s="103">
-        <f>SUM(J49:J55)</f>
         <v>225</v>
       </c>
       <c r="M55" s="101">
@@ -8837,6 +9000,9 @@
       <c r="E56">
         <v>91</v>
       </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
       <c r="I56" s="101">
         <v>44749</v>
       </c>
@@ -8844,11 +9010,11 @@
         <v>52</v>
       </c>
       <c r="K56" s="103">
+        <f t="shared" si="4"/>
+        <v>626</v>
+      </c>
+      <c r="L56" s="103">
         <f t="shared" si="3"/>
-        <v>626</v>
-      </c>
-      <c r="L56" s="103">
-        <f>SUM(J50:J56)</f>
         <v>220</v>
       </c>
       <c r="M56" s="101">
@@ -8885,6 +9051,9 @@
       <c r="E57">
         <v>1</v>
       </c>
+      <c r="F57">
+        <v>5</v>
+      </c>
       <c r="I57" s="101">
         <v>44750</v>
       </c>
@@ -8892,11 +9061,11 @@
         <v>37</v>
       </c>
       <c r="K57" s="103">
+        <f t="shared" si="4"/>
+        <v>663</v>
+      </c>
+      <c r="L57" s="103">
         <f t="shared" si="3"/>
-        <v>663</v>
-      </c>
-      <c r="L57" s="103">
-        <f>SUM(J51:J57)</f>
         <v>205</v>
       </c>
       <c r="M57" s="101">
@@ -8924,6 +9093,9 @@
       <c r="E58">
         <v>1</v>
       </c>
+      <c r="F58">
+        <v>45</v>
+      </c>
       <c r="I58" s="101">
         <v>44751</v>
       </c>
@@ -8931,11 +9103,11 @@
         <v>37</v>
       </c>
       <c r="K58" s="103">
+        <f t="shared" si="4"/>
+        <v>700</v>
+      </c>
+      <c r="L58" s="103">
         <f t="shared" si="3"/>
-        <v>700</v>
-      </c>
-      <c r="L58" s="103">
-        <f>SUM(J52:J58)</f>
         <v>226</v>
       </c>
       <c r="M58" s="101">
@@ -8972,6 +9144,9 @@
       <c r="E59">
         <v>959</v>
       </c>
+      <c r="F59">
+        <v>31</v>
+      </c>
       <c r="I59" s="101">
         <v>44752</v>
       </c>
@@ -8979,11 +9154,11 @@
         <v>7</v>
       </c>
       <c r="K59" s="103">
+        <f t="shared" si="4"/>
+        <v>707</v>
+      </c>
+      <c r="L59" s="103">
         <f t="shared" si="3"/>
-        <v>707</v>
-      </c>
-      <c r="L59" s="103">
-        <f>SUM(J53:J59)</f>
         <v>222</v>
       </c>
       <c r="M59" s="101">
@@ -9020,6 +9195,9 @@
       <c r="E60">
         <v>1</v>
       </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
       <c r="I60" s="101">
         <v>44753</v>
       </c>
@@ -9027,11 +9205,11 @@
         <v>100</v>
       </c>
       <c r="K60" s="103">
+        <f t="shared" si="4"/>
+        <v>807</v>
+      </c>
+      <c r="L60" s="103">
         <f t="shared" si="3"/>
-        <v>807</v>
-      </c>
-      <c r="L60" s="103">
-        <f>SUM(J54:J60)</f>
         <v>315</v>
       </c>
       <c r="M60" s="101">
@@ -9068,6 +9246,9 @@
       <c r="E61">
         <v>3</v>
       </c>
+      <c r="F61">
+        <v>252</v>
+      </c>
       <c r="I61" s="101">
         <v>44754</v>
       </c>
@@ -9075,11 +9256,11 @@
         <v>212</v>
       </c>
       <c r="K61" s="103">
+        <f t="shared" si="4"/>
+        <v>1019</v>
+      </c>
+      <c r="L61" s="103">
         <f t="shared" si="3"/>
-        <v>1019</v>
-      </c>
-      <c r="L61" s="103">
-        <f>SUM(J55:J61)</f>
         <v>490</v>
       </c>
       <c r="M61" s="101">
@@ -9116,6 +9297,9 @@
       <c r="E62">
         <v>133</v>
       </c>
+      <c r="F62">
+        <v>2</v>
+      </c>
       <c r="I62" s="101">
         <v>44755</v>
       </c>
@@ -9123,11 +9307,11 @@
         <v>140</v>
       </c>
       <c r="K62" s="103">
+        <f t="shared" si="4"/>
+        <v>1159</v>
+      </c>
+      <c r="L62" s="103">
         <f t="shared" si="3"/>
-        <v>1159</v>
-      </c>
-      <c r="L62" s="103">
-        <f>SUM(J56:J62)</f>
         <v>585</v>
       </c>
       <c r="M62" s="101">
@@ -9164,6 +9348,9 @@
       <c r="E63">
         <v>64</v>
       </c>
+      <c r="F63">
+        <v>3</v>
+      </c>
       <c r="I63" s="101">
         <v>44756</v>
       </c>
@@ -9171,11 +9358,11 @@
         <v>216</v>
       </c>
       <c r="K63" s="103">
+        <f t="shared" si="4"/>
+        <v>1375</v>
+      </c>
+      <c r="L63" s="103">
         <f t="shared" si="3"/>
-        <v>1375</v>
-      </c>
-      <c r="L63" s="103">
-        <f>SUM(J57:J63)</f>
         <v>749</v>
       </c>
       <c r="M63" s="101">
@@ -9212,6 +9399,9 @@
       <c r="E64">
         <v>1</v>
       </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
       <c r="I64" s="101">
         <v>44757</v>
       </c>
@@ -9219,11 +9409,11 @@
         <v>159</v>
       </c>
       <c r="K64" s="103">
+        <f t="shared" si="4"/>
+        <v>1534</v>
+      </c>
+      <c r="L64" s="103">
         <f t="shared" si="3"/>
-        <v>1534</v>
-      </c>
-      <c r="L64" s="103">
-        <f>SUM(J58:J64)</f>
         <v>871</v>
       </c>
       <c r="M64" s="101">
@@ -9260,6 +9450,9 @@
       <c r="E65">
         <v>340</v>
       </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
       <c r="I65" s="101">
         <v>44758</v>
       </c>
@@ -9267,11 +9460,11 @@
         <v>7</v>
       </c>
       <c r="K65" s="103">
+        <f t="shared" si="4"/>
+        <v>1541</v>
+      </c>
+      <c r="L65" s="103">
         <f t="shared" si="3"/>
-        <v>1541</v>
-      </c>
-      <c r="L65" s="103">
-        <f>SUM(J59:J65)</f>
         <v>841</v>
       </c>
       <c r="M65" s="101">
@@ -9302,6 +9495,9 @@
       <c r="E66">
         <v>1</v>
       </c>
+      <c r="F66">
+        <v>1087</v>
+      </c>
       <c r="I66" s="101">
         <v>44759</v>
       </c>
@@ -9309,11 +9505,11 @@
         <v>1</v>
       </c>
       <c r="K66" s="103">
+        <f t="shared" si="4"/>
+        <v>1542</v>
+      </c>
+      <c r="L66" s="103">
         <f t="shared" si="3"/>
-        <v>1542</v>
-      </c>
-      <c r="L66" s="103">
-        <f>SUM(J60:J66)</f>
         <v>835</v>
       </c>
       <c r="M66" s="101">
@@ -9350,6 +9546,9 @@
       <c r="E67">
         <v>76</v>
       </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
       <c r="I67" s="101">
         <v>44760</v>
       </c>
@@ -9357,11 +9556,11 @@
         <v>195</v>
       </c>
       <c r="K67" s="103">
+        <f t="shared" si="4"/>
+        <v>1737</v>
+      </c>
+      <c r="L67" s="103">
         <f t="shared" si="3"/>
-        <v>1737</v>
-      </c>
-      <c r="L67" s="103">
-        <f>SUM(J61:J67)</f>
         <v>930</v>
       </c>
       <c r="M67" s="101">
@@ -9398,6 +9597,9 @@
       <c r="E68">
         <v>710</v>
       </c>
+      <c r="F68">
+        <v>4</v>
+      </c>
       <c r="I68" s="101">
         <v>44761</v>
       </c>
@@ -9405,11 +9607,11 @@
         <v>301</v>
       </c>
       <c r="K68" s="103">
+        <f t="shared" si="4"/>
+        <v>2038</v>
+      </c>
+      <c r="L68" s="103">
         <f t="shared" si="3"/>
-        <v>2038</v>
-      </c>
-      <c r="L68" s="103">
-        <f>SUM(J62:J68)</f>
         <v>1019</v>
       </c>
       <c r="M68" s="101">
@@ -9446,6 +9648,9 @@
       <c r="E69">
         <v>2</v>
       </c>
+      <c r="F69">
+        <v>157</v>
+      </c>
       <c r="I69" s="101">
         <v>44762</v>
       </c>
@@ -9453,11 +9658,11 @@
         <v>256</v>
       </c>
       <c r="K69" s="103">
+        <f t="shared" si="4"/>
+        <v>2294</v>
+      </c>
+      <c r="L69" s="103">
         <f t="shared" si="3"/>
-        <v>2294</v>
-      </c>
-      <c r="L69" s="103">
-        <f>SUM(J63:J69)</f>
         <v>1135</v>
       </c>
       <c r="M69" s="101">
@@ -9494,6 +9699,9 @@
       <c r="E70">
         <v>2</v>
       </c>
+      <c r="F70">
+        <v>76</v>
+      </c>
       <c r="I70" s="101">
         <v>44763</v>
       </c>
@@ -9501,11 +9709,11 @@
         <v>184</v>
       </c>
       <c r="K70" s="103">
+        <f t="shared" si="4"/>
+        <v>2478</v>
+      </c>
+      <c r="L70" s="103">
         <f t="shared" si="3"/>
-        <v>2478</v>
-      </c>
-      <c r="L70" s="103">
-        <f>SUM(J64:J70)</f>
         <v>1103</v>
       </c>
       <c r="M70" s="101">
@@ -9542,6 +9750,9 @@
       <c r="E71">
         <v>22</v>
       </c>
+      <c r="F71">
+        <v>4</v>
+      </c>
       <c r="I71" s="101">
         <v>44764</v>
       </c>
@@ -9549,11 +9760,11 @@
         <v>308</v>
       </c>
       <c r="K71" s="103">
+        <f t="shared" si="4"/>
+        <v>2786</v>
+      </c>
+      <c r="L71" s="103">
         <f t="shared" si="3"/>
-        <v>2786</v>
-      </c>
-      <c r="L71" s="103">
-        <f>SUM(J65:J71)</f>
         <v>1252</v>
       </c>
       <c r="M71" s="101">
@@ -9563,7 +9774,7 @@
         <v>322</v>
       </c>
       <c r="O71">
-        <f t="shared" ref="O71:O83" si="4">+N71+O70</f>
+        <f t="shared" ref="O71:O83" si="5">+N71+O70</f>
         <v>2767</v>
       </c>
       <c r="Q71" s="101">
@@ -9590,6 +9801,9 @@
       <c r="E72">
         <v>1</v>
       </c>
+      <c r="F72">
+        <v>1068</v>
+      </c>
       <c r="I72" s="101">
         <v>44765</v>
       </c>
@@ -9597,11 +9811,11 @@
         <v>9</v>
       </c>
       <c r="K72" s="103">
+        <f t="shared" si="4"/>
+        <v>2795</v>
+      </c>
+      <c r="L72" s="103">
         <f t="shared" si="3"/>
-        <v>2795</v>
-      </c>
-      <c r="L72" s="103">
-        <f>SUM(J66:J72)</f>
         <v>1254</v>
       </c>
       <c r="M72" s="101">
@@ -9611,7 +9825,7 @@
         <v>13</v>
       </c>
       <c r="O72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2780</v>
       </c>
       <c r="Q72" s="101">
@@ -9638,6 +9852,9 @@
       <c r="E73">
         <v>1</v>
       </c>
+      <c r="F73">
+        <v>3</v>
+      </c>
       <c r="I73" s="101">
         <v>44766</v>
       </c>
@@ -9645,11 +9862,11 @@
         <v>2</v>
       </c>
       <c r="K73" s="103">
+        <f t="shared" si="4"/>
+        <v>2797</v>
+      </c>
+      <c r="L73" s="103">
         <f t="shared" si="3"/>
-        <v>2797</v>
-      </c>
-      <c r="L73" s="103">
-        <f>SUM(J67:J73)</f>
         <v>1255</v>
       </c>
       <c r="M73" s="101">
@@ -9659,7 +9876,7 @@
         <v>6</v>
       </c>
       <c r="O73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2786</v>
       </c>
       <c r="Q73" s="101">
@@ -9669,7 +9886,7 @@
         <v>110</v>
       </c>
       <c r="S73" s="103">
-        <f t="shared" ref="S73:S96" si="5">AVERAGE(R67:R73)</f>
+        <f t="shared" ref="S73:S96" si="6">AVERAGE(R67:R73)</f>
         <v>247</v>
       </c>
     </row>
@@ -9677,6 +9894,9 @@
       <c r="E74">
         <v>5</v>
       </c>
+      <c r="F74">
+        <v>114</v>
+      </c>
       <c r="I74" s="101">
         <v>44767</v>
       </c>
@@ -9684,11 +9904,11 @@
         <v>439</v>
       </c>
       <c r="K74" s="103">
+        <f t="shared" si="4"/>
+        <v>3236</v>
+      </c>
+      <c r="L74" s="103">
         <f t="shared" si="3"/>
-        <v>3236</v>
-      </c>
-      <c r="L74" s="103">
-        <f>SUM(J68:J74)</f>
         <v>1499</v>
       </c>
       <c r="M74" s="101">
@@ -9698,7 +9918,7 @@
         <v>812</v>
       </c>
       <c r="O74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3598</v>
       </c>
       <c r="Q74" s="101">
@@ -9708,7 +9928,7 @@
         <v>407</v>
       </c>
       <c r="S74" s="103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>251</v>
       </c>
     </row>
@@ -9725,6 +9945,9 @@
       <c r="E75">
         <v>10</v>
       </c>
+      <c r="F75">
+        <v>810</v>
+      </c>
       <c r="M75" s="101">
         <v>44768</v>
       </c>
@@ -9732,7 +9955,7 @@
         <v>586</v>
       </c>
       <c r="O75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4184</v>
       </c>
       <c r="Q75" s="101">
@@ -9742,7 +9965,7 @@
         <v>378</v>
       </c>
       <c r="S75" s="103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>270</v>
       </c>
     </row>
@@ -9759,6 +9982,9 @@
       <c r="E76">
         <v>15</v>
       </c>
+      <c r="F76">
+        <v>3</v>
+      </c>
       <c r="M76" s="101">
         <v>44769</v>
       </c>
@@ -9766,7 +9992,7 @@
         <v>476</v>
       </c>
       <c r="O76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4660</v>
       </c>
       <c r="Q76" s="101">
@@ -9776,7 +10002,7 @@
         <v>460</v>
       </c>
       <c r="S76" s="103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>295.57142857142856</v>
       </c>
     </row>
@@ -9793,6 +10019,9 @@
       <c r="E77">
         <v>8</v>
       </c>
+      <c r="F77">
+        <v>3</v>
+      </c>
       <c r="M77" s="101">
         <v>44770</v>
       </c>
@@ -9800,7 +10029,7 @@
         <v>184</v>
       </c>
       <c r="O77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4844</v>
       </c>
       <c r="Q77" s="101">
@@ -9810,7 +10039,7 @@
         <v>299</v>
       </c>
       <c r="S77" s="103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>303.28571428571428</v>
       </c>
     </row>
@@ -9827,6 +10056,9 @@
       <c r="E78">
         <v>37</v>
       </c>
+      <c r="F78">
+        <v>34</v>
+      </c>
       <c r="M78" s="101">
         <v>44771</v>
       </c>
@@ -9834,7 +10066,7 @@
         <v>435</v>
       </c>
       <c r="O78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5279</v>
       </c>
       <c r="Q78" s="101">
@@ -9844,7 +10076,7 @@
         <v>400</v>
       </c>
       <c r="S78" s="103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>314.85714285714283</v>
       </c>
     </row>
@@ -9861,6 +10093,9 @@
       <c r="E79">
         <v>3</v>
       </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
       <c r="M79" s="101">
         <v>44772</v>
       </c>
@@ -9868,7 +10103,7 @@
         <v>16</v>
       </c>
       <c r="O79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5295</v>
       </c>
       <c r="Q79" s="101">
@@ -9878,7 +10113,7 @@
         <v>160</v>
       </c>
       <c r="S79" s="103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>316.28571428571428</v>
       </c>
     </row>
@@ -9895,6 +10130,9 @@
       <c r="E80">
         <v>1</v>
       </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
       <c r="M80" s="101">
         <v>44773</v>
       </c>
@@ -9902,7 +10140,7 @@
         <v>14</v>
       </c>
       <c r="O80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5309</v>
       </c>
       <c r="Q80" s="101">
@@ -9912,7 +10150,7 @@
         <v>149</v>
       </c>
       <c r="S80" s="103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>321.85714285714283</v>
       </c>
     </row>
@@ -9929,6 +10167,9 @@
       <c r="E81">
         <v>4942</v>
       </c>
+      <c r="F81">
+        <v>6</v>
+      </c>
       <c r="M81" s="101">
         <v>44774</v>
       </c>
@@ -9936,7 +10177,7 @@
         <v>562</v>
       </c>
       <c r="O81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5871</v>
       </c>
       <c r="Q81" s="101">
@@ -9946,7 +10187,7 @@
         <v>473</v>
       </c>
       <c r="S81" s="103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>331.28571428571428</v>
       </c>
     </row>
@@ -9954,6 +10195,9 @@
       <c r="E82">
         <v>1</v>
       </c>
+      <c r="F82">
+        <v>31</v>
+      </c>
       <c r="H82" s="107">
         <f>+D90/C90-1</f>
         <v>0.18426416632694664</v>
@@ -9965,7 +10209,7 @@
         <v>516</v>
       </c>
       <c r="O82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6387</v>
       </c>
       <c r="Q82" s="101">
@@ -9975,7 +10219,7 @@
         <v>438</v>
       </c>
       <c r="S82" s="103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>339.85714285714283</v>
       </c>
     </row>
@@ -9992,6 +10236,9 @@
       <c r="E83">
         <v>111</v>
       </c>
+      <c r="F83">
+        <v>15</v>
+      </c>
       <c r="M83" s="101">
         <v>44776</v>
       </c>
@@ -9999,7 +10246,7 @@
         <v>229</v>
       </c>
       <c r="O83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>6616</v>
       </c>
       <c r="Q83" s="101">
@@ -10009,7 +10256,7 @@
         <v>426</v>
       </c>
       <c r="S83" s="103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>335</v>
       </c>
     </row>
@@ -10026,6 +10273,9 @@
       <c r="E84">
         <v>316</v>
       </c>
+      <c r="F84">
+        <v>12</v>
+      </c>
       <c r="Q84" s="101">
         <v>44777</v>
       </c>
@@ -10033,7 +10283,7 @@
         <v>436</v>
       </c>
       <c r="S84" s="103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>354.57142857142856</v>
       </c>
     </row>
@@ -10050,6 +10300,9 @@
       <c r="E85">
         <v>2</v>
       </c>
+      <c r="F85">
+        <v>43</v>
+      </c>
       <c r="Q85" s="101">
         <v>44778</v>
       </c>
@@ -10057,7 +10310,7 @@
         <v>424</v>
       </c>
       <c r="S85" s="103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>358</v>
       </c>
     </row>
@@ -10074,6 +10327,9 @@
       <c r="E86">
         <v>4</v>
       </c>
+      <c r="F86">
+        <v>4</v>
+      </c>
       <c r="Q86" s="101">
         <v>44779</v>
       </c>
@@ -10081,7 +10337,7 @@
         <v>138</v>
       </c>
       <c r="S86" s="103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>354.85714285714283</v>
       </c>
     </row>
@@ -10098,6 +10354,9 @@
       <c r="E87">
         <v>1</v>
       </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
       <c r="Q87" s="101">
         <v>44780</v>
       </c>
@@ -10105,7 +10364,7 @@
         <v>78</v>
       </c>
       <c r="S87" s="103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>344.71428571428572</v>
       </c>
     </row>
@@ -10122,6 +10381,9 @@
       <c r="E88">
         <v>16</v>
       </c>
+      <c r="F88">
+        <v>6119</v>
+      </c>
       <c r="Q88" s="101">
         <v>44781</v>
       </c>
@@ -10129,7 +10391,7 @@
         <v>754</v>
       </c>
       <c r="S88" s="103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>384.85714285714283</v>
       </c>
     </row>
@@ -10146,6 +10408,9 @@
       <c r="E89">
         <v>2859</v>
       </c>
+      <c r="F89">
+        <v>2</v>
+      </c>
       <c r="Q89" s="101">
         <v>44782</v>
       </c>
@@ -10153,7 +10418,7 @@
         <v>409</v>
       </c>
       <c r="S89" s="103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>380.71428571428572</v>
       </c>
     </row>
@@ -10170,6 +10435,9 @@
       <c r="E90">
         <v>7509</v>
       </c>
+      <c r="F90">
+        <v>141</v>
+      </c>
       <c r="Q90" s="101">
         <v>44783</v>
       </c>
@@ -10177,7 +10445,7 @@
         <v>366</v>
       </c>
       <c r="S90" s="103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>372.14285714285717</v>
       </c>
     </row>
@@ -10194,6 +10462,9 @@
       <c r="E91">
         <v>2</v>
       </c>
+      <c r="F91">
+        <v>416</v>
+      </c>
       <c r="Q91" s="101">
         <v>44784</v>
       </c>
@@ -10201,7 +10472,7 @@
         <v>314</v>
       </c>
       <c r="S91" s="103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>354.71428571428572</v>
       </c>
     </row>
@@ -10218,6 +10489,9 @@
       <c r="E92">
         <v>1</v>
       </c>
+      <c r="F92">
+        <v>3</v>
+      </c>
       <c r="Q92" s="101">
         <v>44785</v>
       </c>
@@ -10225,11 +10499,14 @@
         <v>280</v>
       </c>
       <c r="S92" s="103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>334.14285714285717</v>
       </c>
     </row>
     <row r="93" spans="2:19">
+      <c r="F93">
+        <v>5</v>
+      </c>
       <c r="Q93" s="101">
         <v>44786</v>
       </c>
@@ -10237,11 +10514,14 @@
         <v>39</v>
       </c>
       <c r="S93" s="103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>320</v>
       </c>
     </row>
     <row r="94" spans="2:19">
+      <c r="F94">
+        <v>1</v>
+      </c>
       <c r="Q94" s="101">
         <v>44787</v>
       </c>
@@ -10249,11 +10529,14 @@
         <v>10</v>
       </c>
       <c r="S94" s="103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>310.28571428571428</v>
       </c>
     </row>
     <row r="95" spans="2:19">
+      <c r="F95">
+        <v>16</v>
+      </c>
       <c r="Q95" s="101">
         <v>44788</v>
       </c>
@@ -10261,11 +10544,14 @@
         <v>670</v>
       </c>
       <c r="S95" s="103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>298.28571428571428</v>
       </c>
     </row>
     <row r="96" spans="2:19">
+      <c r="F96">
+        <v>3081</v>
+      </c>
       <c r="Q96" s="101">
         <v>44789</v>
       </c>
@@ -10273,11 +10559,14 @@
         <v>361</v>
       </c>
       <c r="S96" s="103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>291.42857142857144</v>
       </c>
     </row>
-    <row r="97" spans="17:19">
+    <row r="97" spans="6:19">
+      <c r="F97">
+        <v>15432</v>
+      </c>
       <c r="Q97" s="101">
         <v>44790</v>
       </c>
@@ -10287,6 +10576,16 @@
       <c r="S97" s="103">
         <f>AVERAGE(R91:R97)</f>
         <v>288.71428571428572</v>
+      </c>
+    </row>
+    <row r="98" spans="6:19">
+      <c r="F98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="6:19">
+      <c r="F99">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -21448,9 +21747,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21568,25 +21870,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFF1E9B8-B163-4EA4-B096-E0C9303C24CF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B8FCBE5-DC3A-4133-9A7B-7CABB6178323}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -21608,9 +21900,16 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B8FCBE5-DC3A-4133-9A7B-7CABB6178323}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFF1E9B8-B163-4EA4-B096-E0C9303C24CF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SIGA.xlsx
+++ b/SIGA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40EEFCC-0AE3-4491-81B0-08C829E1EAFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8041700-2F44-4906-B4BF-A38529312E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="52710" yWindow="1680" windowWidth="16515" windowHeight="13575" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" firstSheet="2" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -2674,10 +2674,10 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3521,7 +3521,896 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>More updated</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Monkeypox!$U$11:$U$104</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="94"/>
+                <c:pt idx="0">
+                  <c:v>44704</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44705</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44706</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44707</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44708</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44709</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44710</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44711</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44712</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44713</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44714</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44715</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44716</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44717</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44718</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44719</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44720</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44721</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44722</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44723</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44724</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44725</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44726</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44727</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44728</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44729</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44730</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44731</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44732</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44733</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44734</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44735</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44736</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44737</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44738</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44739</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44740</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44741</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44742</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44743</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>44744</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>44745</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>44746</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44747</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44748</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44749</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44750</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44751</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44752</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44753</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44754</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44755</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44756</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44757</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44758</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44759</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44760</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44761</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44762</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44763</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44764</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44765</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44766</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44767</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44768</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44769</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44770</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44771</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44772</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44773</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44774</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44775</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44776</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44777</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44778</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44779</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44780</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44781</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44782</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44783</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>44784</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>44785</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>44786</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>44787</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>44788</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44789</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>44790</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44791</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>44792</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>44793</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>44794</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>44795</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>44796</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>44797</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Monkeypox!$W$11:$W$104</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="94"/>
+                <c:pt idx="0">
+                  <c:v>1.4285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7142857142857142</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7142857142857142</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7142857142857142</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.7142857142857142</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2857142857142856</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.2857142857142856</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.8571428571428572</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.2857142857142856</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.4285714285714284</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.2857142857142856</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.1428571428571432</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.8571428571428568</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.8571428571428568</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.5714285714285712</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.5714285714285712</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.7142857142857135</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10.428571428571429</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12.857142857142858</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>13.428571428571429</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>14.571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>14.857142857142858</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>15.285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15.142857142857142</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>17.142857142857142</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>17.285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>22.428571428571427</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36.428571428571431</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>40.714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>47.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>55.428571428571431</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>58.714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>63.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>70.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>86.142857142857139</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>94.285714285714292</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>99.285714285714292</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>140.57142857142858</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>156.85714285714286</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>175.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>188.14285714285714</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>197.57142857142858</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>201.14285714285714</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>216.85714285714286</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>224.14285714285714</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>230.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>229.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>244.85714285714286</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>248.14285714285714</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>248.57142857142858</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>261.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>276.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>308.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>326.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>333.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>339.14285714285717</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>348.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>363.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>376.85714285714283</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>381.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>399.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>400.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>393.85714285714283</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>390.57142857142856</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>425.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>425.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>444.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>432.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>427.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>428.85714285714283</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>423.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>412.71428571428572</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>355.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>355.28571428571428</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>339.42857142857144</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>337.42857142857144</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9185-45D0-A123-516DE747F011}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1617053279"/>
+        <c:axId val="1616811199"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="1617053279"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1616811199"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1616811199"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1617053279"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4077,6 +4966,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -4110,6 +5515,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A807CD83-AC9A-8C0B-46E3-D3DBFAE724A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6403,10 +7844,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30E3C55D-9118-482B-8720-4989D85F03BD}">
-  <dimension ref="A1:S99"/>
+  <dimension ref="A1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="Z91" sqref="Z91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6414,12 +7855,12 @@
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:23">
       <c r="A1" s="102" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:23">
       <c r="C2" s="101">
         <v>44770</v>
       </c>
@@ -6429,7 +7870,7 @@
       <c r="E2" s="101">
         <v>44778</v>
       </c>
-      <c r="F2" s="110">
+      <c r="F2" s="109">
         <v>44795</v>
       </c>
       <c r="G2" s="101"/>
@@ -6456,11 +7897,19 @@
         <v>702</v>
       </c>
       <c r="P2" s="104"/>
+      <c r="R2">
+        <f>SUM(R3:R97)</f>
+        <v>13057</v>
+      </c>
       <c r="S2" s="104" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="V2">
+        <f>SUM(V5:V97)</f>
+        <v>14230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="C3" s="101"/>
       <c r="D3" s="101"/>
       <c r="E3" s="107">
@@ -6480,7 +7929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:23">
       <c r="B4" s="104" t="s">
         <v>704</v>
       </c>
@@ -6510,8 +7959,11 @@
       <c r="R4" s="105">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="V4" s="101">
+        <v>44797</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="B5" t="s">
         <v>699</v>
       </c>
@@ -6554,8 +8006,14 @@
       <c r="R5" s="105">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="U5" s="101">
+        <v>44698</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="B6" t="s">
         <v>698</v>
       </c>
@@ -6598,8 +8056,14 @@
       <c r="R6" s="105">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:19">
+      <c r="U6" s="101">
+        <v>44699</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="B7" t="s">
         <v>697</v>
       </c>
@@ -6642,8 +8106,14 @@
       <c r="R7" s="105">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:19">
+      <c r="U7" s="101">
+        <v>44700</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="B8" t="s">
         <v>696</v>
       </c>
@@ -6686,8 +8156,14 @@
       <c r="R8" s="105">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:19">
+      <c r="U8" s="101">
+        <v>44701</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="B9" t="s">
         <v>695</v>
       </c>
@@ -6734,8 +8210,15 @@
         <f>AVERAGE(R3:R9)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="U9" s="101">
+        <v>44702</v>
+      </c>
+      <c r="V9">
+        <v>2</v>
+      </c>
+      <c r="W9" s="103"/>
+    </row>
+    <row r="10" spans="1:23">
       <c r="B10" t="s">
         <v>694</v>
       </c>
@@ -6775,8 +8258,15 @@
         <f t="shared" ref="S10:S72" si="2">AVERAGE(R4:R10)</f>
         <v>1.1428571428571428</v>
       </c>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="U10" s="101">
+        <v>44703</v>
+      </c>
+      <c r="V10">
+        <v>2</v>
+      </c>
+      <c r="W10" s="103"/>
+    </row>
+    <row r="11" spans="1:23">
       <c r="B11" t="s">
         <v>693</v>
       </c>
@@ -6823,8 +8313,18 @@
         <f t="shared" si="2"/>
         <v>1.5714285714285714</v>
       </c>
-    </row>
-    <row r="12" spans="1:19">
+      <c r="U11" s="101">
+        <v>44704</v>
+      </c>
+      <c r="V11">
+        <v>3</v>
+      </c>
+      <c r="W11" s="103">
+        <f>AVERAGE(V5:V11)</f>
+        <v>1.4285714285714286</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="B12" t="s">
         <v>692</v>
       </c>
@@ -6871,8 +8371,18 @@
         <f t="shared" si="2"/>
         <v>1.5714285714285714</v>
       </c>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="U12" s="101">
+        <v>44705</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12" s="103">
+        <f t="shared" ref="W10:W73" si="3">AVERAGE(V6:V12)</f>
+        <v>1.4285714285714286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="B13" t="s">
         <v>691</v>
       </c>
@@ -6919,8 +8429,18 @@
         <f t="shared" si="2"/>
         <v>1.8571428571428572</v>
       </c>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="U13" s="101">
+        <v>44706</v>
+      </c>
+      <c r="V13">
+        <v>2</v>
+      </c>
+      <c r="W13" s="103">
+        <f t="shared" si="3"/>
+        <v>1.7142857142857142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="B14" t="s">
         <v>690</v>
       </c>
@@ -6970,8 +8490,18 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="U14" s="101">
+        <v>44707</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14" s="103">
+        <f t="shared" si="3"/>
+        <v>1.7142857142857142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="E15">
         <v>1</v>
       </c>
@@ -7012,8 +8542,18 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:19">
+      <c r="U15" s="101">
+        <v>44708</v>
+      </c>
+      <c r="V15">
+        <v>3</v>
+      </c>
+      <c r="W15" s="103">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="B16" t="s">
         <v>689</v>
       </c>
@@ -7053,8 +8593,18 @@
         <f t="shared" si="2"/>
         <v>1.7142857142857142</v>
       </c>
-    </row>
-    <row r="17" spans="2:19">
+      <c r="U16" s="101">
+        <v>44709</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16" s="103">
+        <f t="shared" si="3"/>
+        <v>1.7142857142857142</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23">
       <c r="B17" t="s">
         <v>688</v>
       </c>
@@ -7104,8 +8654,18 @@
         <f t="shared" si="2"/>
         <v>1.7142857142857142</v>
       </c>
-    </row>
-    <row r="18" spans="2:19">
+      <c r="U17" s="101">
+        <v>44710</v>
+      </c>
+      <c r="V17">
+        <v>2</v>
+      </c>
+      <c r="W17" s="103">
+        <f t="shared" si="3"/>
+        <v>1.7142857142857142</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23">
       <c r="B18" t="s">
         <v>687</v>
       </c>
@@ -7145,8 +8705,18 @@
         <f t="shared" si="2"/>
         <v>1.4285714285714286</v>
       </c>
-    </row>
-    <row r="19" spans="2:19">
+      <c r="U18" s="101">
+        <v>44711</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18" s="103">
+        <f t="shared" si="3"/>
+        <v>1.4285714285714286</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23">
       <c r="B19" t="s">
         <v>686</v>
       </c>
@@ -7196,8 +8766,18 @@
         <f t="shared" si="2"/>
         <v>2.1428571428571428</v>
       </c>
-    </row>
-    <row r="20" spans="2:19">
+      <c r="U19" s="101">
+        <v>44712</v>
+      </c>
+      <c r="V19">
+        <v>7</v>
+      </c>
+      <c r="W19" s="103">
+        <f t="shared" si="3"/>
+        <v>2.2857142857142856</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23">
       <c r="B20" t="s">
         <v>685</v>
       </c>
@@ -7247,8 +8827,18 @@
         <f t="shared" si="2"/>
         <v>2.1428571428571428</v>
       </c>
-    </row>
-    <row r="21" spans="2:19">
+      <c r="U20" s="101">
+        <v>44713</v>
+      </c>
+      <c r="V20">
+        <v>2</v>
+      </c>
+      <c r="W20" s="103">
+        <f t="shared" si="3"/>
+        <v>2.2857142857142856</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23">
       <c r="B21" t="s">
         <v>684</v>
       </c>
@@ -7298,8 +8888,18 @@
         <f t="shared" si="2"/>
         <v>2.5714285714285716</v>
       </c>
-    </row>
-    <row r="22" spans="2:19">
+      <c r="U21" s="101">
+        <v>44714</v>
+      </c>
+      <c r="V21">
+        <v>5</v>
+      </c>
+      <c r="W21" s="103">
+        <f t="shared" si="3"/>
+        <v>2.8571428571428572</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23">
       <c r="B22" t="s">
         <v>683</v>
       </c>
@@ -7349,8 +8949,18 @@
         <f t="shared" si="2"/>
         <v>3.1428571428571428</v>
       </c>
-    </row>
-    <row r="23" spans="2:19">
+      <c r="U22" s="101">
+        <v>44715</v>
+      </c>
+      <c r="V22">
+        <v>6</v>
+      </c>
+      <c r="W22" s="103">
+        <f t="shared" si="3"/>
+        <v>3.2857142857142856</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23">
       <c r="B23" t="s">
         <v>682</v>
       </c>
@@ -7400,8 +9010,18 @@
         <f t="shared" si="2"/>
         <v>3.2857142857142856</v>
       </c>
-    </row>
-    <row r="24" spans="2:19">
+      <c r="U23" s="101">
+        <v>44716</v>
+      </c>
+      <c r="V23">
+        <v>1</v>
+      </c>
+      <c r="W23" s="103">
+        <f t="shared" si="3"/>
+        <v>3.4285714285714284</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23">
       <c r="B24" t="s">
         <v>681</v>
       </c>
@@ -7441,8 +9061,18 @@
         <f t="shared" si="2"/>
         <v>3.1428571428571428</v>
       </c>
-    </row>
-    <row r="25" spans="2:19">
+      <c r="U24" s="101">
+        <v>44717</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="W24" s="103">
+        <f t="shared" si="3"/>
+        <v>3.2857142857142856</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23">
       <c r="E25">
         <v>1</v>
       </c>
@@ -7483,8 +9113,18 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="2:19">
+      <c r="U25" s="101">
+        <v>44718</v>
+      </c>
+      <c r="V25">
+        <v>7</v>
+      </c>
+      <c r="W25" s="103">
+        <f t="shared" si="3"/>
+        <v>4.1428571428571432</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23">
       <c r="B26" t="s">
         <v>680</v>
       </c>
@@ -7534,8 +9174,18 @@
         <f t="shared" si="2"/>
         <v>4.4285714285714288</v>
       </c>
-    </row>
-    <row r="27" spans="2:19">
+      <c r="U26" s="101">
+        <v>44719</v>
+      </c>
+      <c r="V26">
+        <v>6</v>
+      </c>
+      <c r="W26" s="103">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23">
       <c r="B27" t="s">
         <v>679</v>
       </c>
@@ -7585,8 +9235,18 @@
         <f t="shared" si="2"/>
         <v>6.1428571428571432</v>
       </c>
-    </row>
-    <row r="28" spans="2:19">
+      <c r="U27" s="101">
+        <v>44720</v>
+      </c>
+      <c r="V27">
+        <v>8</v>
+      </c>
+      <c r="W27" s="103">
+        <f t="shared" si="3"/>
+        <v>4.8571428571428568</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23">
       <c r="B28" t="s">
         <v>678</v>
       </c>
@@ -7636,8 +9296,18 @@
         <f t="shared" si="2"/>
         <v>6.4285714285714288</v>
       </c>
-    </row>
-    <row r="29" spans="2:19">
+      <c r="U28" s="101">
+        <v>44721</v>
+      </c>
+      <c r="V28">
+        <v>6</v>
+      </c>
+      <c r="W28" s="103">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:23">
       <c r="B29" t="s">
         <v>677</v>
       </c>
@@ -7687,8 +9357,18 @@
         <f t="shared" si="2"/>
         <v>7.2857142857142856</v>
       </c>
-    </row>
-    <row r="30" spans="2:19">
+      <c r="U29" s="101">
+        <v>44722</v>
+      </c>
+      <c r="V29">
+        <v>12</v>
+      </c>
+      <c r="W29" s="103">
+        <f t="shared" si="3"/>
+        <v>5.8571428571428568</v>
+      </c>
+    </row>
+    <row r="30" spans="2:23">
       <c r="B30" t="s">
         <v>676</v>
       </c>
@@ -7738,8 +9418,18 @@
         <f t="shared" si="2"/>
         <v>7.8571428571428568</v>
       </c>
-    </row>
-    <row r="31" spans="2:19">
+      <c r="U30" s="101">
+        <v>44723</v>
+      </c>
+      <c r="V30">
+        <v>6</v>
+      </c>
+      <c r="W30" s="103">
+        <f t="shared" si="3"/>
+        <v>6.5714285714285712</v>
+      </c>
+    </row>
+    <row r="31" spans="2:23">
       <c r="B31" t="s">
         <v>675</v>
       </c>
@@ -7766,7 +9456,7 @@
         <v>52</v>
       </c>
       <c r="L31" s="103">
-        <f t="shared" ref="L31:L74" si="3">SUM(J25:J31)</f>
+        <f t="shared" ref="L31:L74" si="4">SUM(J25:J31)</f>
         <v>25</v>
       </c>
       <c r="M31" s="101">
@@ -7789,8 +9479,18 @@
         <f t="shared" si="2"/>
         <v>8.2857142857142865</v>
       </c>
-    </row>
-    <row r="32" spans="2:19">
+      <c r="U31" s="101">
+        <v>44724</v>
+      </c>
+      <c r="V31">
+        <v>4</v>
+      </c>
+      <c r="W31" s="103">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="2:23">
       <c r="B32" t="s">
         <v>674</v>
       </c>
@@ -7817,7 +9517,7 @@
         <v>54</v>
       </c>
       <c r="L32" s="103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="M32" s="101">
@@ -7840,8 +9540,18 @@
         <f t="shared" si="2"/>
         <v>8.4285714285714288</v>
       </c>
-    </row>
-    <row r="33" spans="2:19">
+      <c r="U32" s="101">
+        <v>44725</v>
+      </c>
+      <c r="V32">
+        <v>11</v>
+      </c>
+      <c r="W32" s="103">
+        <f t="shared" si="3"/>
+        <v>7.5714285714285712</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23">
       <c r="B33" t="s">
         <v>673</v>
       </c>
@@ -7868,7 +9578,7 @@
         <v>65</v>
       </c>
       <c r="L33" s="103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="M33" s="101">
@@ -7891,8 +9601,18 @@
         <f t="shared" si="2"/>
         <v>10.142857142857142</v>
       </c>
-    </row>
-    <row r="34" spans="2:19">
+      <c r="U33" s="101">
+        <v>44726</v>
+      </c>
+      <c r="V33">
+        <v>21</v>
+      </c>
+      <c r="W33" s="103">
+        <f t="shared" si="3"/>
+        <v>9.7142857142857135</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23">
       <c r="B34" t="s">
         <v>672</v>
       </c>
@@ -7919,7 +9639,7 @@
         <v>72</v>
       </c>
       <c r="L34" s="103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="M34" s="101">
@@ -7942,8 +9662,18 @@
         <f t="shared" si="2"/>
         <v>10.285714285714286</v>
       </c>
-    </row>
-    <row r="35" spans="2:19">
+      <c r="U34" s="101">
+        <v>44727</v>
+      </c>
+      <c r="V34">
+        <v>13</v>
+      </c>
+      <c r="W34" s="103">
+        <f t="shared" si="3"/>
+        <v>10.428571428571429</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23">
       <c r="B35" t="s">
         <v>671</v>
       </c>
@@ -7970,7 +9700,7 @@
         <v>85</v>
       </c>
       <c r="L35" s="103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43</v>
       </c>
       <c r="M35" s="101">
@@ -7993,8 +9723,18 @@
         <f t="shared" si="2"/>
         <v>11.714285714285714</v>
       </c>
-    </row>
-    <row r="36" spans="2:19">
+      <c r="U35" s="101">
+        <v>44728</v>
+      </c>
+      <c r="V35">
+        <v>23</v>
+      </c>
+      <c r="W35" s="103">
+        <f t="shared" si="3"/>
+        <v>12.857142857142858</v>
+      </c>
+    </row>
+    <row r="36" spans="2:23">
       <c r="B36" t="s">
         <v>670</v>
       </c>
@@ -8021,7 +9761,7 @@
         <v>89</v>
       </c>
       <c r="L36" s="103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43</v>
       </c>
       <c r="M36" s="101">
@@ -8044,8 +9784,18 @@
         <f t="shared" si="2"/>
         <v>11.857142857142858</v>
       </c>
-    </row>
-    <row r="37" spans="2:19">
+      <c r="U36" s="101">
+        <v>44729</v>
+      </c>
+      <c r="V36">
+        <v>16</v>
+      </c>
+      <c r="W36" s="103">
+        <f t="shared" si="3"/>
+        <v>13.428571428571429</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23">
       <c r="B37" t="s">
         <v>669</v>
       </c>
@@ -8072,7 +9822,7 @@
         <v>100</v>
       </c>
       <c r="L37" s="103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="M37" s="101">
@@ -8095,8 +9845,18 @@
         <f t="shared" si="2"/>
         <v>13.285714285714286</v>
       </c>
-    </row>
-    <row r="38" spans="2:19">
+      <c r="U37" s="101">
+        <v>44730</v>
+      </c>
+      <c r="V37">
+        <v>14</v>
+      </c>
+      <c r="W37" s="103">
+        <f t="shared" si="3"/>
+        <v>14.571428571428571</v>
+      </c>
+    </row>
+    <row r="38" spans="2:23">
       <c r="B38" t="s">
         <v>668</v>
       </c>
@@ -8123,7 +9883,7 @@
         <v>105</v>
       </c>
       <c r="L38" s="103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
       <c r="M38" s="101">
@@ -8146,8 +9906,18 @@
         <f t="shared" si="2"/>
         <v>13.428571428571429</v>
       </c>
-    </row>
-    <row r="39" spans="2:19">
+      <c r="U38" s="101">
+        <v>44731</v>
+      </c>
+      <c r="V38">
+        <v>6</v>
+      </c>
+      <c r="W38" s="103">
+        <f t="shared" si="3"/>
+        <v>14.857142857142858</v>
+      </c>
+    </row>
+    <row r="39" spans="2:23">
       <c r="E39">
         <v>1</v>
       </c>
@@ -8165,7 +9935,7 @@
         <v>112</v>
       </c>
       <c r="L39" s="103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="M39" s="101">
@@ -8188,8 +9958,18 @@
         <f t="shared" si="2"/>
         <v>14.428571428571429</v>
       </c>
-    </row>
-    <row r="40" spans="2:19">
+      <c r="U39" s="101">
+        <v>44732</v>
+      </c>
+      <c r="V39">
+        <v>14</v>
+      </c>
+      <c r="W39" s="103">
+        <f t="shared" si="3"/>
+        <v>15.285714285714286</v>
+      </c>
+    </row>
+    <row r="40" spans="2:23">
       <c r="E40">
         <v>1</v>
       </c>
@@ -8207,7 +9987,7 @@
         <v>127</v>
       </c>
       <c r="L40" s="103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
       <c r="M40" s="101">
@@ -8230,8 +10010,18 @@
         <f t="shared" si="2"/>
         <v>14.571428571428571</v>
       </c>
-    </row>
-    <row r="41" spans="2:19">
+      <c r="U40" s="101">
+        <v>44733</v>
+      </c>
+      <c r="V40">
+        <v>20</v>
+      </c>
+      <c r="W40" s="103">
+        <f t="shared" si="3"/>
+        <v>15.142857142857142</v>
+      </c>
+    </row>
+    <row r="41" spans="2:23">
       <c r="B41" t="s">
         <v>667</v>
       </c>
@@ -8258,7 +10048,7 @@
         <v>146</v>
       </c>
       <c r="L41" s="103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>74</v>
       </c>
       <c r="M41" s="101">
@@ -8281,8 +10071,18 @@
         <f t="shared" si="2"/>
         <v>16.285714285714285</v>
       </c>
-    </row>
-    <row r="42" spans="2:19">
+      <c r="U41" s="101">
+        <v>44734</v>
+      </c>
+      <c r="V41">
+        <v>27</v>
+      </c>
+      <c r="W41" s="103">
+        <f t="shared" si="3"/>
+        <v>17.142857142857142</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23">
       <c r="B42" t="s">
         <v>666</v>
       </c>
@@ -8309,7 +10109,7 @@
         <v>165</v>
       </c>
       <c r="L42" s="103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>80</v>
       </c>
       <c r="M42" s="101">
@@ -8332,8 +10132,18 @@
         <f t="shared" si="2"/>
         <v>17.428571428571427</v>
       </c>
-    </row>
-    <row r="43" spans="2:19">
+      <c r="U42" s="101">
+        <v>44735</v>
+      </c>
+      <c r="V42">
+        <v>24</v>
+      </c>
+      <c r="W42" s="103">
+        <f t="shared" si="3"/>
+        <v>17.285714285714285</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23">
       <c r="B43" t="s">
         <v>665</v>
       </c>
@@ -8360,7 +10170,7 @@
         <v>200</v>
       </c>
       <c r="L43" s="103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>111</v>
       </c>
       <c r="M43" s="101">
@@ -8383,8 +10193,18 @@
         <f t="shared" si="2"/>
         <v>22.571428571428573</v>
       </c>
-    </row>
-    <row r="44" spans="2:19">
+      <c r="U43" s="101">
+        <v>44736</v>
+      </c>
+      <c r="V43">
+        <v>35</v>
+      </c>
+      <c r="W43" s="103">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23">
       <c r="B44" t="s">
         <v>664</v>
       </c>
@@ -8411,7 +10231,7 @@
         <v>212</v>
       </c>
       <c r="L44" s="103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>112</v>
       </c>
       <c r="M44" s="101">
@@ -8434,8 +10254,18 @@
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="45" spans="2:19">
+      <c r="U44" s="101">
+        <v>44737</v>
+      </c>
+      <c r="V44">
+        <v>21</v>
+      </c>
+      <c r="W44" s="103">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23">
       <c r="B45" t="s">
         <v>663</v>
       </c>
@@ -8458,11 +10288,11 @@
         <v>12</v>
       </c>
       <c r="K45" s="103">
-        <f t="shared" ref="K45:K74" si="4">+J45+K44</f>
+        <f t="shared" ref="K45:K74" si="5">+J45+K44</f>
         <v>224</v>
       </c>
       <c r="L45" s="103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>119</v>
       </c>
       <c r="M45" s="101">
@@ -8485,8 +10315,18 @@
         <f t="shared" si="2"/>
         <v>26.571428571428573</v>
       </c>
-    </row>
-    <row r="46" spans="2:19">
+      <c r="U45" s="101">
+        <v>44738</v>
+      </c>
+      <c r="V45">
+        <v>16</v>
+      </c>
+      <c r="W45" s="103">
+        <f t="shared" si="3"/>
+        <v>22.428571428571427</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23">
       <c r="B46" t="s">
         <v>662</v>
       </c>
@@ -8509,11 +10349,11 @@
         <v>53</v>
       </c>
       <c r="K46" s="103">
+        <f t="shared" si="5"/>
+        <v>277</v>
+      </c>
+      <c r="L46" s="103">
         <f t="shared" si="4"/>
-        <v>277</v>
-      </c>
-      <c r="L46" s="103">
-        <f t="shared" si="3"/>
         <v>165</v>
       </c>
       <c r="M46" s="101">
@@ -8536,8 +10376,18 @@
         <f t="shared" si="2"/>
         <v>37.428571428571431</v>
       </c>
-    </row>
-    <row r="47" spans="2:19">
+      <c r="U46" s="101">
+        <v>44739</v>
+      </c>
+      <c r="V46">
+        <v>81</v>
+      </c>
+      <c r="W46" s="103">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23">
       <c r="B47" t="s">
         <v>661</v>
       </c>
@@ -8560,11 +10410,11 @@
         <v>30</v>
       </c>
       <c r="K47" s="103">
+        <f t="shared" si="5"/>
+        <v>307</v>
+      </c>
+      <c r="L47" s="103">
         <f t="shared" si="4"/>
-        <v>307</v>
-      </c>
-      <c r="L47" s="103">
-        <f t="shared" si="3"/>
         <v>180</v>
       </c>
       <c r="M47" s="101">
@@ -8587,8 +10437,18 @@
         <f t="shared" si="2"/>
         <v>42.714285714285715</v>
       </c>
-    </row>
-    <row r="48" spans="2:19">
+      <c r="U47" s="101">
+        <v>44740</v>
+      </c>
+      <c r="V47">
+        <v>51</v>
+      </c>
+      <c r="W47" s="103">
+        <f t="shared" si="3"/>
+        <v>36.428571428571431</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23">
       <c r="B48" t="s">
         <v>660</v>
       </c>
@@ -8611,11 +10471,11 @@
         <v>42</v>
       </c>
       <c r="K48" s="103">
+        <f t="shared" si="5"/>
+        <v>349</v>
+      </c>
+      <c r="L48" s="103">
         <f t="shared" si="4"/>
-        <v>349</v>
-      </c>
-      <c r="L48" s="103">
-        <f t="shared" si="3"/>
         <v>203</v>
       </c>
       <c r="M48" s="101">
@@ -8638,8 +10498,18 @@
         <f t="shared" si="2"/>
         <v>48.714285714285715</v>
       </c>
-    </row>
-    <row r="49" spans="2:19">
+      <c r="U48" s="101">
+        <v>44741</v>
+      </c>
+      <c r="V48">
+        <v>57</v>
+      </c>
+      <c r="W48" s="103">
+        <f t="shared" si="3"/>
+        <v>40.714285714285715</v>
+      </c>
+    </row>
+    <row r="49" spans="2:23">
       <c r="B49" t="s">
         <v>659</v>
       </c>
@@ -8662,11 +10532,11 @@
         <v>57</v>
       </c>
       <c r="K49" s="103">
+        <f t="shared" si="5"/>
+        <v>406</v>
+      </c>
+      <c r="L49" s="103">
         <f t="shared" si="4"/>
-        <v>406</v>
-      </c>
-      <c r="L49" s="103">
-        <f t="shared" si="3"/>
         <v>241</v>
       </c>
       <c r="M49" s="101">
@@ -8689,8 +10559,18 @@
         <f t="shared" si="2"/>
         <v>59.428571428571431</v>
       </c>
-    </row>
-    <row r="50" spans="2:19">
+      <c r="U49" s="101">
+        <v>44742</v>
+      </c>
+      <c r="V49">
+        <v>72</v>
+      </c>
+      <c r="W49" s="103">
+        <f t="shared" si="3"/>
+        <v>47.571428571428569</v>
+      </c>
+    </row>
+    <row r="50" spans="2:23">
       <c r="B50" t="s">
         <v>658</v>
       </c>
@@ -8713,11 +10593,11 @@
         <v>52</v>
       </c>
       <c r="K50" s="103">
+        <f t="shared" si="5"/>
+        <v>458</v>
+      </c>
+      <c r="L50" s="103">
         <f t="shared" si="4"/>
-        <v>458</v>
-      </c>
-      <c r="L50" s="103">
-        <f t="shared" si="3"/>
         <v>258</v>
       </c>
       <c r="M50" s="101">
@@ -8740,8 +10620,18 @@
         <f t="shared" si="2"/>
         <v>68.857142857142861</v>
       </c>
-    </row>
-    <row r="51" spans="2:19">
+      <c r="U50" s="101">
+        <v>44743</v>
+      </c>
+      <c r="V50">
+        <v>90</v>
+      </c>
+      <c r="W50" s="103">
+        <f t="shared" si="3"/>
+        <v>55.428571428571431</v>
+      </c>
+    </row>
+    <row r="51" spans="2:23">
       <c r="B51" t="s">
         <v>657</v>
       </c>
@@ -8764,11 +10654,11 @@
         <v>16</v>
       </c>
       <c r="K51" s="103">
+        <f t="shared" si="5"/>
+        <v>474</v>
+      </c>
+      <c r="L51" s="103">
         <f t="shared" si="4"/>
-        <v>474</v>
-      </c>
-      <c r="L51" s="103">
-        <f t="shared" si="3"/>
         <v>262</v>
       </c>
       <c r="M51" s="101">
@@ -8791,8 +10681,18 @@
         <f t="shared" si="2"/>
         <v>75.857142857142861</v>
       </c>
-    </row>
-    <row r="52" spans="2:19">
+      <c r="U51" s="101">
+        <v>44744</v>
+      </c>
+      <c r="V51">
+        <v>46</v>
+      </c>
+      <c r="W51" s="103">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="2:23">
       <c r="E52">
         <v>3</v>
       </c>
@@ -8806,11 +10706,11 @@
         <v>11</v>
       </c>
       <c r="K52" s="103">
+        <f t="shared" si="5"/>
+        <v>485</v>
+      </c>
+      <c r="L52" s="103">
         <f t="shared" si="4"/>
-        <v>485</v>
-      </c>
-      <c r="L52" s="103">
-        <f t="shared" si="3"/>
         <v>261</v>
       </c>
       <c r="M52" s="101">
@@ -8833,8 +10733,18 @@
         <f t="shared" si="2"/>
         <v>80.857142857142861</v>
       </c>
-    </row>
-    <row r="53" spans="2:19">
+      <c r="U52" s="101">
+        <v>44745</v>
+      </c>
+      <c r="V52">
+        <v>37</v>
+      </c>
+      <c r="W52" s="103">
+        <f t="shared" si="3"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="2:23">
       <c r="B53" t="s">
         <v>656</v>
       </c>
@@ -8857,11 +10767,11 @@
         <v>7</v>
       </c>
       <c r="K53" s="103">
+        <f t="shared" si="5"/>
+        <v>492</v>
+      </c>
+      <c r="L53" s="103">
         <f t="shared" si="4"/>
-        <v>492</v>
-      </c>
-      <c r="L53" s="103">
-        <f t="shared" si="3"/>
         <v>215</v>
       </c>
       <c r="M53" s="101">
@@ -8884,8 +10794,18 @@
         <f t="shared" si="2"/>
         <v>79.428571428571431</v>
       </c>
-    </row>
-    <row r="54" spans="2:19">
+      <c r="U53" s="101">
+        <v>44746</v>
+      </c>
+      <c r="V53">
+        <v>58</v>
+      </c>
+      <c r="W53" s="103">
+        <f t="shared" si="3"/>
+        <v>58.714285714285715</v>
+      </c>
+    </row>
+    <row r="54" spans="2:23">
       <c r="B54" t="s">
         <v>655</v>
       </c>
@@ -8908,11 +10828,11 @@
         <v>37</v>
       </c>
       <c r="K54" s="103">
+        <f t="shared" si="5"/>
+        <v>529</v>
+      </c>
+      <c r="L54" s="103">
         <f t="shared" si="4"/>
-        <v>529</v>
-      </c>
-      <c r="L54" s="103">
-        <f t="shared" si="3"/>
         <v>222</v>
       </c>
       <c r="M54" s="101">
@@ -8935,8 +10855,18 @@
         <f t="shared" si="2"/>
         <v>88.285714285714292</v>
       </c>
-    </row>
-    <row r="55" spans="2:19">
+      <c r="U54" s="101">
+        <v>44747</v>
+      </c>
+      <c r="V54">
+        <v>85</v>
+      </c>
+      <c r="W54" s="103">
+        <f t="shared" si="3"/>
+        <v>63.571428571428569</v>
+      </c>
+    </row>
+    <row r="55" spans="2:23">
       <c r="B55" t="s">
         <v>654</v>
       </c>
@@ -8959,11 +10889,11 @@
         <v>45</v>
       </c>
       <c r="K55" s="103">
+        <f t="shared" si="5"/>
+        <v>574</v>
+      </c>
+      <c r="L55" s="103">
         <f t="shared" si="4"/>
-        <v>574</v>
-      </c>
-      <c r="L55" s="103">
-        <f t="shared" si="3"/>
         <v>225</v>
       </c>
       <c r="M55" s="101">
@@ -8986,8 +10916,18 @@
         <f t="shared" si="2"/>
         <v>97.285714285714292</v>
       </c>
-    </row>
-    <row r="56" spans="2:19">
+      <c r="U55" s="101">
+        <v>44748</v>
+      </c>
+      <c r="V55">
+        <v>106</v>
+      </c>
+      <c r="W55" s="103">
+        <f t="shared" si="3"/>
+        <v>70.571428571428569</v>
+      </c>
+    </row>
+    <row r="56" spans="2:23">
       <c r="B56" t="s">
         <v>653</v>
       </c>
@@ -9010,11 +10950,11 @@
         <v>52</v>
       </c>
       <c r="K56" s="103">
+        <f t="shared" si="5"/>
+        <v>626</v>
+      </c>
+      <c r="L56" s="103">
         <f t="shared" si="4"/>
-        <v>626</v>
-      </c>
-      <c r="L56" s="103">
-        <f t="shared" si="3"/>
         <v>220</v>
       </c>
       <c r="M56" s="101">
@@ -9037,8 +10977,18 @@
         <f t="shared" si="2"/>
         <v>101.57142857142857</v>
       </c>
-    </row>
-    <row r="57" spans="2:19">
+      <c r="U56" s="101">
+        <v>44749</v>
+      </c>
+      <c r="V56">
+        <v>110</v>
+      </c>
+      <c r="W56" s="103">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="2:23">
       <c r="B57" t="s">
         <v>652</v>
       </c>
@@ -9061,11 +11011,11 @@
         <v>37</v>
       </c>
       <c r="K57" s="103">
+        <f t="shared" si="5"/>
+        <v>663</v>
+      </c>
+      <c r="L57" s="103">
         <f t="shared" si="4"/>
-        <v>663</v>
-      </c>
-      <c r="L57" s="103">
-        <f t="shared" si="3"/>
         <v>205</v>
       </c>
       <c r="M57" s="101">
@@ -9088,8 +11038,18 @@
         <f t="shared" si="2"/>
         <v>109.42857142857143</v>
       </c>
-    </row>
-    <row r="58" spans="2:19">
+      <c r="U57" s="101">
+        <v>44750</v>
+      </c>
+      <c r="V57">
+        <v>161</v>
+      </c>
+      <c r="W57" s="103">
+        <f t="shared" si="3"/>
+        <v>86.142857142857139</v>
+      </c>
+    </row>
+    <row r="58" spans="2:23">
       <c r="E58">
         <v>1</v>
       </c>
@@ -9103,11 +11063,11 @@
         <v>37</v>
       </c>
       <c r="K58" s="103">
+        <f t="shared" si="5"/>
+        <v>700</v>
+      </c>
+      <c r="L58" s="103">
         <f t="shared" si="4"/>
-        <v>700</v>
-      </c>
-      <c r="L58" s="103">
-        <f t="shared" si="3"/>
         <v>226</v>
       </c>
       <c r="M58" s="101">
@@ -9130,8 +11090,18 @@
         <f t="shared" si="2"/>
         <v>115.42857142857143</v>
       </c>
-    </row>
-    <row r="59" spans="2:19">
+      <c r="U58" s="101">
+        <v>44751</v>
+      </c>
+      <c r="V58">
+        <v>103</v>
+      </c>
+      <c r="W58" s="103">
+        <f t="shared" si="3"/>
+        <v>94.285714285714292</v>
+      </c>
+    </row>
+    <row r="59" spans="2:23">
       <c r="B59" t="s">
         <v>651</v>
       </c>
@@ -9154,11 +11124,11 @@
         <v>7</v>
       </c>
       <c r="K59" s="103">
+        <f t="shared" si="5"/>
+        <v>707</v>
+      </c>
+      <c r="L59" s="103">
         <f t="shared" si="4"/>
-        <v>707</v>
-      </c>
-      <c r="L59" s="103">
-        <f t="shared" si="3"/>
         <v>222</v>
       </c>
       <c r="M59" s="101">
@@ -9181,8 +11151,18 @@
         <f t="shared" si="2"/>
         <v>119.28571428571429</v>
       </c>
-    </row>
-    <row r="60" spans="2:19">
+      <c r="U59" s="101">
+        <v>44752</v>
+      </c>
+      <c r="V59">
+        <v>72</v>
+      </c>
+      <c r="W59" s="103">
+        <f t="shared" si="3"/>
+        <v>99.285714285714292</v>
+      </c>
+    </row>
+    <row r="60" spans="2:23">
       <c r="B60" t="s">
         <v>650</v>
       </c>
@@ -9205,11 +11185,11 @@
         <v>100</v>
       </c>
       <c r="K60" s="103">
+        <f t="shared" si="5"/>
+        <v>807</v>
+      </c>
+      <c r="L60" s="103">
         <f t="shared" si="4"/>
-        <v>807</v>
-      </c>
-      <c r="L60" s="103">
-        <f t="shared" si="3"/>
         <v>315</v>
       </c>
       <c r="M60" s="101">
@@ -9232,8 +11212,18 @@
         <f t="shared" si="2"/>
         <v>141</v>
       </c>
-    </row>
-    <row r="61" spans="2:19">
+      <c r="U60" s="101">
+        <v>44753</v>
+      </c>
+      <c r="V60">
+        <v>217</v>
+      </c>
+      <c r="W60" s="103">
+        <f t="shared" si="3"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="2:23">
       <c r="B61" t="s">
         <v>649</v>
       </c>
@@ -9256,11 +11246,11 @@
         <v>212</v>
       </c>
       <c r="K61" s="103">
+        <f t="shared" si="5"/>
+        <v>1019</v>
+      </c>
+      <c r="L61" s="103">
         <f t="shared" si="4"/>
-        <v>1019</v>
-      </c>
-      <c r="L61" s="103">
-        <f t="shared" si="3"/>
         <v>490</v>
       </c>
       <c r="M61" s="101">
@@ -9283,8 +11273,18 @@
         <f t="shared" si="2"/>
         <v>147.85714285714286</v>
       </c>
-    </row>
-    <row r="62" spans="2:19">
+      <c r="U61" s="101">
+        <v>44754</v>
+      </c>
+      <c r="V61">
+        <v>215</v>
+      </c>
+      <c r="W61" s="103">
+        <f t="shared" si="3"/>
+        <v>140.57142857142858</v>
+      </c>
+    </row>
+    <row r="62" spans="2:23">
       <c r="B62" t="s">
         <v>648</v>
       </c>
@@ -9307,11 +11307,11 @@
         <v>140</v>
       </c>
       <c r="K62" s="103">
+        <f t="shared" si="5"/>
+        <v>1159</v>
+      </c>
+      <c r="L62" s="103">
         <f t="shared" si="4"/>
-        <v>1159</v>
-      </c>
-      <c r="L62" s="103">
-        <f t="shared" si="3"/>
         <v>585</v>
       </c>
       <c r="M62" s="101">
@@ -9334,8 +11334,18 @@
         <f t="shared" si="2"/>
         <v>159.28571428571428</v>
       </c>
-    </row>
-    <row r="63" spans="2:19">
+      <c r="U62" s="101">
+        <v>44755</v>
+      </c>
+      <c r="V62">
+        <v>220</v>
+      </c>
+      <c r="W62" s="103">
+        <f t="shared" si="3"/>
+        <v>156.85714285714286</v>
+      </c>
+    </row>
+    <row r="63" spans="2:23">
       <c r="B63" t="s">
         <v>647</v>
       </c>
@@ -9358,11 +11368,11 @@
         <v>216</v>
       </c>
       <c r="K63" s="103">
+        <f t="shared" si="5"/>
+        <v>1375</v>
+      </c>
+      <c r="L63" s="103">
         <f t="shared" si="4"/>
-        <v>1375</v>
-      </c>
-      <c r="L63" s="103">
-        <f t="shared" si="3"/>
         <v>749</v>
       </c>
       <c r="M63" s="101">
@@ -9385,8 +11395,18 @@
         <f t="shared" si="2"/>
         <v>173.71428571428572</v>
       </c>
-    </row>
-    <row r="64" spans="2:19">
+      <c r="U63" s="101">
+        <v>44756</v>
+      </c>
+      <c r="V63">
+        <v>242</v>
+      </c>
+      <c r="W63" s="103">
+        <f t="shared" si="3"/>
+        <v>175.71428571428572</v>
+      </c>
+    </row>
+    <row r="64" spans="2:23">
       <c r="B64" t="s">
         <v>646</v>
       </c>
@@ -9409,11 +11429,11 @@
         <v>159</v>
       </c>
       <c r="K64" s="103">
+        <f t="shared" si="5"/>
+        <v>1534</v>
+      </c>
+      <c r="L64" s="103">
         <f t="shared" si="4"/>
-        <v>1534</v>
-      </c>
-      <c r="L64" s="103">
-        <f t="shared" si="3"/>
         <v>871</v>
       </c>
       <c r="M64" s="101">
@@ -9436,8 +11456,18 @@
         <f t="shared" si="2"/>
         <v>183.57142857142858</v>
       </c>
-    </row>
-    <row r="65" spans="2:19">
+      <c r="U64" s="101">
+        <v>44757</v>
+      </c>
+      <c r="V64">
+        <v>248</v>
+      </c>
+      <c r="W64" s="103">
+        <f t="shared" si="3"/>
+        <v>188.14285714285714</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23">
       <c r="B65" t="s">
         <v>645</v>
       </c>
@@ -9460,11 +11490,11 @@
         <v>7</v>
       </c>
       <c r="K65" s="103">
+        <f t="shared" si="5"/>
+        <v>1541</v>
+      </c>
+      <c r="L65" s="103">
         <f t="shared" si="4"/>
-        <v>1541</v>
-      </c>
-      <c r="L65" s="103">
-        <f t="shared" si="3"/>
         <v>841</v>
       </c>
       <c r="M65" s="101">
@@ -9487,8 +11517,18 @@
         <f t="shared" si="2"/>
         <v>186</v>
       </c>
-    </row>
-    <row r="66" spans="2:19">
+      <c r="U65" s="101">
+        <v>44758</v>
+      </c>
+      <c r="V65">
+        <v>169</v>
+      </c>
+      <c r="W65" s="103">
+        <f t="shared" si="3"/>
+        <v>197.57142857142858</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23">
       <c r="D66">
         <v>1</v>
       </c>
@@ -9505,11 +11545,11 @@
         <v>1</v>
       </c>
       <c r="K66" s="103">
+        <f t="shared" si="5"/>
+        <v>1542</v>
+      </c>
+      <c r="L66" s="103">
         <f t="shared" si="4"/>
-        <v>1542</v>
-      </c>
-      <c r="L66" s="103">
-        <f t="shared" si="3"/>
         <v>835</v>
       </c>
       <c r="M66" s="101">
@@ -9532,8 +11572,18 @@
         <f t="shared" si="2"/>
         <v>190</v>
       </c>
-    </row>
-    <row r="67" spans="2:19">
+      <c r="U66" s="101">
+        <v>44759</v>
+      </c>
+      <c r="V66">
+        <v>97</v>
+      </c>
+      <c r="W66" s="103">
+        <f t="shared" si="3"/>
+        <v>201.14285714285714</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23">
       <c r="B67" t="s">
         <v>644</v>
       </c>
@@ -9556,11 +11606,11 @@
         <v>195</v>
       </c>
       <c r="K67" s="103">
+        <f t="shared" si="5"/>
+        <v>1737</v>
+      </c>
+      <c r="L67" s="103">
         <f t="shared" si="4"/>
-        <v>1737</v>
-      </c>
-      <c r="L67" s="103">
-        <f t="shared" si="3"/>
         <v>930</v>
       </c>
       <c r="M67" s="101">
@@ -9583,8 +11633,18 @@
         <f t="shared" si="2"/>
         <v>210.85714285714286</v>
       </c>
-    </row>
-    <row r="68" spans="2:19">
+      <c r="U67" s="101">
+        <v>44760</v>
+      </c>
+      <c r="V67">
+        <v>327</v>
+      </c>
+      <c r="W67" s="103">
+        <f t="shared" si="3"/>
+        <v>216.85714285714286</v>
+      </c>
+    </row>
+    <row r="68" spans="2:23">
       <c r="B68" t="s">
         <v>643</v>
       </c>
@@ -9607,11 +11667,11 @@
         <v>301</v>
       </c>
       <c r="K68" s="103">
+        <f t="shared" si="5"/>
+        <v>2038</v>
+      </c>
+      <c r="L68" s="103">
         <f t="shared" si="4"/>
-        <v>2038</v>
-      </c>
-      <c r="L68" s="103">
-        <f t="shared" si="3"/>
         <v>1019</v>
       </c>
       <c r="M68" s="101">
@@ -9634,8 +11694,18 @@
         <f t="shared" si="2"/>
         <v>221.71428571428572</v>
       </c>
-    </row>
-    <row r="69" spans="2:19">
+      <c r="U68" s="101">
+        <v>44761</v>
+      </c>
+      <c r="V68">
+        <v>266</v>
+      </c>
+      <c r="W68" s="103">
+        <f t="shared" si="3"/>
+        <v>224.14285714285714</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23">
       <c r="B69" t="s">
         <v>642</v>
       </c>
@@ -9658,11 +11728,11 @@
         <v>256</v>
       </c>
       <c r="K69" s="103">
+        <f t="shared" si="5"/>
+        <v>2294</v>
+      </c>
+      <c r="L69" s="103">
         <f t="shared" si="4"/>
-        <v>2294</v>
-      </c>
-      <c r="L69" s="103">
-        <f t="shared" si="3"/>
         <v>1135</v>
       </c>
       <c r="M69" s="101">
@@ -9685,8 +11755,18 @@
         <f t="shared" si="2"/>
         <v>231.57142857142858</v>
       </c>
-    </row>
-    <row r="70" spans="2:19">
+      <c r="U69" s="101">
+        <v>44762</v>
+      </c>
+      <c r="V69">
+        <v>266</v>
+      </c>
+      <c r="W69" s="103">
+        <f t="shared" si="3"/>
+        <v>230.71428571428572</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23">
       <c r="B70" t="s">
         <v>641</v>
       </c>
@@ -9709,11 +11789,11 @@
         <v>184</v>
       </c>
       <c r="K70" s="103">
+        <f t="shared" si="5"/>
+        <v>2478</v>
+      </c>
+      <c r="L70" s="103">
         <f t="shared" si="4"/>
-        <v>2478</v>
-      </c>
-      <c r="L70" s="103">
-        <f t="shared" si="3"/>
         <v>1103</v>
       </c>
       <c r="M70" s="101">
@@ -9736,8 +11816,18 @@
         <f t="shared" si="2"/>
         <v>233.57142857142858</v>
       </c>
-    </row>
-    <row r="71" spans="2:19">
+      <c r="U70" s="101">
+        <v>44763</v>
+      </c>
+      <c r="V70">
+        <v>235</v>
+      </c>
+      <c r="W70" s="103">
+        <f t="shared" si="3"/>
+        <v>229.71428571428572</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23">
       <c r="B71" t="s">
         <v>640</v>
       </c>
@@ -9760,11 +11850,11 @@
         <v>308</v>
       </c>
       <c r="K71" s="103">
+        <f t="shared" si="5"/>
+        <v>2786</v>
+      </c>
+      <c r="L71" s="103">
         <f t="shared" si="4"/>
-        <v>2786</v>
-      </c>
-      <c r="L71" s="103">
-        <f t="shared" si="3"/>
         <v>1252</v>
       </c>
       <c r="M71" s="101">
@@ -9774,7 +11864,7 @@
         <v>322</v>
       </c>
       <c r="O71">
-        <f t="shared" ref="O71:O83" si="5">+N71+O70</f>
+        <f t="shared" ref="O71:O83" si="6">+N71+O70</f>
         <v>2767</v>
       </c>
       <c r="Q71" s="101">
@@ -9787,8 +11877,18 @@
         <f t="shared" si="2"/>
         <v>245</v>
       </c>
-    </row>
-    <row r="72" spans="2:19">
+      <c r="U71" s="101">
+        <v>44764</v>
+      </c>
+      <c r="V71">
+        <v>354</v>
+      </c>
+      <c r="W71" s="103">
+        <f t="shared" si="3"/>
+        <v>244.85714285714286</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23">
       <c r="B72" t="s">
         <v>639</v>
       </c>
@@ -9811,11 +11911,11 @@
         <v>9</v>
       </c>
       <c r="K72" s="103">
+        <f t="shared" si="5"/>
+        <v>2795</v>
+      </c>
+      <c r="L72" s="103">
         <f t="shared" si="4"/>
-        <v>2795</v>
-      </c>
-      <c r="L72" s="103">
-        <f t="shared" si="3"/>
         <v>1254</v>
       </c>
       <c r="M72" s="101">
@@ -9825,7 +11925,7 @@
         <v>13</v>
       </c>
       <c r="O72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2780</v>
       </c>
       <c r="Q72" s="101">
@@ -9838,8 +11938,18 @@
         <f t="shared" si="2"/>
         <v>247.42857142857142</v>
       </c>
-    </row>
-    <row r="73" spans="2:19">
+      <c r="U72" s="101">
+        <v>44765</v>
+      </c>
+      <c r="V72">
+        <v>192</v>
+      </c>
+      <c r="W72" s="103">
+        <f t="shared" si="3"/>
+        <v>248.14285714285714</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23">
       <c r="B73" t="s">
         <v>638</v>
       </c>
@@ -9862,11 +11972,11 @@
         <v>2</v>
       </c>
       <c r="K73" s="103">
+        <f t="shared" si="5"/>
+        <v>2797</v>
+      </c>
+      <c r="L73" s="103">
         <f t="shared" si="4"/>
-        <v>2797</v>
-      </c>
-      <c r="L73" s="103">
-        <f t="shared" si="3"/>
         <v>1255</v>
       </c>
       <c r="M73" s="101">
@@ -9876,7 +11986,7 @@
         <v>6</v>
       </c>
       <c r="O73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2786</v>
       </c>
       <c r="Q73" s="101">
@@ -9886,11 +11996,21 @@
         <v>110</v>
       </c>
       <c r="S73" s="103">
-        <f t="shared" ref="S73:S96" si="6">AVERAGE(R67:R73)</f>
+        <f t="shared" ref="S73:S96" si="7">AVERAGE(R67:R73)</f>
         <v>247</v>
       </c>
-    </row>
-    <row r="74" spans="2:19">
+      <c r="U73" s="101">
+        <v>44766</v>
+      </c>
+      <c r="V73">
+        <v>100</v>
+      </c>
+      <c r="W73" s="103">
+        <f t="shared" si="3"/>
+        <v>248.57142857142858</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23">
       <c r="E74">
         <v>5</v>
       </c>
@@ -9904,11 +12024,11 @@
         <v>439</v>
       </c>
       <c r="K74" s="103">
+        <f t="shared" si="5"/>
+        <v>3236</v>
+      </c>
+      <c r="L74" s="103">
         <f t="shared" si="4"/>
-        <v>3236</v>
-      </c>
-      <c r="L74" s="103">
-        <f t="shared" si="3"/>
         <v>1499</v>
       </c>
       <c r="M74" s="101">
@@ -9918,7 +12038,7 @@
         <v>812</v>
       </c>
       <c r="O74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3598</v>
       </c>
       <c r="Q74" s="101">
@@ -9928,11 +12048,21 @@
         <v>407</v>
       </c>
       <c r="S74" s="103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>251</v>
       </c>
-    </row>
-    <row r="75" spans="2:19">
+      <c r="U74" s="101">
+        <v>44767</v>
+      </c>
+      <c r="V74">
+        <v>417</v>
+      </c>
+      <c r="W74" s="103">
+        <f t="shared" ref="W74:W97" si="8">AVERAGE(V68:V74)</f>
+        <v>261.42857142857144</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23">
       <c r="B75" t="s">
         <v>637</v>
       </c>
@@ -9955,7 +12085,7 @@
         <v>586</v>
       </c>
       <c r="O75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4184</v>
       </c>
       <c r="Q75" s="101">
@@ -9965,11 +12095,21 @@
         <v>378</v>
       </c>
       <c r="S75" s="103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>270</v>
       </c>
-    </row>
-    <row r="76" spans="2:19">
+      <c r="U75" s="101">
+        <v>44768</v>
+      </c>
+      <c r="V75">
+        <v>372</v>
+      </c>
+      <c r="W75" s="103">
+        <f t="shared" si="8"/>
+        <v>276.57142857142856</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23">
       <c r="B76" t="s">
         <v>636</v>
       </c>
@@ -9992,7 +12132,7 @@
         <v>476</v>
       </c>
       <c r="O76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4660</v>
       </c>
       <c r="Q76" s="101">
@@ -10002,11 +12142,21 @@
         <v>460</v>
       </c>
       <c r="S76" s="103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>295.57142857142856</v>
       </c>
-    </row>
-    <row r="77" spans="2:19">
+      <c r="U76" s="101">
+        <v>44769</v>
+      </c>
+      <c r="V76">
+        <v>488</v>
+      </c>
+      <c r="W76" s="103">
+        <f t="shared" si="8"/>
+        <v>308.28571428571428</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23">
       <c r="B77" t="s">
         <v>635</v>
       </c>
@@ -10029,7 +12179,7 @@
         <v>184</v>
       </c>
       <c r="O77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4844</v>
       </c>
       <c r="Q77" s="101">
@@ -10039,11 +12189,21 @@
         <v>299</v>
       </c>
       <c r="S77" s="103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>303.28571428571428</v>
       </c>
-    </row>
-    <row r="78" spans="2:19">
+      <c r="U77" s="101">
+        <v>44770</v>
+      </c>
+      <c r="V77">
+        <v>361</v>
+      </c>
+      <c r="W77" s="103">
+        <f t="shared" si="8"/>
+        <v>326.28571428571428</v>
+      </c>
+    </row>
+    <row r="78" spans="2:23">
       <c r="B78" t="s">
         <v>634</v>
       </c>
@@ -10066,7 +12226,7 @@
         <v>435</v>
       </c>
       <c r="O78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5279</v>
       </c>
       <c r="Q78" s="101">
@@ -10076,11 +12236,21 @@
         <v>400</v>
       </c>
       <c r="S78" s="103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>314.85714285714283</v>
       </c>
-    </row>
-    <row r="79" spans="2:19">
+      <c r="U78" s="101">
+        <v>44771</v>
+      </c>
+      <c r="V78">
+        <v>403</v>
+      </c>
+      <c r="W78" s="103">
+        <f t="shared" si="8"/>
+        <v>333.28571428571428</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23">
       <c r="B79" t="s">
         <v>633</v>
       </c>
@@ -10103,7 +12273,7 @@
         <v>16</v>
       </c>
       <c r="O79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5295</v>
       </c>
       <c r="Q79" s="101">
@@ -10113,11 +12283,21 @@
         <v>160</v>
       </c>
       <c r="S79" s="103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>316.28571428571428</v>
       </c>
-    </row>
-    <row r="80" spans="2:19">
+      <c r="U79" s="101">
+        <v>44772</v>
+      </c>
+      <c r="V79">
+        <v>233</v>
+      </c>
+      <c r="W79" s="103">
+        <f t="shared" si="8"/>
+        <v>339.14285714285717</v>
+      </c>
+    </row>
+    <row r="80" spans="2:23">
       <c r="B80" t="s">
         <v>632</v>
       </c>
@@ -10140,7 +12320,7 @@
         <v>14</v>
       </c>
       <c r="O80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5309</v>
       </c>
       <c r="Q80" s="101">
@@ -10150,11 +12330,21 @@
         <v>149</v>
       </c>
       <c r="S80" s="103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>321.85714285714283</v>
       </c>
-    </row>
-    <row r="81" spans="2:19">
+      <c r="U80" s="101">
+        <v>44773</v>
+      </c>
+      <c r="V80">
+        <v>165</v>
+      </c>
+      <c r="W80" s="103">
+        <f t="shared" si="8"/>
+        <v>348.42857142857144</v>
+      </c>
+    </row>
+    <row r="81" spans="2:23">
       <c r="B81" t="s">
         <v>631</v>
       </c>
@@ -10177,7 +12367,7 @@
         <v>562</v>
       </c>
       <c r="O81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5871</v>
       </c>
       <c r="Q81" s="101">
@@ -10187,11 +12377,21 @@
         <v>473</v>
       </c>
       <c r="S81" s="103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>331.28571428571428</v>
       </c>
-    </row>
-    <row r="82" spans="2:19">
+      <c r="U81" s="101">
+        <v>44774</v>
+      </c>
+      <c r="V81">
+        <v>523</v>
+      </c>
+      <c r="W81" s="103">
+        <f t="shared" si="8"/>
+        <v>363.57142857142856</v>
+      </c>
+    </row>
+    <row r="82" spans="2:23">
       <c r="E82">
         <v>1</v>
       </c>
@@ -10209,7 +12409,7 @@
         <v>516</v>
       </c>
       <c r="O82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6387</v>
       </c>
       <c r="Q82" s="101">
@@ -10219,11 +12419,21 @@
         <v>438</v>
       </c>
       <c r="S82" s="103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>339.85714285714283</v>
       </c>
-    </row>
-    <row r="83" spans="2:19">
+      <c r="U82" s="101">
+        <v>44775</v>
+      </c>
+      <c r="V82">
+        <v>465</v>
+      </c>
+      <c r="W82" s="103">
+        <f t="shared" si="8"/>
+        <v>376.85714285714283</v>
+      </c>
+    </row>
+    <row r="83" spans="2:23">
       <c r="B83" t="s">
         <v>630</v>
       </c>
@@ -10246,7 +12456,7 @@
         <v>229</v>
       </c>
       <c r="O83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6616</v>
       </c>
       <c r="Q83" s="101">
@@ -10256,11 +12466,21 @@
         <v>426</v>
       </c>
       <c r="S83" s="103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>335</v>
       </c>
-    </row>
-    <row r="84" spans="2:19">
+      <c r="U83" s="101">
+        <v>44776</v>
+      </c>
+      <c r="V83">
+        <v>522</v>
+      </c>
+      <c r="W83" s="103">
+        <f t="shared" si="8"/>
+        <v>381.71428571428572</v>
+      </c>
+    </row>
+    <row r="84" spans="2:23">
       <c r="B84" t="s">
         <v>629</v>
       </c>
@@ -10283,11 +12503,21 @@
         <v>436</v>
       </c>
       <c r="S84" s="103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>354.57142857142856</v>
       </c>
-    </row>
-    <row r="85" spans="2:19">
+      <c r="U84" s="101">
+        <v>44777</v>
+      </c>
+      <c r="V84">
+        <v>487</v>
+      </c>
+      <c r="W84" s="103">
+        <f t="shared" si="8"/>
+        <v>399.71428571428572</v>
+      </c>
+    </row>
+    <row r="85" spans="2:23">
       <c r="B85" t="s">
         <v>628</v>
       </c>
@@ -10310,11 +12540,21 @@
         <v>424</v>
       </c>
       <c r="S85" s="103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>358</v>
       </c>
-    </row>
-    <row r="86" spans="2:19">
+      <c r="U85" s="101">
+        <v>44778</v>
+      </c>
+      <c r="V85">
+        <v>410</v>
+      </c>
+      <c r="W85" s="103">
+        <f t="shared" si="8"/>
+        <v>400.71428571428572</v>
+      </c>
+    </row>
+    <row r="86" spans="2:23">
       <c r="B86" t="s">
         <v>627</v>
       </c>
@@ -10337,11 +12577,21 @@
         <v>138</v>
       </c>
       <c r="S86" s="103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>354.85714285714283</v>
       </c>
-    </row>
-    <row r="87" spans="2:19">
+      <c r="U86" s="101">
+        <v>44779</v>
+      </c>
+      <c r="V86">
+        <v>185</v>
+      </c>
+      <c r="W86" s="103">
+        <f t="shared" si="8"/>
+        <v>393.85714285714283</v>
+      </c>
+    </row>
+    <row r="87" spans="2:23">
       <c r="B87" t="s">
         <v>626</v>
       </c>
@@ -10364,11 +12614,21 @@
         <v>78</v>
       </c>
       <c r="S87" s="103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>344.71428571428572</v>
       </c>
-    </row>
-    <row r="88" spans="2:19">
+      <c r="U87" s="101">
+        <v>44780</v>
+      </c>
+      <c r="V87">
+        <v>142</v>
+      </c>
+      <c r="W87" s="103">
+        <f t="shared" si="8"/>
+        <v>390.57142857142856</v>
+      </c>
+    </row>
+    <row r="88" spans="2:23">
       <c r="B88" t="s">
         <v>625</v>
       </c>
@@ -10391,11 +12651,21 @@
         <v>754</v>
       </c>
       <c r="S88" s="103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>384.85714285714283</v>
       </c>
-    </row>
-    <row r="89" spans="2:19">
+      <c r="U88" s="101">
+        <v>44781</v>
+      </c>
+      <c r="V88">
+        <v>767</v>
+      </c>
+      <c r="W88" s="103">
+        <f t="shared" si="8"/>
+        <v>425.42857142857144</v>
+      </c>
+    </row>
+    <row r="89" spans="2:23">
       <c r="B89" t="s">
         <v>624</v>
       </c>
@@ -10418,11 +12688,21 @@
         <v>409</v>
       </c>
       <c r="S89" s="103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>380.71428571428572</v>
       </c>
-    </row>
-    <row r="90" spans="2:19">
+      <c r="U89" s="101">
+        <v>44782</v>
+      </c>
+      <c r="V89">
+        <v>465</v>
+      </c>
+      <c r="W89" s="103">
+        <f t="shared" si="8"/>
+        <v>425.42857142857144</v>
+      </c>
+    </row>
+    <row r="90" spans="2:23">
       <c r="B90" t="s">
         <v>623</v>
       </c>
@@ -10445,11 +12725,21 @@
         <v>366</v>
       </c>
       <c r="S90" s="103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>372.14285714285717</v>
       </c>
-    </row>
-    <row r="91" spans="2:19">
+      <c r="U90" s="101">
+        <v>44783</v>
+      </c>
+      <c r="V90">
+        <v>655</v>
+      </c>
+      <c r="W90" s="103">
+        <f t="shared" si="8"/>
+        <v>444.42857142857144</v>
+      </c>
+    </row>
+    <row r="91" spans="2:23">
       <c r="B91" s="104" t="s">
         <v>705</v>
       </c>
@@ -10472,11 +12762,21 @@
         <v>314</v>
       </c>
       <c r="S91" s="103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>354.71428571428572</v>
       </c>
-    </row>
-    <row r="92" spans="2:19">
+      <c r="U91" s="101">
+        <v>44784</v>
+      </c>
+      <c r="V91">
+        <v>402</v>
+      </c>
+      <c r="W91" s="103">
+        <f t="shared" si="8"/>
+        <v>432.28571428571428</v>
+      </c>
+    </row>
+    <row r="92" spans="2:23">
       <c r="B92" t="s">
         <v>622</v>
       </c>
@@ -10499,11 +12799,21 @@
         <v>280</v>
       </c>
       <c r="S92" s="103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>334.14285714285717</v>
       </c>
-    </row>
-    <row r="93" spans="2:19">
+      <c r="U92" s="101">
+        <v>44785</v>
+      </c>
+      <c r="V92">
+        <v>378</v>
+      </c>
+      <c r="W92" s="103">
+        <f t="shared" si="8"/>
+        <v>427.71428571428572</v>
+      </c>
+    </row>
+    <row r="93" spans="2:23">
       <c r="F93">
         <v>5</v>
       </c>
@@ -10514,11 +12824,21 @@
         <v>39</v>
       </c>
       <c r="S93" s="103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>320</v>
       </c>
-    </row>
-    <row r="94" spans="2:19">
+      <c r="U93" s="101">
+        <v>44786</v>
+      </c>
+      <c r="V93">
+        <v>193</v>
+      </c>
+      <c r="W93" s="103">
+        <f t="shared" si="8"/>
+        <v>428.85714285714283</v>
+      </c>
+    </row>
+    <row r="94" spans="2:23">
       <c r="F94">
         <v>1</v>
       </c>
@@ -10529,11 +12849,21 @@
         <v>10</v>
       </c>
       <c r="S94" s="103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>310.28571428571428</v>
       </c>
-    </row>
-    <row r="95" spans="2:19">
+      <c r="U94" s="101">
+        <v>44787</v>
+      </c>
+      <c r="V94">
+        <v>106</v>
+      </c>
+      <c r="W94" s="103">
+        <f t="shared" si="8"/>
+        <v>423.71428571428572</v>
+      </c>
+    </row>
+    <row r="95" spans="2:23">
       <c r="F95">
         <v>16</v>
       </c>
@@ -10544,11 +12874,21 @@
         <v>670</v>
       </c>
       <c r="S95" s="103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>298.28571428571428</v>
       </c>
-    </row>
-    <row r="96" spans="2:19">
+      <c r="U95" s="101">
+        <v>44788</v>
+      </c>
+      <c r="V95">
+        <v>690</v>
+      </c>
+      <c r="W95" s="103">
+        <f t="shared" si="8"/>
+        <v>412.71428571428572</v>
+      </c>
+    </row>
+    <row r="96" spans="2:23">
       <c r="F96">
         <v>3081</v>
       </c>
@@ -10559,11 +12899,21 @@
         <v>361</v>
       </c>
       <c r="S96" s="103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>291.42857142857144</v>
       </c>
-    </row>
-    <row r="97" spans="6:19">
+      <c r="U96" s="101">
+        <v>44789</v>
+      </c>
+      <c r="V96">
+        <v>334</v>
+      </c>
+      <c r="W96" s="103">
+        <f t="shared" si="8"/>
+        <v>394</v>
+      </c>
+    </row>
+    <row r="97" spans="6:23">
       <c r="F97">
         <v>15432</v>
       </c>
@@ -10577,16 +12927,109 @@
         <f>AVERAGE(R91:R97)</f>
         <v>288.71428571428572</v>
       </c>
-    </row>
-    <row r="98" spans="6:19">
+      <c r="U97" s="101">
+        <v>44790</v>
+      </c>
+      <c r="V97">
+        <v>438</v>
+      </c>
+      <c r="W97" s="103">
+        <f>AVERAGE(V91:V97)</f>
+        <v>363</v>
+      </c>
+    </row>
+    <row r="98" spans="6:23">
       <c r="F98">
         <v>2</v>
       </c>
-    </row>
-    <row r="99" spans="6:19">
+      <c r="U98" s="101">
+        <v>44791</v>
+      </c>
+      <c r="V98">
+        <v>349</v>
+      </c>
+      <c r="W98" s="103">
+        <f t="shared" ref="W98:W105" si="9">AVERAGE(V92:V98)</f>
+        <v>355.42857142857144</v>
+      </c>
+    </row>
+    <row r="99" spans="6:23">
       <c r="F99">
         <v>1</v>
       </c>
+      <c r="U99" s="101">
+        <v>44792</v>
+      </c>
+      <c r="V99">
+        <v>377</v>
+      </c>
+      <c r="W99" s="103">
+        <f t="shared" si="9"/>
+        <v>355.28571428571428</v>
+      </c>
+    </row>
+    <row r="100" spans="6:23">
+      <c r="U100" s="101">
+        <v>44793</v>
+      </c>
+      <c r="V100">
+        <v>82</v>
+      </c>
+      <c r="W100" s="103">
+        <f t="shared" si="9"/>
+        <v>339.42857142857144</v>
+      </c>
+    </row>
+    <row r="101" spans="6:23">
+      <c r="U101" s="101">
+        <v>44794</v>
+      </c>
+      <c r="V101">
+        <v>40</v>
+      </c>
+      <c r="W101" s="103">
+        <f t="shared" si="9"/>
+        <v>330</v>
+      </c>
+    </row>
+    <row r="102" spans="6:23">
+      <c r="U102" s="101">
+        <v>44795</v>
+      </c>
+      <c r="V102">
+        <v>676</v>
+      </c>
+      <c r="W102" s="103">
+        <f t="shared" si="9"/>
+        <v>328</v>
+      </c>
+    </row>
+    <row r="103" spans="6:23">
+      <c r="U103" s="101">
+        <v>44796</v>
+      </c>
+      <c r="V103">
+        <v>656</v>
+      </c>
+      <c r="W103" s="103">
+        <f t="shared" si="9"/>
+        <v>374</v>
+      </c>
+    </row>
+    <row r="104" spans="6:23">
+      <c r="U104" s="101">
+        <v>44797</v>
+      </c>
+      <c r="V104">
+        <v>182</v>
+      </c>
+      <c r="W104" s="103">
+        <f t="shared" si="9"/>
+        <v>337.42857142857144</v>
+      </c>
+    </row>
+    <row r="105" spans="6:23">
+      <c r="W105" s="103"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -19405,13 +21848,13 @@
     </row>
     <row r="25" spans="2:23">
       <c r="C25" s="32"/>
-      <c r="J25" s="109" t="s">
+      <c r="J25" s="110" t="s">
         <v>298</v>
       </c>
-      <c r="K25" s="109"/>
-      <c r="L25" s="109"/>
-      <c r="M25" s="109"/>
-      <c r="N25" s="109"/>
+      <c r="K25" s="110"/>
+      <c r="L25" s="110"/>
+      <c r="M25" s="110"/>
+      <c r="N25" s="110"/>
     </row>
     <row r="26" spans="2:23">
       <c r="C26" s="68" t="s">
@@ -20893,20 +23336,20 @@
     </row>
     <row r="330" spans="2:17">
       <c r="C330" s="32"/>
-      <c r="F330" s="109" t="s">
+      <c r="F330" s="110" t="s">
         <v>459</v>
       </c>
-      <c r="G330" s="109"/>
-      <c r="H330" s="109"/>
-      <c r="I330" s="109"/>
-      <c r="J330" s="109"/>
-      <c r="K330" s="109"/>
-      <c r="L330" s="109"/>
-      <c r="M330" s="109"/>
-      <c r="N330" s="109"/>
-      <c r="O330" s="109"/>
-      <c r="P330" s="109"/>
-      <c r="Q330" s="109"/>
+      <c r="G330" s="110"/>
+      <c r="H330" s="110"/>
+      <c r="I330" s="110"/>
+      <c r="J330" s="110"/>
+      <c r="K330" s="110"/>
+      <c r="L330" s="110"/>
+      <c r="M330" s="110"/>
+      <c r="N330" s="110"/>
+      <c r="O330" s="110"/>
+      <c r="P330" s="110"/>
+      <c r="Q330" s="110"/>
     </row>
     <row r="331" spans="2:17">
       <c r="C331" s="32" t="s">
@@ -21747,12 +24190,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21870,15 +24310,25 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B8FCBE5-DC3A-4133-9A7B-7CABB6178323}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFF1E9B8-B163-4EA4-B096-E0C9303C24CF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -21900,16 +24350,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFF1E9B8-B163-4EA4-B096-E0C9303C24CF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B8FCBE5-DC3A-4133-9A7B-7CABB6178323}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>